--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10103_TOP_Menu.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10103_TOP_Menu.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B718E482-F490-4EA7-AAEA-6167F40C8CF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B92B76-C9F5-4D9B-9051-8E11C8D979E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21795" windowHeight="8805" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="20" state="hidden" r:id="rId2"/>
-    <sheet name="1.1. TOPメニュー画面表示確認" sheetId="21" r:id="rId3"/>
-    <sheet name="1.2. 取引単体" sheetId="22" r:id="rId4"/>
+    <sheet name="1.1 Confirmation of top menu" sheetId="21" r:id="rId3"/>
+    <sheet name="1.2 Subfunction unit" sheetId="22" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1. TOPメニュー画面表示確認'!$A$10:$R$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.2. 取引単体'!$A$10:$R$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'1.1. TOPメニュー画面表示確認'!$A$1:$R$104</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.2. 取引単体'!$A$1:$R$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1 Confirmation of top menu'!$A$10:$R$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.2 Subfunction unit'!$A$10:$R$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'1.1 Confirmation of top menu'!$A$1:$R$104</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.2 Subfunction unit'!$A$1:$R$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'1.1. TOPメニュー画面表示確認'!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.2. 取引単体'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'1.1 Confirmation of top menu'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.2 Subfunction unit'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4903,6 +4905,117 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4939,9 +5052,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4981,115 +5091,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5220,8 +5222,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -6526,57 +6528,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="507" t="s">
+      <c r="A1" s="481" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="508"/>
-      <c r="C1" s="508"/>
-      <c r="D1" s="509"/>
-      <c r="E1" s="516" t="s">
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="483"/>
+      <c r="E1" s="490" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
-      <c r="L1" s="511"/>
-      <c r="M1" s="511"/>
-      <c r="N1" s="512"/>
-      <c r="O1" s="517" t="s">
+      <c r="F1" s="485"/>
+      <c r="G1" s="485"/>
+      <c r="H1" s="485"/>
+      <c r="I1" s="485"/>
+      <c r="J1" s="485"/>
+      <c r="K1" s="485"/>
+      <c r="L1" s="485"/>
+      <c r="M1" s="485"/>
+      <c r="N1" s="486"/>
+      <c r="O1" s="491" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="518"/>
-      <c r="Q1" s="518"/>
-      <c r="R1" s="519"/>
-      <c r="S1" s="526" t="s">
+      <c r="P1" s="492"/>
+      <c r="Q1" s="492"/>
+      <c r="R1" s="493"/>
+      <c r="S1" s="500" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="527"/>
-      <c r="U1" s="527"/>
-      <c r="V1" s="527"/>
-      <c r="W1" s="527"/>
-      <c r="X1" s="527"/>
-      <c r="Y1" s="527"/>
-      <c r="Z1" s="528"/>
-      <c r="AA1" s="507" t="s">
+      <c r="T1" s="501"/>
+      <c r="U1" s="501"/>
+      <c r="V1" s="501"/>
+      <c r="W1" s="501"/>
+      <c r="X1" s="501"/>
+      <c r="Y1" s="501"/>
+      <c r="Z1" s="502"/>
+      <c r="AA1" s="481" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="509"/>
-      <c r="AC1" s="535" t="str">
+      <c r="AB1" s="483"/>
+      <c r="AC1" s="509" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="536"/>
-      <c r="AE1" s="536"/>
-      <c r="AF1" s="537"/>
-      <c r="AG1" s="501">
+      <c r="AD1" s="510"/>
+      <c r="AE1" s="510"/>
+      <c r="AF1" s="511"/>
+      <c r="AG1" s="475">
         <f>IF(D8="","",D8)</f>
         <v>43657</v>
       </c>
-      <c r="AH1" s="502"/>
-      <c r="AI1" s="503"/>
+      <c r="AH1" s="476"/>
+      <c r="AI1" s="477"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6584,53 +6586,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="507" t="s">
+      <c r="A2" s="481" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="508"/>
-      <c r="C2" s="508"/>
-      <c r="D2" s="509"/>
-      <c r="E2" s="510" t="s">
+      <c r="B2" s="482"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="483"/>
+      <c r="E2" s="484" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="511"/>
-      <c r="G2" s="511"/>
-      <c r="H2" s="511"/>
-      <c r="I2" s="511"/>
-      <c r="J2" s="511"/>
-      <c r="K2" s="511"/>
-      <c r="L2" s="511"/>
-      <c r="M2" s="511"/>
-      <c r="N2" s="512"/>
-      <c r="O2" s="520"/>
-      <c r="P2" s="521"/>
-      <c r="Q2" s="521"/>
-      <c r="R2" s="522"/>
-      <c r="S2" s="529"/>
-      <c r="T2" s="530"/>
-      <c r="U2" s="530"/>
-      <c r="V2" s="530"/>
-      <c r="W2" s="530"/>
-      <c r="X2" s="530"/>
-      <c r="Y2" s="530"/>
-      <c r="Z2" s="531"/>
-      <c r="AA2" s="507" t="s">
+      <c r="F2" s="485"/>
+      <c r="G2" s="485"/>
+      <c r="H2" s="485"/>
+      <c r="I2" s="485"/>
+      <c r="J2" s="485"/>
+      <c r="K2" s="485"/>
+      <c r="L2" s="485"/>
+      <c r="M2" s="485"/>
+      <c r="N2" s="486"/>
+      <c r="O2" s="494"/>
+      <c r="P2" s="495"/>
+      <c r="Q2" s="495"/>
+      <c r="R2" s="496"/>
+      <c r="S2" s="503"/>
+      <c r="T2" s="504"/>
+      <c r="U2" s="504"/>
+      <c r="V2" s="504"/>
+      <c r="W2" s="504"/>
+      <c r="X2" s="504"/>
+      <c r="Y2" s="504"/>
+      <c r="Z2" s="505"/>
+      <c r="AA2" s="481" t="s">
         <v>112</v>
       </c>
-      <c r="AB2" s="509"/>
-      <c r="AC2" s="513" t="str">
+      <c r="AB2" s="483"/>
+      <c r="AC2" s="487" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="514"/>
-      <c r="AE2" s="514"/>
-      <c r="AF2" s="515"/>
-      <c r="AG2" s="501" t="str">
+      <c r="AD2" s="488"/>
+      <c r="AE2" s="488"/>
+      <c r="AF2" s="489"/>
+      <c r="AG2" s="475" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="502"/>
-      <c r="AI2" s="503"/>
+      <c r="AH2" s="476"/>
+      <c r="AI2" s="477"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6638,45 +6640,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="507" t="s">
+      <c r="A3" s="481" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="508"/>
-      <c r="C3" s="508"/>
-      <c r="D3" s="509"/>
-      <c r="E3" s="510" t="s">
+      <c r="B3" s="482"/>
+      <c r="C3" s="482"/>
+      <c r="D3" s="483"/>
+      <c r="E3" s="484" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="511"/>
-      <c r="G3" s="511"/>
-      <c r="H3" s="511"/>
-      <c r="I3" s="511"/>
-      <c r="J3" s="511"/>
-      <c r="K3" s="511"/>
-      <c r="L3" s="511"/>
-      <c r="M3" s="511"/>
-      <c r="N3" s="512"/>
-      <c r="O3" s="523"/>
-      <c r="P3" s="524"/>
-      <c r="Q3" s="524"/>
-      <c r="R3" s="525"/>
-      <c r="S3" s="532"/>
-      <c r="T3" s="533"/>
-      <c r="U3" s="533"/>
-      <c r="V3" s="533"/>
-      <c r="W3" s="533"/>
-      <c r="X3" s="533"/>
-      <c r="Y3" s="533"/>
-      <c r="Z3" s="534"/>
-      <c r="AA3" s="507"/>
-      <c r="AB3" s="509"/>
-      <c r="AC3" s="535"/>
-      <c r="AD3" s="536"/>
-      <c r="AE3" s="536"/>
-      <c r="AF3" s="537"/>
-      <c r="AG3" s="501"/>
-      <c r="AH3" s="502"/>
-      <c r="AI3" s="503"/>
+      <c r="F3" s="485"/>
+      <c r="G3" s="485"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="485"/>
+      <c r="K3" s="485"/>
+      <c r="L3" s="485"/>
+      <c r="M3" s="485"/>
+      <c r="N3" s="486"/>
+      <c r="O3" s="497"/>
+      <c r="P3" s="498"/>
+      <c r="Q3" s="498"/>
+      <c r="R3" s="499"/>
+      <c r="S3" s="506"/>
+      <c r="T3" s="507"/>
+      <c r="U3" s="507"/>
+      <c r="V3" s="507"/>
+      <c r="W3" s="507"/>
+      <c r="X3" s="507"/>
+      <c r="Y3" s="507"/>
+      <c r="Z3" s="508"/>
+      <c r="AA3" s="481"/>
+      <c r="AB3" s="483"/>
+      <c r="AC3" s="509"/>
+      <c r="AD3" s="510"/>
+      <c r="AE3" s="510"/>
+      <c r="AF3" s="511"/>
+      <c r="AG3" s="475"/>
+      <c r="AH3" s="476"/>
+      <c r="AI3" s="477"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -6713,1034 +6715,1190 @@
       <c r="A7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="504" t="s">
+      <c r="B7" s="478" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="505"/>
-      <c r="D7" s="504" t="s">
+      <c r="C7" s="479"/>
+      <c r="D7" s="478" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="506"/>
-      <c r="F7" s="505"/>
-      <c r="G7" s="504" t="s">
+      <c r="E7" s="480"/>
+      <c r="F7" s="479"/>
+      <c r="G7" s="478" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="506"/>
-      <c r="I7" s="505"/>
-      <c r="J7" s="504" t="s">
+      <c r="H7" s="480"/>
+      <c r="I7" s="479"/>
+      <c r="J7" s="478" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="506"/>
-      <c r="L7" s="506"/>
-      <c r="M7" s="506"/>
-      <c r="N7" s="506"/>
-      <c r="O7" s="506"/>
-      <c r="P7" s="505"/>
-      <c r="Q7" s="504" t="s">
+      <c r="K7" s="480"/>
+      <c r="L7" s="480"/>
+      <c r="M7" s="480"/>
+      <c r="N7" s="480"/>
+      <c r="O7" s="480"/>
+      <c r="P7" s="479"/>
+      <c r="Q7" s="478" t="s">
         <v>121</v>
       </c>
-      <c r="R7" s="506"/>
-      <c r="S7" s="506"/>
-      <c r="T7" s="506"/>
-      <c r="U7" s="506"/>
-      <c r="V7" s="506"/>
-      <c r="W7" s="506"/>
-      <c r="X7" s="506"/>
-      <c r="Y7" s="506"/>
-      <c r="Z7" s="506"/>
-      <c r="AA7" s="506"/>
-      <c r="AB7" s="506"/>
-      <c r="AC7" s="506"/>
-      <c r="AD7" s="506"/>
-      <c r="AE7" s="505"/>
-      <c r="AF7" s="504" t="s">
+      <c r="R7" s="480"/>
+      <c r="S7" s="480"/>
+      <c r="T7" s="480"/>
+      <c r="U7" s="480"/>
+      <c r="V7" s="480"/>
+      <c r="W7" s="480"/>
+      <c r="X7" s="480"/>
+      <c r="Y7" s="480"/>
+      <c r="Z7" s="480"/>
+      <c r="AA7" s="480"/>
+      <c r="AB7" s="480"/>
+      <c r="AC7" s="480"/>
+      <c r="AD7" s="480"/>
+      <c r="AE7" s="479"/>
+      <c r="AF7" s="478" t="s">
         <v>122</v>
       </c>
-      <c r="AG7" s="506"/>
-      <c r="AH7" s="506"/>
-      <c r="AI7" s="505"/>
+      <c r="AG7" s="480"/>
+      <c r="AH7" s="480"/>
+      <c r="AI7" s="479"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="488" t="s">
+      <c r="B8" s="524" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="489"/>
-      <c r="D8" s="490">
+      <c r="C8" s="525"/>
+      <c r="D8" s="526">
         <v>43657</v>
       </c>
-      <c r="E8" s="491"/>
-      <c r="F8" s="492"/>
-      <c r="G8" s="493" t="s">
+      <c r="E8" s="527"/>
+      <c r="F8" s="528"/>
+      <c r="G8" s="529" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="494"/>
-      <c r="I8" s="489"/>
-      <c r="J8" s="495" t="s">
+      <c r="H8" s="530"/>
+      <c r="I8" s="525"/>
+      <c r="J8" s="531" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="496"/>
-      <c r="L8" s="496"/>
-      <c r="M8" s="496"/>
-      <c r="N8" s="496"/>
-      <c r="O8" s="496"/>
-      <c r="P8" s="497"/>
-      <c r="Q8" s="498" t="s">
+      <c r="K8" s="532"/>
+      <c r="L8" s="532"/>
+      <c r="M8" s="532"/>
+      <c r="N8" s="532"/>
+      <c r="O8" s="532"/>
+      <c r="P8" s="533"/>
+      <c r="Q8" s="534" t="s">
         <v>126</v>
       </c>
-      <c r="R8" s="499"/>
-      <c r="S8" s="499"/>
-      <c r="T8" s="499"/>
-      <c r="U8" s="499"/>
-      <c r="V8" s="499"/>
-      <c r="W8" s="499"/>
-      <c r="X8" s="499"/>
-      <c r="Y8" s="499"/>
-      <c r="Z8" s="499"/>
-      <c r="AA8" s="499"/>
-      <c r="AB8" s="499"/>
-      <c r="AC8" s="499"/>
-      <c r="AD8" s="499"/>
-      <c r="AE8" s="500"/>
-      <c r="AF8" s="495" t="s">
+      <c r="R8" s="535"/>
+      <c r="S8" s="535"/>
+      <c r="T8" s="535"/>
+      <c r="U8" s="535"/>
+      <c r="V8" s="535"/>
+      <c r="W8" s="535"/>
+      <c r="X8" s="535"/>
+      <c r="Y8" s="535"/>
+      <c r="Z8" s="535"/>
+      <c r="AA8" s="535"/>
+      <c r="AB8" s="535"/>
+      <c r="AC8" s="535"/>
+      <c r="AD8" s="535"/>
+      <c r="AE8" s="536"/>
+      <c r="AF8" s="531" t="s">
         <v>127</v>
       </c>
-      <c r="AG8" s="496"/>
-      <c r="AH8" s="496"/>
-      <c r="AI8" s="497"/>
+      <c r="AG8" s="532"/>
+      <c r="AH8" s="532"/>
+      <c r="AI8" s="533"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="475"/>
-      <c r="C9" s="476"/>
-      <c r="D9" s="477"/>
-      <c r="E9" s="478"/>
-      <c r="F9" s="479"/>
-      <c r="G9" s="477"/>
-      <c r="H9" s="480"/>
-      <c r="I9" s="476"/>
-      <c r="J9" s="481"/>
-      <c r="K9" s="482"/>
-      <c r="L9" s="482"/>
-      <c r="M9" s="482"/>
-      <c r="N9" s="482"/>
-      <c r="O9" s="482"/>
-      <c r="P9" s="483"/>
-      <c r="Q9" s="484"/>
-      <c r="R9" s="485"/>
-      <c r="S9" s="485"/>
-      <c r="T9" s="485"/>
-      <c r="U9" s="485"/>
-      <c r="V9" s="485"/>
-      <c r="W9" s="485"/>
-      <c r="X9" s="485"/>
-      <c r="Y9" s="485"/>
-      <c r="Z9" s="485"/>
-      <c r="AA9" s="485"/>
-      <c r="AB9" s="485"/>
-      <c r="AC9" s="485"/>
-      <c r="AD9" s="485"/>
-      <c r="AE9" s="486"/>
-      <c r="AF9" s="481"/>
-      <c r="AG9" s="482"/>
-      <c r="AH9" s="482"/>
-      <c r="AI9" s="483"/>
+      <c r="B9" s="512"/>
+      <c r="C9" s="513"/>
+      <c r="D9" s="514"/>
+      <c r="E9" s="515"/>
+      <c r="F9" s="516"/>
+      <c r="G9" s="514"/>
+      <c r="H9" s="517"/>
+      <c r="I9" s="513"/>
+      <c r="J9" s="518"/>
+      <c r="K9" s="519"/>
+      <c r="L9" s="519"/>
+      <c r="M9" s="519"/>
+      <c r="N9" s="519"/>
+      <c r="O9" s="519"/>
+      <c r="P9" s="520"/>
+      <c r="Q9" s="521"/>
+      <c r="R9" s="522"/>
+      <c r="S9" s="522"/>
+      <c r="T9" s="522"/>
+      <c r="U9" s="522"/>
+      <c r="V9" s="522"/>
+      <c r="W9" s="522"/>
+      <c r="X9" s="522"/>
+      <c r="Y9" s="522"/>
+      <c r="Z9" s="522"/>
+      <c r="AA9" s="522"/>
+      <c r="AB9" s="522"/>
+      <c r="AC9" s="522"/>
+      <c r="AD9" s="522"/>
+      <c r="AE9" s="523"/>
+      <c r="AF9" s="518"/>
+      <c r="AG9" s="519"/>
+      <c r="AH9" s="519"/>
+      <c r="AI9" s="520"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="475"/>
-      <c r="C10" s="476"/>
-      <c r="D10" s="477"/>
-      <c r="E10" s="478"/>
-      <c r="F10" s="479"/>
-      <c r="G10" s="475"/>
-      <c r="H10" s="480"/>
-      <c r="I10" s="476"/>
-      <c r="J10" s="481"/>
-      <c r="K10" s="482"/>
-      <c r="L10" s="482"/>
-      <c r="M10" s="482"/>
-      <c r="N10" s="482"/>
-      <c r="O10" s="482"/>
-      <c r="P10" s="483"/>
-      <c r="Q10" s="484"/>
-      <c r="R10" s="485"/>
-      <c r="S10" s="485"/>
-      <c r="T10" s="485"/>
-      <c r="U10" s="485"/>
-      <c r="V10" s="485"/>
-      <c r="W10" s="485"/>
-      <c r="X10" s="485"/>
-      <c r="Y10" s="485"/>
-      <c r="Z10" s="485"/>
-      <c r="AA10" s="485"/>
-      <c r="AB10" s="485"/>
-      <c r="AC10" s="485"/>
-      <c r="AD10" s="485"/>
-      <c r="AE10" s="486"/>
-      <c r="AF10" s="481"/>
-      <c r="AG10" s="482"/>
-      <c r="AH10" s="482"/>
-      <c r="AI10" s="483"/>
+      <c r="B10" s="512"/>
+      <c r="C10" s="513"/>
+      <c r="D10" s="514"/>
+      <c r="E10" s="515"/>
+      <c r="F10" s="516"/>
+      <c r="G10" s="512"/>
+      <c r="H10" s="517"/>
+      <c r="I10" s="513"/>
+      <c r="J10" s="518"/>
+      <c r="K10" s="519"/>
+      <c r="L10" s="519"/>
+      <c r="M10" s="519"/>
+      <c r="N10" s="519"/>
+      <c r="O10" s="519"/>
+      <c r="P10" s="520"/>
+      <c r="Q10" s="521"/>
+      <c r="R10" s="522"/>
+      <c r="S10" s="522"/>
+      <c r="T10" s="522"/>
+      <c r="U10" s="522"/>
+      <c r="V10" s="522"/>
+      <c r="W10" s="522"/>
+      <c r="X10" s="522"/>
+      <c r="Y10" s="522"/>
+      <c r="Z10" s="522"/>
+      <c r="AA10" s="522"/>
+      <c r="AB10" s="522"/>
+      <c r="AC10" s="522"/>
+      <c r="AD10" s="522"/>
+      <c r="AE10" s="523"/>
+      <c r="AF10" s="518"/>
+      <c r="AG10" s="519"/>
+      <c r="AH10" s="519"/>
+      <c r="AI10" s="520"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="475"/>
-      <c r="C11" s="476"/>
-      <c r="D11" s="477"/>
-      <c r="E11" s="478"/>
-      <c r="F11" s="479"/>
-      <c r="G11" s="475"/>
-      <c r="H11" s="480"/>
-      <c r="I11" s="476"/>
-      <c r="J11" s="481"/>
-      <c r="K11" s="482"/>
-      <c r="L11" s="482"/>
-      <c r="M11" s="482"/>
-      <c r="N11" s="482"/>
-      <c r="O11" s="482"/>
-      <c r="P11" s="483"/>
-      <c r="Q11" s="484"/>
-      <c r="R11" s="485"/>
-      <c r="S11" s="485"/>
-      <c r="T11" s="485"/>
-      <c r="U11" s="485"/>
-      <c r="V11" s="485"/>
-      <c r="W11" s="485"/>
-      <c r="X11" s="485"/>
-      <c r="Y11" s="485"/>
-      <c r="Z11" s="485"/>
-      <c r="AA11" s="485"/>
-      <c r="AB11" s="485"/>
-      <c r="AC11" s="485"/>
-      <c r="AD11" s="485"/>
-      <c r="AE11" s="486"/>
-      <c r="AF11" s="481"/>
-      <c r="AG11" s="482"/>
-      <c r="AH11" s="482"/>
-      <c r="AI11" s="483"/>
+      <c r="B11" s="512"/>
+      <c r="C11" s="513"/>
+      <c r="D11" s="514"/>
+      <c r="E11" s="515"/>
+      <c r="F11" s="516"/>
+      <c r="G11" s="512"/>
+      <c r="H11" s="517"/>
+      <c r="I11" s="513"/>
+      <c r="J11" s="518"/>
+      <c r="K11" s="519"/>
+      <c r="L11" s="519"/>
+      <c r="M11" s="519"/>
+      <c r="N11" s="519"/>
+      <c r="O11" s="519"/>
+      <c r="P11" s="520"/>
+      <c r="Q11" s="521"/>
+      <c r="R11" s="522"/>
+      <c r="S11" s="522"/>
+      <c r="T11" s="522"/>
+      <c r="U11" s="522"/>
+      <c r="V11" s="522"/>
+      <c r="W11" s="522"/>
+      <c r="X11" s="522"/>
+      <c r="Y11" s="522"/>
+      <c r="Z11" s="522"/>
+      <c r="AA11" s="522"/>
+      <c r="AB11" s="522"/>
+      <c r="AC11" s="522"/>
+      <c r="AD11" s="522"/>
+      <c r="AE11" s="523"/>
+      <c r="AF11" s="518"/>
+      <c r="AG11" s="519"/>
+      <c r="AH11" s="519"/>
+      <c r="AI11" s="520"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="475"/>
-      <c r="C12" s="476"/>
-      <c r="D12" s="477"/>
-      <c r="E12" s="478"/>
-      <c r="F12" s="479"/>
-      <c r="G12" s="475"/>
-      <c r="H12" s="480"/>
-      <c r="I12" s="476"/>
-      <c r="J12" s="481"/>
-      <c r="K12" s="482"/>
-      <c r="L12" s="482"/>
-      <c r="M12" s="482"/>
-      <c r="N12" s="482"/>
-      <c r="O12" s="482"/>
-      <c r="P12" s="483"/>
-      <c r="Q12" s="484"/>
-      <c r="R12" s="485"/>
-      <c r="S12" s="485"/>
-      <c r="T12" s="485"/>
-      <c r="U12" s="485"/>
-      <c r="V12" s="485"/>
-      <c r="W12" s="485"/>
-      <c r="X12" s="485"/>
-      <c r="Y12" s="485"/>
-      <c r="Z12" s="485"/>
-      <c r="AA12" s="485"/>
-      <c r="AB12" s="485"/>
-      <c r="AC12" s="485"/>
-      <c r="AD12" s="485"/>
-      <c r="AE12" s="486"/>
-      <c r="AF12" s="481"/>
-      <c r="AG12" s="482"/>
-      <c r="AH12" s="482"/>
-      <c r="AI12" s="483"/>
+      <c r="B12" s="512"/>
+      <c r="C12" s="513"/>
+      <c r="D12" s="514"/>
+      <c r="E12" s="515"/>
+      <c r="F12" s="516"/>
+      <c r="G12" s="512"/>
+      <c r="H12" s="517"/>
+      <c r="I12" s="513"/>
+      <c r="J12" s="518"/>
+      <c r="K12" s="519"/>
+      <c r="L12" s="519"/>
+      <c r="M12" s="519"/>
+      <c r="N12" s="519"/>
+      <c r="O12" s="519"/>
+      <c r="P12" s="520"/>
+      <c r="Q12" s="521"/>
+      <c r="R12" s="522"/>
+      <c r="S12" s="522"/>
+      <c r="T12" s="522"/>
+      <c r="U12" s="522"/>
+      <c r="V12" s="522"/>
+      <c r="W12" s="522"/>
+      <c r="X12" s="522"/>
+      <c r="Y12" s="522"/>
+      <c r="Z12" s="522"/>
+      <c r="AA12" s="522"/>
+      <c r="AB12" s="522"/>
+      <c r="AC12" s="522"/>
+      <c r="AD12" s="522"/>
+      <c r="AE12" s="523"/>
+      <c r="AF12" s="518"/>
+      <c r="AG12" s="519"/>
+      <c r="AH12" s="519"/>
+      <c r="AI12" s="520"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="475"/>
-      <c r="C13" s="476"/>
-      <c r="D13" s="477"/>
-      <c r="E13" s="478"/>
-      <c r="F13" s="479"/>
-      <c r="G13" s="475"/>
-      <c r="H13" s="480"/>
-      <c r="I13" s="476"/>
-      <c r="J13" s="481"/>
-      <c r="K13" s="482"/>
-      <c r="L13" s="482"/>
-      <c r="M13" s="482"/>
-      <c r="N13" s="482"/>
-      <c r="O13" s="482"/>
-      <c r="P13" s="483"/>
-      <c r="Q13" s="484"/>
-      <c r="R13" s="485"/>
-      <c r="S13" s="485"/>
-      <c r="T13" s="485"/>
-      <c r="U13" s="485"/>
-      <c r="V13" s="485"/>
-      <c r="W13" s="485"/>
-      <c r="X13" s="485"/>
-      <c r="Y13" s="485"/>
-      <c r="Z13" s="485"/>
-      <c r="AA13" s="485"/>
-      <c r="AB13" s="485"/>
-      <c r="AC13" s="485"/>
-      <c r="AD13" s="485"/>
-      <c r="AE13" s="486"/>
-      <c r="AF13" s="481"/>
-      <c r="AG13" s="482"/>
-      <c r="AH13" s="482"/>
-      <c r="AI13" s="483"/>
+      <c r="B13" s="512"/>
+      <c r="C13" s="513"/>
+      <c r="D13" s="514"/>
+      <c r="E13" s="515"/>
+      <c r="F13" s="516"/>
+      <c r="G13" s="512"/>
+      <c r="H13" s="517"/>
+      <c r="I13" s="513"/>
+      <c r="J13" s="518"/>
+      <c r="K13" s="519"/>
+      <c r="L13" s="519"/>
+      <c r="M13" s="519"/>
+      <c r="N13" s="519"/>
+      <c r="O13" s="519"/>
+      <c r="P13" s="520"/>
+      <c r="Q13" s="521"/>
+      <c r="R13" s="522"/>
+      <c r="S13" s="522"/>
+      <c r="T13" s="522"/>
+      <c r="U13" s="522"/>
+      <c r="V13" s="522"/>
+      <c r="W13" s="522"/>
+      <c r="X13" s="522"/>
+      <c r="Y13" s="522"/>
+      <c r="Z13" s="522"/>
+      <c r="AA13" s="522"/>
+      <c r="AB13" s="522"/>
+      <c r="AC13" s="522"/>
+      <c r="AD13" s="522"/>
+      <c r="AE13" s="523"/>
+      <c r="AF13" s="518"/>
+      <c r="AG13" s="519"/>
+      <c r="AH13" s="519"/>
+      <c r="AI13" s="520"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="475"/>
-      <c r="C14" s="476"/>
-      <c r="D14" s="477"/>
-      <c r="E14" s="478"/>
-      <c r="F14" s="479"/>
-      <c r="G14" s="475"/>
-      <c r="H14" s="480"/>
-      <c r="I14" s="476"/>
-      <c r="J14" s="481"/>
-      <c r="K14" s="482"/>
-      <c r="L14" s="482"/>
-      <c r="M14" s="482"/>
-      <c r="N14" s="482"/>
-      <c r="O14" s="482"/>
-      <c r="P14" s="483"/>
-      <c r="Q14" s="484"/>
-      <c r="R14" s="485"/>
-      <c r="S14" s="485"/>
-      <c r="T14" s="485"/>
-      <c r="U14" s="485"/>
-      <c r="V14" s="485"/>
-      <c r="W14" s="485"/>
-      <c r="X14" s="485"/>
-      <c r="Y14" s="485"/>
-      <c r="Z14" s="485"/>
-      <c r="AA14" s="485"/>
-      <c r="AB14" s="485"/>
-      <c r="AC14" s="485"/>
-      <c r="AD14" s="485"/>
-      <c r="AE14" s="486"/>
-      <c r="AF14" s="481"/>
-      <c r="AG14" s="482"/>
-      <c r="AH14" s="482"/>
-      <c r="AI14" s="483"/>
+      <c r="B14" s="512"/>
+      <c r="C14" s="513"/>
+      <c r="D14" s="514"/>
+      <c r="E14" s="515"/>
+      <c r="F14" s="516"/>
+      <c r="G14" s="512"/>
+      <c r="H14" s="517"/>
+      <c r="I14" s="513"/>
+      <c r="J14" s="518"/>
+      <c r="K14" s="519"/>
+      <c r="L14" s="519"/>
+      <c r="M14" s="519"/>
+      <c r="N14" s="519"/>
+      <c r="O14" s="519"/>
+      <c r="P14" s="520"/>
+      <c r="Q14" s="521"/>
+      <c r="R14" s="522"/>
+      <c r="S14" s="522"/>
+      <c r="T14" s="522"/>
+      <c r="U14" s="522"/>
+      <c r="V14" s="522"/>
+      <c r="W14" s="522"/>
+      <c r="X14" s="522"/>
+      <c r="Y14" s="522"/>
+      <c r="Z14" s="522"/>
+      <c r="AA14" s="522"/>
+      <c r="AB14" s="522"/>
+      <c r="AC14" s="522"/>
+      <c r="AD14" s="522"/>
+      <c r="AE14" s="523"/>
+      <c r="AF14" s="518"/>
+      <c r="AG14" s="519"/>
+      <c r="AH14" s="519"/>
+      <c r="AI14" s="520"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="475"/>
-      <c r="C15" s="476"/>
-      <c r="D15" s="477"/>
-      <c r="E15" s="478"/>
-      <c r="F15" s="479"/>
-      <c r="G15" s="475"/>
-      <c r="H15" s="480"/>
-      <c r="I15" s="476"/>
-      <c r="J15" s="481"/>
-      <c r="K15" s="482"/>
-      <c r="L15" s="482"/>
-      <c r="M15" s="482"/>
-      <c r="N15" s="482"/>
-      <c r="O15" s="482"/>
-      <c r="P15" s="483"/>
-      <c r="Q15" s="484"/>
-      <c r="R15" s="485"/>
-      <c r="S15" s="485"/>
-      <c r="T15" s="485"/>
-      <c r="U15" s="485"/>
-      <c r="V15" s="485"/>
-      <c r="W15" s="485"/>
-      <c r="X15" s="485"/>
-      <c r="Y15" s="485"/>
-      <c r="Z15" s="485"/>
-      <c r="AA15" s="485"/>
-      <c r="AB15" s="485"/>
-      <c r="AC15" s="485"/>
-      <c r="AD15" s="485"/>
-      <c r="AE15" s="486"/>
-      <c r="AF15" s="481"/>
-      <c r="AG15" s="482"/>
-      <c r="AH15" s="482"/>
-      <c r="AI15" s="483"/>
+      <c r="B15" s="512"/>
+      <c r="C15" s="513"/>
+      <c r="D15" s="514"/>
+      <c r="E15" s="515"/>
+      <c r="F15" s="516"/>
+      <c r="G15" s="512"/>
+      <c r="H15" s="517"/>
+      <c r="I15" s="513"/>
+      <c r="J15" s="518"/>
+      <c r="K15" s="519"/>
+      <c r="L15" s="519"/>
+      <c r="M15" s="519"/>
+      <c r="N15" s="519"/>
+      <c r="O15" s="519"/>
+      <c r="P15" s="520"/>
+      <c r="Q15" s="521"/>
+      <c r="R15" s="522"/>
+      <c r="S15" s="522"/>
+      <c r="T15" s="522"/>
+      <c r="U15" s="522"/>
+      <c r="V15" s="522"/>
+      <c r="W15" s="522"/>
+      <c r="X15" s="522"/>
+      <c r="Y15" s="522"/>
+      <c r="Z15" s="522"/>
+      <c r="AA15" s="522"/>
+      <c r="AB15" s="522"/>
+      <c r="AC15" s="522"/>
+      <c r="AD15" s="522"/>
+      <c r="AE15" s="523"/>
+      <c r="AF15" s="518"/>
+      <c r="AG15" s="519"/>
+      <c r="AH15" s="519"/>
+      <c r="AI15" s="520"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="475"/>
-      <c r="C16" s="476"/>
-      <c r="D16" s="477"/>
-      <c r="E16" s="478"/>
-      <c r="F16" s="479"/>
-      <c r="G16" s="475"/>
-      <c r="H16" s="480"/>
-      <c r="I16" s="476"/>
-      <c r="J16" s="481"/>
-      <c r="K16" s="482"/>
-      <c r="L16" s="482"/>
-      <c r="M16" s="482"/>
-      <c r="N16" s="482"/>
-      <c r="O16" s="482"/>
-      <c r="P16" s="483"/>
-      <c r="Q16" s="484"/>
-      <c r="R16" s="485"/>
-      <c r="S16" s="485"/>
-      <c r="T16" s="485"/>
-      <c r="U16" s="485"/>
-      <c r="V16" s="485"/>
-      <c r="W16" s="485"/>
-      <c r="X16" s="485"/>
-      <c r="Y16" s="485"/>
-      <c r="Z16" s="485"/>
-      <c r="AA16" s="485"/>
-      <c r="AB16" s="485"/>
-      <c r="AC16" s="485"/>
-      <c r="AD16" s="485"/>
-      <c r="AE16" s="486"/>
-      <c r="AF16" s="481"/>
-      <c r="AG16" s="482"/>
-      <c r="AH16" s="482"/>
-      <c r="AI16" s="483"/>
+      <c r="B16" s="512"/>
+      <c r="C16" s="513"/>
+      <c r="D16" s="514"/>
+      <c r="E16" s="515"/>
+      <c r="F16" s="516"/>
+      <c r="G16" s="512"/>
+      <c r="H16" s="517"/>
+      <c r="I16" s="513"/>
+      <c r="J16" s="518"/>
+      <c r="K16" s="519"/>
+      <c r="L16" s="519"/>
+      <c r="M16" s="519"/>
+      <c r="N16" s="519"/>
+      <c r="O16" s="519"/>
+      <c r="P16" s="520"/>
+      <c r="Q16" s="521"/>
+      <c r="R16" s="522"/>
+      <c r="S16" s="522"/>
+      <c r="T16" s="522"/>
+      <c r="U16" s="522"/>
+      <c r="V16" s="522"/>
+      <c r="W16" s="522"/>
+      <c r="X16" s="522"/>
+      <c r="Y16" s="522"/>
+      <c r="Z16" s="522"/>
+      <c r="AA16" s="522"/>
+      <c r="AB16" s="522"/>
+      <c r="AC16" s="522"/>
+      <c r="AD16" s="522"/>
+      <c r="AE16" s="523"/>
+      <c r="AF16" s="518"/>
+      <c r="AG16" s="519"/>
+      <c r="AH16" s="519"/>
+      <c r="AI16" s="520"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="475"/>
-      <c r="C17" s="476"/>
-      <c r="D17" s="477"/>
-      <c r="E17" s="478"/>
-      <c r="F17" s="479"/>
-      <c r="G17" s="475"/>
-      <c r="H17" s="480"/>
-      <c r="I17" s="476"/>
-      <c r="J17" s="481"/>
-      <c r="K17" s="482"/>
-      <c r="L17" s="482"/>
-      <c r="M17" s="482"/>
-      <c r="N17" s="482"/>
-      <c r="O17" s="482"/>
-      <c r="P17" s="483"/>
-      <c r="Q17" s="484"/>
-      <c r="R17" s="485"/>
-      <c r="S17" s="485"/>
-      <c r="T17" s="485"/>
-      <c r="U17" s="485"/>
-      <c r="V17" s="485"/>
-      <c r="W17" s="485"/>
-      <c r="X17" s="485"/>
-      <c r="Y17" s="485"/>
-      <c r="Z17" s="485"/>
-      <c r="AA17" s="485"/>
-      <c r="AB17" s="485"/>
-      <c r="AC17" s="485"/>
-      <c r="AD17" s="485"/>
-      <c r="AE17" s="486"/>
-      <c r="AF17" s="481"/>
-      <c r="AG17" s="482"/>
-      <c r="AH17" s="482"/>
-      <c r="AI17" s="483"/>
+      <c r="B17" s="512"/>
+      <c r="C17" s="513"/>
+      <c r="D17" s="514"/>
+      <c r="E17" s="515"/>
+      <c r="F17" s="516"/>
+      <c r="G17" s="512"/>
+      <c r="H17" s="517"/>
+      <c r="I17" s="513"/>
+      <c r="J17" s="518"/>
+      <c r="K17" s="519"/>
+      <c r="L17" s="519"/>
+      <c r="M17" s="519"/>
+      <c r="N17" s="519"/>
+      <c r="O17" s="519"/>
+      <c r="P17" s="520"/>
+      <c r="Q17" s="521"/>
+      <c r="R17" s="522"/>
+      <c r="S17" s="522"/>
+      <c r="T17" s="522"/>
+      <c r="U17" s="522"/>
+      <c r="V17" s="522"/>
+      <c r="W17" s="522"/>
+      <c r="X17" s="522"/>
+      <c r="Y17" s="522"/>
+      <c r="Z17" s="522"/>
+      <c r="AA17" s="522"/>
+      <c r="AB17" s="522"/>
+      <c r="AC17" s="522"/>
+      <c r="AD17" s="522"/>
+      <c r="AE17" s="523"/>
+      <c r="AF17" s="518"/>
+      <c r="AG17" s="519"/>
+      <c r="AH17" s="519"/>
+      <c r="AI17" s="520"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="475"/>
-      <c r="C18" s="476"/>
-      <c r="D18" s="477"/>
-      <c r="E18" s="478"/>
-      <c r="F18" s="479"/>
-      <c r="G18" s="475"/>
-      <c r="H18" s="480"/>
-      <c r="I18" s="476"/>
-      <c r="J18" s="481"/>
-      <c r="K18" s="482"/>
-      <c r="L18" s="482"/>
-      <c r="M18" s="482"/>
-      <c r="N18" s="482"/>
-      <c r="O18" s="482"/>
-      <c r="P18" s="483"/>
-      <c r="Q18" s="484"/>
-      <c r="R18" s="485"/>
-      <c r="S18" s="485"/>
-      <c r="T18" s="485"/>
-      <c r="U18" s="485"/>
-      <c r="V18" s="485"/>
-      <c r="W18" s="485"/>
-      <c r="X18" s="485"/>
-      <c r="Y18" s="485"/>
-      <c r="Z18" s="485"/>
-      <c r="AA18" s="485"/>
-      <c r="AB18" s="485"/>
-      <c r="AC18" s="485"/>
-      <c r="AD18" s="485"/>
-      <c r="AE18" s="486"/>
-      <c r="AF18" s="481"/>
-      <c r="AG18" s="482"/>
-      <c r="AH18" s="482"/>
-      <c r="AI18" s="483"/>
+      <c r="B18" s="512"/>
+      <c r="C18" s="513"/>
+      <c r="D18" s="514"/>
+      <c r="E18" s="515"/>
+      <c r="F18" s="516"/>
+      <c r="G18" s="512"/>
+      <c r="H18" s="517"/>
+      <c r="I18" s="513"/>
+      <c r="J18" s="518"/>
+      <c r="K18" s="519"/>
+      <c r="L18" s="519"/>
+      <c r="M18" s="519"/>
+      <c r="N18" s="519"/>
+      <c r="O18" s="519"/>
+      <c r="P18" s="520"/>
+      <c r="Q18" s="521"/>
+      <c r="R18" s="522"/>
+      <c r="S18" s="522"/>
+      <c r="T18" s="522"/>
+      <c r="U18" s="522"/>
+      <c r="V18" s="522"/>
+      <c r="W18" s="522"/>
+      <c r="X18" s="522"/>
+      <c r="Y18" s="522"/>
+      <c r="Z18" s="522"/>
+      <c r="AA18" s="522"/>
+      <c r="AB18" s="522"/>
+      <c r="AC18" s="522"/>
+      <c r="AD18" s="522"/>
+      <c r="AE18" s="523"/>
+      <c r="AF18" s="518"/>
+      <c r="AG18" s="519"/>
+      <c r="AH18" s="519"/>
+      <c r="AI18" s="520"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="475"/>
-      <c r="C19" s="476"/>
-      <c r="D19" s="477"/>
-      <c r="E19" s="478"/>
-      <c r="F19" s="479"/>
-      <c r="G19" s="475"/>
-      <c r="H19" s="480"/>
-      <c r="I19" s="476"/>
-      <c r="J19" s="481"/>
-      <c r="K19" s="482"/>
-      <c r="L19" s="482"/>
-      <c r="M19" s="482"/>
-      <c r="N19" s="482"/>
-      <c r="O19" s="482"/>
-      <c r="P19" s="483"/>
-      <c r="Q19" s="484"/>
-      <c r="R19" s="485"/>
-      <c r="S19" s="485"/>
-      <c r="T19" s="485"/>
-      <c r="U19" s="485"/>
-      <c r="V19" s="485"/>
-      <c r="W19" s="485"/>
-      <c r="X19" s="485"/>
-      <c r="Y19" s="485"/>
-      <c r="Z19" s="485"/>
-      <c r="AA19" s="485"/>
-      <c r="AB19" s="485"/>
-      <c r="AC19" s="485"/>
-      <c r="AD19" s="485"/>
-      <c r="AE19" s="486"/>
-      <c r="AF19" s="481"/>
-      <c r="AG19" s="482"/>
-      <c r="AH19" s="482"/>
-      <c r="AI19" s="483"/>
+      <c r="B19" s="512"/>
+      <c r="C19" s="513"/>
+      <c r="D19" s="514"/>
+      <c r="E19" s="515"/>
+      <c r="F19" s="516"/>
+      <c r="G19" s="512"/>
+      <c r="H19" s="517"/>
+      <c r="I19" s="513"/>
+      <c r="J19" s="518"/>
+      <c r="K19" s="519"/>
+      <c r="L19" s="519"/>
+      <c r="M19" s="519"/>
+      <c r="N19" s="519"/>
+      <c r="O19" s="519"/>
+      <c r="P19" s="520"/>
+      <c r="Q19" s="521"/>
+      <c r="R19" s="522"/>
+      <c r="S19" s="522"/>
+      <c r="T19" s="522"/>
+      <c r="U19" s="522"/>
+      <c r="V19" s="522"/>
+      <c r="W19" s="522"/>
+      <c r="X19" s="522"/>
+      <c r="Y19" s="522"/>
+      <c r="Z19" s="522"/>
+      <c r="AA19" s="522"/>
+      <c r="AB19" s="522"/>
+      <c r="AC19" s="522"/>
+      <c r="AD19" s="522"/>
+      <c r="AE19" s="523"/>
+      <c r="AF19" s="518"/>
+      <c r="AG19" s="519"/>
+      <c r="AH19" s="519"/>
+      <c r="AI19" s="520"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="475"/>
-      <c r="C20" s="476"/>
-      <c r="D20" s="477"/>
-      <c r="E20" s="478"/>
-      <c r="F20" s="479"/>
-      <c r="G20" s="475"/>
-      <c r="H20" s="480"/>
-      <c r="I20" s="476"/>
-      <c r="J20" s="481"/>
-      <c r="K20" s="482"/>
-      <c r="L20" s="482"/>
-      <c r="M20" s="482"/>
-      <c r="N20" s="482"/>
-      <c r="O20" s="482"/>
-      <c r="P20" s="483"/>
-      <c r="Q20" s="484"/>
-      <c r="R20" s="485"/>
-      <c r="S20" s="485"/>
-      <c r="T20" s="485"/>
-      <c r="U20" s="485"/>
-      <c r="V20" s="485"/>
-      <c r="W20" s="485"/>
-      <c r="X20" s="485"/>
-      <c r="Y20" s="485"/>
-      <c r="Z20" s="485"/>
-      <c r="AA20" s="485"/>
-      <c r="AB20" s="485"/>
-      <c r="AC20" s="485"/>
-      <c r="AD20" s="485"/>
-      <c r="AE20" s="486"/>
-      <c r="AF20" s="481"/>
-      <c r="AG20" s="482"/>
-      <c r="AH20" s="482"/>
-      <c r="AI20" s="483"/>
+      <c r="B20" s="512"/>
+      <c r="C20" s="513"/>
+      <c r="D20" s="514"/>
+      <c r="E20" s="515"/>
+      <c r="F20" s="516"/>
+      <c r="G20" s="512"/>
+      <c r="H20" s="517"/>
+      <c r="I20" s="513"/>
+      <c r="J20" s="518"/>
+      <c r="K20" s="519"/>
+      <c r="L20" s="519"/>
+      <c r="M20" s="519"/>
+      <c r="N20" s="519"/>
+      <c r="O20" s="519"/>
+      <c r="P20" s="520"/>
+      <c r="Q20" s="521"/>
+      <c r="R20" s="522"/>
+      <c r="S20" s="522"/>
+      <c r="T20" s="522"/>
+      <c r="U20" s="522"/>
+      <c r="V20" s="522"/>
+      <c r="W20" s="522"/>
+      <c r="X20" s="522"/>
+      <c r="Y20" s="522"/>
+      <c r="Z20" s="522"/>
+      <c r="AA20" s="522"/>
+      <c r="AB20" s="522"/>
+      <c r="AC20" s="522"/>
+      <c r="AD20" s="522"/>
+      <c r="AE20" s="523"/>
+      <c r="AF20" s="518"/>
+      <c r="AG20" s="519"/>
+      <c r="AH20" s="519"/>
+      <c r="AI20" s="520"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="475"/>
-      <c r="C21" s="476"/>
-      <c r="D21" s="477"/>
-      <c r="E21" s="478"/>
-      <c r="F21" s="479"/>
-      <c r="G21" s="475"/>
-      <c r="H21" s="480"/>
-      <c r="I21" s="476"/>
-      <c r="J21" s="481"/>
-      <c r="K21" s="482"/>
-      <c r="L21" s="482"/>
-      <c r="M21" s="482"/>
-      <c r="N21" s="482"/>
-      <c r="O21" s="482"/>
-      <c r="P21" s="483"/>
-      <c r="Q21" s="484"/>
-      <c r="R21" s="485"/>
-      <c r="S21" s="485"/>
-      <c r="T21" s="485"/>
-      <c r="U21" s="485"/>
-      <c r="V21" s="485"/>
-      <c r="W21" s="485"/>
-      <c r="X21" s="485"/>
-      <c r="Y21" s="485"/>
-      <c r="Z21" s="485"/>
-      <c r="AA21" s="485"/>
-      <c r="AB21" s="485"/>
-      <c r="AC21" s="485"/>
-      <c r="AD21" s="485"/>
-      <c r="AE21" s="486"/>
-      <c r="AF21" s="481"/>
-      <c r="AG21" s="482"/>
-      <c r="AH21" s="482"/>
-      <c r="AI21" s="483"/>
+      <c r="B21" s="512"/>
+      <c r="C21" s="513"/>
+      <c r="D21" s="514"/>
+      <c r="E21" s="515"/>
+      <c r="F21" s="516"/>
+      <c r="G21" s="512"/>
+      <c r="H21" s="517"/>
+      <c r="I21" s="513"/>
+      <c r="J21" s="518"/>
+      <c r="K21" s="519"/>
+      <c r="L21" s="519"/>
+      <c r="M21" s="519"/>
+      <c r="N21" s="519"/>
+      <c r="O21" s="519"/>
+      <c r="P21" s="520"/>
+      <c r="Q21" s="521"/>
+      <c r="R21" s="522"/>
+      <c r="S21" s="522"/>
+      <c r="T21" s="522"/>
+      <c r="U21" s="522"/>
+      <c r="V21" s="522"/>
+      <c r="W21" s="522"/>
+      <c r="X21" s="522"/>
+      <c r="Y21" s="522"/>
+      <c r="Z21" s="522"/>
+      <c r="AA21" s="522"/>
+      <c r="AB21" s="522"/>
+      <c r="AC21" s="522"/>
+      <c r="AD21" s="522"/>
+      <c r="AE21" s="523"/>
+      <c r="AF21" s="518"/>
+      <c r="AG21" s="519"/>
+      <c r="AH21" s="519"/>
+      <c r="AI21" s="520"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="475"/>
-      <c r="C22" s="476"/>
-      <c r="D22" s="477"/>
-      <c r="E22" s="478"/>
-      <c r="F22" s="479"/>
-      <c r="G22" s="475"/>
-      <c r="H22" s="480"/>
-      <c r="I22" s="476"/>
-      <c r="J22" s="481"/>
-      <c r="K22" s="482"/>
-      <c r="L22" s="482"/>
-      <c r="M22" s="482"/>
-      <c r="N22" s="482"/>
-      <c r="O22" s="482"/>
-      <c r="P22" s="483"/>
-      <c r="Q22" s="484"/>
-      <c r="R22" s="485"/>
-      <c r="S22" s="485"/>
-      <c r="T22" s="485"/>
-      <c r="U22" s="485"/>
-      <c r="V22" s="485"/>
-      <c r="W22" s="485"/>
-      <c r="X22" s="485"/>
-      <c r="Y22" s="485"/>
-      <c r="Z22" s="485"/>
-      <c r="AA22" s="485"/>
-      <c r="AB22" s="485"/>
-      <c r="AC22" s="485"/>
-      <c r="AD22" s="485"/>
-      <c r="AE22" s="486"/>
-      <c r="AF22" s="481"/>
-      <c r="AG22" s="482"/>
-      <c r="AH22" s="482"/>
-      <c r="AI22" s="483"/>
+      <c r="B22" s="512"/>
+      <c r="C22" s="513"/>
+      <c r="D22" s="514"/>
+      <c r="E22" s="515"/>
+      <c r="F22" s="516"/>
+      <c r="G22" s="512"/>
+      <c r="H22" s="517"/>
+      <c r="I22" s="513"/>
+      <c r="J22" s="518"/>
+      <c r="K22" s="519"/>
+      <c r="L22" s="519"/>
+      <c r="M22" s="519"/>
+      <c r="N22" s="519"/>
+      <c r="O22" s="519"/>
+      <c r="P22" s="520"/>
+      <c r="Q22" s="521"/>
+      <c r="R22" s="522"/>
+      <c r="S22" s="522"/>
+      <c r="T22" s="522"/>
+      <c r="U22" s="522"/>
+      <c r="V22" s="522"/>
+      <c r="W22" s="522"/>
+      <c r="X22" s="522"/>
+      <c r="Y22" s="522"/>
+      <c r="Z22" s="522"/>
+      <c r="AA22" s="522"/>
+      <c r="AB22" s="522"/>
+      <c r="AC22" s="522"/>
+      <c r="AD22" s="522"/>
+      <c r="AE22" s="523"/>
+      <c r="AF22" s="518"/>
+      <c r="AG22" s="519"/>
+      <c r="AH22" s="519"/>
+      <c r="AI22" s="520"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="475"/>
-      <c r="C23" s="476"/>
-      <c r="D23" s="477"/>
-      <c r="E23" s="478"/>
-      <c r="F23" s="479"/>
-      <c r="G23" s="475"/>
-      <c r="H23" s="480"/>
-      <c r="I23" s="476"/>
-      <c r="J23" s="481"/>
-      <c r="K23" s="482"/>
-      <c r="L23" s="482"/>
-      <c r="M23" s="482"/>
-      <c r="N23" s="482"/>
-      <c r="O23" s="482"/>
-      <c r="P23" s="483"/>
-      <c r="Q23" s="484"/>
-      <c r="R23" s="485"/>
-      <c r="S23" s="485"/>
-      <c r="T23" s="485"/>
-      <c r="U23" s="485"/>
-      <c r="V23" s="485"/>
-      <c r="W23" s="485"/>
-      <c r="X23" s="485"/>
-      <c r="Y23" s="485"/>
-      <c r="Z23" s="485"/>
-      <c r="AA23" s="485"/>
-      <c r="AB23" s="485"/>
-      <c r="AC23" s="485"/>
-      <c r="AD23" s="485"/>
-      <c r="AE23" s="486"/>
-      <c r="AF23" s="481"/>
-      <c r="AG23" s="482"/>
-      <c r="AH23" s="482"/>
-      <c r="AI23" s="483"/>
+      <c r="B23" s="512"/>
+      <c r="C23" s="513"/>
+      <c r="D23" s="514"/>
+      <c r="E23" s="515"/>
+      <c r="F23" s="516"/>
+      <c r="G23" s="512"/>
+      <c r="H23" s="517"/>
+      <c r="I23" s="513"/>
+      <c r="J23" s="518"/>
+      <c r="K23" s="519"/>
+      <c r="L23" s="519"/>
+      <c r="M23" s="519"/>
+      <c r="N23" s="519"/>
+      <c r="O23" s="519"/>
+      <c r="P23" s="520"/>
+      <c r="Q23" s="521"/>
+      <c r="R23" s="522"/>
+      <c r="S23" s="522"/>
+      <c r="T23" s="522"/>
+      <c r="U23" s="522"/>
+      <c r="V23" s="522"/>
+      <c r="W23" s="522"/>
+      <c r="X23" s="522"/>
+      <c r="Y23" s="522"/>
+      <c r="Z23" s="522"/>
+      <c r="AA23" s="522"/>
+      <c r="AB23" s="522"/>
+      <c r="AC23" s="522"/>
+      <c r="AD23" s="522"/>
+      <c r="AE23" s="523"/>
+      <c r="AF23" s="518"/>
+      <c r="AG23" s="519"/>
+      <c r="AH23" s="519"/>
+      <c r="AI23" s="520"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="475"/>
-      <c r="C24" s="476"/>
-      <c r="D24" s="477"/>
-      <c r="E24" s="478"/>
-      <c r="F24" s="479"/>
-      <c r="G24" s="475"/>
-      <c r="H24" s="480"/>
-      <c r="I24" s="476"/>
-      <c r="J24" s="481"/>
-      <c r="K24" s="482"/>
-      <c r="L24" s="482"/>
-      <c r="M24" s="482"/>
-      <c r="N24" s="482"/>
-      <c r="O24" s="482"/>
-      <c r="P24" s="483"/>
-      <c r="Q24" s="484"/>
-      <c r="R24" s="485"/>
-      <c r="S24" s="485"/>
-      <c r="T24" s="485"/>
-      <c r="U24" s="485"/>
-      <c r="V24" s="485"/>
-      <c r="W24" s="485"/>
-      <c r="X24" s="485"/>
-      <c r="Y24" s="485"/>
-      <c r="Z24" s="485"/>
-      <c r="AA24" s="485"/>
-      <c r="AB24" s="485"/>
-      <c r="AC24" s="485"/>
-      <c r="AD24" s="485"/>
-      <c r="AE24" s="486"/>
-      <c r="AF24" s="481"/>
-      <c r="AG24" s="482"/>
-      <c r="AH24" s="482"/>
-      <c r="AI24" s="483"/>
+      <c r="B24" s="512"/>
+      <c r="C24" s="513"/>
+      <c r="D24" s="514"/>
+      <c r="E24" s="515"/>
+      <c r="F24" s="516"/>
+      <c r="G24" s="512"/>
+      <c r="H24" s="517"/>
+      <c r="I24" s="513"/>
+      <c r="J24" s="518"/>
+      <c r="K24" s="519"/>
+      <c r="L24" s="519"/>
+      <c r="M24" s="519"/>
+      <c r="N24" s="519"/>
+      <c r="O24" s="519"/>
+      <c r="P24" s="520"/>
+      <c r="Q24" s="521"/>
+      <c r="R24" s="522"/>
+      <c r="S24" s="522"/>
+      <c r="T24" s="522"/>
+      <c r="U24" s="522"/>
+      <c r="V24" s="522"/>
+      <c r="W24" s="522"/>
+      <c r="X24" s="522"/>
+      <c r="Y24" s="522"/>
+      <c r="Z24" s="522"/>
+      <c r="AA24" s="522"/>
+      <c r="AB24" s="522"/>
+      <c r="AC24" s="522"/>
+      <c r="AD24" s="522"/>
+      <c r="AE24" s="523"/>
+      <c r="AF24" s="518"/>
+      <c r="AG24" s="519"/>
+      <c r="AH24" s="519"/>
+      <c r="AI24" s="520"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="475"/>
-      <c r="C25" s="476"/>
-      <c r="D25" s="477"/>
-      <c r="E25" s="478"/>
-      <c r="F25" s="479"/>
-      <c r="G25" s="475"/>
-      <c r="H25" s="480"/>
-      <c r="I25" s="476"/>
-      <c r="J25" s="481"/>
-      <c r="K25" s="482"/>
-      <c r="L25" s="482"/>
-      <c r="M25" s="482"/>
-      <c r="N25" s="482"/>
-      <c r="O25" s="482"/>
-      <c r="P25" s="483"/>
-      <c r="Q25" s="484"/>
-      <c r="R25" s="485"/>
-      <c r="S25" s="485"/>
-      <c r="T25" s="485"/>
-      <c r="U25" s="485"/>
-      <c r="V25" s="485"/>
-      <c r="W25" s="485"/>
-      <c r="X25" s="485"/>
-      <c r="Y25" s="485"/>
-      <c r="Z25" s="485"/>
-      <c r="AA25" s="485"/>
-      <c r="AB25" s="485"/>
-      <c r="AC25" s="485"/>
-      <c r="AD25" s="485"/>
-      <c r="AE25" s="486"/>
-      <c r="AF25" s="481"/>
-      <c r="AG25" s="482"/>
-      <c r="AH25" s="482"/>
-      <c r="AI25" s="483"/>
+      <c r="B25" s="512"/>
+      <c r="C25" s="513"/>
+      <c r="D25" s="514"/>
+      <c r="E25" s="515"/>
+      <c r="F25" s="516"/>
+      <c r="G25" s="512"/>
+      <c r="H25" s="517"/>
+      <c r="I25" s="513"/>
+      <c r="J25" s="518"/>
+      <c r="K25" s="519"/>
+      <c r="L25" s="519"/>
+      <c r="M25" s="519"/>
+      <c r="N25" s="519"/>
+      <c r="O25" s="519"/>
+      <c r="P25" s="520"/>
+      <c r="Q25" s="521"/>
+      <c r="R25" s="522"/>
+      <c r="S25" s="522"/>
+      <c r="T25" s="522"/>
+      <c r="U25" s="522"/>
+      <c r="V25" s="522"/>
+      <c r="W25" s="522"/>
+      <c r="X25" s="522"/>
+      <c r="Y25" s="522"/>
+      <c r="Z25" s="522"/>
+      <c r="AA25" s="522"/>
+      <c r="AB25" s="522"/>
+      <c r="AC25" s="522"/>
+      <c r="AD25" s="522"/>
+      <c r="AE25" s="523"/>
+      <c r="AF25" s="518"/>
+      <c r="AG25" s="519"/>
+      <c r="AH25" s="519"/>
+      <c r="AI25" s="520"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="475"/>
-      <c r="C26" s="476"/>
-      <c r="D26" s="477"/>
-      <c r="E26" s="478"/>
-      <c r="F26" s="479"/>
-      <c r="G26" s="475"/>
-      <c r="H26" s="480"/>
-      <c r="I26" s="476"/>
-      <c r="J26" s="481"/>
-      <c r="K26" s="482"/>
-      <c r="L26" s="482"/>
-      <c r="M26" s="482"/>
-      <c r="N26" s="482"/>
-      <c r="O26" s="482"/>
-      <c r="P26" s="483"/>
-      <c r="Q26" s="484"/>
-      <c r="R26" s="485"/>
-      <c r="S26" s="485"/>
-      <c r="T26" s="485"/>
-      <c r="U26" s="485"/>
-      <c r="V26" s="485"/>
-      <c r="W26" s="485"/>
-      <c r="X26" s="485"/>
-      <c r="Y26" s="485"/>
-      <c r="Z26" s="485"/>
-      <c r="AA26" s="485"/>
-      <c r="AB26" s="485"/>
-      <c r="AC26" s="485"/>
-      <c r="AD26" s="485"/>
-      <c r="AE26" s="486"/>
-      <c r="AF26" s="481"/>
-      <c r="AG26" s="482"/>
-      <c r="AH26" s="482"/>
-      <c r="AI26" s="483"/>
+      <c r="B26" s="512"/>
+      <c r="C26" s="513"/>
+      <c r="D26" s="514"/>
+      <c r="E26" s="515"/>
+      <c r="F26" s="516"/>
+      <c r="G26" s="512"/>
+      <c r="H26" s="517"/>
+      <c r="I26" s="513"/>
+      <c r="J26" s="518"/>
+      <c r="K26" s="519"/>
+      <c r="L26" s="519"/>
+      <c r="M26" s="519"/>
+      <c r="N26" s="519"/>
+      <c r="O26" s="519"/>
+      <c r="P26" s="520"/>
+      <c r="Q26" s="521"/>
+      <c r="R26" s="522"/>
+      <c r="S26" s="522"/>
+      <c r="T26" s="522"/>
+      <c r="U26" s="522"/>
+      <c r="V26" s="522"/>
+      <c r="W26" s="522"/>
+      <c r="X26" s="522"/>
+      <c r="Y26" s="522"/>
+      <c r="Z26" s="522"/>
+      <c r="AA26" s="522"/>
+      <c r="AB26" s="522"/>
+      <c r="AC26" s="522"/>
+      <c r="AD26" s="522"/>
+      <c r="AE26" s="523"/>
+      <c r="AF26" s="518"/>
+      <c r="AG26" s="519"/>
+      <c r="AH26" s="519"/>
+      <c r="AI26" s="520"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="475"/>
-      <c r="C27" s="476"/>
-      <c r="D27" s="477"/>
-      <c r="E27" s="478"/>
-      <c r="F27" s="479"/>
-      <c r="G27" s="475"/>
-      <c r="H27" s="480"/>
-      <c r="I27" s="476"/>
-      <c r="J27" s="481"/>
-      <c r="K27" s="482"/>
-      <c r="L27" s="482"/>
-      <c r="M27" s="482"/>
-      <c r="N27" s="482"/>
-      <c r="O27" s="482"/>
-      <c r="P27" s="483"/>
-      <c r="Q27" s="484"/>
-      <c r="R27" s="485"/>
-      <c r="S27" s="485"/>
-      <c r="T27" s="485"/>
-      <c r="U27" s="485"/>
-      <c r="V27" s="485"/>
-      <c r="W27" s="485"/>
-      <c r="X27" s="485"/>
-      <c r="Y27" s="485"/>
-      <c r="Z27" s="485"/>
-      <c r="AA27" s="485"/>
-      <c r="AB27" s="485"/>
-      <c r="AC27" s="485"/>
-      <c r="AD27" s="485"/>
-      <c r="AE27" s="486"/>
-      <c r="AF27" s="481"/>
-      <c r="AG27" s="482"/>
-      <c r="AH27" s="482"/>
-      <c r="AI27" s="483"/>
+      <c r="B27" s="512"/>
+      <c r="C27" s="513"/>
+      <c r="D27" s="514"/>
+      <c r="E27" s="515"/>
+      <c r="F27" s="516"/>
+      <c r="G27" s="512"/>
+      <c r="H27" s="517"/>
+      <c r="I27" s="513"/>
+      <c r="J27" s="518"/>
+      <c r="K27" s="519"/>
+      <c r="L27" s="519"/>
+      <c r="M27" s="519"/>
+      <c r="N27" s="519"/>
+      <c r="O27" s="519"/>
+      <c r="P27" s="520"/>
+      <c r="Q27" s="521"/>
+      <c r="R27" s="522"/>
+      <c r="S27" s="522"/>
+      <c r="T27" s="522"/>
+      <c r="U27" s="522"/>
+      <c r="V27" s="522"/>
+      <c r="W27" s="522"/>
+      <c r="X27" s="522"/>
+      <c r="Y27" s="522"/>
+      <c r="Z27" s="522"/>
+      <c r="AA27" s="522"/>
+      <c r="AB27" s="522"/>
+      <c r="AC27" s="522"/>
+      <c r="AD27" s="522"/>
+      <c r="AE27" s="523"/>
+      <c r="AF27" s="518"/>
+      <c r="AG27" s="519"/>
+      <c r="AH27" s="519"/>
+      <c r="AI27" s="520"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="475"/>
-      <c r="C28" s="476"/>
-      <c r="D28" s="477"/>
-      <c r="E28" s="478"/>
-      <c r="F28" s="479"/>
-      <c r="G28" s="475"/>
-      <c r="H28" s="480"/>
-      <c r="I28" s="476"/>
-      <c r="J28" s="481"/>
-      <c r="K28" s="482"/>
-      <c r="L28" s="482"/>
-      <c r="M28" s="482"/>
-      <c r="N28" s="482"/>
-      <c r="O28" s="482"/>
-      <c r="P28" s="483"/>
-      <c r="Q28" s="484"/>
-      <c r="R28" s="485"/>
-      <c r="S28" s="485"/>
-      <c r="T28" s="485"/>
-      <c r="U28" s="485"/>
-      <c r="V28" s="485"/>
-      <c r="W28" s="485"/>
-      <c r="X28" s="485"/>
-      <c r="Y28" s="485"/>
-      <c r="Z28" s="485"/>
-      <c r="AA28" s="485"/>
-      <c r="AB28" s="485"/>
-      <c r="AC28" s="485"/>
-      <c r="AD28" s="485"/>
-      <c r="AE28" s="486"/>
-      <c r="AF28" s="481"/>
-      <c r="AG28" s="482"/>
-      <c r="AH28" s="482"/>
-      <c r="AI28" s="483"/>
+      <c r="B28" s="512"/>
+      <c r="C28" s="513"/>
+      <c r="D28" s="514"/>
+      <c r="E28" s="515"/>
+      <c r="F28" s="516"/>
+      <c r="G28" s="512"/>
+      <c r="H28" s="517"/>
+      <c r="I28" s="513"/>
+      <c r="J28" s="518"/>
+      <c r="K28" s="519"/>
+      <c r="L28" s="519"/>
+      <c r="M28" s="519"/>
+      <c r="N28" s="519"/>
+      <c r="O28" s="519"/>
+      <c r="P28" s="520"/>
+      <c r="Q28" s="521"/>
+      <c r="R28" s="522"/>
+      <c r="S28" s="522"/>
+      <c r="T28" s="522"/>
+      <c r="U28" s="522"/>
+      <c r="V28" s="522"/>
+      <c r="W28" s="522"/>
+      <c r="X28" s="522"/>
+      <c r="Y28" s="522"/>
+      <c r="Z28" s="522"/>
+      <c r="AA28" s="522"/>
+      <c r="AB28" s="522"/>
+      <c r="AC28" s="522"/>
+      <c r="AD28" s="522"/>
+      <c r="AE28" s="523"/>
+      <c r="AF28" s="518"/>
+      <c r="AG28" s="519"/>
+      <c r="AH28" s="519"/>
+      <c r="AI28" s="520"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="475"/>
-      <c r="C29" s="476"/>
-      <c r="D29" s="477"/>
-      <c r="E29" s="478"/>
-      <c r="F29" s="479"/>
-      <c r="G29" s="475"/>
-      <c r="H29" s="480"/>
-      <c r="I29" s="476"/>
-      <c r="J29" s="481"/>
-      <c r="K29" s="482"/>
-      <c r="L29" s="482"/>
-      <c r="M29" s="482"/>
-      <c r="N29" s="482"/>
-      <c r="O29" s="482"/>
-      <c r="P29" s="483"/>
-      <c r="Q29" s="484"/>
-      <c r="R29" s="485"/>
-      <c r="S29" s="485"/>
-      <c r="T29" s="485"/>
-      <c r="U29" s="485"/>
-      <c r="V29" s="485"/>
-      <c r="W29" s="485"/>
-      <c r="X29" s="485"/>
-      <c r="Y29" s="485"/>
-      <c r="Z29" s="485"/>
-      <c r="AA29" s="485"/>
-      <c r="AB29" s="485"/>
-      <c r="AC29" s="485"/>
-      <c r="AD29" s="485"/>
-      <c r="AE29" s="486"/>
-      <c r="AF29" s="481"/>
-      <c r="AG29" s="482"/>
-      <c r="AH29" s="482"/>
-      <c r="AI29" s="483"/>
+      <c r="B29" s="512"/>
+      <c r="C29" s="513"/>
+      <c r="D29" s="514"/>
+      <c r="E29" s="515"/>
+      <c r="F29" s="516"/>
+      <c r="G29" s="512"/>
+      <c r="H29" s="517"/>
+      <c r="I29" s="513"/>
+      <c r="J29" s="518"/>
+      <c r="K29" s="519"/>
+      <c r="L29" s="519"/>
+      <c r="M29" s="519"/>
+      <c r="N29" s="519"/>
+      <c r="O29" s="519"/>
+      <c r="P29" s="520"/>
+      <c r="Q29" s="521"/>
+      <c r="R29" s="522"/>
+      <c r="S29" s="522"/>
+      <c r="T29" s="522"/>
+      <c r="U29" s="522"/>
+      <c r="V29" s="522"/>
+      <c r="W29" s="522"/>
+      <c r="X29" s="522"/>
+      <c r="Y29" s="522"/>
+      <c r="Z29" s="522"/>
+      <c r="AA29" s="522"/>
+      <c r="AB29" s="522"/>
+      <c r="AC29" s="522"/>
+      <c r="AD29" s="522"/>
+      <c r="AE29" s="523"/>
+      <c r="AF29" s="518"/>
+      <c r="AG29" s="519"/>
+      <c r="AH29" s="519"/>
+      <c r="AI29" s="520"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="475"/>
-      <c r="C30" s="476"/>
-      <c r="D30" s="477"/>
-      <c r="E30" s="478"/>
-      <c r="F30" s="479"/>
-      <c r="G30" s="475"/>
-      <c r="H30" s="480"/>
-      <c r="I30" s="476"/>
-      <c r="J30" s="481"/>
-      <c r="K30" s="482"/>
-      <c r="L30" s="482"/>
-      <c r="M30" s="482"/>
-      <c r="N30" s="482"/>
-      <c r="O30" s="482"/>
-      <c r="P30" s="483"/>
-      <c r="Q30" s="484"/>
-      <c r="R30" s="485"/>
-      <c r="S30" s="485"/>
-      <c r="T30" s="485"/>
-      <c r="U30" s="485"/>
-      <c r="V30" s="485"/>
-      <c r="W30" s="485"/>
-      <c r="X30" s="485"/>
-      <c r="Y30" s="485"/>
-      <c r="Z30" s="485"/>
-      <c r="AA30" s="485"/>
-      <c r="AB30" s="485"/>
-      <c r="AC30" s="485"/>
-      <c r="AD30" s="485"/>
-      <c r="AE30" s="486"/>
-      <c r="AF30" s="481"/>
-      <c r="AG30" s="482"/>
-      <c r="AH30" s="482"/>
-      <c r="AI30" s="483"/>
+      <c r="B30" s="512"/>
+      <c r="C30" s="513"/>
+      <c r="D30" s="514"/>
+      <c r="E30" s="515"/>
+      <c r="F30" s="516"/>
+      <c r="G30" s="512"/>
+      <c r="H30" s="517"/>
+      <c r="I30" s="513"/>
+      <c r="J30" s="518"/>
+      <c r="K30" s="519"/>
+      <c r="L30" s="519"/>
+      <c r="M30" s="519"/>
+      <c r="N30" s="519"/>
+      <c r="O30" s="519"/>
+      <c r="P30" s="520"/>
+      <c r="Q30" s="521"/>
+      <c r="R30" s="522"/>
+      <c r="S30" s="522"/>
+      <c r="T30" s="522"/>
+      <c r="U30" s="522"/>
+      <c r="V30" s="522"/>
+      <c r="W30" s="522"/>
+      <c r="X30" s="522"/>
+      <c r="Y30" s="522"/>
+      <c r="Z30" s="522"/>
+      <c r="AA30" s="522"/>
+      <c r="AB30" s="522"/>
+      <c r="AC30" s="522"/>
+      <c r="AD30" s="522"/>
+      <c r="AE30" s="523"/>
+      <c r="AF30" s="518"/>
+      <c r="AG30" s="519"/>
+      <c r="AH30" s="519"/>
+      <c r="AI30" s="520"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="475"/>
-      <c r="C31" s="476"/>
-      <c r="D31" s="477"/>
-      <c r="E31" s="478"/>
-      <c r="F31" s="479"/>
-      <c r="G31" s="475"/>
-      <c r="H31" s="480"/>
-      <c r="I31" s="476"/>
-      <c r="J31" s="481"/>
-      <c r="K31" s="482"/>
-      <c r="L31" s="482"/>
-      <c r="M31" s="482"/>
-      <c r="N31" s="482"/>
-      <c r="O31" s="482"/>
-      <c r="P31" s="483"/>
-      <c r="Q31" s="484"/>
-      <c r="R31" s="485"/>
-      <c r="S31" s="485"/>
-      <c r="T31" s="485"/>
-      <c r="U31" s="485"/>
-      <c r="V31" s="485"/>
-      <c r="W31" s="485"/>
-      <c r="X31" s="485"/>
-      <c r="Y31" s="485"/>
-      <c r="Z31" s="485"/>
-      <c r="AA31" s="485"/>
-      <c r="AB31" s="485"/>
-      <c r="AC31" s="485"/>
-      <c r="AD31" s="485"/>
-      <c r="AE31" s="486"/>
-      <c r="AF31" s="481"/>
-      <c r="AG31" s="482"/>
-      <c r="AH31" s="482"/>
-      <c r="AI31" s="483"/>
+      <c r="B31" s="512"/>
+      <c r="C31" s="513"/>
+      <c r="D31" s="514"/>
+      <c r="E31" s="515"/>
+      <c r="F31" s="516"/>
+      <c r="G31" s="512"/>
+      <c r="H31" s="517"/>
+      <c r="I31" s="513"/>
+      <c r="J31" s="518"/>
+      <c r="K31" s="519"/>
+      <c r="L31" s="519"/>
+      <c r="M31" s="519"/>
+      <c r="N31" s="519"/>
+      <c r="O31" s="519"/>
+      <c r="P31" s="520"/>
+      <c r="Q31" s="521"/>
+      <c r="R31" s="522"/>
+      <c r="S31" s="522"/>
+      <c r="T31" s="522"/>
+      <c r="U31" s="522"/>
+      <c r="V31" s="522"/>
+      <c r="W31" s="522"/>
+      <c r="X31" s="522"/>
+      <c r="Y31" s="522"/>
+      <c r="Z31" s="522"/>
+      <c r="AA31" s="522"/>
+      <c r="AB31" s="522"/>
+      <c r="AC31" s="522"/>
+      <c r="AD31" s="522"/>
+      <c r="AE31" s="523"/>
+      <c r="AF31" s="518"/>
+      <c r="AG31" s="519"/>
+      <c r="AH31" s="519"/>
+      <c r="AI31" s="520"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="475"/>
-      <c r="C32" s="476"/>
-      <c r="D32" s="477"/>
-      <c r="E32" s="478"/>
-      <c r="F32" s="479"/>
-      <c r="G32" s="475"/>
-      <c r="H32" s="480"/>
-      <c r="I32" s="476"/>
-      <c r="J32" s="481"/>
-      <c r="K32" s="487"/>
-      <c r="L32" s="482"/>
-      <c r="M32" s="482"/>
-      <c r="N32" s="482"/>
-      <c r="O32" s="482"/>
-      <c r="P32" s="483"/>
-      <c r="Q32" s="484"/>
-      <c r="R32" s="485"/>
-      <c r="S32" s="485"/>
-      <c r="T32" s="485"/>
-      <c r="U32" s="485"/>
-      <c r="V32" s="485"/>
-      <c r="W32" s="485"/>
-      <c r="X32" s="485"/>
-      <c r="Y32" s="485"/>
-      <c r="Z32" s="485"/>
-      <c r="AA32" s="485"/>
-      <c r="AB32" s="485"/>
-      <c r="AC32" s="485"/>
-      <c r="AD32" s="485"/>
-      <c r="AE32" s="486"/>
-      <c r="AF32" s="481"/>
-      <c r="AG32" s="482"/>
-      <c r="AH32" s="482"/>
-      <c r="AI32" s="483"/>
+      <c r="B32" s="512"/>
+      <c r="C32" s="513"/>
+      <c r="D32" s="514"/>
+      <c r="E32" s="515"/>
+      <c r="F32" s="516"/>
+      <c r="G32" s="512"/>
+      <c r="H32" s="517"/>
+      <c r="I32" s="513"/>
+      <c r="J32" s="518"/>
+      <c r="K32" s="537"/>
+      <c r="L32" s="519"/>
+      <c r="M32" s="519"/>
+      <c r="N32" s="519"/>
+      <c r="O32" s="519"/>
+      <c r="P32" s="520"/>
+      <c r="Q32" s="521"/>
+      <c r="R32" s="522"/>
+      <c r="S32" s="522"/>
+      <c r="T32" s="522"/>
+      <c r="U32" s="522"/>
+      <c r="V32" s="522"/>
+      <c r="W32" s="522"/>
+      <c r="X32" s="522"/>
+      <c r="Y32" s="522"/>
+      <c r="Z32" s="522"/>
+      <c r="AA32" s="522"/>
+      <c r="AB32" s="522"/>
+      <c r="AC32" s="522"/>
+      <c r="AD32" s="522"/>
+      <c r="AE32" s="523"/>
+      <c r="AF32" s="518"/>
+      <c r="AG32" s="519"/>
+      <c r="AH32" s="519"/>
+      <c r="AI32" s="520"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="475"/>
-      <c r="C33" s="476"/>
-      <c r="D33" s="477"/>
-      <c r="E33" s="478"/>
-      <c r="F33" s="479"/>
-      <c r="G33" s="475"/>
-      <c r="H33" s="480"/>
-      <c r="I33" s="476"/>
-      <c r="J33" s="481"/>
-      <c r="K33" s="482"/>
-      <c r="L33" s="482"/>
-      <c r="M33" s="482"/>
-      <c r="N33" s="482"/>
-      <c r="O33" s="482"/>
-      <c r="P33" s="483"/>
-      <c r="Q33" s="484"/>
-      <c r="R33" s="485"/>
-      <c r="S33" s="485"/>
-      <c r="T33" s="485"/>
-      <c r="U33" s="485"/>
-      <c r="V33" s="485"/>
-      <c r="W33" s="485"/>
-      <c r="X33" s="485"/>
-      <c r="Y33" s="485"/>
-      <c r="Z33" s="485"/>
-      <c r="AA33" s="485"/>
-      <c r="AB33" s="485"/>
-      <c r="AC33" s="485"/>
-      <c r="AD33" s="485"/>
-      <c r="AE33" s="486"/>
-      <c r="AF33" s="481"/>
-      <c r="AG33" s="482"/>
-      <c r="AH33" s="482"/>
-      <c r="AI33" s="483"/>
+      <c r="B33" s="512"/>
+      <c r="C33" s="513"/>
+      <c r="D33" s="514"/>
+      <c r="E33" s="515"/>
+      <c r="F33" s="516"/>
+      <c r="G33" s="512"/>
+      <c r="H33" s="517"/>
+      <c r="I33" s="513"/>
+      <c r="J33" s="518"/>
+      <c r="K33" s="519"/>
+      <c r="L33" s="519"/>
+      <c r="M33" s="519"/>
+      <c r="N33" s="519"/>
+      <c r="O33" s="519"/>
+      <c r="P33" s="520"/>
+      <c r="Q33" s="521"/>
+      <c r="R33" s="522"/>
+      <c r="S33" s="522"/>
+      <c r="T33" s="522"/>
+      <c r="U33" s="522"/>
+      <c r="V33" s="522"/>
+      <c r="W33" s="522"/>
+      <c r="X33" s="522"/>
+      <c r="Y33" s="522"/>
+      <c r="Z33" s="522"/>
+      <c r="AA33" s="522"/>
+      <c r="AB33" s="522"/>
+      <c r="AC33" s="522"/>
+      <c r="AD33" s="522"/>
+      <c r="AE33" s="523"/>
+      <c r="AF33" s="518"/>
+      <c r="AG33" s="519"/>
+      <c r="AH33" s="519"/>
+      <c r="AI33" s="520"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -7764,162 +7922,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10103_TOP_Menu.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10103_TOP_Menu.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B92B76-C9F5-4D9B-9051-8E11C8D979E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A078AC-9306-4E0B-82CB-649B4BEF8FE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21795" windowHeight="8805" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3510" windowWidth="25380" windowHeight="10575" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" state="hidden" r:id="rId1"/>
@@ -3519,7 +3519,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="540">
+  <cellXfs count="541">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -4031,15 +4031,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4096,18 +4087,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4901,6 +4880,30 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5964,12 +5967,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="474">
+      <c r="I25" s="475">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43657</v>
       </c>
-      <c r="J25" s="474"/>
-      <c r="K25" s="474"/>
+      <c r="J25" s="475"/>
+      <c r="K25" s="475"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -6528,57 +6531,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="481" t="s">
+      <c r="A1" s="482" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="482"/>
-      <c r="C1" s="482"/>
-      <c r="D1" s="483"/>
-      <c r="E1" s="490" t="s">
+      <c r="B1" s="483"/>
+      <c r="C1" s="483"/>
+      <c r="D1" s="484"/>
+      <c r="E1" s="491" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="485"/>
-      <c r="G1" s="485"/>
-      <c r="H1" s="485"/>
-      <c r="I1" s="485"/>
-      <c r="J1" s="485"/>
-      <c r="K1" s="485"/>
-      <c r="L1" s="485"/>
-      <c r="M1" s="485"/>
-      <c r="N1" s="486"/>
-      <c r="O1" s="491" t="s">
+      <c r="F1" s="486"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="486"/>
+      <c r="I1" s="486"/>
+      <c r="J1" s="486"/>
+      <c r="K1" s="486"/>
+      <c r="L1" s="486"/>
+      <c r="M1" s="486"/>
+      <c r="N1" s="487"/>
+      <c r="O1" s="492" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="492"/>
-      <c r="Q1" s="492"/>
-      <c r="R1" s="493"/>
-      <c r="S1" s="500" t="s">
+      <c r="P1" s="493"/>
+      <c r="Q1" s="493"/>
+      <c r="R1" s="494"/>
+      <c r="S1" s="501" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="501"/>
-      <c r="U1" s="501"/>
-      <c r="V1" s="501"/>
-      <c r="W1" s="501"/>
-      <c r="X1" s="501"/>
-      <c r="Y1" s="501"/>
-      <c r="Z1" s="502"/>
-      <c r="AA1" s="481" t="s">
+      <c r="T1" s="502"/>
+      <c r="U1" s="502"/>
+      <c r="V1" s="502"/>
+      <c r="W1" s="502"/>
+      <c r="X1" s="502"/>
+      <c r="Y1" s="502"/>
+      <c r="Z1" s="503"/>
+      <c r="AA1" s="482" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="483"/>
-      <c r="AC1" s="509" t="str">
+      <c r="AB1" s="484"/>
+      <c r="AC1" s="510" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="510"/>
-      <c r="AE1" s="510"/>
-      <c r="AF1" s="511"/>
-      <c r="AG1" s="475">
+      <c r="AD1" s="511"/>
+      <c r="AE1" s="511"/>
+      <c r="AF1" s="512"/>
+      <c r="AG1" s="476">
         <f>IF(D8="","",D8)</f>
         <v>43657</v>
       </c>
-      <c r="AH1" s="476"/>
-      <c r="AI1" s="477"/>
+      <c r="AH1" s="477"/>
+      <c r="AI1" s="478"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6586,53 +6589,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="481" t="s">
+      <c r="A2" s="482" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="482"/>
-      <c r="C2" s="482"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="484" t="s">
+      <c r="B2" s="483"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="485" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="485"/>
-      <c r="G2" s="485"/>
-      <c r="H2" s="485"/>
-      <c r="I2" s="485"/>
-      <c r="J2" s="485"/>
-      <c r="K2" s="485"/>
-      <c r="L2" s="485"/>
-      <c r="M2" s="485"/>
-      <c r="N2" s="486"/>
-      <c r="O2" s="494"/>
-      <c r="P2" s="495"/>
-      <c r="Q2" s="495"/>
-      <c r="R2" s="496"/>
-      <c r="S2" s="503"/>
-      <c r="T2" s="504"/>
-      <c r="U2" s="504"/>
-      <c r="V2" s="504"/>
-      <c r="W2" s="504"/>
-      <c r="X2" s="504"/>
-      <c r="Y2" s="504"/>
-      <c r="Z2" s="505"/>
-      <c r="AA2" s="481" t="s">
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="486"/>
+      <c r="L2" s="486"/>
+      <c r="M2" s="486"/>
+      <c r="N2" s="487"/>
+      <c r="O2" s="495"/>
+      <c r="P2" s="496"/>
+      <c r="Q2" s="496"/>
+      <c r="R2" s="497"/>
+      <c r="S2" s="504"/>
+      <c r="T2" s="505"/>
+      <c r="U2" s="505"/>
+      <c r="V2" s="505"/>
+      <c r="W2" s="505"/>
+      <c r="X2" s="505"/>
+      <c r="Y2" s="505"/>
+      <c r="Z2" s="506"/>
+      <c r="AA2" s="482" t="s">
         <v>112</v>
       </c>
-      <c r="AB2" s="483"/>
-      <c r="AC2" s="487" t="str">
+      <c r="AB2" s="484"/>
+      <c r="AC2" s="488" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="488"/>
-      <c r="AE2" s="488"/>
-      <c r="AF2" s="489"/>
-      <c r="AG2" s="475" t="str">
+      <c r="AD2" s="489"/>
+      <c r="AE2" s="489"/>
+      <c r="AF2" s="490"/>
+      <c r="AG2" s="476" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="476"/>
-      <c r="AI2" s="477"/>
+      <c r="AH2" s="477"/>
+      <c r="AI2" s="478"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6640,45 +6643,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="481" t="s">
+      <c r="A3" s="482" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="482"/>
-      <c r="C3" s="482"/>
-      <c r="D3" s="483"/>
-      <c r="E3" s="484" t="s">
+      <c r="B3" s="483"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="485" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="485"/>
-      <c r="G3" s="485"/>
-      <c r="H3" s="485"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="485"/>
-      <c r="K3" s="485"/>
-      <c r="L3" s="485"/>
-      <c r="M3" s="485"/>
-      <c r="N3" s="486"/>
-      <c r="O3" s="497"/>
-      <c r="P3" s="498"/>
-      <c r="Q3" s="498"/>
-      <c r="R3" s="499"/>
-      <c r="S3" s="506"/>
-      <c r="T3" s="507"/>
-      <c r="U3" s="507"/>
-      <c r="V3" s="507"/>
-      <c r="W3" s="507"/>
-      <c r="X3" s="507"/>
-      <c r="Y3" s="507"/>
-      <c r="Z3" s="508"/>
-      <c r="AA3" s="481"/>
-      <c r="AB3" s="483"/>
-      <c r="AC3" s="509"/>
-      <c r="AD3" s="510"/>
-      <c r="AE3" s="510"/>
-      <c r="AF3" s="511"/>
-      <c r="AG3" s="475"/>
-      <c r="AH3" s="476"/>
-      <c r="AI3" s="477"/>
+      <c r="F3" s="486"/>
+      <c r="G3" s="486"/>
+      <c r="H3" s="486"/>
+      <c r="I3" s="486"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="486"/>
+      <c r="L3" s="486"/>
+      <c r="M3" s="486"/>
+      <c r="N3" s="487"/>
+      <c r="O3" s="498"/>
+      <c r="P3" s="499"/>
+      <c r="Q3" s="499"/>
+      <c r="R3" s="500"/>
+      <c r="S3" s="507"/>
+      <c r="T3" s="508"/>
+      <c r="U3" s="508"/>
+      <c r="V3" s="508"/>
+      <c r="W3" s="508"/>
+      <c r="X3" s="508"/>
+      <c r="Y3" s="508"/>
+      <c r="Z3" s="509"/>
+      <c r="AA3" s="482"/>
+      <c r="AB3" s="484"/>
+      <c r="AC3" s="510"/>
+      <c r="AD3" s="511"/>
+      <c r="AE3" s="511"/>
+      <c r="AF3" s="512"/>
+      <c r="AG3" s="476"/>
+      <c r="AH3" s="477"/>
+      <c r="AI3" s="478"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -6715,1028 +6718,1028 @@
       <c r="A7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="478" t="s">
+      <c r="B7" s="479" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="479"/>
-      <c r="D7" s="478" t="s">
+      <c r="C7" s="480"/>
+      <c r="D7" s="479" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="480"/>
-      <c r="F7" s="479"/>
-      <c r="G7" s="478" t="s">
+      <c r="E7" s="481"/>
+      <c r="F7" s="480"/>
+      <c r="G7" s="479" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="480"/>
-      <c r="I7" s="479"/>
-      <c r="J7" s="478" t="s">
+      <c r="H7" s="481"/>
+      <c r="I7" s="480"/>
+      <c r="J7" s="479" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="480"/>
-      <c r="L7" s="480"/>
-      <c r="M7" s="480"/>
-      <c r="N7" s="480"/>
-      <c r="O7" s="480"/>
-      <c r="P7" s="479"/>
-      <c r="Q7" s="478" t="s">
+      <c r="K7" s="481"/>
+      <c r="L7" s="481"/>
+      <c r="M7" s="481"/>
+      <c r="N7" s="481"/>
+      <c r="O7" s="481"/>
+      <c r="P7" s="480"/>
+      <c r="Q7" s="479" t="s">
         <v>121</v>
       </c>
-      <c r="R7" s="480"/>
-      <c r="S7" s="480"/>
-      <c r="T7" s="480"/>
-      <c r="U7" s="480"/>
-      <c r="V7" s="480"/>
-      <c r="W7" s="480"/>
-      <c r="X7" s="480"/>
-      <c r="Y7" s="480"/>
-      <c r="Z7" s="480"/>
-      <c r="AA7" s="480"/>
-      <c r="AB7" s="480"/>
-      <c r="AC7" s="480"/>
-      <c r="AD7" s="480"/>
-      <c r="AE7" s="479"/>
-      <c r="AF7" s="478" t="s">
+      <c r="R7" s="481"/>
+      <c r="S7" s="481"/>
+      <c r="T7" s="481"/>
+      <c r="U7" s="481"/>
+      <c r="V7" s="481"/>
+      <c r="W7" s="481"/>
+      <c r="X7" s="481"/>
+      <c r="Y7" s="481"/>
+      <c r="Z7" s="481"/>
+      <c r="AA7" s="481"/>
+      <c r="AB7" s="481"/>
+      <c r="AC7" s="481"/>
+      <c r="AD7" s="481"/>
+      <c r="AE7" s="480"/>
+      <c r="AF7" s="479" t="s">
         <v>122</v>
       </c>
-      <c r="AG7" s="480"/>
-      <c r="AH7" s="480"/>
-      <c r="AI7" s="479"/>
+      <c r="AG7" s="481"/>
+      <c r="AH7" s="481"/>
+      <c r="AI7" s="480"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="524" t="s">
+      <c r="B8" s="525" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="525"/>
-      <c r="D8" s="526">
+      <c r="C8" s="526"/>
+      <c r="D8" s="527">
         <v>43657</v>
       </c>
-      <c r="E8" s="527"/>
-      <c r="F8" s="528"/>
-      <c r="G8" s="529" t="s">
+      <c r="E8" s="528"/>
+      <c r="F8" s="529"/>
+      <c r="G8" s="530" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="530"/>
-      <c r="I8" s="525"/>
-      <c r="J8" s="531" t="s">
+      <c r="H8" s="531"/>
+      <c r="I8" s="526"/>
+      <c r="J8" s="532" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="532"/>
-      <c r="L8" s="532"/>
-      <c r="M8" s="532"/>
-      <c r="N8" s="532"/>
-      <c r="O8" s="532"/>
-      <c r="P8" s="533"/>
-      <c r="Q8" s="534" t="s">
+      <c r="K8" s="533"/>
+      <c r="L8" s="533"/>
+      <c r="M8" s="533"/>
+      <c r="N8" s="533"/>
+      <c r="O8" s="533"/>
+      <c r="P8" s="534"/>
+      <c r="Q8" s="535" t="s">
         <v>126</v>
       </c>
-      <c r="R8" s="535"/>
-      <c r="S8" s="535"/>
-      <c r="T8" s="535"/>
-      <c r="U8" s="535"/>
-      <c r="V8" s="535"/>
-      <c r="W8" s="535"/>
-      <c r="X8" s="535"/>
-      <c r="Y8" s="535"/>
-      <c r="Z8" s="535"/>
-      <c r="AA8" s="535"/>
-      <c r="AB8" s="535"/>
-      <c r="AC8" s="535"/>
-      <c r="AD8" s="535"/>
-      <c r="AE8" s="536"/>
-      <c r="AF8" s="531" t="s">
+      <c r="R8" s="536"/>
+      <c r="S8" s="536"/>
+      <c r="T8" s="536"/>
+      <c r="U8" s="536"/>
+      <c r="V8" s="536"/>
+      <c r="W8" s="536"/>
+      <c r="X8" s="536"/>
+      <c r="Y8" s="536"/>
+      <c r="Z8" s="536"/>
+      <c r="AA8" s="536"/>
+      <c r="AB8" s="536"/>
+      <c r="AC8" s="536"/>
+      <c r="AD8" s="536"/>
+      <c r="AE8" s="537"/>
+      <c r="AF8" s="532" t="s">
         <v>127</v>
       </c>
-      <c r="AG8" s="532"/>
-      <c r="AH8" s="532"/>
-      <c r="AI8" s="533"/>
+      <c r="AG8" s="533"/>
+      <c r="AH8" s="533"/>
+      <c r="AI8" s="534"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="512"/>
-      <c r="C9" s="513"/>
-      <c r="D9" s="514"/>
-      <c r="E9" s="515"/>
-      <c r="F9" s="516"/>
-      <c r="G9" s="514"/>
-      <c r="H9" s="517"/>
-      <c r="I9" s="513"/>
-      <c r="J9" s="518"/>
-      <c r="K9" s="519"/>
-      <c r="L9" s="519"/>
-      <c r="M9" s="519"/>
-      <c r="N9" s="519"/>
-      <c r="O9" s="519"/>
-      <c r="P9" s="520"/>
-      <c r="Q9" s="521"/>
-      <c r="R9" s="522"/>
-      <c r="S9" s="522"/>
-      <c r="T9" s="522"/>
-      <c r="U9" s="522"/>
-      <c r="V9" s="522"/>
-      <c r="W9" s="522"/>
-      <c r="X9" s="522"/>
-      <c r="Y9" s="522"/>
-      <c r="Z9" s="522"/>
-      <c r="AA9" s="522"/>
-      <c r="AB9" s="522"/>
-      <c r="AC9" s="522"/>
-      <c r="AD9" s="522"/>
-      <c r="AE9" s="523"/>
-      <c r="AF9" s="518"/>
-      <c r="AG9" s="519"/>
-      <c r="AH9" s="519"/>
-      <c r="AI9" s="520"/>
+      <c r="B9" s="513"/>
+      <c r="C9" s="514"/>
+      <c r="D9" s="515"/>
+      <c r="E9" s="516"/>
+      <c r="F9" s="517"/>
+      <c r="G9" s="515"/>
+      <c r="H9" s="518"/>
+      <c r="I9" s="514"/>
+      <c r="J9" s="519"/>
+      <c r="K9" s="520"/>
+      <c r="L9" s="520"/>
+      <c r="M9" s="520"/>
+      <c r="N9" s="520"/>
+      <c r="O9" s="520"/>
+      <c r="P9" s="521"/>
+      <c r="Q9" s="522"/>
+      <c r="R9" s="523"/>
+      <c r="S9" s="523"/>
+      <c r="T9" s="523"/>
+      <c r="U9" s="523"/>
+      <c r="V9" s="523"/>
+      <c r="W9" s="523"/>
+      <c r="X9" s="523"/>
+      <c r="Y9" s="523"/>
+      <c r="Z9" s="523"/>
+      <c r="AA9" s="523"/>
+      <c r="AB9" s="523"/>
+      <c r="AC9" s="523"/>
+      <c r="AD9" s="523"/>
+      <c r="AE9" s="524"/>
+      <c r="AF9" s="519"/>
+      <c r="AG9" s="520"/>
+      <c r="AH9" s="520"/>
+      <c r="AI9" s="521"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="512"/>
-      <c r="C10" s="513"/>
-      <c r="D10" s="514"/>
-      <c r="E10" s="515"/>
-      <c r="F10" s="516"/>
-      <c r="G10" s="512"/>
-      <c r="H10" s="517"/>
-      <c r="I10" s="513"/>
-      <c r="J10" s="518"/>
-      <c r="K10" s="519"/>
-      <c r="L10" s="519"/>
-      <c r="M10" s="519"/>
-      <c r="N10" s="519"/>
-      <c r="O10" s="519"/>
-      <c r="P10" s="520"/>
-      <c r="Q10" s="521"/>
-      <c r="R10" s="522"/>
-      <c r="S10" s="522"/>
-      <c r="T10" s="522"/>
-      <c r="U10" s="522"/>
-      <c r="V10" s="522"/>
-      <c r="W10" s="522"/>
-      <c r="X10" s="522"/>
-      <c r="Y10" s="522"/>
-      <c r="Z10" s="522"/>
-      <c r="AA10" s="522"/>
-      <c r="AB10" s="522"/>
-      <c r="AC10" s="522"/>
-      <c r="AD10" s="522"/>
-      <c r="AE10" s="523"/>
-      <c r="AF10" s="518"/>
-      <c r="AG10" s="519"/>
-      <c r="AH10" s="519"/>
-      <c r="AI10" s="520"/>
+      <c r="B10" s="513"/>
+      <c r="C10" s="514"/>
+      <c r="D10" s="515"/>
+      <c r="E10" s="516"/>
+      <c r="F10" s="517"/>
+      <c r="G10" s="513"/>
+      <c r="H10" s="518"/>
+      <c r="I10" s="514"/>
+      <c r="J10" s="519"/>
+      <c r="K10" s="520"/>
+      <c r="L10" s="520"/>
+      <c r="M10" s="520"/>
+      <c r="N10" s="520"/>
+      <c r="O10" s="520"/>
+      <c r="P10" s="521"/>
+      <c r="Q10" s="522"/>
+      <c r="R10" s="523"/>
+      <c r="S10" s="523"/>
+      <c r="T10" s="523"/>
+      <c r="U10" s="523"/>
+      <c r="V10" s="523"/>
+      <c r="W10" s="523"/>
+      <c r="X10" s="523"/>
+      <c r="Y10" s="523"/>
+      <c r="Z10" s="523"/>
+      <c r="AA10" s="523"/>
+      <c r="AB10" s="523"/>
+      <c r="AC10" s="523"/>
+      <c r="AD10" s="523"/>
+      <c r="AE10" s="524"/>
+      <c r="AF10" s="519"/>
+      <c r="AG10" s="520"/>
+      <c r="AH10" s="520"/>
+      <c r="AI10" s="521"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="512"/>
-      <c r="C11" s="513"/>
-      <c r="D11" s="514"/>
-      <c r="E11" s="515"/>
-      <c r="F11" s="516"/>
-      <c r="G11" s="512"/>
-      <c r="H11" s="517"/>
-      <c r="I11" s="513"/>
-      <c r="J11" s="518"/>
-      <c r="K11" s="519"/>
-      <c r="L11" s="519"/>
-      <c r="M11" s="519"/>
-      <c r="N11" s="519"/>
-      <c r="O11" s="519"/>
-      <c r="P11" s="520"/>
-      <c r="Q11" s="521"/>
-      <c r="R11" s="522"/>
-      <c r="S11" s="522"/>
-      <c r="T11" s="522"/>
-      <c r="U11" s="522"/>
-      <c r="V11" s="522"/>
-      <c r="W11" s="522"/>
-      <c r="X11" s="522"/>
-      <c r="Y11" s="522"/>
-      <c r="Z11" s="522"/>
-      <c r="AA11" s="522"/>
-      <c r="AB11" s="522"/>
-      <c r="AC11" s="522"/>
-      <c r="AD11" s="522"/>
-      <c r="AE11" s="523"/>
-      <c r="AF11" s="518"/>
-      <c r="AG11" s="519"/>
-      <c r="AH11" s="519"/>
-      <c r="AI11" s="520"/>
+      <c r="B11" s="513"/>
+      <c r="C11" s="514"/>
+      <c r="D11" s="515"/>
+      <c r="E11" s="516"/>
+      <c r="F11" s="517"/>
+      <c r="G11" s="513"/>
+      <c r="H11" s="518"/>
+      <c r="I11" s="514"/>
+      <c r="J11" s="519"/>
+      <c r="K11" s="520"/>
+      <c r="L11" s="520"/>
+      <c r="M11" s="520"/>
+      <c r="N11" s="520"/>
+      <c r="O11" s="520"/>
+      <c r="P11" s="521"/>
+      <c r="Q11" s="522"/>
+      <c r="R11" s="523"/>
+      <c r="S11" s="523"/>
+      <c r="T11" s="523"/>
+      <c r="U11" s="523"/>
+      <c r="V11" s="523"/>
+      <c r="W11" s="523"/>
+      <c r="X11" s="523"/>
+      <c r="Y11" s="523"/>
+      <c r="Z11" s="523"/>
+      <c r="AA11" s="523"/>
+      <c r="AB11" s="523"/>
+      <c r="AC11" s="523"/>
+      <c r="AD11" s="523"/>
+      <c r="AE11" s="524"/>
+      <c r="AF11" s="519"/>
+      <c r="AG11" s="520"/>
+      <c r="AH11" s="520"/>
+      <c r="AI11" s="521"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="512"/>
-      <c r="C12" s="513"/>
-      <c r="D12" s="514"/>
-      <c r="E12" s="515"/>
-      <c r="F12" s="516"/>
-      <c r="G12" s="512"/>
-      <c r="H12" s="517"/>
-      <c r="I12" s="513"/>
-      <c r="J12" s="518"/>
-      <c r="K12" s="519"/>
-      <c r="L12" s="519"/>
-      <c r="M12" s="519"/>
-      <c r="N12" s="519"/>
-      <c r="O12" s="519"/>
-      <c r="P12" s="520"/>
-      <c r="Q12" s="521"/>
-      <c r="R12" s="522"/>
-      <c r="S12" s="522"/>
-      <c r="T12" s="522"/>
-      <c r="U12" s="522"/>
-      <c r="V12" s="522"/>
-      <c r="W12" s="522"/>
-      <c r="X12" s="522"/>
-      <c r="Y12" s="522"/>
-      <c r="Z12" s="522"/>
-      <c r="AA12" s="522"/>
-      <c r="AB12" s="522"/>
-      <c r="AC12" s="522"/>
-      <c r="AD12" s="522"/>
-      <c r="AE12" s="523"/>
-      <c r="AF12" s="518"/>
-      <c r="AG12" s="519"/>
-      <c r="AH12" s="519"/>
-      <c r="AI12" s="520"/>
+      <c r="B12" s="513"/>
+      <c r="C12" s="514"/>
+      <c r="D12" s="515"/>
+      <c r="E12" s="516"/>
+      <c r="F12" s="517"/>
+      <c r="G12" s="513"/>
+      <c r="H12" s="518"/>
+      <c r="I12" s="514"/>
+      <c r="J12" s="519"/>
+      <c r="K12" s="520"/>
+      <c r="L12" s="520"/>
+      <c r="M12" s="520"/>
+      <c r="N12" s="520"/>
+      <c r="O12" s="520"/>
+      <c r="P12" s="521"/>
+      <c r="Q12" s="522"/>
+      <c r="R12" s="523"/>
+      <c r="S12" s="523"/>
+      <c r="T12" s="523"/>
+      <c r="U12" s="523"/>
+      <c r="V12" s="523"/>
+      <c r="W12" s="523"/>
+      <c r="X12" s="523"/>
+      <c r="Y12" s="523"/>
+      <c r="Z12" s="523"/>
+      <c r="AA12" s="523"/>
+      <c r="AB12" s="523"/>
+      <c r="AC12" s="523"/>
+      <c r="AD12" s="523"/>
+      <c r="AE12" s="524"/>
+      <c r="AF12" s="519"/>
+      <c r="AG12" s="520"/>
+      <c r="AH12" s="520"/>
+      <c r="AI12" s="521"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="512"/>
-      <c r="C13" s="513"/>
-      <c r="D13" s="514"/>
-      <c r="E13" s="515"/>
-      <c r="F13" s="516"/>
-      <c r="G13" s="512"/>
-      <c r="H13" s="517"/>
-      <c r="I13" s="513"/>
-      <c r="J13" s="518"/>
-      <c r="K13" s="519"/>
-      <c r="L13" s="519"/>
-      <c r="M13" s="519"/>
-      <c r="N13" s="519"/>
-      <c r="O13" s="519"/>
-      <c r="P13" s="520"/>
-      <c r="Q13" s="521"/>
-      <c r="R13" s="522"/>
-      <c r="S13" s="522"/>
-      <c r="T13" s="522"/>
-      <c r="U13" s="522"/>
-      <c r="V13" s="522"/>
-      <c r="W13" s="522"/>
-      <c r="X13" s="522"/>
-      <c r="Y13" s="522"/>
-      <c r="Z13" s="522"/>
-      <c r="AA13" s="522"/>
-      <c r="AB13" s="522"/>
-      <c r="AC13" s="522"/>
-      <c r="AD13" s="522"/>
-      <c r="AE13" s="523"/>
-      <c r="AF13" s="518"/>
-      <c r="AG13" s="519"/>
-      <c r="AH13" s="519"/>
-      <c r="AI13" s="520"/>
+      <c r="B13" s="513"/>
+      <c r="C13" s="514"/>
+      <c r="D13" s="515"/>
+      <c r="E13" s="516"/>
+      <c r="F13" s="517"/>
+      <c r="G13" s="513"/>
+      <c r="H13" s="518"/>
+      <c r="I13" s="514"/>
+      <c r="J13" s="519"/>
+      <c r="K13" s="520"/>
+      <c r="L13" s="520"/>
+      <c r="M13" s="520"/>
+      <c r="N13" s="520"/>
+      <c r="O13" s="520"/>
+      <c r="P13" s="521"/>
+      <c r="Q13" s="522"/>
+      <c r="R13" s="523"/>
+      <c r="S13" s="523"/>
+      <c r="T13" s="523"/>
+      <c r="U13" s="523"/>
+      <c r="V13" s="523"/>
+      <c r="W13" s="523"/>
+      <c r="X13" s="523"/>
+      <c r="Y13" s="523"/>
+      <c r="Z13" s="523"/>
+      <c r="AA13" s="523"/>
+      <c r="AB13" s="523"/>
+      <c r="AC13" s="523"/>
+      <c r="AD13" s="523"/>
+      <c r="AE13" s="524"/>
+      <c r="AF13" s="519"/>
+      <c r="AG13" s="520"/>
+      <c r="AH13" s="520"/>
+      <c r="AI13" s="521"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="512"/>
-      <c r="C14" s="513"/>
-      <c r="D14" s="514"/>
-      <c r="E14" s="515"/>
-      <c r="F14" s="516"/>
-      <c r="G14" s="512"/>
-      <c r="H14" s="517"/>
-      <c r="I14" s="513"/>
-      <c r="J14" s="518"/>
-      <c r="K14" s="519"/>
-      <c r="L14" s="519"/>
-      <c r="M14" s="519"/>
-      <c r="N14" s="519"/>
-      <c r="O14" s="519"/>
-      <c r="P14" s="520"/>
-      <c r="Q14" s="521"/>
-      <c r="R14" s="522"/>
-      <c r="S14" s="522"/>
-      <c r="T14" s="522"/>
-      <c r="U14" s="522"/>
-      <c r="V14" s="522"/>
-      <c r="W14" s="522"/>
-      <c r="X14" s="522"/>
-      <c r="Y14" s="522"/>
-      <c r="Z14" s="522"/>
-      <c r="AA14" s="522"/>
-      <c r="AB14" s="522"/>
-      <c r="AC14" s="522"/>
-      <c r="AD14" s="522"/>
-      <c r="AE14" s="523"/>
-      <c r="AF14" s="518"/>
-      <c r="AG14" s="519"/>
-      <c r="AH14" s="519"/>
-      <c r="AI14" s="520"/>
+      <c r="B14" s="513"/>
+      <c r="C14" s="514"/>
+      <c r="D14" s="515"/>
+      <c r="E14" s="516"/>
+      <c r="F14" s="517"/>
+      <c r="G14" s="513"/>
+      <c r="H14" s="518"/>
+      <c r="I14" s="514"/>
+      <c r="J14" s="519"/>
+      <c r="K14" s="520"/>
+      <c r="L14" s="520"/>
+      <c r="M14" s="520"/>
+      <c r="N14" s="520"/>
+      <c r="O14" s="520"/>
+      <c r="P14" s="521"/>
+      <c r="Q14" s="522"/>
+      <c r="R14" s="523"/>
+      <c r="S14" s="523"/>
+      <c r="T14" s="523"/>
+      <c r="U14" s="523"/>
+      <c r="V14" s="523"/>
+      <c r="W14" s="523"/>
+      <c r="X14" s="523"/>
+      <c r="Y14" s="523"/>
+      <c r="Z14" s="523"/>
+      <c r="AA14" s="523"/>
+      <c r="AB14" s="523"/>
+      <c r="AC14" s="523"/>
+      <c r="AD14" s="523"/>
+      <c r="AE14" s="524"/>
+      <c r="AF14" s="519"/>
+      <c r="AG14" s="520"/>
+      <c r="AH14" s="520"/>
+      <c r="AI14" s="521"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="512"/>
-      <c r="C15" s="513"/>
-      <c r="D15" s="514"/>
-      <c r="E15" s="515"/>
-      <c r="F15" s="516"/>
-      <c r="G15" s="512"/>
-      <c r="H15" s="517"/>
-      <c r="I15" s="513"/>
-      <c r="J15" s="518"/>
-      <c r="K15" s="519"/>
-      <c r="L15" s="519"/>
-      <c r="M15" s="519"/>
-      <c r="N15" s="519"/>
-      <c r="O15" s="519"/>
-      <c r="P15" s="520"/>
-      <c r="Q15" s="521"/>
-      <c r="R15" s="522"/>
-      <c r="S15" s="522"/>
-      <c r="T15" s="522"/>
-      <c r="U15" s="522"/>
-      <c r="V15" s="522"/>
-      <c r="W15" s="522"/>
-      <c r="X15" s="522"/>
-      <c r="Y15" s="522"/>
-      <c r="Z15" s="522"/>
-      <c r="AA15" s="522"/>
-      <c r="AB15" s="522"/>
-      <c r="AC15" s="522"/>
-      <c r="AD15" s="522"/>
-      <c r="AE15" s="523"/>
-      <c r="AF15" s="518"/>
-      <c r="AG15" s="519"/>
-      <c r="AH15" s="519"/>
-      <c r="AI15" s="520"/>
+      <c r="B15" s="513"/>
+      <c r="C15" s="514"/>
+      <c r="D15" s="515"/>
+      <c r="E15" s="516"/>
+      <c r="F15" s="517"/>
+      <c r="G15" s="513"/>
+      <c r="H15" s="518"/>
+      <c r="I15" s="514"/>
+      <c r="J15" s="519"/>
+      <c r="K15" s="520"/>
+      <c r="L15" s="520"/>
+      <c r="M15" s="520"/>
+      <c r="N15" s="520"/>
+      <c r="O15" s="520"/>
+      <c r="P15" s="521"/>
+      <c r="Q15" s="522"/>
+      <c r="R15" s="523"/>
+      <c r="S15" s="523"/>
+      <c r="T15" s="523"/>
+      <c r="U15" s="523"/>
+      <c r="V15" s="523"/>
+      <c r="W15" s="523"/>
+      <c r="X15" s="523"/>
+      <c r="Y15" s="523"/>
+      <c r="Z15" s="523"/>
+      <c r="AA15" s="523"/>
+      <c r="AB15" s="523"/>
+      <c r="AC15" s="523"/>
+      <c r="AD15" s="523"/>
+      <c r="AE15" s="524"/>
+      <c r="AF15" s="519"/>
+      <c r="AG15" s="520"/>
+      <c r="AH15" s="520"/>
+      <c r="AI15" s="521"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="512"/>
-      <c r="C16" s="513"/>
-      <c r="D16" s="514"/>
-      <c r="E16" s="515"/>
-      <c r="F16" s="516"/>
-      <c r="G16" s="512"/>
-      <c r="H16" s="517"/>
-      <c r="I16" s="513"/>
-      <c r="J16" s="518"/>
-      <c r="K16" s="519"/>
-      <c r="L16" s="519"/>
-      <c r="M16" s="519"/>
-      <c r="N16" s="519"/>
-      <c r="O16" s="519"/>
-      <c r="P16" s="520"/>
-      <c r="Q16" s="521"/>
-      <c r="R16" s="522"/>
-      <c r="S16" s="522"/>
-      <c r="T16" s="522"/>
-      <c r="U16" s="522"/>
-      <c r="V16" s="522"/>
-      <c r="W16" s="522"/>
-      <c r="X16" s="522"/>
-      <c r="Y16" s="522"/>
-      <c r="Z16" s="522"/>
-      <c r="AA16" s="522"/>
-      <c r="AB16" s="522"/>
-      <c r="AC16" s="522"/>
-      <c r="AD16" s="522"/>
-      <c r="AE16" s="523"/>
-      <c r="AF16" s="518"/>
-      <c r="AG16" s="519"/>
-      <c r="AH16" s="519"/>
-      <c r="AI16" s="520"/>
+      <c r="B16" s="513"/>
+      <c r="C16" s="514"/>
+      <c r="D16" s="515"/>
+      <c r="E16" s="516"/>
+      <c r="F16" s="517"/>
+      <c r="G16" s="513"/>
+      <c r="H16" s="518"/>
+      <c r="I16" s="514"/>
+      <c r="J16" s="519"/>
+      <c r="K16" s="520"/>
+      <c r="L16" s="520"/>
+      <c r="M16" s="520"/>
+      <c r="N16" s="520"/>
+      <c r="O16" s="520"/>
+      <c r="P16" s="521"/>
+      <c r="Q16" s="522"/>
+      <c r="R16" s="523"/>
+      <c r="S16" s="523"/>
+      <c r="T16" s="523"/>
+      <c r="U16" s="523"/>
+      <c r="V16" s="523"/>
+      <c r="W16" s="523"/>
+      <c r="X16" s="523"/>
+      <c r="Y16" s="523"/>
+      <c r="Z16" s="523"/>
+      <c r="AA16" s="523"/>
+      <c r="AB16" s="523"/>
+      <c r="AC16" s="523"/>
+      <c r="AD16" s="523"/>
+      <c r="AE16" s="524"/>
+      <c r="AF16" s="519"/>
+      <c r="AG16" s="520"/>
+      <c r="AH16" s="520"/>
+      <c r="AI16" s="521"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="512"/>
-      <c r="C17" s="513"/>
-      <c r="D17" s="514"/>
-      <c r="E17" s="515"/>
-      <c r="F17" s="516"/>
-      <c r="G17" s="512"/>
-      <c r="H17" s="517"/>
-      <c r="I17" s="513"/>
-      <c r="J17" s="518"/>
-      <c r="K17" s="519"/>
-      <c r="L17" s="519"/>
-      <c r="M17" s="519"/>
-      <c r="N17" s="519"/>
-      <c r="O17" s="519"/>
-      <c r="P17" s="520"/>
-      <c r="Q17" s="521"/>
-      <c r="R17" s="522"/>
-      <c r="S17" s="522"/>
-      <c r="T17" s="522"/>
-      <c r="U17" s="522"/>
-      <c r="V17" s="522"/>
-      <c r="W17" s="522"/>
-      <c r="X17" s="522"/>
-      <c r="Y17" s="522"/>
-      <c r="Z17" s="522"/>
-      <c r="AA17" s="522"/>
-      <c r="AB17" s="522"/>
-      <c r="AC17" s="522"/>
-      <c r="AD17" s="522"/>
-      <c r="AE17" s="523"/>
-      <c r="AF17" s="518"/>
-      <c r="AG17" s="519"/>
-      <c r="AH17" s="519"/>
-      <c r="AI17" s="520"/>
+      <c r="B17" s="513"/>
+      <c r="C17" s="514"/>
+      <c r="D17" s="515"/>
+      <c r="E17" s="516"/>
+      <c r="F17" s="517"/>
+      <c r="G17" s="513"/>
+      <c r="H17" s="518"/>
+      <c r="I17" s="514"/>
+      <c r="J17" s="519"/>
+      <c r="K17" s="520"/>
+      <c r="L17" s="520"/>
+      <c r="M17" s="520"/>
+      <c r="N17" s="520"/>
+      <c r="O17" s="520"/>
+      <c r="P17" s="521"/>
+      <c r="Q17" s="522"/>
+      <c r="R17" s="523"/>
+      <c r="S17" s="523"/>
+      <c r="T17" s="523"/>
+      <c r="U17" s="523"/>
+      <c r="V17" s="523"/>
+      <c r="W17" s="523"/>
+      <c r="X17" s="523"/>
+      <c r="Y17" s="523"/>
+      <c r="Z17" s="523"/>
+      <c r="AA17" s="523"/>
+      <c r="AB17" s="523"/>
+      <c r="AC17" s="523"/>
+      <c r="AD17" s="523"/>
+      <c r="AE17" s="524"/>
+      <c r="AF17" s="519"/>
+      <c r="AG17" s="520"/>
+      <c r="AH17" s="520"/>
+      <c r="AI17" s="521"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="512"/>
-      <c r="C18" s="513"/>
-      <c r="D18" s="514"/>
-      <c r="E18" s="515"/>
-      <c r="F18" s="516"/>
-      <c r="G18" s="512"/>
-      <c r="H18" s="517"/>
-      <c r="I18" s="513"/>
-      <c r="J18" s="518"/>
-      <c r="K18" s="519"/>
-      <c r="L18" s="519"/>
-      <c r="M18" s="519"/>
-      <c r="N18" s="519"/>
-      <c r="O18" s="519"/>
-      <c r="P18" s="520"/>
-      <c r="Q18" s="521"/>
-      <c r="R18" s="522"/>
-      <c r="S18" s="522"/>
-      <c r="T18" s="522"/>
-      <c r="U18" s="522"/>
-      <c r="V18" s="522"/>
-      <c r="W18" s="522"/>
-      <c r="X18" s="522"/>
-      <c r="Y18" s="522"/>
-      <c r="Z18" s="522"/>
-      <c r="AA18" s="522"/>
-      <c r="AB18" s="522"/>
-      <c r="AC18" s="522"/>
-      <c r="AD18" s="522"/>
-      <c r="AE18" s="523"/>
-      <c r="AF18" s="518"/>
-      <c r="AG18" s="519"/>
-      <c r="AH18" s="519"/>
-      <c r="AI18" s="520"/>
+      <c r="B18" s="513"/>
+      <c r="C18" s="514"/>
+      <c r="D18" s="515"/>
+      <c r="E18" s="516"/>
+      <c r="F18" s="517"/>
+      <c r="G18" s="513"/>
+      <c r="H18" s="518"/>
+      <c r="I18" s="514"/>
+      <c r="J18" s="519"/>
+      <c r="K18" s="520"/>
+      <c r="L18" s="520"/>
+      <c r="M18" s="520"/>
+      <c r="N18" s="520"/>
+      <c r="O18" s="520"/>
+      <c r="P18" s="521"/>
+      <c r="Q18" s="522"/>
+      <c r="R18" s="523"/>
+      <c r="S18" s="523"/>
+      <c r="T18" s="523"/>
+      <c r="U18" s="523"/>
+      <c r="V18" s="523"/>
+      <c r="W18" s="523"/>
+      <c r="X18" s="523"/>
+      <c r="Y18" s="523"/>
+      <c r="Z18" s="523"/>
+      <c r="AA18" s="523"/>
+      <c r="AB18" s="523"/>
+      <c r="AC18" s="523"/>
+      <c r="AD18" s="523"/>
+      <c r="AE18" s="524"/>
+      <c r="AF18" s="519"/>
+      <c r="AG18" s="520"/>
+      <c r="AH18" s="520"/>
+      <c r="AI18" s="521"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="512"/>
-      <c r="C19" s="513"/>
-      <c r="D19" s="514"/>
-      <c r="E19" s="515"/>
-      <c r="F19" s="516"/>
-      <c r="G19" s="512"/>
-      <c r="H19" s="517"/>
-      <c r="I19" s="513"/>
-      <c r="J19" s="518"/>
-      <c r="K19" s="519"/>
-      <c r="L19" s="519"/>
-      <c r="M19" s="519"/>
-      <c r="N19" s="519"/>
-      <c r="O19" s="519"/>
-      <c r="P19" s="520"/>
-      <c r="Q19" s="521"/>
-      <c r="R19" s="522"/>
-      <c r="S19" s="522"/>
-      <c r="T19" s="522"/>
-      <c r="U19" s="522"/>
-      <c r="V19" s="522"/>
-      <c r="W19" s="522"/>
-      <c r="X19" s="522"/>
-      <c r="Y19" s="522"/>
-      <c r="Z19" s="522"/>
-      <c r="AA19" s="522"/>
-      <c r="AB19" s="522"/>
-      <c r="AC19" s="522"/>
-      <c r="AD19" s="522"/>
-      <c r="AE19" s="523"/>
-      <c r="AF19" s="518"/>
-      <c r="AG19" s="519"/>
-      <c r="AH19" s="519"/>
-      <c r="AI19" s="520"/>
+      <c r="B19" s="513"/>
+      <c r="C19" s="514"/>
+      <c r="D19" s="515"/>
+      <c r="E19" s="516"/>
+      <c r="F19" s="517"/>
+      <c r="G19" s="513"/>
+      <c r="H19" s="518"/>
+      <c r="I19" s="514"/>
+      <c r="J19" s="519"/>
+      <c r="K19" s="520"/>
+      <c r="L19" s="520"/>
+      <c r="M19" s="520"/>
+      <c r="N19" s="520"/>
+      <c r="O19" s="520"/>
+      <c r="P19" s="521"/>
+      <c r="Q19" s="522"/>
+      <c r="R19" s="523"/>
+      <c r="S19" s="523"/>
+      <c r="T19" s="523"/>
+      <c r="U19" s="523"/>
+      <c r="V19" s="523"/>
+      <c r="W19" s="523"/>
+      <c r="X19" s="523"/>
+      <c r="Y19" s="523"/>
+      <c r="Z19" s="523"/>
+      <c r="AA19" s="523"/>
+      <c r="AB19" s="523"/>
+      <c r="AC19" s="523"/>
+      <c r="AD19" s="523"/>
+      <c r="AE19" s="524"/>
+      <c r="AF19" s="519"/>
+      <c r="AG19" s="520"/>
+      <c r="AH19" s="520"/>
+      <c r="AI19" s="521"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="512"/>
-      <c r="C20" s="513"/>
-      <c r="D20" s="514"/>
-      <c r="E20" s="515"/>
-      <c r="F20" s="516"/>
-      <c r="G20" s="512"/>
-      <c r="H20" s="517"/>
-      <c r="I20" s="513"/>
-      <c r="J20" s="518"/>
-      <c r="K20" s="519"/>
-      <c r="L20" s="519"/>
-      <c r="M20" s="519"/>
-      <c r="N20" s="519"/>
-      <c r="O20" s="519"/>
-      <c r="P20" s="520"/>
-      <c r="Q20" s="521"/>
-      <c r="R20" s="522"/>
-      <c r="S20" s="522"/>
-      <c r="T20" s="522"/>
-      <c r="U20" s="522"/>
-      <c r="V20" s="522"/>
-      <c r="W20" s="522"/>
-      <c r="X20" s="522"/>
-      <c r="Y20" s="522"/>
-      <c r="Z20" s="522"/>
-      <c r="AA20" s="522"/>
-      <c r="AB20" s="522"/>
-      <c r="AC20" s="522"/>
-      <c r="AD20" s="522"/>
-      <c r="AE20" s="523"/>
-      <c r="AF20" s="518"/>
-      <c r="AG20" s="519"/>
-      <c r="AH20" s="519"/>
-      <c r="AI20" s="520"/>
+      <c r="B20" s="513"/>
+      <c r="C20" s="514"/>
+      <c r="D20" s="515"/>
+      <c r="E20" s="516"/>
+      <c r="F20" s="517"/>
+      <c r="G20" s="513"/>
+      <c r="H20" s="518"/>
+      <c r="I20" s="514"/>
+      <c r="J20" s="519"/>
+      <c r="K20" s="520"/>
+      <c r="L20" s="520"/>
+      <c r="M20" s="520"/>
+      <c r="N20" s="520"/>
+      <c r="O20" s="520"/>
+      <c r="P20" s="521"/>
+      <c r="Q20" s="522"/>
+      <c r="R20" s="523"/>
+      <c r="S20" s="523"/>
+      <c r="T20" s="523"/>
+      <c r="U20" s="523"/>
+      <c r="V20" s="523"/>
+      <c r="W20" s="523"/>
+      <c r="X20" s="523"/>
+      <c r="Y20" s="523"/>
+      <c r="Z20" s="523"/>
+      <c r="AA20" s="523"/>
+      <c r="AB20" s="523"/>
+      <c r="AC20" s="523"/>
+      <c r="AD20" s="523"/>
+      <c r="AE20" s="524"/>
+      <c r="AF20" s="519"/>
+      <c r="AG20" s="520"/>
+      <c r="AH20" s="520"/>
+      <c r="AI20" s="521"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="512"/>
-      <c r="C21" s="513"/>
-      <c r="D21" s="514"/>
-      <c r="E21" s="515"/>
-      <c r="F21" s="516"/>
-      <c r="G21" s="512"/>
-      <c r="H21" s="517"/>
-      <c r="I21" s="513"/>
-      <c r="J21" s="518"/>
-      <c r="K21" s="519"/>
-      <c r="L21" s="519"/>
-      <c r="M21" s="519"/>
-      <c r="N21" s="519"/>
-      <c r="O21" s="519"/>
-      <c r="P21" s="520"/>
-      <c r="Q21" s="521"/>
-      <c r="R21" s="522"/>
-      <c r="S21" s="522"/>
-      <c r="T21" s="522"/>
-      <c r="U21" s="522"/>
-      <c r="V21" s="522"/>
-      <c r="W21" s="522"/>
-      <c r="X21" s="522"/>
-      <c r="Y21" s="522"/>
-      <c r="Z21" s="522"/>
-      <c r="AA21" s="522"/>
-      <c r="AB21" s="522"/>
-      <c r="AC21" s="522"/>
-      <c r="AD21" s="522"/>
-      <c r="AE21" s="523"/>
-      <c r="AF21" s="518"/>
-      <c r="AG21" s="519"/>
-      <c r="AH21" s="519"/>
-      <c r="AI21" s="520"/>
+      <c r="B21" s="513"/>
+      <c r="C21" s="514"/>
+      <c r="D21" s="515"/>
+      <c r="E21" s="516"/>
+      <c r="F21" s="517"/>
+      <c r="G21" s="513"/>
+      <c r="H21" s="518"/>
+      <c r="I21" s="514"/>
+      <c r="J21" s="519"/>
+      <c r="K21" s="520"/>
+      <c r="L21" s="520"/>
+      <c r="M21" s="520"/>
+      <c r="N21" s="520"/>
+      <c r="O21" s="520"/>
+      <c r="P21" s="521"/>
+      <c r="Q21" s="522"/>
+      <c r="R21" s="523"/>
+      <c r="S21" s="523"/>
+      <c r="T21" s="523"/>
+      <c r="U21" s="523"/>
+      <c r="V21" s="523"/>
+      <c r="W21" s="523"/>
+      <c r="X21" s="523"/>
+      <c r="Y21" s="523"/>
+      <c r="Z21" s="523"/>
+      <c r="AA21" s="523"/>
+      <c r="AB21" s="523"/>
+      <c r="AC21" s="523"/>
+      <c r="AD21" s="523"/>
+      <c r="AE21" s="524"/>
+      <c r="AF21" s="519"/>
+      <c r="AG21" s="520"/>
+      <c r="AH21" s="520"/>
+      <c r="AI21" s="521"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="512"/>
-      <c r="C22" s="513"/>
-      <c r="D22" s="514"/>
-      <c r="E22" s="515"/>
-      <c r="F22" s="516"/>
-      <c r="G22" s="512"/>
-      <c r="H22" s="517"/>
-      <c r="I22" s="513"/>
-      <c r="J22" s="518"/>
-      <c r="K22" s="519"/>
-      <c r="L22" s="519"/>
-      <c r="M22" s="519"/>
-      <c r="N22" s="519"/>
-      <c r="O22" s="519"/>
-      <c r="P22" s="520"/>
-      <c r="Q22" s="521"/>
-      <c r="R22" s="522"/>
-      <c r="S22" s="522"/>
-      <c r="T22" s="522"/>
-      <c r="U22" s="522"/>
-      <c r="V22" s="522"/>
-      <c r="W22" s="522"/>
-      <c r="X22" s="522"/>
-      <c r="Y22" s="522"/>
-      <c r="Z22" s="522"/>
-      <c r="AA22" s="522"/>
-      <c r="AB22" s="522"/>
-      <c r="AC22" s="522"/>
-      <c r="AD22" s="522"/>
-      <c r="AE22" s="523"/>
-      <c r="AF22" s="518"/>
-      <c r="AG22" s="519"/>
-      <c r="AH22" s="519"/>
-      <c r="AI22" s="520"/>
+      <c r="B22" s="513"/>
+      <c r="C22" s="514"/>
+      <c r="D22" s="515"/>
+      <c r="E22" s="516"/>
+      <c r="F22" s="517"/>
+      <c r="G22" s="513"/>
+      <c r="H22" s="518"/>
+      <c r="I22" s="514"/>
+      <c r="J22" s="519"/>
+      <c r="K22" s="520"/>
+      <c r="L22" s="520"/>
+      <c r="M22" s="520"/>
+      <c r="N22" s="520"/>
+      <c r="O22" s="520"/>
+      <c r="P22" s="521"/>
+      <c r="Q22" s="522"/>
+      <c r="R22" s="523"/>
+      <c r="S22" s="523"/>
+      <c r="T22" s="523"/>
+      <c r="U22" s="523"/>
+      <c r="V22" s="523"/>
+      <c r="W22" s="523"/>
+      <c r="X22" s="523"/>
+      <c r="Y22" s="523"/>
+      <c r="Z22" s="523"/>
+      <c r="AA22" s="523"/>
+      <c r="AB22" s="523"/>
+      <c r="AC22" s="523"/>
+      <c r="AD22" s="523"/>
+      <c r="AE22" s="524"/>
+      <c r="AF22" s="519"/>
+      <c r="AG22" s="520"/>
+      <c r="AH22" s="520"/>
+      <c r="AI22" s="521"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="512"/>
-      <c r="C23" s="513"/>
-      <c r="D23" s="514"/>
-      <c r="E23" s="515"/>
-      <c r="F23" s="516"/>
-      <c r="G23" s="512"/>
-      <c r="H23" s="517"/>
-      <c r="I23" s="513"/>
-      <c r="J23" s="518"/>
-      <c r="K23" s="519"/>
-      <c r="L23" s="519"/>
-      <c r="M23" s="519"/>
-      <c r="N23" s="519"/>
-      <c r="O23" s="519"/>
-      <c r="P23" s="520"/>
-      <c r="Q23" s="521"/>
-      <c r="R23" s="522"/>
-      <c r="S23" s="522"/>
-      <c r="T23" s="522"/>
-      <c r="U23" s="522"/>
-      <c r="V23" s="522"/>
-      <c r="W23" s="522"/>
-      <c r="X23" s="522"/>
-      <c r="Y23" s="522"/>
-      <c r="Z23" s="522"/>
-      <c r="AA23" s="522"/>
-      <c r="AB23" s="522"/>
-      <c r="AC23" s="522"/>
-      <c r="AD23" s="522"/>
-      <c r="AE23" s="523"/>
-      <c r="AF23" s="518"/>
-      <c r="AG23" s="519"/>
-      <c r="AH23" s="519"/>
-      <c r="AI23" s="520"/>
+      <c r="B23" s="513"/>
+      <c r="C23" s="514"/>
+      <c r="D23" s="515"/>
+      <c r="E23" s="516"/>
+      <c r="F23" s="517"/>
+      <c r="G23" s="513"/>
+      <c r="H23" s="518"/>
+      <c r="I23" s="514"/>
+      <c r="J23" s="519"/>
+      <c r="K23" s="520"/>
+      <c r="L23" s="520"/>
+      <c r="M23" s="520"/>
+      <c r="N23" s="520"/>
+      <c r="O23" s="520"/>
+      <c r="P23" s="521"/>
+      <c r="Q23" s="522"/>
+      <c r="R23" s="523"/>
+      <c r="S23" s="523"/>
+      <c r="T23" s="523"/>
+      <c r="U23" s="523"/>
+      <c r="V23" s="523"/>
+      <c r="W23" s="523"/>
+      <c r="X23" s="523"/>
+      <c r="Y23" s="523"/>
+      <c r="Z23" s="523"/>
+      <c r="AA23" s="523"/>
+      <c r="AB23" s="523"/>
+      <c r="AC23" s="523"/>
+      <c r="AD23" s="523"/>
+      <c r="AE23" s="524"/>
+      <c r="AF23" s="519"/>
+      <c r="AG23" s="520"/>
+      <c r="AH23" s="520"/>
+      <c r="AI23" s="521"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="512"/>
-      <c r="C24" s="513"/>
-      <c r="D24" s="514"/>
-      <c r="E24" s="515"/>
-      <c r="F24" s="516"/>
-      <c r="G24" s="512"/>
-      <c r="H24" s="517"/>
-      <c r="I24" s="513"/>
-      <c r="J24" s="518"/>
-      <c r="K24" s="519"/>
-      <c r="L24" s="519"/>
-      <c r="M24" s="519"/>
-      <c r="N24" s="519"/>
-      <c r="O24" s="519"/>
-      <c r="P24" s="520"/>
-      <c r="Q24" s="521"/>
-      <c r="R24" s="522"/>
-      <c r="S24" s="522"/>
-      <c r="T24" s="522"/>
-      <c r="U24" s="522"/>
-      <c r="V24" s="522"/>
-      <c r="W24" s="522"/>
-      <c r="X24" s="522"/>
-      <c r="Y24" s="522"/>
-      <c r="Z24" s="522"/>
-      <c r="AA24" s="522"/>
-      <c r="AB24" s="522"/>
-      <c r="AC24" s="522"/>
-      <c r="AD24" s="522"/>
-      <c r="AE24" s="523"/>
-      <c r="AF24" s="518"/>
-      <c r="AG24" s="519"/>
-      <c r="AH24" s="519"/>
-      <c r="AI24" s="520"/>
+      <c r="B24" s="513"/>
+      <c r="C24" s="514"/>
+      <c r="D24" s="515"/>
+      <c r="E24" s="516"/>
+      <c r="F24" s="517"/>
+      <c r="G24" s="513"/>
+      <c r="H24" s="518"/>
+      <c r="I24" s="514"/>
+      <c r="J24" s="519"/>
+      <c r="K24" s="520"/>
+      <c r="L24" s="520"/>
+      <c r="M24" s="520"/>
+      <c r="N24" s="520"/>
+      <c r="O24" s="520"/>
+      <c r="P24" s="521"/>
+      <c r="Q24" s="522"/>
+      <c r="R24" s="523"/>
+      <c r="S24" s="523"/>
+      <c r="T24" s="523"/>
+      <c r="U24" s="523"/>
+      <c r="V24" s="523"/>
+      <c r="W24" s="523"/>
+      <c r="X24" s="523"/>
+      <c r="Y24" s="523"/>
+      <c r="Z24" s="523"/>
+      <c r="AA24" s="523"/>
+      <c r="AB24" s="523"/>
+      <c r="AC24" s="523"/>
+      <c r="AD24" s="523"/>
+      <c r="AE24" s="524"/>
+      <c r="AF24" s="519"/>
+      <c r="AG24" s="520"/>
+      <c r="AH24" s="520"/>
+      <c r="AI24" s="521"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="512"/>
-      <c r="C25" s="513"/>
-      <c r="D25" s="514"/>
-      <c r="E25" s="515"/>
-      <c r="F25" s="516"/>
-      <c r="G25" s="512"/>
-      <c r="H25" s="517"/>
-      <c r="I25" s="513"/>
-      <c r="J25" s="518"/>
-      <c r="K25" s="519"/>
-      <c r="L25" s="519"/>
-      <c r="M25" s="519"/>
-      <c r="N25" s="519"/>
-      <c r="O25" s="519"/>
-      <c r="P25" s="520"/>
-      <c r="Q25" s="521"/>
-      <c r="R25" s="522"/>
-      <c r="S25" s="522"/>
-      <c r="T25" s="522"/>
-      <c r="U25" s="522"/>
-      <c r="V25" s="522"/>
-      <c r="W25" s="522"/>
-      <c r="X25" s="522"/>
-      <c r="Y25" s="522"/>
-      <c r="Z25" s="522"/>
-      <c r="AA25" s="522"/>
-      <c r="AB25" s="522"/>
-      <c r="AC25" s="522"/>
-      <c r="AD25" s="522"/>
-      <c r="AE25" s="523"/>
-      <c r="AF25" s="518"/>
-      <c r="AG25" s="519"/>
-      <c r="AH25" s="519"/>
-      <c r="AI25" s="520"/>
+      <c r="B25" s="513"/>
+      <c r="C25" s="514"/>
+      <c r="D25" s="515"/>
+      <c r="E25" s="516"/>
+      <c r="F25" s="517"/>
+      <c r="G25" s="513"/>
+      <c r="H25" s="518"/>
+      <c r="I25" s="514"/>
+      <c r="J25" s="519"/>
+      <c r="K25" s="520"/>
+      <c r="L25" s="520"/>
+      <c r="M25" s="520"/>
+      <c r="N25" s="520"/>
+      <c r="O25" s="520"/>
+      <c r="P25" s="521"/>
+      <c r="Q25" s="522"/>
+      <c r="R25" s="523"/>
+      <c r="S25" s="523"/>
+      <c r="T25" s="523"/>
+      <c r="U25" s="523"/>
+      <c r="V25" s="523"/>
+      <c r="W25" s="523"/>
+      <c r="X25" s="523"/>
+      <c r="Y25" s="523"/>
+      <c r="Z25" s="523"/>
+      <c r="AA25" s="523"/>
+      <c r="AB25" s="523"/>
+      <c r="AC25" s="523"/>
+      <c r="AD25" s="523"/>
+      <c r="AE25" s="524"/>
+      <c r="AF25" s="519"/>
+      <c r="AG25" s="520"/>
+      <c r="AH25" s="520"/>
+      <c r="AI25" s="521"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="512"/>
-      <c r="C26" s="513"/>
-      <c r="D26" s="514"/>
-      <c r="E26" s="515"/>
-      <c r="F26" s="516"/>
-      <c r="G26" s="512"/>
-      <c r="H26" s="517"/>
-      <c r="I26" s="513"/>
-      <c r="J26" s="518"/>
-      <c r="K26" s="519"/>
-      <c r="L26" s="519"/>
-      <c r="M26" s="519"/>
-      <c r="N26" s="519"/>
-      <c r="O26" s="519"/>
-      <c r="P26" s="520"/>
-      <c r="Q26" s="521"/>
-      <c r="R26" s="522"/>
-      <c r="S26" s="522"/>
-      <c r="T26" s="522"/>
-      <c r="U26" s="522"/>
-      <c r="V26" s="522"/>
-      <c r="W26" s="522"/>
-      <c r="X26" s="522"/>
-      <c r="Y26" s="522"/>
-      <c r="Z26" s="522"/>
-      <c r="AA26" s="522"/>
-      <c r="AB26" s="522"/>
-      <c r="AC26" s="522"/>
-      <c r="AD26" s="522"/>
-      <c r="AE26" s="523"/>
-      <c r="AF26" s="518"/>
-      <c r="AG26" s="519"/>
-      <c r="AH26" s="519"/>
-      <c r="AI26" s="520"/>
+      <c r="B26" s="513"/>
+      <c r="C26" s="514"/>
+      <c r="D26" s="515"/>
+      <c r="E26" s="516"/>
+      <c r="F26" s="517"/>
+      <c r="G26" s="513"/>
+      <c r="H26" s="518"/>
+      <c r="I26" s="514"/>
+      <c r="J26" s="519"/>
+      <c r="K26" s="520"/>
+      <c r="L26" s="520"/>
+      <c r="M26" s="520"/>
+      <c r="N26" s="520"/>
+      <c r="O26" s="520"/>
+      <c r="P26" s="521"/>
+      <c r="Q26" s="522"/>
+      <c r="R26" s="523"/>
+      <c r="S26" s="523"/>
+      <c r="T26" s="523"/>
+      <c r="U26" s="523"/>
+      <c r="V26" s="523"/>
+      <c r="W26" s="523"/>
+      <c r="X26" s="523"/>
+      <c r="Y26" s="523"/>
+      <c r="Z26" s="523"/>
+      <c r="AA26" s="523"/>
+      <c r="AB26" s="523"/>
+      <c r="AC26" s="523"/>
+      <c r="AD26" s="523"/>
+      <c r="AE26" s="524"/>
+      <c r="AF26" s="519"/>
+      <c r="AG26" s="520"/>
+      <c r="AH26" s="520"/>
+      <c r="AI26" s="521"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="512"/>
-      <c r="C27" s="513"/>
-      <c r="D27" s="514"/>
-      <c r="E27" s="515"/>
-      <c r="F27" s="516"/>
-      <c r="G27" s="512"/>
-      <c r="H27" s="517"/>
-      <c r="I27" s="513"/>
-      <c r="J27" s="518"/>
-      <c r="K27" s="519"/>
-      <c r="L27" s="519"/>
-      <c r="M27" s="519"/>
-      <c r="N27" s="519"/>
-      <c r="O27" s="519"/>
-      <c r="P27" s="520"/>
-      <c r="Q27" s="521"/>
-      <c r="R27" s="522"/>
-      <c r="S27" s="522"/>
-      <c r="T27" s="522"/>
-      <c r="U27" s="522"/>
-      <c r="V27" s="522"/>
-      <c r="W27" s="522"/>
-      <c r="X27" s="522"/>
-      <c r="Y27" s="522"/>
-      <c r="Z27" s="522"/>
-      <c r="AA27" s="522"/>
-      <c r="AB27" s="522"/>
-      <c r="AC27" s="522"/>
-      <c r="AD27" s="522"/>
-      <c r="AE27" s="523"/>
-      <c r="AF27" s="518"/>
-      <c r="AG27" s="519"/>
-      <c r="AH27" s="519"/>
-      <c r="AI27" s="520"/>
+      <c r="B27" s="513"/>
+      <c r="C27" s="514"/>
+      <c r="D27" s="515"/>
+      <c r="E27" s="516"/>
+      <c r="F27" s="517"/>
+      <c r="G27" s="513"/>
+      <c r="H27" s="518"/>
+      <c r="I27" s="514"/>
+      <c r="J27" s="519"/>
+      <c r="K27" s="520"/>
+      <c r="L27" s="520"/>
+      <c r="M27" s="520"/>
+      <c r="N27" s="520"/>
+      <c r="O27" s="520"/>
+      <c r="P27" s="521"/>
+      <c r="Q27" s="522"/>
+      <c r="R27" s="523"/>
+      <c r="S27" s="523"/>
+      <c r="T27" s="523"/>
+      <c r="U27" s="523"/>
+      <c r="V27" s="523"/>
+      <c r="W27" s="523"/>
+      <c r="X27" s="523"/>
+      <c r="Y27" s="523"/>
+      <c r="Z27" s="523"/>
+      <c r="AA27" s="523"/>
+      <c r="AB27" s="523"/>
+      <c r="AC27" s="523"/>
+      <c r="AD27" s="523"/>
+      <c r="AE27" s="524"/>
+      <c r="AF27" s="519"/>
+      <c r="AG27" s="520"/>
+      <c r="AH27" s="520"/>
+      <c r="AI27" s="521"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="512"/>
-      <c r="C28" s="513"/>
-      <c r="D28" s="514"/>
-      <c r="E28" s="515"/>
-      <c r="F28" s="516"/>
-      <c r="G28" s="512"/>
-      <c r="H28" s="517"/>
-      <c r="I28" s="513"/>
-      <c r="J28" s="518"/>
-      <c r="K28" s="519"/>
-      <c r="L28" s="519"/>
-      <c r="M28" s="519"/>
-      <c r="N28" s="519"/>
-      <c r="O28" s="519"/>
-      <c r="P28" s="520"/>
-      <c r="Q28" s="521"/>
-      <c r="R28" s="522"/>
-      <c r="S28" s="522"/>
-      <c r="T28" s="522"/>
-      <c r="U28" s="522"/>
-      <c r="V28" s="522"/>
-      <c r="W28" s="522"/>
-      <c r="X28" s="522"/>
-      <c r="Y28" s="522"/>
-      <c r="Z28" s="522"/>
-      <c r="AA28" s="522"/>
-      <c r="AB28" s="522"/>
-      <c r="AC28" s="522"/>
-      <c r="AD28" s="522"/>
-      <c r="AE28" s="523"/>
-      <c r="AF28" s="518"/>
-      <c r="AG28" s="519"/>
-      <c r="AH28" s="519"/>
-      <c r="AI28" s="520"/>
+      <c r="B28" s="513"/>
+      <c r="C28" s="514"/>
+      <c r="D28" s="515"/>
+      <c r="E28" s="516"/>
+      <c r="F28" s="517"/>
+      <c r="G28" s="513"/>
+      <c r="H28" s="518"/>
+      <c r="I28" s="514"/>
+      <c r="J28" s="519"/>
+      <c r="K28" s="520"/>
+      <c r="L28" s="520"/>
+      <c r="M28" s="520"/>
+      <c r="N28" s="520"/>
+      <c r="O28" s="520"/>
+      <c r="P28" s="521"/>
+      <c r="Q28" s="522"/>
+      <c r="R28" s="523"/>
+      <c r="S28" s="523"/>
+      <c r="T28" s="523"/>
+      <c r="U28" s="523"/>
+      <c r="V28" s="523"/>
+      <c r="W28" s="523"/>
+      <c r="X28" s="523"/>
+      <c r="Y28" s="523"/>
+      <c r="Z28" s="523"/>
+      <c r="AA28" s="523"/>
+      <c r="AB28" s="523"/>
+      <c r="AC28" s="523"/>
+      <c r="AD28" s="523"/>
+      <c r="AE28" s="524"/>
+      <c r="AF28" s="519"/>
+      <c r="AG28" s="520"/>
+      <c r="AH28" s="520"/>
+      <c r="AI28" s="521"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="512"/>
-      <c r="C29" s="513"/>
-      <c r="D29" s="514"/>
-      <c r="E29" s="515"/>
-      <c r="F29" s="516"/>
-      <c r="G29" s="512"/>
-      <c r="H29" s="517"/>
-      <c r="I29" s="513"/>
-      <c r="J29" s="518"/>
-      <c r="K29" s="519"/>
-      <c r="L29" s="519"/>
-      <c r="M29" s="519"/>
-      <c r="N29" s="519"/>
-      <c r="O29" s="519"/>
-      <c r="P29" s="520"/>
-      <c r="Q29" s="521"/>
-      <c r="R29" s="522"/>
-      <c r="S29" s="522"/>
-      <c r="T29" s="522"/>
-      <c r="U29" s="522"/>
-      <c r="V29" s="522"/>
-      <c r="W29" s="522"/>
-      <c r="X29" s="522"/>
-      <c r="Y29" s="522"/>
-      <c r="Z29" s="522"/>
-      <c r="AA29" s="522"/>
-      <c r="AB29" s="522"/>
-      <c r="AC29" s="522"/>
-      <c r="AD29" s="522"/>
-      <c r="AE29" s="523"/>
-      <c r="AF29" s="518"/>
-      <c r="AG29" s="519"/>
-      <c r="AH29" s="519"/>
-      <c r="AI29" s="520"/>
+      <c r="B29" s="513"/>
+      <c r="C29" s="514"/>
+      <c r="D29" s="515"/>
+      <c r="E29" s="516"/>
+      <c r="F29" s="517"/>
+      <c r="G29" s="513"/>
+      <c r="H29" s="518"/>
+      <c r="I29" s="514"/>
+      <c r="J29" s="519"/>
+      <c r="K29" s="520"/>
+      <c r="L29" s="520"/>
+      <c r="M29" s="520"/>
+      <c r="N29" s="520"/>
+      <c r="O29" s="520"/>
+      <c r="P29" s="521"/>
+      <c r="Q29" s="522"/>
+      <c r="R29" s="523"/>
+      <c r="S29" s="523"/>
+      <c r="T29" s="523"/>
+      <c r="U29" s="523"/>
+      <c r="V29" s="523"/>
+      <c r="W29" s="523"/>
+      <c r="X29" s="523"/>
+      <c r="Y29" s="523"/>
+      <c r="Z29" s="523"/>
+      <c r="AA29" s="523"/>
+      <c r="AB29" s="523"/>
+      <c r="AC29" s="523"/>
+      <c r="AD29" s="523"/>
+      <c r="AE29" s="524"/>
+      <c r="AF29" s="519"/>
+      <c r="AG29" s="520"/>
+      <c r="AH29" s="520"/>
+      <c r="AI29" s="521"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="512"/>
-      <c r="C30" s="513"/>
-      <c r="D30" s="514"/>
-      <c r="E30" s="515"/>
-      <c r="F30" s="516"/>
-      <c r="G30" s="512"/>
-      <c r="H30" s="517"/>
-      <c r="I30" s="513"/>
-      <c r="J30" s="518"/>
-      <c r="K30" s="519"/>
-      <c r="L30" s="519"/>
-      <c r="M30" s="519"/>
-      <c r="N30" s="519"/>
-      <c r="O30" s="519"/>
-      <c r="P30" s="520"/>
-      <c r="Q30" s="521"/>
-      <c r="R30" s="522"/>
-      <c r="S30" s="522"/>
-      <c r="T30" s="522"/>
-      <c r="U30" s="522"/>
-      <c r="V30" s="522"/>
-      <c r="W30" s="522"/>
-      <c r="X30" s="522"/>
-      <c r="Y30" s="522"/>
-      <c r="Z30" s="522"/>
-      <c r="AA30" s="522"/>
-      <c r="AB30" s="522"/>
-      <c r="AC30" s="522"/>
-      <c r="AD30" s="522"/>
-      <c r="AE30" s="523"/>
-      <c r="AF30" s="518"/>
-      <c r="AG30" s="519"/>
-      <c r="AH30" s="519"/>
-      <c r="AI30" s="520"/>
+      <c r="B30" s="513"/>
+      <c r="C30" s="514"/>
+      <c r="D30" s="515"/>
+      <c r="E30" s="516"/>
+      <c r="F30" s="517"/>
+      <c r="G30" s="513"/>
+      <c r="H30" s="518"/>
+      <c r="I30" s="514"/>
+      <c r="J30" s="519"/>
+      <c r="K30" s="520"/>
+      <c r="L30" s="520"/>
+      <c r="M30" s="520"/>
+      <c r="N30" s="520"/>
+      <c r="O30" s="520"/>
+      <c r="P30" s="521"/>
+      <c r="Q30" s="522"/>
+      <c r="R30" s="523"/>
+      <c r="S30" s="523"/>
+      <c r="T30" s="523"/>
+      <c r="U30" s="523"/>
+      <c r="V30" s="523"/>
+      <c r="W30" s="523"/>
+      <c r="X30" s="523"/>
+      <c r="Y30" s="523"/>
+      <c r="Z30" s="523"/>
+      <c r="AA30" s="523"/>
+      <c r="AB30" s="523"/>
+      <c r="AC30" s="523"/>
+      <c r="AD30" s="523"/>
+      <c r="AE30" s="524"/>
+      <c r="AF30" s="519"/>
+      <c r="AG30" s="520"/>
+      <c r="AH30" s="520"/>
+      <c r="AI30" s="521"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="512"/>
-      <c r="C31" s="513"/>
-      <c r="D31" s="514"/>
-      <c r="E31" s="515"/>
-      <c r="F31" s="516"/>
-      <c r="G31" s="512"/>
-      <c r="H31" s="517"/>
-      <c r="I31" s="513"/>
-      <c r="J31" s="518"/>
-      <c r="K31" s="519"/>
-      <c r="L31" s="519"/>
-      <c r="M31" s="519"/>
-      <c r="N31" s="519"/>
-      <c r="O31" s="519"/>
-      <c r="P31" s="520"/>
-      <c r="Q31" s="521"/>
-      <c r="R31" s="522"/>
-      <c r="S31" s="522"/>
-      <c r="T31" s="522"/>
-      <c r="U31" s="522"/>
-      <c r="V31" s="522"/>
-      <c r="W31" s="522"/>
-      <c r="X31" s="522"/>
-      <c r="Y31" s="522"/>
-      <c r="Z31" s="522"/>
-      <c r="AA31" s="522"/>
-      <c r="AB31" s="522"/>
-      <c r="AC31" s="522"/>
-      <c r="AD31" s="522"/>
-      <c r="AE31" s="523"/>
-      <c r="AF31" s="518"/>
-      <c r="AG31" s="519"/>
-      <c r="AH31" s="519"/>
-      <c r="AI31" s="520"/>
+      <c r="B31" s="513"/>
+      <c r="C31" s="514"/>
+      <c r="D31" s="515"/>
+      <c r="E31" s="516"/>
+      <c r="F31" s="517"/>
+      <c r="G31" s="513"/>
+      <c r="H31" s="518"/>
+      <c r="I31" s="514"/>
+      <c r="J31" s="519"/>
+      <c r="K31" s="520"/>
+      <c r="L31" s="520"/>
+      <c r="M31" s="520"/>
+      <c r="N31" s="520"/>
+      <c r="O31" s="520"/>
+      <c r="P31" s="521"/>
+      <c r="Q31" s="522"/>
+      <c r="R31" s="523"/>
+      <c r="S31" s="523"/>
+      <c r="T31" s="523"/>
+      <c r="U31" s="523"/>
+      <c r="V31" s="523"/>
+      <c r="W31" s="523"/>
+      <c r="X31" s="523"/>
+      <c r="Y31" s="523"/>
+      <c r="Z31" s="523"/>
+      <c r="AA31" s="523"/>
+      <c r="AB31" s="523"/>
+      <c r="AC31" s="523"/>
+      <c r="AD31" s="523"/>
+      <c r="AE31" s="524"/>
+      <c r="AF31" s="519"/>
+      <c r="AG31" s="520"/>
+      <c r="AH31" s="520"/>
+      <c r="AI31" s="521"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="512"/>
-      <c r="C32" s="513"/>
-      <c r="D32" s="514"/>
-      <c r="E32" s="515"/>
-      <c r="F32" s="516"/>
-      <c r="G32" s="512"/>
-      <c r="H32" s="517"/>
-      <c r="I32" s="513"/>
-      <c r="J32" s="518"/>
-      <c r="K32" s="537"/>
-      <c r="L32" s="519"/>
-      <c r="M32" s="519"/>
-      <c r="N32" s="519"/>
-      <c r="O32" s="519"/>
-      <c r="P32" s="520"/>
-      <c r="Q32" s="521"/>
-      <c r="R32" s="522"/>
-      <c r="S32" s="522"/>
-      <c r="T32" s="522"/>
-      <c r="U32" s="522"/>
-      <c r="V32" s="522"/>
-      <c r="W32" s="522"/>
-      <c r="X32" s="522"/>
-      <c r="Y32" s="522"/>
-      <c r="Z32" s="522"/>
-      <c r="AA32" s="522"/>
-      <c r="AB32" s="522"/>
-      <c r="AC32" s="522"/>
-      <c r="AD32" s="522"/>
-      <c r="AE32" s="523"/>
-      <c r="AF32" s="518"/>
-      <c r="AG32" s="519"/>
-      <c r="AH32" s="519"/>
-      <c r="AI32" s="520"/>
+      <c r="B32" s="513"/>
+      <c r="C32" s="514"/>
+      <c r="D32" s="515"/>
+      <c r="E32" s="516"/>
+      <c r="F32" s="517"/>
+      <c r="G32" s="513"/>
+      <c r="H32" s="518"/>
+      <c r="I32" s="514"/>
+      <c r="J32" s="519"/>
+      <c r="K32" s="538"/>
+      <c r="L32" s="520"/>
+      <c r="M32" s="520"/>
+      <c r="N32" s="520"/>
+      <c r="O32" s="520"/>
+      <c r="P32" s="521"/>
+      <c r="Q32" s="522"/>
+      <c r="R32" s="523"/>
+      <c r="S32" s="523"/>
+      <c r="T32" s="523"/>
+      <c r="U32" s="523"/>
+      <c r="V32" s="523"/>
+      <c r="W32" s="523"/>
+      <c r="X32" s="523"/>
+      <c r="Y32" s="523"/>
+      <c r="Z32" s="523"/>
+      <c r="AA32" s="523"/>
+      <c r="AB32" s="523"/>
+      <c r="AC32" s="523"/>
+      <c r="AD32" s="523"/>
+      <c r="AE32" s="524"/>
+      <c r="AF32" s="519"/>
+      <c r="AG32" s="520"/>
+      <c r="AH32" s="520"/>
+      <c r="AI32" s="521"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="512"/>
-      <c r="C33" s="513"/>
-      <c r="D33" s="514"/>
-      <c r="E33" s="515"/>
-      <c r="F33" s="516"/>
-      <c r="G33" s="512"/>
-      <c r="H33" s="517"/>
-      <c r="I33" s="513"/>
-      <c r="J33" s="518"/>
-      <c r="K33" s="519"/>
-      <c r="L33" s="519"/>
-      <c r="M33" s="519"/>
-      <c r="N33" s="519"/>
-      <c r="O33" s="519"/>
-      <c r="P33" s="520"/>
-      <c r="Q33" s="521"/>
-      <c r="R33" s="522"/>
-      <c r="S33" s="522"/>
-      <c r="T33" s="522"/>
-      <c r="U33" s="522"/>
-      <c r="V33" s="522"/>
-      <c r="W33" s="522"/>
-      <c r="X33" s="522"/>
-      <c r="Y33" s="522"/>
-      <c r="Z33" s="522"/>
-      <c r="AA33" s="522"/>
-      <c r="AB33" s="522"/>
-      <c r="AC33" s="522"/>
-      <c r="AD33" s="522"/>
-      <c r="AE33" s="523"/>
-      <c r="AF33" s="518"/>
-      <c r="AG33" s="519"/>
-      <c r="AH33" s="519"/>
-      <c r="AI33" s="520"/>
+      <c r="B33" s="513"/>
+      <c r="C33" s="514"/>
+      <c r="D33" s="515"/>
+      <c r="E33" s="516"/>
+      <c r="F33" s="517"/>
+      <c r="G33" s="513"/>
+      <c r="H33" s="518"/>
+      <c r="I33" s="514"/>
+      <c r="J33" s="519"/>
+      <c r="K33" s="520"/>
+      <c r="L33" s="520"/>
+      <c r="M33" s="520"/>
+      <c r="N33" s="520"/>
+      <c r="O33" s="520"/>
+      <c r="P33" s="521"/>
+      <c r="Q33" s="522"/>
+      <c r="R33" s="523"/>
+      <c r="S33" s="523"/>
+      <c r="T33" s="523"/>
+      <c r="U33" s="523"/>
+      <c r="V33" s="523"/>
+      <c r="W33" s="523"/>
+      <c r="X33" s="523"/>
+      <c r="Y33" s="523"/>
+      <c r="Z33" s="523"/>
+      <c r="AA33" s="523"/>
+      <c r="AB33" s="523"/>
+      <c r="AC33" s="523"/>
+      <c r="AD33" s="523"/>
+      <c r="AE33" s="524"/>
+      <c r="AF33" s="519"/>
+      <c r="AG33" s="520"/>
+      <c r="AH33" s="520"/>
+      <c r="AI33" s="521"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
@@ -8024,20 +8027,20 @@
       <c r="F9" s="25"/>
       <c r="G9" s="52"/>
     </row>
-    <row r="10" spans="1:18" s="209" customFormat="1">
-      <c r="A10" s="183" t="s">
+    <row r="10" spans="1:18" s="474" customFormat="1" ht="24">
+      <c r="A10" s="467" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="468" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="468" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="184" t="s">
+      <c r="D10" s="468" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="185" t="s">
+      <c r="E10" s="469" t="s">
         <v>137</v>
       </c>
       <c r="F10" s="48" t="s">
@@ -8046,293 +8049,293 @@
       <c r="G10" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="205" t="s">
+      <c r="H10" s="470" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="184" t="s">
+      <c r="I10" s="468" t="s">
         <v>157</v>
       </c>
-      <c r="J10" s="206" t="s">
+      <c r="J10" s="471" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="206" t="s">
+      <c r="K10" s="471" t="s">
         <v>159</v>
       </c>
-      <c r="L10" s="206" t="s">
+      <c r="L10" s="471" t="s">
         <v>160</v>
       </c>
-      <c r="M10" s="207" t="s">
+      <c r="M10" s="472" t="s">
         <v>161</v>
       </c>
-      <c r="N10" s="206" t="s">
+      <c r="N10" s="471" t="s">
         <v>162</v>
       </c>
-      <c r="O10" s="206" t="s">
+      <c r="O10" s="471" t="s">
         <v>163</v>
       </c>
-      <c r="P10" s="206" t="s">
+      <c r="P10" s="471" t="s">
         <v>164</v>
       </c>
-      <c r="Q10" s="206" t="s">
+      <c r="Q10" s="471" t="s">
         <v>165</v>
       </c>
-      <c r="R10" s="208" t="s">
+      <c r="R10" s="473" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="89.25" customHeight="1">
-      <c r="A11" s="186" t="s">
+    <row r="11" spans="1:18" ht="52.5" customHeight="1">
+      <c r="A11" s="183" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="187" t="s">
+      <c r="B11" s="184" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="189"/>
-      <c r="E11" s="190"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="187"/>
       <c r="F11" s="54"/>
       <c r="G11" s="55"/>
-      <c r="H11" s="210" t="s">
+      <c r="H11" s="203" t="s">
         <v>167</v>
       </c>
-      <c r="I11" s="211" t="s">
+      <c r="I11" s="204" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="211" t="s">
+      <c r="J11" s="204" t="s">
         <v>169</v>
       </c>
-      <c r="K11" s="211" t="s">
+      <c r="K11" s="204" t="s">
         <v>170</v>
       </c>
-      <c r="L11" s="212"/>
-      <c r="M11" s="213"/>
-      <c r="N11" s="214" t="s">
+      <c r="L11" s="205"/>
+      <c r="M11" s="206"/>
+      <c r="N11" s="207" t="s">
         <v>171</v>
       </c>
-      <c r="O11" s="215">
+      <c r="O11" s="208">
         <v>43658</v>
       </c>
-      <c r="P11" s="216" t="s">
+      <c r="P11" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="Q11" s="217"/>
-      <c r="R11" s="218"/>
+      <c r="Q11" s="210"/>
+      <c r="R11" s="211"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="191" t="s">
+      <c r="A12" s="188" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="192"/>
-      <c r="C12" s="193" t="s">
+      <c r="B12" s="189"/>
+      <c r="C12" s="190" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="194"/>
-      <c r="E12" s="195"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="192"/>
       <c r="F12" s="67"/>
       <c r="G12" s="68"/>
-      <c r="H12" s="219" t="s">
+      <c r="H12" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="220" t="s">
+      <c r="I12" s="213" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="220" t="s">
+      <c r="J12" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K12" s="220"/>
-      <c r="L12" s="221"/>
-      <c r="M12" s="222"/>
-      <c r="N12" s="223"/>
-      <c r="O12" s="224"/>
-      <c r="P12" s="225"/>
-      <c r="Q12" s="223"/>
-      <c r="R12" s="226"/>
-    </row>
-    <row r="13" spans="1:18" s="209" customFormat="1" ht="36">
-      <c r="A13" s="191" t="s">
+      <c r="K12" s="213"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="216"/>
+      <c r="O12" s="217"/>
+      <c r="P12" s="218"/>
+      <c r="Q12" s="216"/>
+      <c r="R12" s="219"/>
+    </row>
+    <row r="13" spans="1:18" s="202" customFormat="1" ht="36">
+      <c r="A13" s="188" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="196"/>
-      <c r="C13" s="197" t="s">
+      <c r="B13" s="193"/>
+      <c r="C13" s="194" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="198" t="s">
+      <c r="D13" s="195" t="s">
         <v>389</v>
       </c>
-      <c r="E13" s="198" t="s">
+      <c r="E13" s="195" t="s">
         <v>145</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
-      <c r="H13" s="227" t="s">
+      <c r="H13" s="220" t="s">
         <v>167</v>
       </c>
-      <c r="I13" s="228" t="s">
+      <c r="I13" s="221" t="s">
         <v>392</v>
       </c>
-      <c r="J13" s="220" t="s">
+      <c r="J13" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K13" s="228"/>
-      <c r="L13" s="229"/>
-      <c r="M13" s="230"/>
-      <c r="N13" s="231"/>
-      <c r="O13" s="232"/>
-      <c r="P13" s="229"/>
-      <c r="Q13" s="233"/>
-      <c r="R13" s="234"/>
-    </row>
-    <row r="14" spans="1:18" s="209" customFormat="1">
-      <c r="A14" s="191" t="s">
+      <c r="K13" s="221"/>
+      <c r="L13" s="222"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="224"/>
+      <c r="O13" s="225"/>
+      <c r="P13" s="222"/>
+      <c r="Q13" s="226"/>
+      <c r="R13" s="227"/>
+    </row>
+    <row r="14" spans="1:18" s="202" customFormat="1">
+      <c r="A14" s="188" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="196"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="201" t="s">
+      <c r="B14" s="193"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="198" t="s">
         <v>398</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="74"/>
-      <c r="H14" s="227" t="s">
+      <c r="H14" s="220" t="s">
         <v>167</v>
       </c>
-      <c r="I14" s="228" t="s">
+      <c r="I14" s="221" t="s">
         <v>174</v>
       </c>
-      <c r="J14" s="220" t="s">
+      <c r="J14" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="235"/>
-      <c r="L14" s="236"/>
-      <c r="M14" s="237"/>
-      <c r="N14" s="238"/>
-      <c r="O14" s="239"/>
-      <c r="P14" s="236"/>
-      <c r="Q14" s="240"/>
-      <c r="R14" s="234"/>
-    </row>
-    <row r="15" spans="1:18" s="209" customFormat="1" ht="48">
-      <c r="A15" s="191" t="s">
+      <c r="K14" s="228"/>
+      <c r="L14" s="229"/>
+      <c r="M14" s="230"/>
+      <c r="N14" s="231"/>
+      <c r="O14" s="232"/>
+      <c r="P14" s="229"/>
+      <c r="Q14" s="233"/>
+      <c r="R14" s="227"/>
+    </row>
+    <row r="15" spans="1:18" s="202" customFormat="1" ht="48">
+      <c r="A15" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="201" t="s">
+      <c r="B15" s="193"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="198" t="s">
         <v>390</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="74"/>
-      <c r="H15" s="241" t="s">
+      <c r="H15" s="234" t="s">
         <v>167</v>
       </c>
-      <c r="I15" s="242" t="s">
+      <c r="I15" s="235" t="s">
         <v>393</v>
       </c>
-      <c r="J15" s="220" t="s">
+      <c r="J15" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K15" s="242"/>
-      <c r="L15" s="243"/>
-      <c r="M15" s="244"/>
-      <c r="N15" s="245"/>
-      <c r="O15" s="246"/>
-      <c r="P15" s="243"/>
-      <c r="Q15" s="247"/>
-      <c r="R15" s="234"/>
-    </row>
-    <row r="16" spans="1:18" s="209" customFormat="1" ht="60">
-      <c r="A16" s="191" t="s">
+      <c r="K15" s="235"/>
+      <c r="L15" s="236"/>
+      <c r="M15" s="237"/>
+      <c r="N15" s="238"/>
+      <c r="O15" s="239"/>
+      <c r="P15" s="236"/>
+      <c r="Q15" s="240"/>
+      <c r="R15" s="227"/>
+    </row>
+    <row r="16" spans="1:18" s="202" customFormat="1" ht="60">
+      <c r="A16" s="188" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="201" t="s">
+      <c r="B16" s="193"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="198" t="s">
         <v>391</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="74"/>
-      <c r="H16" s="241" t="s">
+      <c r="H16" s="234" t="s">
         <v>167</v>
       </c>
-      <c r="I16" s="242" t="s">
+      <c r="I16" s="235" t="s">
         <v>394</v>
       </c>
-      <c r="J16" s="220" t="s">
+      <c r="J16" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="242"/>
-      <c r="L16" s="243"/>
-      <c r="M16" s="244"/>
-      <c r="N16" s="245"/>
-      <c r="O16" s="246"/>
-      <c r="P16" s="243"/>
-      <c r="Q16" s="247"/>
-      <c r="R16" s="234"/>
-    </row>
-    <row r="17" spans="1:18" s="209" customFormat="1">
-      <c r="A17" s="202" t="s">
+      <c r="K16" s="235"/>
+      <c r="L16" s="236"/>
+      <c r="M16" s="237"/>
+      <c r="N16" s="238"/>
+      <c r="O16" s="239"/>
+      <c r="P16" s="236"/>
+      <c r="Q16" s="240"/>
+      <c r="R16" s="227"/>
+    </row>
+    <row r="17" spans="1:18" s="202" customFormat="1">
+      <c r="A17" s="199" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="192"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="193" t="s">
+      <c r="B17" s="189"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="190" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="195"/>
+      <c r="E17" s="192"/>
       <c r="F17" s="67"/>
       <c r="G17" s="68"/>
-      <c r="H17" s="248" t="s">
+      <c r="H17" s="241" t="s">
         <v>167</v>
       </c>
-      <c r="I17" s="249" t="s">
+      <c r="I17" s="242" t="s">
         <v>175</v>
       </c>
-      <c r="J17" s="220" t="s">
+      <c r="J17" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K17" s="249"/>
-      <c r="L17" s="221"/>
-      <c r="M17" s="222"/>
-      <c r="N17" s="223"/>
-      <c r="O17" s="224"/>
-      <c r="P17" s="225"/>
-      <c r="Q17" s="223"/>
-      <c r="R17" s="226"/>
-    </row>
-    <row r="18" spans="1:18" s="209" customFormat="1" ht="36">
-      <c r="A18" s="202" t="s">
+      <c r="K17" s="242"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="215"/>
+      <c r="N17" s="216"/>
+      <c r="O17" s="217"/>
+      <c r="P17" s="218"/>
+      <c r="Q17" s="216"/>
+      <c r="R17" s="219"/>
+    </row>
+    <row r="18" spans="1:18" s="202" customFormat="1" ht="36">
+      <c r="A18" s="199" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="192"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="193" t="s">
+      <c r="B18" s="189"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="190" t="s">
         <v>388</v>
       </c>
-      <c r="E18" s="204"/>
+      <c r="E18" s="201"/>
       <c r="F18" s="67"/>
       <c r="G18" s="68"/>
-      <c r="H18" s="248" t="s">
+      <c r="H18" s="241" t="s">
         <v>167</v>
       </c>
-      <c r="I18" s="250" t="s">
+      <c r="I18" s="243" t="s">
         <v>176</v>
       </c>
-      <c r="J18" s="220" t="s">
+      <c r="J18" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="250"/>
-      <c r="L18" s="221"/>
-      <c r="M18" s="222"/>
-      <c r="N18" s="223"/>
-      <c r="O18" s="224"/>
-      <c r="P18" s="225"/>
-      <c r="Q18" s="223"/>
-      <c r="R18" s="226"/>
+      <c r="K18" s="243"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="215"/>
+      <c r="N18" s="216"/>
+      <c r="O18" s="217"/>
+      <c r="P18" s="218"/>
+      <c r="Q18" s="216"/>
+      <c r="R18" s="219"/>
     </row>
     <row r="19" spans="1:18" s="29" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="56" t="s">
@@ -8465,1402 +8468,1402 @@
       <c r="R22" s="87"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="251" t="s">
+      <c r="A23" s="244" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="192"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="252" t="s">
+      <c r="B23" s="189"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="245" t="s">
         <v>178</v>
       </c>
-      <c r="E23" s="253" t="s">
+      <c r="E23" s="246" t="s">
         <v>179</v>
       </c>
       <c r="F23" s="79"/>
       <c r="G23" s="80"/>
-      <c r="H23" s="288" t="s">
+      <c r="H23" s="281" t="s">
         <v>167</v>
       </c>
-      <c r="I23" s="289" t="s">
+      <c r="I23" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="J23" s="220" t="s">
+      <c r="J23" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="289"/>
-      <c r="L23" s="290"/>
-      <c r="M23" s="291"/>
-      <c r="N23" s="292"/>
-      <c r="O23" s="293"/>
-      <c r="P23" s="294"/>
-      <c r="Q23" s="292"/>
-      <c r="R23" s="295"/>
+      <c r="K23" s="282"/>
+      <c r="L23" s="283"/>
+      <c r="M23" s="284"/>
+      <c r="N23" s="285"/>
+      <c r="O23" s="286"/>
+      <c r="P23" s="287"/>
+      <c r="Q23" s="285"/>
+      <c r="R23" s="288"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="251" t="s">
+      <c r="A24" s="244" t="s">
         <v>180</v>
       </c>
-      <c r="B24" s="192"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="254"/>
-      <c r="E24" s="253" t="s">
+      <c r="B24" s="189"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="247"/>
+      <c r="E24" s="246" t="s">
         <v>385</v>
       </c>
       <c r="F24" s="79"/>
       <c r="G24" s="80"/>
-      <c r="H24" s="288" t="s">
+      <c r="H24" s="281" t="s">
         <v>167</v>
       </c>
-      <c r="I24" s="289" t="s">
+      <c r="I24" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="J24" s="220" t="s">
+      <c r="J24" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="289"/>
-      <c r="L24" s="290"/>
-      <c r="M24" s="291"/>
-      <c r="N24" s="292"/>
-      <c r="O24" s="293"/>
-      <c r="P24" s="294"/>
-      <c r="Q24" s="292"/>
-      <c r="R24" s="295"/>
+      <c r="K24" s="282"/>
+      <c r="L24" s="283"/>
+      <c r="M24" s="284"/>
+      <c r="N24" s="285"/>
+      <c r="O24" s="286"/>
+      <c r="P24" s="287"/>
+      <c r="Q24" s="285"/>
+      <c r="R24" s="288"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="251" t="s">
+      <c r="A25" s="244" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="192"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="254"/>
-      <c r="E25" s="253" t="s">
+      <c r="B25" s="189"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="247"/>
+      <c r="E25" s="246" t="s">
         <v>182</v>
       </c>
       <c r="F25" s="79"/>
       <c r="G25" s="80"/>
-      <c r="H25" s="288" t="s">
+      <c r="H25" s="281" t="s">
         <v>167</v>
       </c>
-      <c r="I25" s="289" t="s">
+      <c r="I25" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="J25" s="220" t="s">
+      <c r="J25" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="289"/>
-      <c r="L25" s="290"/>
-      <c r="M25" s="291"/>
-      <c r="N25" s="292"/>
-      <c r="O25" s="293"/>
-      <c r="P25" s="294"/>
-      <c r="Q25" s="292"/>
-      <c r="R25" s="295"/>
+      <c r="K25" s="282"/>
+      <c r="L25" s="283"/>
+      <c r="M25" s="284"/>
+      <c r="N25" s="285"/>
+      <c r="O25" s="286"/>
+      <c r="P25" s="287"/>
+      <c r="Q25" s="285"/>
+      <c r="R25" s="288"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="251" t="s">
+      <c r="A26" s="244" t="s">
         <v>183</v>
       </c>
-      <c r="B26" s="192"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="254"/>
-      <c r="E26" s="253" t="s">
+      <c r="B26" s="189"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="247"/>
+      <c r="E26" s="246" t="s">
         <v>184</v>
       </c>
       <c r="F26" s="79"/>
       <c r="G26" s="80"/>
-      <c r="H26" s="288" t="s">
+      <c r="H26" s="281" t="s">
         <v>167</v>
       </c>
-      <c r="I26" s="289" t="s">
+      <c r="I26" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="J26" s="220" t="s">
+      <c r="J26" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K26" s="289"/>
-      <c r="L26" s="290"/>
-      <c r="M26" s="291"/>
-      <c r="N26" s="292"/>
-      <c r="O26" s="293"/>
-      <c r="P26" s="294"/>
-      <c r="Q26" s="292"/>
-      <c r="R26" s="295"/>
+      <c r="K26" s="282"/>
+      <c r="L26" s="283"/>
+      <c r="M26" s="284"/>
+      <c r="N26" s="285"/>
+      <c r="O26" s="286"/>
+      <c r="P26" s="287"/>
+      <c r="Q26" s="285"/>
+      <c r="R26" s="288"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="251" t="s">
+      <c r="A27" s="244" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="192"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="253" t="s">
+      <c r="B27" s="189"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="246" t="s">
         <v>186</v>
       </c>
       <c r="F27" s="79"/>
       <c r="G27" s="80"/>
-      <c r="H27" s="288" t="s">
+      <c r="H27" s="281" t="s">
         <v>167</v>
       </c>
-      <c r="I27" s="289" t="s">
+      <c r="I27" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="J27" s="220" t="s">
+      <c r="J27" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K27" s="289"/>
-      <c r="L27" s="290"/>
-      <c r="M27" s="291"/>
-      <c r="N27" s="292"/>
-      <c r="O27" s="293"/>
-      <c r="P27" s="294"/>
-      <c r="Q27" s="292"/>
-      <c r="R27" s="295"/>
+      <c r="K27" s="282"/>
+      <c r="L27" s="283"/>
+      <c r="M27" s="284"/>
+      <c r="N27" s="285"/>
+      <c r="O27" s="286"/>
+      <c r="P27" s="287"/>
+      <c r="Q27" s="285"/>
+      <c r="R27" s="288"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="251" t="s">
+      <c r="A28" s="244" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="192"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="200"/>
-      <c r="E28" s="255" t="s">
+      <c r="B28" s="189"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="248" t="s">
         <v>395</v>
       </c>
       <c r="F28" s="88"/>
       <c r="G28" s="89"/>
-      <c r="H28" s="296" t="s">
+      <c r="H28" s="289" t="s">
         <v>167</v>
       </c>
-      <c r="I28" s="297" t="s">
+      <c r="I28" s="290" t="s">
         <v>174</v>
       </c>
-      <c r="J28" s="220" t="s">
+      <c r="J28" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K28" s="297"/>
-      <c r="L28" s="298"/>
-      <c r="M28" s="299"/>
-      <c r="N28" s="300"/>
-      <c r="O28" s="301"/>
-      <c r="P28" s="302"/>
-      <c r="Q28" s="300"/>
-      <c r="R28" s="303"/>
+      <c r="K28" s="290"/>
+      <c r="L28" s="291"/>
+      <c r="M28" s="292"/>
+      <c r="N28" s="293"/>
+      <c r="O28" s="294"/>
+      <c r="P28" s="295"/>
+      <c r="Q28" s="293"/>
+      <c r="R28" s="296"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="256" t="s">
+      <c r="A29" s="249" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="192"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="257"/>
-      <c r="E29" s="257" t="s">
+      <c r="B29" s="189"/>
+      <c r="C29" s="197"/>
+      <c r="D29" s="250"/>
+      <c r="E29" s="250" t="s">
         <v>396</v>
       </c>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
-      <c r="H29" s="304" t="s">
+      <c r="H29" s="297" t="s">
         <v>167</v>
       </c>
-      <c r="I29" s="305" t="s">
+      <c r="I29" s="298" t="s">
         <v>176</v>
       </c>
-      <c r="J29" s="220" t="s">
+      <c r="J29" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K29" s="305"/>
-      <c r="L29" s="306"/>
-      <c r="M29" s="307"/>
-      <c r="N29" s="308"/>
-      <c r="O29" s="309"/>
-      <c r="P29" s="310"/>
-      <c r="Q29" s="308"/>
-      <c r="R29" s="311"/>
+      <c r="K29" s="298"/>
+      <c r="L29" s="299"/>
+      <c r="M29" s="300"/>
+      <c r="N29" s="301"/>
+      <c r="O29" s="302"/>
+      <c r="P29" s="303"/>
+      <c r="Q29" s="301"/>
+      <c r="R29" s="304"/>
     </row>
     <row r="30" spans="1:18" ht="24">
-      <c r="A30" s="202" t="s">
+      <c r="A30" s="199" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="192"/>
-      <c r="C30" s="200"/>
-      <c r="D30" s="200" t="s">
+      <c r="B30" s="189"/>
+      <c r="C30" s="197"/>
+      <c r="D30" s="197" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="257" t="s">
+      <c r="E30" s="250" t="s">
         <v>191</v>
       </c>
       <c r="F30" s="90"/>
       <c r="G30" s="91"/>
-      <c r="H30" s="304" t="s">
+      <c r="H30" s="297" t="s">
         <v>167</v>
       </c>
-      <c r="I30" s="312" t="s">
+      <c r="I30" s="305" t="s">
         <v>176</v>
       </c>
-      <c r="J30" s="220" t="s">
+      <c r="J30" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="K30" s="305"/>
-      <c r="L30" s="306"/>
-      <c r="M30" s="307"/>
-      <c r="N30" s="308"/>
-      <c r="O30" s="309"/>
-      <c r="P30" s="310"/>
-      <c r="Q30" s="308"/>
-      <c r="R30" s="311"/>
-    </row>
-    <row r="31" spans="1:18" s="209" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A31" s="202" t="s">
+      <c r="K30" s="298"/>
+      <c r="L30" s="299"/>
+      <c r="M30" s="300"/>
+      <c r="N30" s="301"/>
+      <c r="O30" s="302"/>
+      <c r="P30" s="303"/>
+      <c r="Q30" s="301"/>
+      <c r="R30" s="304"/>
+    </row>
+    <row r="31" spans="1:18" s="202" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A31" s="199" t="s">
         <v>192</v>
       </c>
-      <c r="B31" s="196"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="258" t="s">
+      <c r="B31" s="193"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="251" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="259" t="s">
+      <c r="E31" s="252" t="s">
         <v>194</v>
       </c>
       <c r="F31" s="90"/>
       <c r="G31" s="91"/>
-      <c r="H31" s="313" t="s">
+      <c r="H31" s="306" t="s">
         <v>264</v>
       </c>
-      <c r="I31" s="314" t="s">
+      <c r="I31" s="307" t="s">
         <v>265</v>
       </c>
-      <c r="J31" s="314" t="s">
+      <c r="J31" s="307" t="s">
         <v>266</v>
       </c>
-      <c r="K31" s="314"/>
-      <c r="L31" s="315"/>
-      <c r="M31" s="316"/>
-      <c r="N31" s="317"/>
-      <c r="O31" s="318"/>
-      <c r="P31" s="315"/>
-      <c r="Q31" s="319"/>
-      <c r="R31" s="320"/>
-    </row>
-    <row r="32" spans="1:18" s="209" customFormat="1" ht="57" customHeight="1">
-      <c r="A32" s="202" t="s">
+      <c r="K31" s="307"/>
+      <c r="L31" s="308"/>
+      <c r="M31" s="309"/>
+      <c r="N31" s="310"/>
+      <c r="O31" s="311"/>
+      <c r="P31" s="308"/>
+      <c r="Q31" s="312"/>
+      <c r="R31" s="313"/>
+    </row>
+    <row r="32" spans="1:18" s="202" customFormat="1" ht="57" customHeight="1">
+      <c r="A32" s="199" t="s">
         <v>195</v>
       </c>
-      <c r="B32" s="196"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="260"/>
-      <c r="E32" s="259" t="s">
+      <c r="B32" s="193"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="253"/>
+      <c r="E32" s="252" t="s">
         <v>412</v>
       </c>
       <c r="F32" s="90"/>
       <c r="G32" s="91"/>
-      <c r="H32" s="313" t="s">
+      <c r="H32" s="306" t="s">
         <v>264</v>
       </c>
-      <c r="I32" s="314" t="s">
+      <c r="I32" s="307" t="s">
         <v>386</v>
       </c>
-      <c r="J32" s="314" t="s">
+      <c r="J32" s="307" t="s">
         <v>266</v>
       </c>
-      <c r="K32" s="314"/>
-      <c r="L32" s="315"/>
-      <c r="M32" s="316"/>
-      <c r="N32" s="317"/>
-      <c r="O32" s="318"/>
-      <c r="P32" s="315"/>
-      <c r="Q32" s="319"/>
-      <c r="R32" s="320"/>
-    </row>
-    <row r="33" spans="1:18" s="209" customFormat="1" ht="60">
-      <c r="A33" s="202" t="s">
+      <c r="K32" s="307"/>
+      <c r="L32" s="308"/>
+      <c r="M32" s="309"/>
+      <c r="N32" s="310"/>
+      <c r="O32" s="311"/>
+      <c r="P32" s="308"/>
+      <c r="Q32" s="312"/>
+      <c r="R32" s="313"/>
+    </row>
+    <row r="33" spans="1:18" s="202" customFormat="1" ht="60">
+      <c r="A33" s="199" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="196"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="260"/>
-      <c r="E33" s="259" t="s">
+      <c r="B33" s="193"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="253"/>
+      <c r="E33" s="252" t="s">
         <v>197</v>
       </c>
       <c r="F33" s="90"/>
       <c r="G33" s="91"/>
-      <c r="H33" s="313" t="s">
+      <c r="H33" s="306" t="s">
         <v>264</v>
       </c>
-      <c r="I33" s="314" t="s">
+      <c r="I33" s="307" t="s">
         <v>386</v>
       </c>
-      <c r="J33" s="314" t="s">
+      <c r="J33" s="307" t="s">
         <v>266</v>
       </c>
-      <c r="K33" s="314"/>
-      <c r="L33" s="315"/>
-      <c r="M33" s="316"/>
-      <c r="N33" s="317"/>
-      <c r="O33" s="318"/>
-      <c r="P33" s="315"/>
-      <c r="Q33" s="319"/>
-      <c r="R33" s="320"/>
-    </row>
-    <row r="34" spans="1:18" s="209" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A34" s="202" t="s">
+      <c r="K33" s="307"/>
+      <c r="L33" s="308"/>
+      <c r="M33" s="309"/>
+      <c r="N33" s="310"/>
+      <c r="O33" s="311"/>
+      <c r="P33" s="308"/>
+      <c r="Q33" s="312"/>
+      <c r="R33" s="313"/>
+    </row>
+    <row r="34" spans="1:18" s="202" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A34" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="B34" s="196"/>
-      <c r="C34" s="199"/>
-      <c r="D34" s="260"/>
-      <c r="E34" s="259" t="s">
+      <c r="B34" s="193"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="253"/>
+      <c r="E34" s="252" t="s">
         <v>199</v>
       </c>
       <c r="F34" s="90"/>
       <c r="G34" s="91"/>
-      <c r="H34" s="313" t="s">
+      <c r="H34" s="306" t="s">
         <v>264</v>
       </c>
-      <c r="I34" s="314" t="s">
+      <c r="I34" s="307" t="s">
         <v>387</v>
       </c>
-      <c r="J34" s="314" t="s">
+      <c r="J34" s="307" t="s">
         <v>266</v>
       </c>
-      <c r="K34" s="314"/>
-      <c r="L34" s="315"/>
-      <c r="M34" s="316"/>
-      <c r="N34" s="317"/>
-      <c r="O34" s="318"/>
-      <c r="P34" s="315"/>
-      <c r="Q34" s="319"/>
-      <c r="R34" s="320"/>
+      <c r="K34" s="307"/>
+      <c r="L34" s="308"/>
+      <c r="M34" s="309"/>
+      <c r="N34" s="310"/>
+      <c r="O34" s="311"/>
+      <c r="P34" s="308"/>
+      <c r="Q34" s="312"/>
+      <c r="R34" s="313"/>
     </row>
     <row r="35" spans="1:18" ht="50.25" customHeight="1">
-      <c r="A35" s="202" t="s">
+      <c r="A35" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="196"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="260"/>
-      <c r="E35" s="259" t="s">
+      <c r="B35" s="193"/>
+      <c r="C35" s="196"/>
+      <c r="D35" s="253"/>
+      <c r="E35" s="252" t="s">
         <v>201</v>
       </c>
       <c r="F35" s="90"/>
       <c r="G35" s="91"/>
-      <c r="H35" s="313" t="s">
+      <c r="H35" s="306" t="s">
         <v>264</v>
       </c>
-      <c r="I35" s="314" t="s">
+      <c r="I35" s="307" t="s">
         <v>267</v>
       </c>
-      <c r="J35" s="314" t="s">
+      <c r="J35" s="307" t="s">
         <v>266</v>
       </c>
-      <c r="K35" s="314"/>
-      <c r="L35" s="321"/>
-      <c r="M35" s="322"/>
-      <c r="N35" s="321"/>
-      <c r="O35" s="323"/>
-      <c r="P35" s="321"/>
-      <c r="Q35" s="321"/>
-      <c r="R35" s="322"/>
+      <c r="K35" s="307"/>
+      <c r="L35" s="314"/>
+      <c r="M35" s="315"/>
+      <c r="N35" s="314"/>
+      <c r="O35" s="316"/>
+      <c r="P35" s="314"/>
+      <c r="Q35" s="314"/>
+      <c r="R35" s="315"/>
     </row>
     <row r="36" spans="1:18" ht="50.25" customHeight="1">
-      <c r="A36" s="202" t="s">
+      <c r="A36" s="199" t="s">
         <v>202</v>
       </c>
-      <c r="B36" s="196"/>
-      <c r="C36" s="199"/>
-      <c r="D36" s="260"/>
-      <c r="E36" s="259" t="s">
+      <c r="B36" s="193"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="253"/>
+      <c r="E36" s="252" t="s">
         <v>203</v>
       </c>
       <c r="F36" s="90"/>
       <c r="G36" s="91"/>
-      <c r="H36" s="313" t="s">
+      <c r="H36" s="306" t="s">
         <v>264</v>
       </c>
-      <c r="I36" s="314" t="s">
+      <c r="I36" s="307" t="s">
         <v>267</v>
       </c>
-      <c r="J36" s="314" t="s">
+      <c r="J36" s="307" t="s">
         <v>266</v>
       </c>
-      <c r="K36" s="314"/>
-      <c r="L36" s="321"/>
-      <c r="M36" s="322"/>
-      <c r="N36" s="321"/>
-      <c r="O36" s="323"/>
-      <c r="P36" s="321"/>
-      <c r="Q36" s="321"/>
-      <c r="R36" s="322"/>
+      <c r="K36" s="307"/>
+      <c r="L36" s="314"/>
+      <c r="M36" s="315"/>
+      <c r="N36" s="314"/>
+      <c r="O36" s="316"/>
+      <c r="P36" s="314"/>
+      <c r="Q36" s="314"/>
+      <c r="R36" s="315"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="202" t="s">
+      <c r="A37" s="199" t="s">
         <v>204</v>
       </c>
-      <c r="B37" s="196"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="260"/>
-      <c r="E37" s="259" t="s">
+      <c r="B37" s="193"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="253"/>
+      <c r="E37" s="252" t="s">
         <v>205</v>
       </c>
       <c r="F37" s="90"/>
       <c r="G37" s="91"/>
-      <c r="H37" s="313" t="s">
+      <c r="H37" s="306" t="s">
         <v>167</v>
       </c>
-      <c r="I37" s="314" t="s">
+      <c r="I37" s="307" t="s">
         <v>268</v>
       </c>
-      <c r="J37" s="314" t="s">
+      <c r="J37" s="307" t="s">
         <v>266</v>
       </c>
-      <c r="K37" s="314"/>
-      <c r="L37" s="321"/>
-      <c r="M37" s="322"/>
-      <c r="N37" s="321"/>
-      <c r="O37" s="323"/>
-      <c r="P37" s="321"/>
-      <c r="Q37" s="321"/>
-      <c r="R37" s="322"/>
+      <c r="K37" s="307"/>
+      <c r="L37" s="314"/>
+      <c r="M37" s="315"/>
+      <c r="N37" s="314"/>
+      <c r="O37" s="316"/>
+      <c r="P37" s="314"/>
+      <c r="Q37" s="314"/>
+      <c r="R37" s="315"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="202" t="s">
+      <c r="A38" s="199" t="s">
         <v>206</v>
       </c>
-      <c r="B38" s="196"/>
-      <c r="C38" s="199"/>
-      <c r="D38" s="260"/>
-      <c r="E38" s="259" t="s">
+      <c r="B38" s="193"/>
+      <c r="C38" s="196"/>
+      <c r="D38" s="253"/>
+      <c r="E38" s="252" t="s">
         <v>207</v>
       </c>
       <c r="F38" s="90"/>
       <c r="G38" s="91"/>
-      <c r="H38" s="313" t="s">
+      <c r="H38" s="306" t="s">
         <v>167</v>
       </c>
-      <c r="I38" s="314" t="s">
+      <c r="I38" s="307" t="s">
         <v>268</v>
       </c>
-      <c r="J38" s="314" t="s">
+      <c r="J38" s="307" t="s">
         <v>266</v>
       </c>
-      <c r="K38" s="314"/>
-      <c r="L38" s="321"/>
-      <c r="M38" s="322"/>
-      <c r="N38" s="321"/>
-      <c r="O38" s="323"/>
-      <c r="P38" s="321"/>
-      <c r="Q38" s="321"/>
-      <c r="R38" s="322"/>
+      <c r="K38" s="307"/>
+      <c r="L38" s="314"/>
+      <c r="M38" s="315"/>
+      <c r="N38" s="314"/>
+      <c r="O38" s="316"/>
+      <c r="P38" s="314"/>
+      <c r="Q38" s="314"/>
+      <c r="R38" s="315"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="202" t="s">
+      <c r="A39" s="199" t="s">
         <v>208</v>
       </c>
-      <c r="B39" s="196"/>
-      <c r="C39" s="199"/>
-      <c r="D39" s="261"/>
-      <c r="E39" s="259" t="s">
+      <c r="B39" s="193"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="254"/>
+      <c r="E39" s="252" t="s">
         <v>209</v>
       </c>
       <c r="F39" s="90"/>
       <c r="G39" s="91"/>
-      <c r="H39" s="313" t="s">
+      <c r="H39" s="306" t="s">
         <v>167</v>
       </c>
-      <c r="I39" s="314" t="s">
+      <c r="I39" s="307" t="s">
         <v>268</v>
       </c>
-      <c r="J39" s="314" t="s">
+      <c r="J39" s="307" t="s">
         <v>266</v>
       </c>
-      <c r="K39" s="314"/>
-      <c r="L39" s="321"/>
-      <c r="M39" s="322"/>
-      <c r="N39" s="321"/>
-      <c r="O39" s="323"/>
-      <c r="P39" s="321"/>
-      <c r="Q39" s="321"/>
-      <c r="R39" s="322"/>
+      <c r="K39" s="307"/>
+      <c r="L39" s="314"/>
+      <c r="M39" s="315"/>
+      <c r="N39" s="314"/>
+      <c r="O39" s="316"/>
+      <c r="P39" s="314"/>
+      <c r="Q39" s="314"/>
+      <c r="R39" s="315"/>
     </row>
     <row r="40" spans="1:18" ht="59.25" customHeight="1">
-      <c r="A40" s="262" t="s">
+      <c r="A40" s="255" t="s">
         <v>210</v>
       </c>
-      <c r="B40" s="196"/>
-      <c r="C40" s="199"/>
-      <c r="D40" s="263" t="s">
+      <c r="B40" s="193"/>
+      <c r="C40" s="196"/>
+      <c r="D40" s="256" t="s">
         <v>211</v>
       </c>
-      <c r="E40" s="259" t="s">
+      <c r="E40" s="252" t="s">
         <v>413</v>
       </c>
       <c r="F40" s="90"/>
       <c r="G40" s="91"/>
-      <c r="H40" s="313" t="s">
+      <c r="H40" s="306" t="s">
         <v>264</v>
       </c>
-      <c r="I40" s="314" t="s">
+      <c r="I40" s="307" t="s">
         <v>386</v>
       </c>
-      <c r="J40" s="314" t="s">
+      <c r="J40" s="307" t="s">
         <v>269</v>
       </c>
-      <c r="K40" s="314"/>
-      <c r="L40" s="321"/>
-      <c r="M40" s="322"/>
-      <c r="N40" s="321"/>
-      <c r="O40" s="323"/>
-      <c r="P40" s="321"/>
-      <c r="Q40" s="321"/>
-      <c r="R40" s="322"/>
+      <c r="K40" s="307"/>
+      <c r="L40" s="314"/>
+      <c r="M40" s="315"/>
+      <c r="N40" s="314"/>
+      <c r="O40" s="316"/>
+      <c r="P40" s="314"/>
+      <c r="Q40" s="314"/>
+      <c r="R40" s="315"/>
     </row>
     <row r="41" spans="1:18" ht="60">
-      <c r="A41" s="262" t="s">
+      <c r="A41" s="255" t="s">
         <v>212</v>
       </c>
-      <c r="B41" s="196"/>
-      <c r="C41" s="199"/>
-      <c r="D41" s="260"/>
-      <c r="E41" s="259" t="s">
+      <c r="B41" s="193"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="253"/>
+      <c r="E41" s="252" t="s">
         <v>182</v>
       </c>
       <c r="F41" s="90"/>
       <c r="G41" s="91"/>
-      <c r="H41" s="313" t="s">
+      <c r="H41" s="306" t="s">
         <v>264</v>
       </c>
-      <c r="I41" s="314" t="s">
+      <c r="I41" s="307" t="s">
         <v>386</v>
       </c>
-      <c r="J41" s="314" t="s">
+      <c r="J41" s="307" t="s">
         <v>269</v>
       </c>
-      <c r="K41" s="314"/>
-      <c r="L41" s="321"/>
-      <c r="M41" s="322"/>
-      <c r="N41" s="321"/>
-      <c r="O41" s="323"/>
-      <c r="P41" s="321"/>
-      <c r="Q41" s="321"/>
-      <c r="R41" s="322"/>
-    </row>
-    <row r="42" spans="1:18" ht="54.75" customHeight="1">
-      <c r="A42" s="262" t="s">
+      <c r="K41" s="307"/>
+      <c r="L41" s="314"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="314"/>
+      <c r="O41" s="316"/>
+      <c r="P41" s="314"/>
+      <c r="Q41" s="314"/>
+      <c r="R41" s="315"/>
+    </row>
+    <row r="42" spans="1:18" ht="58.5" customHeight="1">
+      <c r="A42" s="255" t="s">
         <v>213</v>
       </c>
-      <c r="B42" s="196"/>
-      <c r="C42" s="199"/>
-      <c r="D42" s="260"/>
-      <c r="E42" s="259" t="s">
+      <c r="B42" s="193"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="253"/>
+      <c r="E42" s="252" t="s">
         <v>184</v>
       </c>
       <c r="F42" s="90"/>
       <c r="G42" s="91"/>
-      <c r="H42" s="313" t="s">
+      <c r="H42" s="306" t="s">
         <v>264</v>
       </c>
-      <c r="I42" s="314" t="s">
+      <c r="I42" s="307" t="s">
         <v>270</v>
       </c>
-      <c r="J42" s="314" t="s">
+      <c r="J42" s="307" t="s">
         <v>269</v>
       </c>
-      <c r="K42" s="314"/>
-      <c r="L42" s="321"/>
-      <c r="M42" s="322"/>
-      <c r="N42" s="321"/>
-      <c r="O42" s="323"/>
-      <c r="P42" s="321"/>
-      <c r="Q42" s="321"/>
-      <c r="R42" s="322"/>
-    </row>
-    <row r="43" spans="1:18" ht="54.75" customHeight="1">
-      <c r="A43" s="262" t="s">
+      <c r="K42" s="307"/>
+      <c r="L42" s="314"/>
+      <c r="M42" s="315"/>
+      <c r="N42" s="314"/>
+      <c r="O42" s="316"/>
+      <c r="P42" s="314"/>
+      <c r="Q42" s="314"/>
+      <c r="R42" s="315"/>
+    </row>
+    <row r="43" spans="1:18" ht="60.75" customHeight="1">
+      <c r="A43" s="255" t="s">
         <v>214</v>
       </c>
-      <c r="B43" s="196"/>
-      <c r="C43" s="199"/>
-      <c r="D43" s="260"/>
-      <c r="E43" s="259" t="s">
+      <c r="B43" s="193"/>
+      <c r="C43" s="196"/>
+      <c r="D43" s="253"/>
+      <c r="E43" s="252" t="s">
         <v>186</v>
       </c>
       <c r="F43" s="90"/>
       <c r="G43" s="91"/>
-      <c r="H43" s="313" t="s">
+      <c r="H43" s="306" t="s">
         <v>264</v>
       </c>
-      <c r="I43" s="314" t="s">
+      <c r="I43" s="307" t="s">
         <v>270</v>
       </c>
-      <c r="J43" s="314" t="s">
+      <c r="J43" s="307" t="s">
         <v>269</v>
       </c>
-      <c r="K43" s="314"/>
-      <c r="L43" s="321"/>
-      <c r="M43" s="322"/>
-      <c r="N43" s="321"/>
-      <c r="O43" s="323"/>
-      <c r="P43" s="321"/>
-      <c r="Q43" s="321"/>
-      <c r="R43" s="322"/>
+      <c r="K43" s="307"/>
+      <c r="L43" s="314"/>
+      <c r="M43" s="315"/>
+      <c r="N43" s="314"/>
+      <c r="O43" s="316"/>
+      <c r="P43" s="314"/>
+      <c r="Q43" s="314"/>
+      <c r="R43" s="315"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="262" t="s">
+      <c r="A44" s="255" t="s">
         <v>215</v>
       </c>
-      <c r="B44" s="196"/>
-      <c r="C44" s="199"/>
-      <c r="D44" s="260"/>
-      <c r="E44" s="264" t="s">
+      <c r="B44" s="193"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="253"/>
+      <c r="E44" s="257" t="s">
         <v>397</v>
       </c>
       <c r="F44" s="90"/>
       <c r="G44" s="91"/>
-      <c r="H44" s="324" t="s">
+      <c r="H44" s="317" t="s">
         <v>167</v>
       </c>
-      <c r="I44" s="325" t="s">
+      <c r="I44" s="318" t="s">
         <v>174</v>
       </c>
-      <c r="J44" s="314" t="s">
+      <c r="J44" s="307" t="s">
         <v>269</v>
       </c>
-      <c r="K44" s="325"/>
-      <c r="L44" s="326"/>
-      <c r="M44" s="327"/>
-      <c r="N44" s="326"/>
-      <c r="O44" s="328"/>
-      <c r="P44" s="326"/>
-      <c r="Q44" s="326"/>
-      <c r="R44" s="322"/>
+      <c r="K44" s="318"/>
+      <c r="L44" s="319"/>
+      <c r="M44" s="320"/>
+      <c r="N44" s="319"/>
+      <c r="O44" s="321"/>
+      <c r="P44" s="319"/>
+      <c r="Q44" s="319"/>
+      <c r="R44" s="315"/>
     </row>
     <row r="45" spans="1:18" ht="24">
-      <c r="A45" s="262" t="s">
+      <c r="A45" s="255" t="s">
         <v>216</v>
       </c>
-      <c r="B45" s="199"/>
-      <c r="C45" s="265" t="s">
+      <c r="B45" s="196"/>
+      <c r="C45" s="258" t="s">
         <v>217</v>
       </c>
-      <c r="D45" s="266"/>
-      <c r="E45" s="266" t="s">
+      <c r="D45" s="259"/>
+      <c r="E45" s="259" t="s">
         <v>218</v>
       </c>
       <c r="F45" s="92"/>
       <c r="G45" s="93"/>
-      <c r="H45" s="329" t="s">
+      <c r="H45" s="322" t="s">
         <v>271</v>
       </c>
-      <c r="I45" s="330" t="s">
+      <c r="I45" s="323" t="s">
         <v>272</v>
       </c>
-      <c r="J45" s="330" t="s">
+      <c r="J45" s="323" t="s">
         <v>273</v>
       </c>
-      <c r="K45" s="330"/>
-      <c r="L45" s="331"/>
-      <c r="M45" s="332"/>
-      <c r="N45" s="331"/>
-      <c r="O45" s="333"/>
-      <c r="P45" s="331"/>
-      <c r="Q45" s="331"/>
-      <c r="R45" s="334"/>
+      <c r="K45" s="323"/>
+      <c r="L45" s="324"/>
+      <c r="M45" s="325"/>
+      <c r="N45" s="324"/>
+      <c r="O45" s="326"/>
+      <c r="P45" s="324"/>
+      <c r="Q45" s="324"/>
+      <c r="R45" s="327"/>
     </row>
     <row r="46" spans="1:18" ht="24">
-      <c r="A46" s="262" t="s">
+      <c r="A46" s="255" t="s">
         <v>219</v>
       </c>
-      <c r="B46" s="199"/>
-      <c r="C46" s="199"/>
-      <c r="D46" s="260"/>
-      <c r="E46" s="267" t="s">
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="253"/>
+      <c r="E46" s="260" t="s">
         <v>220</v>
       </c>
       <c r="F46" s="94"/>
       <c r="G46" s="95"/>
-      <c r="H46" s="335" t="s">
+      <c r="H46" s="328" t="s">
         <v>271</v>
       </c>
-      <c r="I46" s="336" t="s">
+      <c r="I46" s="329" t="s">
         <v>272</v>
       </c>
-      <c r="J46" s="330" t="s">
+      <c r="J46" s="323" t="s">
         <v>273</v>
       </c>
-      <c r="K46" s="336"/>
-      <c r="L46" s="337"/>
-      <c r="M46" s="338"/>
-      <c r="N46" s="337"/>
-      <c r="O46" s="339"/>
-      <c r="P46" s="337"/>
-      <c r="Q46" s="337"/>
-      <c r="R46" s="340"/>
+      <c r="K46" s="329"/>
+      <c r="L46" s="330"/>
+      <c r="M46" s="331"/>
+      <c r="N46" s="330"/>
+      <c r="O46" s="332"/>
+      <c r="P46" s="330"/>
+      <c r="Q46" s="330"/>
+      <c r="R46" s="333"/>
     </row>
     <row r="47" spans="1:18" ht="24">
-      <c r="A47" s="262" t="s">
+      <c r="A47" s="255" t="s">
         <v>221</v>
       </c>
-      <c r="B47" s="199"/>
-      <c r="C47" s="199"/>
-      <c r="D47" s="260"/>
-      <c r="E47" s="268" t="s">
+      <c r="B47" s="196"/>
+      <c r="C47" s="196"/>
+      <c r="D47" s="253"/>
+      <c r="E47" s="261" t="s">
         <v>222</v>
       </c>
       <c r="F47" s="96"/>
       <c r="G47" s="97"/>
-      <c r="H47" s="341" t="s">
+      <c r="H47" s="334" t="s">
         <v>167</v>
       </c>
-      <c r="I47" s="342" t="s">
+      <c r="I47" s="335" t="s">
         <v>176</v>
       </c>
-      <c r="J47" s="330" t="s">
+      <c r="J47" s="323" t="s">
         <v>273</v>
       </c>
-      <c r="K47" s="342"/>
-      <c r="L47" s="343"/>
-      <c r="M47" s="344"/>
-      <c r="N47" s="343"/>
-      <c r="O47" s="345"/>
-      <c r="P47" s="343"/>
-      <c r="Q47" s="343"/>
-      <c r="R47" s="346"/>
+      <c r="K47" s="335"/>
+      <c r="L47" s="336"/>
+      <c r="M47" s="337"/>
+      <c r="N47" s="336"/>
+      <c r="O47" s="338"/>
+      <c r="P47" s="336"/>
+      <c r="Q47" s="336"/>
+      <c r="R47" s="339"/>
     </row>
     <row r="48" spans="1:18" ht="24">
-      <c r="A48" s="262" t="s">
+      <c r="A48" s="255" t="s">
         <v>223</v>
       </c>
-      <c r="B48" s="199"/>
-      <c r="C48" s="199"/>
-      <c r="D48" s="260"/>
-      <c r="E48" s="269" t="s">
+      <c r="B48" s="196"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="253"/>
+      <c r="E48" s="262" t="s">
         <v>224</v>
       </c>
       <c r="F48" s="98"/>
       <c r="G48" s="99"/>
-      <c r="H48" s="347" t="s">
+      <c r="H48" s="340" t="s">
         <v>167</v>
       </c>
-      <c r="I48" s="348" t="s">
+      <c r="I48" s="341" t="s">
         <v>176</v>
       </c>
-      <c r="J48" s="330" t="s">
+      <c r="J48" s="323" t="s">
         <v>273</v>
       </c>
-      <c r="K48" s="348"/>
-      <c r="L48" s="349"/>
-      <c r="M48" s="350"/>
-      <c r="N48" s="349"/>
-      <c r="O48" s="351"/>
-      <c r="P48" s="349"/>
-      <c r="Q48" s="349"/>
-      <c r="R48" s="352"/>
+      <c r="K48" s="341"/>
+      <c r="L48" s="342"/>
+      <c r="M48" s="343"/>
+      <c r="N48" s="342"/>
+      <c r="O48" s="344"/>
+      <c r="P48" s="342"/>
+      <c r="Q48" s="342"/>
+      <c r="R48" s="345"/>
     </row>
     <row r="49" spans="1:18" ht="36">
-      <c r="A49" s="262" t="s">
+      <c r="A49" s="255" t="s">
         <v>225</v>
       </c>
-      <c r="B49" s="199"/>
-      <c r="C49" s="199"/>
-      <c r="D49" s="260"/>
-      <c r="E49" s="270" t="s">
+      <c r="B49" s="196"/>
+      <c r="C49" s="196"/>
+      <c r="D49" s="253"/>
+      <c r="E49" s="263" t="s">
         <v>226</v>
       </c>
       <c r="F49" s="100"/>
       <c r="G49" s="101"/>
-      <c r="H49" s="353" t="s">
+      <c r="H49" s="346" t="s">
         <v>167</v>
       </c>
-      <c r="I49" s="354" t="s">
+      <c r="I49" s="347" t="s">
         <v>176</v>
       </c>
-      <c r="J49" s="330" t="s">
+      <c r="J49" s="323" t="s">
         <v>273</v>
       </c>
-      <c r="K49" s="354"/>
-      <c r="L49" s="355"/>
-      <c r="M49" s="356"/>
-      <c r="N49" s="355"/>
-      <c r="O49" s="357"/>
-      <c r="P49" s="355"/>
-      <c r="Q49" s="355"/>
-      <c r="R49" s="358"/>
+      <c r="K49" s="347"/>
+      <c r="L49" s="348"/>
+      <c r="M49" s="349"/>
+      <c r="N49" s="348"/>
+      <c r="O49" s="350"/>
+      <c r="P49" s="348"/>
+      <c r="Q49" s="348"/>
+      <c r="R49" s="351"/>
     </row>
     <row r="50" spans="1:18" ht="24">
-      <c r="A50" s="262" t="s">
+      <c r="A50" s="255" t="s">
         <v>227</v>
       </c>
-      <c r="B50" s="199"/>
-      <c r="C50" s="199"/>
-      <c r="D50" s="260"/>
-      <c r="E50" s="271" t="s">
+      <c r="B50" s="196"/>
+      <c r="C50" s="196"/>
+      <c r="D50" s="253"/>
+      <c r="E50" s="264" t="s">
         <v>228</v>
       </c>
       <c r="F50" s="102"/>
       <c r="G50" s="103"/>
-      <c r="H50" s="359" t="s">
+      <c r="H50" s="352" t="s">
         <v>167</v>
       </c>
-      <c r="I50" s="360" t="s">
+      <c r="I50" s="353" t="s">
         <v>176</v>
       </c>
-      <c r="J50" s="330" t="s">
+      <c r="J50" s="323" t="s">
         <v>273</v>
       </c>
-      <c r="K50" s="360"/>
-      <c r="L50" s="361"/>
-      <c r="M50" s="362"/>
-      <c r="N50" s="361"/>
-      <c r="O50" s="363"/>
-      <c r="P50" s="361"/>
-      <c r="Q50" s="361"/>
-      <c r="R50" s="364"/>
+      <c r="K50" s="353"/>
+      <c r="L50" s="354"/>
+      <c r="M50" s="355"/>
+      <c r="N50" s="354"/>
+      <c r="O50" s="356"/>
+      <c r="P50" s="354"/>
+      <c r="Q50" s="354"/>
+      <c r="R50" s="357"/>
     </row>
     <row r="51" spans="1:18" ht="24">
-      <c r="A51" s="262" t="s">
+      <c r="A51" s="255" t="s">
         <v>229</v>
       </c>
-      <c r="B51" s="199"/>
-      <c r="C51" s="199"/>
-      <c r="D51" s="260"/>
-      <c r="E51" s="272" t="s">
+      <c r="B51" s="196"/>
+      <c r="C51" s="196"/>
+      <c r="D51" s="253"/>
+      <c r="E51" s="265" t="s">
         <v>230</v>
       </c>
       <c r="F51" s="104"/>
       <c r="G51" s="105"/>
-      <c r="H51" s="365" t="s">
+      <c r="H51" s="358" t="s">
         <v>167</v>
       </c>
-      <c r="I51" s="366" t="s">
+      <c r="I51" s="359" t="s">
         <v>176</v>
       </c>
-      <c r="J51" s="330" t="s">
+      <c r="J51" s="323" t="s">
         <v>273</v>
       </c>
-      <c r="K51" s="366"/>
-      <c r="L51" s="367"/>
-      <c r="M51" s="368"/>
-      <c r="N51" s="367"/>
-      <c r="O51" s="369"/>
-      <c r="P51" s="367"/>
-      <c r="Q51" s="367"/>
-      <c r="R51" s="370"/>
+      <c r="K51" s="359"/>
+      <c r="L51" s="360"/>
+      <c r="M51" s="361"/>
+      <c r="N51" s="360"/>
+      <c r="O51" s="362"/>
+      <c r="P51" s="360"/>
+      <c r="Q51" s="360"/>
+      <c r="R51" s="363"/>
     </row>
     <row r="52" spans="1:18" ht="24">
-      <c r="A52" s="262" t="s">
+      <c r="A52" s="255" t="s">
         <v>231</v>
       </c>
-      <c r="B52" s="199"/>
-      <c r="C52" s="199"/>
-      <c r="D52" s="260"/>
-      <c r="E52" s="273" t="s">
+      <c r="B52" s="196"/>
+      <c r="C52" s="196"/>
+      <c r="D52" s="253"/>
+      <c r="E52" s="266" t="s">
         <v>232</v>
       </c>
       <c r="F52" s="106"/>
       <c r="G52" s="107"/>
-      <c r="H52" s="371" t="s">
+      <c r="H52" s="364" t="s">
         <v>167</v>
       </c>
-      <c r="I52" s="372" t="s">
+      <c r="I52" s="365" t="s">
         <v>176</v>
       </c>
-      <c r="J52" s="330" t="s">
+      <c r="J52" s="323" t="s">
         <v>273</v>
       </c>
-      <c r="K52" s="372"/>
-      <c r="L52" s="373"/>
-      <c r="M52" s="374"/>
-      <c r="N52" s="373"/>
-      <c r="O52" s="375"/>
-      <c r="P52" s="373"/>
-      <c r="Q52" s="373"/>
-      <c r="R52" s="376"/>
+      <c r="K52" s="365"/>
+      <c r="L52" s="366"/>
+      <c r="M52" s="367"/>
+      <c r="N52" s="366"/>
+      <c r="O52" s="368"/>
+      <c r="P52" s="366"/>
+      <c r="Q52" s="366"/>
+      <c r="R52" s="369"/>
     </row>
     <row r="53" spans="1:18" ht="24">
-      <c r="A53" s="262" t="s">
+      <c r="A53" s="255" t="s">
         <v>233</v>
       </c>
-      <c r="B53" s="274"/>
-      <c r="C53" s="274"/>
-      <c r="D53" s="260"/>
-      <c r="E53" s="275" t="s">
+      <c r="B53" s="267"/>
+      <c r="C53" s="267"/>
+      <c r="D53" s="253"/>
+      <c r="E53" s="268" t="s">
         <v>234</v>
       </c>
       <c r="F53" s="108"/>
       <c r="G53" s="109"/>
-      <c r="H53" s="377" t="s">
+      <c r="H53" s="370" t="s">
         <v>167</v>
       </c>
-      <c r="I53" s="378" t="s">
+      <c r="I53" s="371" t="s">
         <v>176</v>
       </c>
-      <c r="J53" s="330" t="s">
+      <c r="J53" s="323" t="s">
         <v>273</v>
       </c>
-      <c r="K53" s="378"/>
-      <c r="L53" s="379"/>
-      <c r="M53" s="380"/>
-      <c r="N53" s="379"/>
-      <c r="O53" s="381"/>
-      <c r="P53" s="379"/>
-      <c r="Q53" s="379"/>
-      <c r="R53" s="382"/>
-    </row>
-    <row r="54" spans="1:18" s="209" customFormat="1" ht="48">
-      <c r="A54" s="276" t="s">
+      <c r="K53" s="371"/>
+      <c r="L53" s="372"/>
+      <c r="M53" s="373"/>
+      <c r="N53" s="372"/>
+      <c r="O53" s="374"/>
+      <c r="P53" s="372"/>
+      <c r="Q53" s="372"/>
+      <c r="R53" s="375"/>
+    </row>
+    <row r="54" spans="1:18" s="202" customFormat="1" ht="48">
+      <c r="A54" s="269" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="277" t="s">
+      <c r="B54" s="270" t="s">
         <v>235</v>
       </c>
-      <c r="C54" s="277" t="s">
+      <c r="C54" s="270" t="s">
         <v>236</v>
       </c>
-      <c r="D54" s="278" t="s">
+      <c r="D54" s="271" t="s">
         <v>384</v>
       </c>
-      <c r="E54" s="279" t="s">
+      <c r="E54" s="272" t="s">
         <v>237</v>
       </c>
       <c r="F54" s="58"/>
       <c r="G54" s="59"/>
-      <c r="H54" s="383" t="s">
+      <c r="H54" s="376" t="s">
         <v>274</v>
       </c>
-      <c r="I54" s="277" t="s">
+      <c r="I54" s="270" t="s">
         <v>384</v>
       </c>
-      <c r="J54" s="384" t="s">
+      <c r="J54" s="377" t="s">
         <v>275</v>
       </c>
-      <c r="K54" s="384" t="s">
+      <c r="K54" s="377" t="s">
         <v>276</v>
       </c>
-      <c r="L54" s="385"/>
-      <c r="M54" s="386"/>
-      <c r="N54" s="214" t="s">
+      <c r="L54" s="378"/>
+      <c r="M54" s="379"/>
+      <c r="N54" s="207" t="s">
         <v>171</v>
       </c>
-      <c r="O54" s="215">
+      <c r="O54" s="208">
         <v>43658</v>
       </c>
-      <c r="P54" s="216" t="s">
+      <c r="P54" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="Q54" s="214"/>
-      <c r="R54" s="387"/>
-    </row>
-    <row r="55" spans="1:18" s="209" customFormat="1" ht="36">
-      <c r="A55" s="276" t="s">
+      <c r="Q54" s="207"/>
+      <c r="R54" s="380"/>
+    </row>
+    <row r="55" spans="1:18" s="202" customFormat="1" ht="36">
+      <c r="A55" s="269" t="s">
         <v>238</v>
       </c>
-      <c r="B55" s="277"/>
-      <c r="C55" s="277"/>
-      <c r="D55" s="277"/>
-      <c r="E55" s="280" t="s">
+      <c r="B55" s="270"/>
+      <c r="C55" s="270"/>
+      <c r="D55" s="270"/>
+      <c r="E55" s="273" t="s">
         <v>239</v>
       </c>
       <c r="F55" s="108"/>
       <c r="G55" s="109"/>
-      <c r="H55" s="383" t="s">
+      <c r="H55" s="376" t="s">
         <v>274</v>
       </c>
-      <c r="I55" s="383" t="s">
+      <c r="I55" s="376" t="s">
         <v>277</v>
       </c>
-      <c r="J55" s="388" t="s">
+      <c r="J55" s="381" t="s">
         <v>278</v>
       </c>
-      <c r="K55" s="384" t="s">
+      <c r="K55" s="377" t="s">
         <v>279</v>
       </c>
-      <c r="L55" s="212"/>
-      <c r="M55" s="213"/>
-      <c r="N55" s="214" t="s">
+      <c r="L55" s="205"/>
+      <c r="M55" s="206"/>
+      <c r="N55" s="207" t="s">
         <v>171</v>
       </c>
-      <c r="O55" s="215">
+      <c r="O55" s="208">
         <v>43658</v>
       </c>
-      <c r="P55" s="216" t="s">
+      <c r="P55" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="Q55" s="217"/>
-      <c r="R55" s="389"/>
-    </row>
-    <row r="56" spans="1:18" s="209" customFormat="1" ht="24">
-      <c r="A56" s="276" t="s">
+      <c r="Q55" s="210"/>
+      <c r="R55" s="382"/>
+    </row>
+    <row r="56" spans="1:18" s="202" customFormat="1" ht="24">
+      <c r="A56" s="269" t="s">
         <v>240</v>
       </c>
-      <c r="B56" s="277"/>
-      <c r="C56" s="277"/>
-      <c r="D56" s="277"/>
-      <c r="E56" s="280" t="s">
+      <c r="B56" s="270"/>
+      <c r="C56" s="270"/>
+      <c r="D56" s="270"/>
+      <c r="E56" s="273" t="s">
         <v>241</v>
       </c>
       <c r="F56" s="108"/>
       <c r="G56" s="109"/>
-      <c r="H56" s="383" t="s">
+      <c r="H56" s="376" t="s">
         <v>274</v>
       </c>
-      <c r="I56" s="383" t="s">
+      <c r="I56" s="376" t="s">
         <v>277</v>
       </c>
-      <c r="J56" s="384" t="s">
+      <c r="J56" s="377" t="s">
         <v>280</v>
       </c>
-      <c r="K56" s="384" t="s">
+      <c r="K56" s="377" t="s">
         <v>281</v>
       </c>
-      <c r="L56" s="212"/>
-      <c r="M56" s="213"/>
-      <c r="N56" s="214" t="s">
+      <c r="L56" s="205"/>
+      <c r="M56" s="206"/>
+      <c r="N56" s="207" t="s">
         <v>171</v>
       </c>
-      <c r="O56" s="215">
+      <c r="O56" s="208">
         <v>43658</v>
       </c>
-      <c r="P56" s="216" t="s">
+      <c r="P56" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="Q56" s="217"/>
-      <c r="R56" s="389"/>
-    </row>
-    <row r="57" spans="1:18" s="392" customFormat="1" ht="48">
-      <c r="A57" s="276" t="s">
+      <c r="Q56" s="210"/>
+      <c r="R56" s="382"/>
+    </row>
+    <row r="57" spans="1:18" s="385" customFormat="1" ht="48">
+      <c r="A57" s="269" t="s">
         <v>242</v>
       </c>
-      <c r="B57" s="277"/>
-      <c r="C57" s="277"/>
-      <c r="D57" s="277"/>
-      <c r="E57" s="280" t="s">
+      <c r="B57" s="270"/>
+      <c r="C57" s="270"/>
+      <c r="D57" s="270"/>
+      <c r="E57" s="273" t="s">
         <v>243</v>
       </c>
       <c r="F57" s="60"/>
       <c r="G57" s="61"/>
-      <c r="H57" s="383" t="s">
+      <c r="H57" s="376" t="s">
         <v>274</v>
       </c>
-      <c r="I57" s="383" t="s">
+      <c r="I57" s="376" t="s">
         <v>384</v>
       </c>
-      <c r="J57" s="388" t="s">
+      <c r="J57" s="381" t="s">
         <v>275</v>
       </c>
-      <c r="K57" s="388" t="s">
+      <c r="K57" s="381" t="s">
         <v>282</v>
       </c>
-      <c r="L57" s="212"/>
-      <c r="M57" s="213"/>
-      <c r="N57" s="217" t="s">
+      <c r="L57" s="205"/>
+      <c r="M57" s="206"/>
+      <c r="N57" s="210" t="s">
         <v>171</v>
       </c>
-      <c r="O57" s="390">
+      <c r="O57" s="383">
         <v>43658</v>
       </c>
-      <c r="P57" s="391" t="s">
+      <c r="P57" s="384" t="s">
         <v>172</v>
       </c>
-      <c r="Q57" s="217"/>
-      <c r="R57" s="389"/>
-    </row>
-    <row r="58" spans="1:18" s="392" customFormat="1" ht="36">
-      <c r="A58" s="276" t="s">
+      <c r="Q57" s="210"/>
+      <c r="R57" s="382"/>
+    </row>
+    <row r="58" spans="1:18" s="385" customFormat="1" ht="36">
+      <c r="A58" s="269" t="s">
         <v>244</v>
       </c>
-      <c r="B58" s="277"/>
-      <c r="C58" s="277"/>
-      <c r="D58" s="281"/>
-      <c r="E58" s="280" t="s">
+      <c r="B58" s="270"/>
+      <c r="C58" s="270"/>
+      <c r="D58" s="274"/>
+      <c r="E58" s="273" t="s">
         <v>245</v>
       </c>
       <c r="F58" s="108"/>
       <c r="G58" s="109"/>
-      <c r="H58" s="383" t="s">
+      <c r="H58" s="376" t="s">
         <v>274</v>
       </c>
-      <c r="I58" s="383" t="s">
+      <c r="I58" s="376" t="s">
         <v>277</v>
       </c>
-      <c r="J58" s="388" t="s">
+      <c r="J58" s="381" t="s">
         <v>278</v>
       </c>
-      <c r="K58" s="384" t="s">
+      <c r="K58" s="377" t="s">
         <v>279</v>
       </c>
-      <c r="L58" s="212"/>
-      <c r="M58" s="213"/>
-      <c r="N58" s="214" t="s">
+      <c r="L58" s="205"/>
+      <c r="M58" s="206"/>
+      <c r="N58" s="207" t="s">
         <v>171</v>
       </c>
-      <c r="O58" s="215">
+      <c r="O58" s="208">
         <v>43658</v>
       </c>
-      <c r="P58" s="216" t="s">
+      <c r="P58" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="Q58" s="217"/>
-      <c r="R58" s="389"/>
-    </row>
-    <row r="59" spans="1:18" s="209" customFormat="1" ht="24">
-      <c r="A59" s="262" t="s">
+      <c r="Q58" s="210"/>
+      <c r="R58" s="382"/>
+    </row>
+    <row r="59" spans="1:18" s="202" customFormat="1" ht="24">
+      <c r="A59" s="255" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="200"/>
-      <c r="C59" s="200"/>
-      <c r="D59" s="282" t="s">
+      <c r="B59" s="197"/>
+      <c r="C59" s="197"/>
+      <c r="D59" s="275" t="s">
         <v>246</v>
       </c>
-      <c r="E59" s="283" t="s">
+      <c r="E59" s="276" t="s">
         <v>247</v>
       </c>
       <c r="F59" s="111"/>
       <c r="G59" s="112"/>
-      <c r="H59" s="393" t="s">
+      <c r="H59" s="386" t="s">
         <v>274</v>
       </c>
-      <c r="I59" s="393" t="s">
+      <c r="I59" s="386" t="s">
         <v>277</v>
       </c>
-      <c r="J59" s="394" t="s">
+      <c r="J59" s="387" t="s">
         <v>283</v>
       </c>
-      <c r="K59" s="284"/>
-      <c r="L59" s="221"/>
-      <c r="M59" s="222"/>
-      <c r="N59" s="223"/>
-      <c r="O59" s="224"/>
-      <c r="P59" s="225"/>
-      <c r="Q59" s="223"/>
-      <c r="R59" s="395"/>
-    </row>
-    <row r="60" spans="1:18" s="209" customFormat="1" ht="24">
-      <c r="A60" s="262" t="s">
+      <c r="K59" s="277"/>
+      <c r="L59" s="214"/>
+      <c r="M59" s="215"/>
+      <c r="N59" s="216"/>
+      <c r="O59" s="217"/>
+      <c r="P59" s="218"/>
+      <c r="Q59" s="216"/>
+      <c r="R59" s="388"/>
+    </row>
+    <row r="60" spans="1:18" s="202" customFormat="1" ht="24">
+      <c r="A60" s="255" t="s">
         <v>248</v>
       </c>
-      <c r="B60" s="200"/>
-      <c r="C60" s="200"/>
-      <c r="D60" s="200"/>
-      <c r="E60" s="284" t="s">
+      <c r="B60" s="197"/>
+      <c r="C60" s="197"/>
+      <c r="D60" s="197"/>
+      <c r="E60" s="277" t="s">
         <v>249</v>
       </c>
       <c r="F60" s="111"/>
       <c r="G60" s="112"/>
-      <c r="H60" s="393" t="s">
+      <c r="H60" s="386" t="s">
         <v>274</v>
       </c>
-      <c r="I60" s="393" t="s">
+      <c r="I60" s="386" t="s">
         <v>277</v>
       </c>
-      <c r="J60" s="394" t="s">
+      <c r="J60" s="387" t="s">
         <v>283</v>
       </c>
-      <c r="K60" s="284"/>
-      <c r="L60" s="221"/>
-      <c r="M60" s="222"/>
-      <c r="N60" s="223"/>
-      <c r="O60" s="224"/>
-      <c r="P60" s="225"/>
-      <c r="Q60" s="223"/>
-      <c r="R60" s="395"/>
-    </row>
-    <row r="61" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A61" s="262" t="s">
+      <c r="K60" s="277"/>
+      <c r="L60" s="214"/>
+      <c r="M60" s="215"/>
+      <c r="N60" s="216"/>
+      <c r="O60" s="217"/>
+      <c r="P60" s="218"/>
+      <c r="Q60" s="216"/>
+      <c r="R60" s="388"/>
+    </row>
+    <row r="61" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A61" s="255" t="s">
         <v>250</v>
       </c>
-      <c r="B61" s="200"/>
-      <c r="C61" s="200"/>
-      <c r="D61" s="257"/>
-      <c r="E61" s="284" t="s">
+      <c r="B61" s="197"/>
+      <c r="C61" s="197"/>
+      <c r="D61" s="250"/>
+      <c r="E61" s="277" t="s">
         <v>251</v>
       </c>
       <c r="F61" s="62"/>
       <c r="G61" s="63"/>
-      <c r="H61" s="393" t="s">
+      <c r="H61" s="386" t="s">
         <v>274</v>
       </c>
-      <c r="I61" s="393" t="s">
+      <c r="I61" s="386" t="s">
         <v>384</v>
       </c>
-      <c r="J61" s="394" t="s">
+      <c r="J61" s="387" t="s">
         <v>283</v>
       </c>
-      <c r="K61" s="284"/>
-      <c r="L61" s="221"/>
-      <c r="M61" s="222"/>
-      <c r="N61" s="223"/>
-      <c r="O61" s="224"/>
-      <c r="P61" s="225"/>
-      <c r="Q61" s="223"/>
-      <c r="R61" s="395"/>
-    </row>
-    <row r="62" spans="1:18" s="209" customFormat="1" ht="24">
-      <c r="A62" s="276" t="s">
+      <c r="K61" s="277"/>
+      <c r="L61" s="214"/>
+      <c r="M61" s="215"/>
+      <c r="N61" s="216"/>
+      <c r="O61" s="217"/>
+      <c r="P61" s="218"/>
+      <c r="Q61" s="216"/>
+      <c r="R61" s="388"/>
+    </row>
+    <row r="62" spans="1:18" s="202" customFormat="1" ht="24">
+      <c r="A62" s="269" t="s">
         <v>252</v>
       </c>
-      <c r="B62" s="277"/>
-      <c r="C62" s="277"/>
-      <c r="D62" s="285" t="s">
+      <c r="B62" s="270"/>
+      <c r="C62" s="270"/>
+      <c r="D62" s="278" t="s">
         <v>253</v>
       </c>
-      <c r="E62" s="286" t="s">
+      <c r="E62" s="279" t="s">
         <v>254</v>
       </c>
       <c r="F62" s="111"/>
       <c r="G62" s="112"/>
-      <c r="H62" s="396" t="s">
+      <c r="H62" s="389" t="s">
         <v>274</v>
       </c>
-      <c r="I62" s="396" t="s">
+      <c r="I62" s="389" t="s">
         <v>384</v>
       </c>
-      <c r="J62" s="397" t="s">
+      <c r="J62" s="390" t="s">
         <v>284</v>
       </c>
-      <c r="K62" s="397" t="s">
+      <c r="K62" s="390" t="s">
         <v>285</v>
       </c>
-      <c r="L62" s="212"/>
-      <c r="M62" s="213"/>
-      <c r="N62" s="217" t="s">
+      <c r="L62" s="205"/>
+      <c r="M62" s="206"/>
+      <c r="N62" s="210" t="s">
         <v>171</v>
       </c>
-      <c r="O62" s="390">
+      <c r="O62" s="383">
         <v>43658</v>
       </c>
-      <c r="P62" s="391" t="s">
+      <c r="P62" s="384" t="s">
         <v>172</v>
       </c>
-      <c r="Q62" s="217"/>
-      <c r="R62" s="398"/>
-    </row>
-    <row r="63" spans="1:18" s="209" customFormat="1" ht="36">
-      <c r="A63" s="276" t="s">
+      <c r="Q62" s="210"/>
+      <c r="R62" s="391"/>
+    </row>
+    <row r="63" spans="1:18" s="202" customFormat="1" ht="36">
+      <c r="A63" s="269" t="s">
         <v>255</v>
       </c>
-      <c r="B63" s="277"/>
-      <c r="C63" s="277"/>
-      <c r="D63" s="281"/>
-      <c r="E63" s="286" t="s">
+      <c r="B63" s="270"/>
+      <c r="C63" s="270"/>
+      <c r="D63" s="274"/>
+      <c r="E63" s="279" t="s">
         <v>256</v>
       </c>
       <c r="F63" s="111"/>
       <c r="G63" s="112"/>
-      <c r="H63" s="396" t="s">
+      <c r="H63" s="389" t="s">
         <v>274</v>
       </c>
-      <c r="I63" s="396" t="s">
+      <c r="I63" s="389" t="s">
         <v>384</v>
       </c>
-      <c r="J63" s="397" t="s">
+      <c r="J63" s="390" t="s">
         <v>286</v>
       </c>
-      <c r="K63" s="397" t="s">
+      <c r="K63" s="390" t="s">
         <v>287</v>
       </c>
-      <c r="L63" s="212"/>
-      <c r="M63" s="213"/>
-      <c r="N63" s="217" t="s">
+      <c r="L63" s="205"/>
+      <c r="M63" s="206"/>
+      <c r="N63" s="210" t="s">
         <v>171</v>
       </c>
-      <c r="O63" s="390">
+      <c r="O63" s="383">
         <v>43658</v>
       </c>
-      <c r="P63" s="391" t="s">
+      <c r="P63" s="384" t="s">
         <v>172</v>
       </c>
-      <c r="Q63" s="217"/>
-      <c r="R63" s="398"/>
-    </row>
-    <row r="64" spans="1:18" s="209" customFormat="1" ht="36">
-      <c r="A64" s="262" t="s">
+      <c r="Q63" s="210"/>
+      <c r="R63" s="391"/>
+    </row>
+    <row r="64" spans="1:18" s="202" customFormat="1" ht="36">
+      <c r="A64" s="255" t="s">
         <v>257</v>
       </c>
-      <c r="B64" s="200"/>
-      <c r="C64" s="200"/>
-      <c r="D64" s="287" t="s">
+      <c r="B64" s="197"/>
+      <c r="C64" s="197"/>
+      <c r="D64" s="280" t="s">
         <v>258</v>
       </c>
-      <c r="E64" s="284" t="s">
+      <c r="E64" s="277" t="s">
         <v>259</v>
       </c>
       <c r="F64" s="111"/>
       <c r="G64" s="112"/>
-      <c r="H64" s="393" t="s">
+      <c r="H64" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="I64" s="393" t="s">
+      <c r="I64" s="386" t="s">
         <v>288</v>
       </c>
-      <c r="J64" s="284" t="s">
+      <c r="J64" s="277" t="s">
         <v>289</v>
       </c>
-      <c r="K64" s="284"/>
-      <c r="L64" s="221"/>
-      <c r="M64" s="222"/>
-      <c r="N64" s="223"/>
-      <c r="O64" s="224"/>
-      <c r="P64" s="225"/>
-      <c r="Q64" s="223"/>
-      <c r="R64" s="395"/>
-    </row>
-    <row r="65" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A65" s="262" t="s">
+      <c r="K64" s="277"/>
+      <c r="L64" s="214"/>
+      <c r="M64" s="215"/>
+      <c r="N64" s="216"/>
+      <c r="O64" s="217"/>
+      <c r="P64" s="218"/>
+      <c r="Q64" s="216"/>
+      <c r="R64" s="388"/>
+    </row>
+    <row r="65" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A65" s="255" t="s">
         <v>260</v>
       </c>
-      <c r="B65" s="200"/>
-      <c r="C65" s="200"/>
-      <c r="D65" s="200"/>
-      <c r="E65" s="284" t="s">
+      <c r="B65" s="197"/>
+      <c r="C65" s="197"/>
+      <c r="D65" s="197"/>
+      <c r="E65" s="277" t="s">
         <v>261</v>
       </c>
       <c r="F65" s="111"/>
       <c r="G65" s="112"/>
-      <c r="H65" s="393" t="s">
+      <c r="H65" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="I65" s="393" t="s">
+      <c r="I65" s="386" t="s">
         <v>288</v>
       </c>
-      <c r="J65" s="284" t="s">
+      <c r="J65" s="277" t="s">
         <v>289</v>
       </c>
-      <c r="K65" s="284"/>
-      <c r="L65" s="221"/>
-      <c r="M65" s="222"/>
-      <c r="N65" s="223"/>
-      <c r="O65" s="224"/>
-      <c r="P65" s="225"/>
-      <c r="Q65" s="223"/>
-      <c r="R65" s="395"/>
-    </row>
-    <row r="66" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A66" s="262" t="s">
+      <c r="K65" s="277"/>
+      <c r="L65" s="214"/>
+      <c r="M65" s="215"/>
+      <c r="N65" s="216"/>
+      <c r="O65" s="217"/>
+      <c r="P65" s="218"/>
+      <c r="Q65" s="216"/>
+      <c r="R65" s="388"/>
+    </row>
+    <row r="66" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A66" s="255" t="s">
         <v>262</v>
       </c>
-      <c r="B66" s="200"/>
-      <c r="C66" s="200"/>
-      <c r="D66" s="200"/>
-      <c r="E66" s="284" t="s">
+      <c r="B66" s="197"/>
+      <c r="C66" s="197"/>
+      <c r="D66" s="197"/>
+      <c r="E66" s="277" t="s">
         <v>263</v>
       </c>
       <c r="F66" s="111"/>
       <c r="G66" s="112"/>
-      <c r="H66" s="393" t="s">
+      <c r="H66" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="I66" s="393" t="s">
+      <c r="I66" s="386" t="s">
         <v>288</v>
       </c>
-      <c r="J66" s="284" t="s">
+      <c r="J66" s="277" t="s">
         <v>289</v>
       </c>
-      <c r="K66" s="284"/>
-      <c r="L66" s="221"/>
-      <c r="M66" s="222"/>
-      <c r="N66" s="223"/>
-      <c r="O66" s="224"/>
-      <c r="P66" s="225"/>
-      <c r="Q66" s="223"/>
-      <c r="R66" s="395"/>
+      <c r="K66" s="277"/>
+      <c r="L66" s="214"/>
+      <c r="M66" s="215"/>
+      <c r="N66" s="216"/>
+      <c r="O66" s="217"/>
+      <c r="P66" s="218"/>
+      <c r="Q66" s="216"/>
+      <c r="R66" s="388"/>
     </row>
     <row r="67" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="32" t="s">
@@ -9894,411 +9897,411 @@
       <c r="Q67" s="36"/>
       <c r="R67" s="115"/>
     </row>
-    <row r="68" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A68" s="262" t="s">
+    <row r="68" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A68" s="255" t="s">
         <v>290</v>
       </c>
-      <c r="B68" s="200"/>
-      <c r="C68" s="200"/>
-      <c r="D68" s="200"/>
-      <c r="E68" s="284" t="s">
+      <c r="B68" s="197"/>
+      <c r="C68" s="197"/>
+      <c r="D68" s="197"/>
+      <c r="E68" s="277" t="s">
         <v>291</v>
       </c>
       <c r="F68" s="111"/>
       <c r="G68" s="112"/>
-      <c r="H68" s="393" t="s">
+      <c r="H68" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="I68" s="393" t="s">
+      <c r="I68" s="386" t="s">
         <v>288</v>
       </c>
-      <c r="J68" s="284" t="s">
+      <c r="J68" s="277" t="s">
         <v>289</v>
       </c>
-      <c r="K68" s="284"/>
-      <c r="L68" s="221"/>
-      <c r="M68" s="222"/>
-      <c r="N68" s="223"/>
-      <c r="O68" s="224"/>
-      <c r="P68" s="225"/>
-      <c r="Q68" s="223"/>
-      <c r="R68" s="395"/>
-    </row>
-    <row r="69" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A69" s="262" t="s">
+      <c r="K68" s="277"/>
+      <c r="L68" s="214"/>
+      <c r="M68" s="215"/>
+      <c r="N68" s="216"/>
+      <c r="O68" s="217"/>
+      <c r="P68" s="218"/>
+      <c r="Q68" s="216"/>
+      <c r="R68" s="388"/>
+    </row>
+    <row r="69" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A69" s="255" t="s">
         <v>292</v>
       </c>
-      <c r="B69" s="200"/>
-      <c r="C69" s="200"/>
-      <c r="D69" s="200"/>
-      <c r="E69" s="284" t="s">
+      <c r="B69" s="197"/>
+      <c r="C69" s="197"/>
+      <c r="D69" s="197"/>
+      <c r="E69" s="277" t="s">
         <v>293</v>
       </c>
       <c r="F69" s="111"/>
       <c r="G69" s="112"/>
-      <c r="H69" s="393" t="s">
+      <c r="H69" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="I69" s="393" t="s">
+      <c r="I69" s="386" t="s">
         <v>288</v>
       </c>
-      <c r="J69" s="284" t="s">
+      <c r="J69" s="277" t="s">
         <v>289</v>
       </c>
-      <c r="K69" s="284"/>
-      <c r="L69" s="221"/>
-      <c r="M69" s="222"/>
-      <c r="N69" s="223"/>
-      <c r="O69" s="224"/>
-      <c r="P69" s="225"/>
-      <c r="Q69" s="223"/>
-      <c r="R69" s="395"/>
-    </row>
-    <row r="70" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A70" s="262" t="s">
+      <c r="K69" s="277"/>
+      <c r="L69" s="214"/>
+      <c r="M69" s="215"/>
+      <c r="N69" s="216"/>
+      <c r="O69" s="217"/>
+      <c r="P69" s="218"/>
+      <c r="Q69" s="216"/>
+      <c r="R69" s="388"/>
+    </row>
+    <row r="70" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A70" s="255" t="s">
         <v>294</v>
       </c>
-      <c r="B70" s="200"/>
-      <c r="C70" s="200"/>
-      <c r="D70" s="200"/>
-      <c r="E70" s="284" t="s">
+      <c r="B70" s="197"/>
+      <c r="C70" s="197"/>
+      <c r="D70" s="197"/>
+      <c r="E70" s="277" t="s">
         <v>295</v>
       </c>
       <c r="F70" s="111"/>
       <c r="G70" s="112"/>
-      <c r="H70" s="393" t="s">
+      <c r="H70" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="I70" s="393" t="s">
+      <c r="I70" s="386" t="s">
         <v>288</v>
       </c>
-      <c r="J70" s="284" t="s">
+      <c r="J70" s="277" t="s">
         <v>289</v>
       </c>
-      <c r="K70" s="284"/>
-      <c r="L70" s="221"/>
-      <c r="M70" s="222"/>
-      <c r="N70" s="223"/>
-      <c r="O70" s="224"/>
-      <c r="P70" s="225"/>
-      <c r="Q70" s="223"/>
-      <c r="R70" s="395"/>
-    </row>
-    <row r="71" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A71" s="262" t="s">
+      <c r="K70" s="277"/>
+      <c r="L70" s="214"/>
+      <c r="M70" s="215"/>
+      <c r="N70" s="216"/>
+      <c r="O70" s="217"/>
+      <c r="P70" s="218"/>
+      <c r="Q70" s="216"/>
+      <c r="R70" s="388"/>
+    </row>
+    <row r="71" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A71" s="255" t="s">
         <v>296</v>
       </c>
-      <c r="B71" s="200"/>
-      <c r="C71" s="200"/>
-      <c r="D71" s="257"/>
-      <c r="E71" s="284" t="s">
+      <c r="B71" s="197"/>
+      <c r="C71" s="197"/>
+      <c r="D71" s="250"/>
+      <c r="E71" s="277" t="s">
         <v>297</v>
       </c>
       <c r="F71" s="111"/>
       <c r="G71" s="112"/>
-      <c r="H71" s="393" t="s">
+      <c r="H71" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="I71" s="393" t="s">
+      <c r="I71" s="386" t="s">
         <v>288</v>
       </c>
-      <c r="J71" s="284" t="s">
+      <c r="J71" s="277" t="s">
         <v>289</v>
       </c>
-      <c r="K71" s="284"/>
-      <c r="L71" s="221"/>
-      <c r="M71" s="222"/>
-      <c r="N71" s="223"/>
-      <c r="O71" s="224"/>
-      <c r="P71" s="225"/>
-      <c r="Q71" s="223"/>
-      <c r="R71" s="395"/>
-    </row>
-    <row r="72" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A72" s="262" t="s">
+      <c r="K71" s="277"/>
+      <c r="L71" s="214"/>
+      <c r="M71" s="215"/>
+      <c r="N71" s="216"/>
+      <c r="O71" s="217"/>
+      <c r="P71" s="218"/>
+      <c r="Q71" s="216"/>
+      <c r="R71" s="388"/>
+    </row>
+    <row r="72" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A72" s="255" t="s">
         <v>298</v>
       </c>
-      <c r="B72" s="200"/>
-      <c r="C72" s="200"/>
-      <c r="D72" s="200" t="s">
+      <c r="B72" s="197"/>
+      <c r="C72" s="197"/>
+      <c r="D72" s="197" t="s">
         <v>299</v>
       </c>
-      <c r="E72" s="284" t="s">
+      <c r="E72" s="277" t="s">
         <v>199</v>
       </c>
       <c r="F72" s="111"/>
       <c r="G72" s="112"/>
-      <c r="H72" s="393" t="s">
+      <c r="H72" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="I72" s="404" t="s">
+      <c r="I72" s="397" t="s">
         <v>314</v>
       </c>
-      <c r="J72" s="284" t="s">
+      <c r="J72" s="277" t="s">
         <v>289</v>
       </c>
-      <c r="K72" s="284"/>
-      <c r="L72" s="221"/>
-      <c r="M72" s="222"/>
-      <c r="N72" s="223"/>
-      <c r="O72" s="224"/>
-      <c r="P72" s="225"/>
-      <c r="Q72" s="223"/>
-      <c r="R72" s="395"/>
-    </row>
-    <row r="73" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A73" s="262" t="s">
+      <c r="K72" s="277"/>
+      <c r="L72" s="214"/>
+      <c r="M72" s="215"/>
+      <c r="N72" s="216"/>
+      <c r="O72" s="217"/>
+      <c r="P72" s="218"/>
+      <c r="Q72" s="216"/>
+      <c r="R72" s="388"/>
+    </row>
+    <row r="73" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A73" s="255" t="s">
         <v>300</v>
       </c>
-      <c r="B73" s="200"/>
-      <c r="C73" s="200"/>
-      <c r="D73" s="287" t="s">
+      <c r="B73" s="197"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="280" t="s">
         <v>301</v>
       </c>
-      <c r="E73" s="284" t="s">
+      <c r="E73" s="277" t="s">
         <v>302</v>
       </c>
       <c r="F73" s="111"/>
       <c r="G73" s="112"/>
-      <c r="H73" s="393" t="s">
+      <c r="H73" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="I73" s="287" t="s">
+      <c r="I73" s="280" t="s">
         <v>315</v>
       </c>
-      <c r="J73" s="284" t="s">
+      <c r="J73" s="277" t="s">
         <v>316</v>
       </c>
-      <c r="K73" s="284"/>
-      <c r="L73" s="221"/>
-      <c r="M73" s="222"/>
-      <c r="N73" s="223"/>
-      <c r="O73" s="224"/>
-      <c r="P73" s="225"/>
-      <c r="Q73" s="223"/>
-      <c r="R73" s="395"/>
-    </row>
-    <row r="74" spans="1:18" s="209" customFormat="1">
-      <c r="A74" s="262" t="s">
+      <c r="K73" s="277"/>
+      <c r="L73" s="214"/>
+      <c r="M73" s="215"/>
+      <c r="N73" s="216"/>
+      <c r="O73" s="217"/>
+      <c r="P73" s="218"/>
+      <c r="Q73" s="216"/>
+      <c r="R73" s="388"/>
+    </row>
+    <row r="74" spans="1:18" s="202" customFormat="1">
+      <c r="A74" s="255" t="s">
         <v>303</v>
       </c>
-      <c r="B74" s="200"/>
-      <c r="C74" s="200"/>
-      <c r="D74" s="200"/>
-      <c r="E74" s="284" t="s">
+      <c r="B74" s="197"/>
+      <c r="C74" s="197"/>
+      <c r="D74" s="197"/>
+      <c r="E74" s="277" t="s">
         <v>304</v>
       </c>
       <c r="F74" s="111"/>
       <c r="G74" s="112"/>
-      <c r="H74" s="393" t="s">
+      <c r="H74" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="I74" s="287" t="s">
+      <c r="I74" s="280" t="s">
         <v>315</v>
       </c>
-      <c r="J74" s="284" t="s">
+      <c r="J74" s="277" t="s">
         <v>316</v>
       </c>
-      <c r="K74" s="284"/>
-      <c r="L74" s="221"/>
-      <c r="M74" s="222"/>
-      <c r="N74" s="223"/>
-      <c r="O74" s="224"/>
-      <c r="P74" s="225"/>
-      <c r="Q74" s="223"/>
-      <c r="R74" s="395"/>
-    </row>
-    <row r="75" spans="1:18" s="209" customFormat="1">
-      <c r="A75" s="262" t="s">
+      <c r="K74" s="277"/>
+      <c r="L74" s="214"/>
+      <c r="M74" s="215"/>
+      <c r="N74" s="216"/>
+      <c r="O74" s="217"/>
+      <c r="P74" s="218"/>
+      <c r="Q74" s="216"/>
+      <c r="R74" s="388"/>
+    </row>
+    <row r="75" spans="1:18" s="202" customFormat="1">
+      <c r="A75" s="255" t="s">
         <v>305</v>
       </c>
-      <c r="B75" s="200"/>
-      <c r="C75" s="200"/>
-      <c r="D75" s="257"/>
-      <c r="E75" s="284" t="s">
+      <c r="B75" s="197"/>
+      <c r="C75" s="197"/>
+      <c r="D75" s="250"/>
+      <c r="E75" s="277" t="s">
         <v>306</v>
       </c>
       <c r="F75" s="111"/>
       <c r="G75" s="112"/>
-      <c r="H75" s="393" t="s">
+      <c r="H75" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="I75" s="287" t="s">
+      <c r="I75" s="280" t="s">
         <v>315</v>
       </c>
-      <c r="J75" s="284" t="s">
+      <c r="J75" s="277" t="s">
         <v>316</v>
       </c>
-      <c r="K75" s="284"/>
-      <c r="L75" s="221"/>
-      <c r="M75" s="222"/>
-      <c r="N75" s="223"/>
-      <c r="O75" s="224"/>
-      <c r="P75" s="225"/>
-      <c r="Q75" s="223"/>
-      <c r="R75" s="395"/>
-    </row>
-    <row r="76" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A76" s="262" t="s">
+      <c r="K75" s="277"/>
+      <c r="L75" s="214"/>
+      <c r="M75" s="215"/>
+      <c r="N75" s="216"/>
+      <c r="O75" s="217"/>
+      <c r="P75" s="218"/>
+      <c r="Q75" s="216"/>
+      <c r="R75" s="388"/>
+    </row>
+    <row r="76" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A76" s="255" t="s">
         <v>307</v>
       </c>
-      <c r="B76" s="200"/>
-      <c r="C76" s="200"/>
-      <c r="D76" s="287" t="s">
+      <c r="B76" s="197"/>
+      <c r="C76" s="197"/>
+      <c r="D76" s="280" t="s">
         <v>308</v>
       </c>
-      <c r="E76" s="284" t="s">
+      <c r="E76" s="277" t="s">
         <v>302</v>
       </c>
       <c r="F76" s="111"/>
       <c r="G76" s="112"/>
-      <c r="H76" s="393" t="s">
+      <c r="H76" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="I76" s="287" t="s">
+      <c r="I76" s="280" t="s">
         <v>315</v>
       </c>
-      <c r="J76" s="284" t="s">
+      <c r="J76" s="277" t="s">
         <v>317</v>
       </c>
-      <c r="K76" s="284"/>
-      <c r="L76" s="221"/>
-      <c r="M76" s="222"/>
-      <c r="N76" s="223"/>
-      <c r="O76" s="224"/>
-      <c r="P76" s="225"/>
-      <c r="Q76" s="223"/>
-      <c r="R76" s="395"/>
-    </row>
-    <row r="77" spans="1:18" s="209" customFormat="1">
-      <c r="A77" s="262" t="s">
+      <c r="K76" s="277"/>
+      <c r="L76" s="214"/>
+      <c r="M76" s="215"/>
+      <c r="N76" s="216"/>
+      <c r="O76" s="217"/>
+      <c r="P76" s="218"/>
+      <c r="Q76" s="216"/>
+      <c r="R76" s="388"/>
+    </row>
+    <row r="77" spans="1:18" s="202" customFormat="1">
+      <c r="A77" s="255" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="200"/>
-      <c r="C77" s="200"/>
-      <c r="D77" s="200"/>
-      <c r="E77" s="284" t="s">
+      <c r="B77" s="197"/>
+      <c r="C77" s="197"/>
+      <c r="D77" s="197"/>
+      <c r="E77" s="277" t="s">
         <v>304</v>
       </c>
       <c r="F77" s="111"/>
       <c r="G77" s="112"/>
-      <c r="H77" s="393" t="s">
+      <c r="H77" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="I77" s="287" t="s">
+      <c r="I77" s="280" t="s">
         <v>315</v>
       </c>
-      <c r="J77" s="284" t="s">
+      <c r="J77" s="277" t="s">
         <v>317</v>
       </c>
-      <c r="K77" s="284"/>
-      <c r="L77" s="221"/>
-      <c r="M77" s="222"/>
-      <c r="N77" s="223"/>
-      <c r="O77" s="224"/>
-      <c r="P77" s="225"/>
-      <c r="Q77" s="223"/>
-      <c r="R77" s="395"/>
-    </row>
-    <row r="78" spans="1:18" s="209" customFormat="1">
-      <c r="A78" s="262" t="s">
+      <c r="K77" s="277"/>
+      <c r="L77" s="214"/>
+      <c r="M77" s="215"/>
+      <c r="N77" s="216"/>
+      <c r="O77" s="217"/>
+      <c r="P77" s="218"/>
+      <c r="Q77" s="216"/>
+      <c r="R77" s="388"/>
+    </row>
+    <row r="78" spans="1:18" s="202" customFormat="1">
+      <c r="A78" s="255" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="200"/>
-      <c r="C78" s="200"/>
-      <c r="D78" s="257"/>
-      <c r="E78" s="399" t="s">
+      <c r="B78" s="197"/>
+      <c r="C78" s="197"/>
+      <c r="D78" s="250"/>
+      <c r="E78" s="392" t="s">
         <v>306</v>
       </c>
       <c r="F78" s="111"/>
       <c r="G78" s="112"/>
-      <c r="H78" s="393" t="s">
+      <c r="H78" s="386" t="s">
         <v>167</v>
       </c>
-      <c r="I78" s="287" t="s">
+      <c r="I78" s="280" t="s">
         <v>315</v>
       </c>
-      <c r="J78" s="284" t="s">
+      <c r="J78" s="277" t="s">
         <v>317</v>
       </c>
-      <c r="K78" s="284"/>
-      <c r="L78" s="221"/>
-      <c r="M78" s="222"/>
-      <c r="N78" s="223"/>
-      <c r="O78" s="224"/>
-      <c r="P78" s="225"/>
-      <c r="Q78" s="223"/>
-      <c r="R78" s="395"/>
-    </row>
-    <row r="79" spans="1:18" s="209" customFormat="1" ht="36">
-      <c r="A79" s="276" t="s">
+      <c r="K78" s="277"/>
+      <c r="L78" s="214"/>
+      <c r="M78" s="215"/>
+      <c r="N78" s="216"/>
+      <c r="O78" s="217"/>
+      <c r="P78" s="218"/>
+      <c r="Q78" s="216"/>
+      <c r="R78" s="388"/>
+    </row>
+    <row r="79" spans="1:18" s="202" customFormat="1" ht="36">
+      <c r="A79" s="269" t="s">
         <v>311</v>
       </c>
-      <c r="B79" s="277"/>
-      <c r="C79" s="277"/>
-      <c r="D79" s="400" t="s">
+      <c r="B79" s="270"/>
+      <c r="C79" s="270"/>
+      <c r="D79" s="393" t="s">
         <v>312</v>
       </c>
-      <c r="E79" s="401"/>
+      <c r="E79" s="394"/>
       <c r="F79" s="175"/>
       <c r="G79" s="176"/>
-      <c r="H79" s="405" t="s">
+      <c r="H79" s="398" t="s">
         <v>167</v>
       </c>
-      <c r="I79" s="406" t="s">
+      <c r="I79" s="399" t="s">
         <v>315</v>
       </c>
-      <c r="J79" s="286" t="s">
+      <c r="J79" s="279" t="s">
         <v>318</v>
       </c>
-      <c r="K79" s="286" t="s">
+      <c r="K79" s="279" t="s">
         <v>319</v>
       </c>
-      <c r="L79" s="212"/>
-      <c r="M79" s="213"/>
-      <c r="N79" s="217" t="s">
+      <c r="L79" s="205"/>
+      <c r="M79" s="206"/>
+      <c r="N79" s="210" t="s">
         <v>171</v>
       </c>
-      <c r="O79" s="390">
+      <c r="O79" s="383">
         <v>43658</v>
       </c>
-      <c r="P79" s="391" t="s">
+      <c r="P79" s="384" t="s">
         <v>172</v>
       </c>
-      <c r="Q79" s="217"/>
-      <c r="R79" s="407"/>
-    </row>
-    <row r="80" spans="1:18" s="209" customFormat="1" ht="84">
-      <c r="A80" s="276" t="s">
+      <c r="Q79" s="210"/>
+      <c r="R79" s="400"/>
+    </row>
+    <row r="80" spans="1:18" s="202" customFormat="1" ht="84">
+      <c r="A80" s="269" t="s">
         <v>313</v>
       </c>
-      <c r="B80" s="277"/>
-      <c r="C80" s="277"/>
-      <c r="D80" s="402"/>
-      <c r="E80" s="403"/>
+      <c r="B80" s="270"/>
+      <c r="C80" s="270"/>
+      <c r="D80" s="395"/>
+      <c r="E80" s="396"/>
       <c r="F80" s="177"/>
       <c r="G80" s="178"/>
-      <c r="H80" s="277"/>
-      <c r="I80" s="277"/>
-      <c r="J80" s="286" t="s">
+      <c r="H80" s="270"/>
+      <c r="I80" s="270"/>
+      <c r="J80" s="279" t="s">
         <v>320</v>
       </c>
-      <c r="K80" s="286" t="s">
+      <c r="K80" s="279" t="s">
         <v>383</v>
       </c>
-      <c r="L80" s="212"/>
-      <c r="M80" s="213"/>
-      <c r="N80" s="217" t="s">
+      <c r="L80" s="205"/>
+      <c r="M80" s="206"/>
+      <c r="N80" s="210" t="s">
         <v>171</v>
       </c>
-      <c r="O80" s="390">
+      <c r="O80" s="383">
         <v>43658</v>
       </c>
-      <c r="P80" s="391" t="s">
+      <c r="P80" s="384" t="s">
         <v>172</v>
       </c>
-      <c r="Q80" s="217"/>
-      <c r="R80" s="407"/>
+      <c r="Q80" s="210"/>
+      <c r="R80" s="400"/>
     </row>
     <row r="81" spans="1:18" s="29" customFormat="1" ht="22.5" hidden="1">
       <c r="A81" s="32" t="s">
@@ -10332,229 +10335,229 @@
       <c r="Q81" s="36"/>
       <c r="R81" s="115"/>
     </row>
-    <row r="82" spans="1:18" s="209" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A82" s="276" t="s">
+    <row r="82" spans="1:18" s="202" customFormat="1" ht="48" customHeight="1">
+      <c r="A82" s="269" t="s">
         <v>321</v>
       </c>
-      <c r="B82" s="277"/>
-      <c r="C82" s="285" t="s">
+      <c r="B82" s="270"/>
+      <c r="C82" s="278" t="s">
         <v>322</v>
       </c>
-      <c r="D82" s="408" t="s">
+      <c r="D82" s="401" t="s">
         <v>323</v>
       </c>
-      <c r="E82" s="409"/>
+      <c r="E82" s="402"/>
       <c r="F82" s="64"/>
       <c r="G82" s="65"/>
-      <c r="H82" s="285" t="s">
+      <c r="H82" s="278" t="s">
         <v>335</v>
       </c>
-      <c r="I82" s="285" t="s">
+      <c r="I82" s="278" t="s">
         <v>336</v>
       </c>
-      <c r="J82" s="286" t="s">
+      <c r="J82" s="279" t="s">
         <v>275</v>
       </c>
-      <c r="K82" s="286" t="s">
+      <c r="K82" s="279" t="s">
         <v>282</v>
       </c>
-      <c r="L82" s="415"/>
-      <c r="M82" s="416"/>
-      <c r="N82" s="417" t="s">
+      <c r="L82" s="408"/>
+      <c r="M82" s="409"/>
+      <c r="N82" s="410" t="s">
         <v>171</v>
       </c>
-      <c r="O82" s="418">
+      <c r="O82" s="411">
         <v>43658</v>
       </c>
-      <c r="P82" s="419" t="s">
+      <c r="P82" s="412" t="s">
         <v>172</v>
       </c>
-      <c r="Q82" s="417"/>
-      <c r="R82" s="420"/>
-    </row>
-    <row r="83" spans="1:18" s="209" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A83" s="276" t="s">
+      <c r="Q82" s="410"/>
+      <c r="R82" s="413"/>
+    </row>
+    <row r="83" spans="1:18" s="202" customFormat="1" ht="51" customHeight="1">
+      <c r="A83" s="269" t="s">
         <v>324</v>
       </c>
-      <c r="B83" s="277"/>
-      <c r="C83" s="277"/>
-      <c r="D83" s="410" t="s">
+      <c r="B83" s="270"/>
+      <c r="C83" s="270"/>
+      <c r="D83" s="403" t="s">
         <v>325</v>
       </c>
-      <c r="E83" s="411" t="s">
+      <c r="E83" s="404" t="s">
         <v>326</v>
       </c>
       <c r="F83" s="64"/>
       <c r="G83" s="65"/>
-      <c r="H83" s="285" t="s">
+      <c r="H83" s="278" t="s">
         <v>335</v>
       </c>
-      <c r="I83" s="285" t="s">
+      <c r="I83" s="278" t="s">
         <v>336</v>
       </c>
-      <c r="J83" s="286" t="s">
+      <c r="J83" s="279" t="s">
         <v>275</v>
       </c>
-      <c r="K83" s="286" t="s">
+      <c r="K83" s="279" t="s">
         <v>282</v>
       </c>
-      <c r="L83" s="415"/>
-      <c r="M83" s="416"/>
-      <c r="N83" s="417" t="s">
+      <c r="L83" s="408"/>
+      <c r="M83" s="409"/>
+      <c r="N83" s="410" t="s">
         <v>171</v>
       </c>
-      <c r="O83" s="418">
+      <c r="O83" s="411">
         <v>43658</v>
       </c>
-      <c r="P83" s="419" t="s">
+      <c r="P83" s="412" t="s">
         <v>172</v>
       </c>
-      <c r="Q83" s="417"/>
-      <c r="R83" s="420"/>
-    </row>
-    <row r="84" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A84" s="262" t="s">
+      <c r="Q83" s="410"/>
+      <c r="R83" s="413"/>
+    </row>
+    <row r="84" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A84" s="255" t="s">
         <v>327</v>
       </c>
-      <c r="B84" s="200"/>
-      <c r="C84" s="200"/>
-      <c r="D84" s="412"/>
-      <c r="E84" s="413" t="s">
+      <c r="B84" s="197"/>
+      <c r="C84" s="197"/>
+      <c r="D84" s="405"/>
+      <c r="E84" s="406" t="s">
         <v>328</v>
       </c>
       <c r="F84" s="118"/>
       <c r="G84" s="119"/>
-      <c r="H84" s="287" t="s">
+      <c r="H84" s="280" t="s">
         <v>335</v>
       </c>
-      <c r="I84" s="287" t="s">
+      <c r="I84" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="J84" s="284" t="s">
+      <c r="J84" s="277" t="s">
         <v>337</v>
       </c>
-      <c r="K84" s="284"/>
-      <c r="L84" s="421"/>
-      <c r="M84" s="422"/>
-      <c r="N84" s="423"/>
-      <c r="O84" s="424"/>
-      <c r="P84" s="425"/>
-      <c r="Q84" s="423"/>
-      <c r="R84" s="426"/>
-    </row>
-    <row r="85" spans="1:18" s="209" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A85" s="276" t="s">
+      <c r="K84" s="277"/>
+      <c r="L84" s="414"/>
+      <c r="M84" s="415"/>
+      <c r="N84" s="416"/>
+      <c r="O84" s="417"/>
+      <c r="P84" s="418"/>
+      <c r="Q84" s="416"/>
+      <c r="R84" s="419"/>
+    </row>
+    <row r="85" spans="1:18" s="202" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A85" s="269" t="s">
         <v>329</v>
       </c>
-      <c r="B85" s="277"/>
-      <c r="C85" s="277"/>
-      <c r="D85" s="410" t="s">
+      <c r="B85" s="270"/>
+      <c r="C85" s="270"/>
+      <c r="D85" s="403" t="s">
         <v>330</v>
       </c>
-      <c r="E85" s="414"/>
+      <c r="E85" s="407"/>
       <c r="F85" s="64"/>
       <c r="G85" s="65"/>
-      <c r="H85" s="285" t="s">
+      <c r="H85" s="278" t="s">
         <v>335</v>
       </c>
-      <c r="I85" s="285" t="s">
+      <c r="I85" s="278" t="s">
         <v>336</v>
       </c>
-      <c r="J85" s="286" t="s">
+      <c r="J85" s="279" t="s">
         <v>275</v>
       </c>
-      <c r="K85" s="286" t="s">
+      <c r="K85" s="279" t="s">
         <v>282</v>
       </c>
-      <c r="L85" s="415"/>
-      <c r="M85" s="416"/>
-      <c r="N85" s="417" t="s">
+      <c r="L85" s="408"/>
+      <c r="M85" s="409"/>
+      <c r="N85" s="410" t="s">
         <v>171</v>
       </c>
-      <c r="O85" s="418">
+      <c r="O85" s="411">
         <v>43658</v>
       </c>
-      <c r="P85" s="419" t="s">
+      <c r="P85" s="412" t="s">
         <v>172</v>
       </c>
-      <c r="Q85" s="417"/>
-      <c r="R85" s="420"/>
-    </row>
-    <row r="86" spans="1:18" s="209" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A86" s="276" t="s">
+      <c r="Q85" s="410"/>
+      <c r="R85" s="413"/>
+    </row>
+    <row r="86" spans="1:18" s="202" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A86" s="269" t="s">
         <v>331</v>
       </c>
-      <c r="B86" s="277"/>
-      <c r="C86" s="277"/>
-      <c r="D86" s="410" t="s">
+      <c r="B86" s="270"/>
+      <c r="C86" s="270"/>
+      <c r="D86" s="403" t="s">
         <v>332</v>
       </c>
-      <c r="E86" s="414"/>
+      <c r="E86" s="407"/>
       <c r="F86" s="64"/>
       <c r="G86" s="65"/>
-      <c r="H86" s="285" t="s">
+      <c r="H86" s="278" t="s">
         <v>335</v>
       </c>
-      <c r="I86" s="285" t="s">
+      <c r="I86" s="278" t="s">
         <v>336</v>
       </c>
-      <c r="J86" s="286" t="s">
+      <c r="J86" s="279" t="s">
         <v>275</v>
       </c>
-      <c r="K86" s="286" t="s">
+      <c r="K86" s="279" t="s">
         <v>282</v>
       </c>
-      <c r="L86" s="415"/>
-      <c r="M86" s="416"/>
-      <c r="N86" s="417" t="s">
+      <c r="L86" s="408"/>
+      <c r="M86" s="409"/>
+      <c r="N86" s="410" t="s">
         <v>171</v>
       </c>
-      <c r="O86" s="418">
+      <c r="O86" s="411">
         <v>43658</v>
       </c>
-      <c r="P86" s="419" t="s">
+      <c r="P86" s="412" t="s">
         <v>172</v>
       </c>
-      <c r="Q86" s="417"/>
-      <c r="R86" s="420"/>
-    </row>
-    <row r="87" spans="1:18" s="209" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A87" s="276" t="s">
+      <c r="Q86" s="410"/>
+      <c r="R86" s="413"/>
+    </row>
+    <row r="87" spans="1:18" s="202" customFormat="1" ht="48" customHeight="1">
+      <c r="A87" s="269" t="s">
         <v>333</v>
       </c>
-      <c r="B87" s="277"/>
-      <c r="C87" s="277"/>
-      <c r="D87" s="410" t="s">
+      <c r="B87" s="270"/>
+      <c r="C87" s="270"/>
+      <c r="D87" s="403" t="s">
         <v>334</v>
       </c>
-      <c r="E87" s="414"/>
+      <c r="E87" s="407"/>
       <c r="F87" s="64"/>
       <c r="G87" s="65"/>
-      <c r="H87" s="285" t="s">
+      <c r="H87" s="278" t="s">
         <v>335</v>
       </c>
-      <c r="I87" s="285" t="s">
+      <c r="I87" s="278" t="s">
         <v>336</v>
       </c>
-      <c r="J87" s="286" t="s">
+      <c r="J87" s="279" t="s">
         <v>275</v>
       </c>
-      <c r="K87" s="286" t="s">
+      <c r="K87" s="279" t="s">
         <v>282</v>
       </c>
-      <c r="L87" s="415"/>
-      <c r="M87" s="416"/>
-      <c r="N87" s="417" t="s">
+      <c r="L87" s="408"/>
+      <c r="M87" s="409"/>
+      <c r="N87" s="410" t="s">
         <v>171</v>
       </c>
-      <c r="O87" s="418">
+      <c r="O87" s="411">
         <v>43658</v>
       </c>
-      <c r="P87" s="419" t="s">
+      <c r="P87" s="412" t="s">
         <v>172</v>
       </c>
-      <c r="Q87" s="417"/>
-      <c r="R87" s="420"/>
+      <c r="Q87" s="410"/>
+      <c r="R87" s="413"/>
     </row>
     <row r="88" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="32" t="s">
@@ -10716,155 +10719,155 @@
       <c r="Q92" s="122"/>
       <c r="R92" s="125"/>
     </row>
-    <row r="93" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A93" s="262" t="s">
+    <row r="93" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A93" s="255" t="s">
         <v>338</v>
       </c>
-      <c r="B93" s="200"/>
-      <c r="C93" s="200"/>
-      <c r="D93" s="412" t="s">
+      <c r="B93" s="197"/>
+      <c r="C93" s="197"/>
+      <c r="D93" s="405" t="s">
         <v>339</v>
       </c>
-      <c r="E93" s="427"/>
+      <c r="E93" s="420"/>
       <c r="F93" s="118"/>
       <c r="G93" s="119"/>
-      <c r="H93" s="287" t="s">
+      <c r="H93" s="280" t="s">
         <v>335</v>
       </c>
-      <c r="I93" s="287" t="s">
+      <c r="I93" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="J93" s="284" t="s">
+      <c r="J93" s="277" t="s">
         <v>347</v>
       </c>
-      <c r="K93" s="284"/>
-      <c r="L93" s="421"/>
-      <c r="M93" s="422"/>
-      <c r="N93" s="423"/>
-      <c r="O93" s="424"/>
-      <c r="P93" s="425"/>
-      <c r="Q93" s="423"/>
-      <c r="R93" s="426"/>
-    </row>
-    <row r="94" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A94" s="262" t="s">
+      <c r="K93" s="277"/>
+      <c r="L93" s="414"/>
+      <c r="M93" s="415"/>
+      <c r="N93" s="416"/>
+      <c r="O93" s="417"/>
+      <c r="P93" s="418"/>
+      <c r="Q93" s="416"/>
+      <c r="R93" s="419"/>
+    </row>
+    <row r="94" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A94" s="255" t="s">
         <v>340</v>
       </c>
-      <c r="B94" s="200"/>
-      <c r="C94" s="200"/>
-      <c r="D94" s="412" t="s">
+      <c r="B94" s="197"/>
+      <c r="C94" s="197"/>
+      <c r="D94" s="405" t="s">
         <v>203</v>
       </c>
-      <c r="E94" s="427"/>
+      <c r="E94" s="420"/>
       <c r="F94" s="118"/>
       <c r="G94" s="119"/>
-      <c r="H94" s="287" t="s">
+      <c r="H94" s="280" t="s">
         <v>335</v>
       </c>
-      <c r="I94" s="287" t="s">
+      <c r="I94" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="J94" s="284" t="s">
+      <c r="J94" s="277" t="s">
         <v>347</v>
       </c>
-      <c r="K94" s="284"/>
-      <c r="L94" s="421"/>
-      <c r="M94" s="422"/>
-      <c r="N94" s="423"/>
-      <c r="O94" s="424"/>
-      <c r="P94" s="425"/>
-      <c r="Q94" s="423"/>
-      <c r="R94" s="426"/>
-    </row>
-    <row r="95" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A95" s="262" t="s">
+      <c r="K94" s="277"/>
+      <c r="L94" s="414"/>
+      <c r="M94" s="415"/>
+      <c r="N94" s="416"/>
+      <c r="O94" s="417"/>
+      <c r="P94" s="418"/>
+      <c r="Q94" s="416"/>
+      <c r="R94" s="419"/>
+    </row>
+    <row r="95" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A95" s="255" t="s">
         <v>341</v>
       </c>
-      <c r="B95" s="200"/>
-      <c r="C95" s="200"/>
-      <c r="D95" s="412" t="s">
+      <c r="B95" s="197"/>
+      <c r="C95" s="197"/>
+      <c r="D95" s="405" t="s">
         <v>342</v>
       </c>
-      <c r="E95" s="427"/>
+      <c r="E95" s="420"/>
       <c r="F95" s="118"/>
       <c r="G95" s="119"/>
-      <c r="H95" s="287" t="s">
+      <c r="H95" s="280" t="s">
         <v>335</v>
       </c>
-      <c r="I95" s="287" t="s">
+      <c r="I95" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="J95" s="284" t="s">
+      <c r="J95" s="277" t="s">
         <v>337</v>
       </c>
-      <c r="K95" s="284"/>
-      <c r="L95" s="421"/>
-      <c r="M95" s="422"/>
-      <c r="N95" s="423"/>
-      <c r="O95" s="424"/>
-      <c r="P95" s="425"/>
-      <c r="Q95" s="423"/>
-      <c r="R95" s="426"/>
-    </row>
-    <row r="96" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A96" s="262" t="s">
+      <c r="K95" s="277"/>
+      <c r="L95" s="414"/>
+      <c r="M95" s="415"/>
+      <c r="N95" s="416"/>
+      <c r="O95" s="417"/>
+      <c r="P95" s="418"/>
+      <c r="Q95" s="416"/>
+      <c r="R95" s="419"/>
+    </row>
+    <row r="96" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A96" s="255" t="s">
         <v>343</v>
       </c>
-      <c r="B96" s="200"/>
-      <c r="C96" s="200"/>
-      <c r="D96" s="412" t="s">
+      <c r="B96" s="197"/>
+      <c r="C96" s="197"/>
+      <c r="D96" s="405" t="s">
         <v>344</v>
       </c>
-      <c r="E96" s="427"/>
+      <c r="E96" s="420"/>
       <c r="F96" s="118"/>
       <c r="G96" s="119"/>
-      <c r="H96" s="283" t="s">
+      <c r="H96" s="276" t="s">
         <v>335</v>
       </c>
-      <c r="I96" s="283" t="s">
+      <c r="I96" s="276" t="s">
         <v>336</v>
       </c>
-      <c r="J96" s="284" t="s">
+      <c r="J96" s="277" t="s">
         <v>337</v>
       </c>
-      <c r="K96" s="428"/>
-      <c r="L96" s="221"/>
-      <c r="M96" s="222"/>
-      <c r="N96" s="223"/>
-      <c r="O96" s="224"/>
-      <c r="P96" s="225"/>
-      <c r="Q96" s="223"/>
-      <c r="R96" s="426"/>
-    </row>
-    <row r="97" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A97" s="262" t="s">
+      <c r="K96" s="421"/>
+      <c r="L96" s="214"/>
+      <c r="M96" s="215"/>
+      <c r="N96" s="216"/>
+      <c r="O96" s="217"/>
+      <c r="P96" s="218"/>
+      <c r="Q96" s="216"/>
+      <c r="R96" s="419"/>
+    </row>
+    <row r="97" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A97" s="255" t="s">
         <v>345</v>
       </c>
-      <c r="B97" s="200"/>
-      <c r="C97" s="200"/>
-      <c r="D97" s="412" t="s">
+      <c r="B97" s="197"/>
+      <c r="C97" s="197"/>
+      <c r="D97" s="405" t="s">
         <v>346</v>
       </c>
-      <c r="E97" s="427"/>
+      <c r="E97" s="420"/>
       <c r="F97" s="118"/>
       <c r="G97" s="119"/>
-      <c r="H97" s="287" t="s">
+      <c r="H97" s="280" t="s">
         <v>335</v>
       </c>
-      <c r="I97" s="287" t="s">
+      <c r="I97" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="J97" s="284" t="s">
+      <c r="J97" s="277" t="s">
         <v>348</v>
       </c>
-      <c r="K97" s="284"/>
-      <c r="L97" s="421"/>
-      <c r="M97" s="422"/>
-      <c r="N97" s="423"/>
-      <c r="O97" s="424"/>
-      <c r="P97" s="425"/>
-      <c r="Q97" s="423"/>
-      <c r="R97" s="426"/>
+      <c r="K97" s="277"/>
+      <c r="L97" s="414"/>
+      <c r="M97" s="415"/>
+      <c r="N97" s="416"/>
+      <c r="O97" s="417"/>
+      <c r="P97" s="418"/>
+      <c r="Q97" s="416"/>
+      <c r="R97" s="419"/>
     </row>
     <row r="98" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A98" s="32" t="s">
@@ -10898,95 +10901,95 @@
       <c r="Q98" s="36"/>
       <c r="R98" s="125"/>
     </row>
-    <row r="99" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A99" s="262" t="s">
+    <row r="99" spans="1:18" s="202" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A99" s="255" t="s">
         <v>349</v>
       </c>
-      <c r="B99" s="200"/>
-      <c r="C99" s="200"/>
-      <c r="D99" s="429" t="s">
+      <c r="B99" s="197"/>
+      <c r="C99" s="197"/>
+      <c r="D99" s="422" t="s">
         <v>350</v>
       </c>
-      <c r="E99" s="430"/>
+      <c r="E99" s="423"/>
       <c r="F99" s="118"/>
       <c r="G99" s="119"/>
-      <c r="H99" s="287" t="s">
+      <c r="H99" s="280" t="s">
         <v>335</v>
       </c>
-      <c r="I99" s="287" t="s">
+      <c r="I99" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="J99" s="284" t="s">
+      <c r="J99" s="277" t="s">
         <v>355</v>
       </c>
-      <c r="K99" s="284"/>
-      <c r="L99" s="421"/>
-      <c r="M99" s="422"/>
-      <c r="N99" s="423"/>
-      <c r="O99" s="424"/>
-      <c r="P99" s="425"/>
-      <c r="Q99" s="423"/>
-      <c r="R99" s="426"/>
-    </row>
-    <row r="100" spans="1:18" s="209" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A100" s="262" t="s">
+      <c r="K99" s="277"/>
+      <c r="L99" s="414"/>
+      <c r="M99" s="415"/>
+      <c r="N99" s="416"/>
+      <c r="O99" s="417"/>
+      <c r="P99" s="418"/>
+      <c r="Q99" s="416"/>
+      <c r="R99" s="419"/>
+    </row>
+    <row r="100" spans="1:18" s="202" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A100" s="255" t="s">
         <v>351</v>
       </c>
-      <c r="B100" s="200"/>
-      <c r="C100" s="200"/>
-      <c r="D100" s="429" t="s">
+      <c r="B100" s="197"/>
+      <c r="C100" s="197"/>
+      <c r="D100" s="422" t="s">
         <v>352</v>
       </c>
-      <c r="E100" s="430"/>
+      <c r="E100" s="423"/>
       <c r="F100" s="118"/>
       <c r="G100" s="119"/>
-      <c r="H100" s="287" t="s">
+      <c r="H100" s="280" t="s">
         <v>335</v>
       </c>
-      <c r="I100" s="287" t="s">
+      <c r="I100" s="280" t="s">
         <v>336</v>
       </c>
-      <c r="J100" s="284" t="s">
+      <c r="J100" s="277" t="s">
         <v>356</v>
       </c>
-      <c r="K100" s="284"/>
-      <c r="L100" s="421"/>
-      <c r="M100" s="422"/>
-      <c r="N100" s="423"/>
-      <c r="O100" s="424"/>
-      <c r="P100" s="425"/>
-      <c r="Q100" s="423"/>
-      <c r="R100" s="426"/>
-    </row>
-    <row r="101" spans="1:18" s="209" customFormat="1" ht="45" customHeight="1">
-      <c r="A101" s="431" t="s">
+      <c r="K100" s="277"/>
+      <c r="L100" s="414"/>
+      <c r="M100" s="415"/>
+      <c r="N100" s="416"/>
+      <c r="O100" s="417"/>
+      <c r="P100" s="418"/>
+      <c r="Q100" s="416"/>
+      <c r="R100" s="419"/>
+    </row>
+    <row r="101" spans="1:18" s="202" customFormat="1" ht="45" customHeight="1">
+      <c r="A101" s="424" t="s">
         <v>353</v>
       </c>
-      <c r="B101" s="200"/>
-      <c r="C101" s="200"/>
-      <c r="D101" s="432" t="s">
+      <c r="B101" s="197"/>
+      <c r="C101" s="197"/>
+      <c r="D101" s="425" t="s">
         <v>354</v>
       </c>
-      <c r="E101" s="433"/>
+      <c r="E101" s="426"/>
       <c r="F101" s="111"/>
       <c r="G101" s="112"/>
-      <c r="H101" s="434" t="s">
+      <c r="H101" s="427" t="s">
         <v>335</v>
       </c>
-      <c r="I101" s="434" t="s">
+      <c r="I101" s="427" t="s">
         <v>336</v>
       </c>
-      <c r="J101" s="435" t="s">
+      <c r="J101" s="428" t="s">
         <v>357</v>
       </c>
-      <c r="K101" s="435"/>
-      <c r="L101" s="436"/>
-      <c r="M101" s="437"/>
-      <c r="N101" s="438"/>
-      <c r="O101" s="439"/>
-      <c r="P101" s="440"/>
-      <c r="Q101" s="438"/>
-      <c r="R101" s="441"/>
+      <c r="K101" s="428"/>
+      <c r="L101" s="429"/>
+      <c r="M101" s="430"/>
+      <c r="N101" s="431"/>
+      <c r="O101" s="432"/>
+      <c r="P101" s="433"/>
+      <c r="Q101" s="431"/>
+      <c r="R101" s="434"/>
     </row>
     <row r="102" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="66" t="s">
@@ -11053,172 +11056,172 @@
       <c r="R103" s="137"/>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="442"/>
-      <c r="B104" s="442"/>
-      <c r="C104" s="443"/>
-      <c r="D104" s="444"/>
-      <c r="E104" s="443"/>
-      <c r="H104" s="443"/>
-      <c r="I104" s="442"/>
-      <c r="J104" s="442"/>
-      <c r="K104" s="442"/>
-      <c r="L104" s="442"/>
-      <c r="M104" s="442"/>
-      <c r="N104" s="442"/>
-      <c r="O104" s="442"/>
-      <c r="P104" s="442"/>
-      <c r="Q104" s="442"/>
-      <c r="R104" s="442"/>
+      <c r="A104" s="435"/>
+      <c r="B104" s="435"/>
+      <c r="C104" s="436"/>
+      <c r="D104" s="437"/>
+      <c r="E104" s="436"/>
+      <c r="H104" s="436"/>
+      <c r="I104" s="435"/>
+      <c r="J104" s="435"/>
+      <c r="K104" s="435"/>
+      <c r="L104" s="435"/>
+      <c r="M104" s="435"/>
+      <c r="N104" s="435"/>
+      <c r="O104" s="435"/>
+      <c r="P104" s="435"/>
+      <c r="Q104" s="435"/>
+      <c r="R104" s="435"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="C105" s="209"/>
-      <c r="D105" s="445"/>
-      <c r="E105" s="209"/>
-      <c r="H105" s="209"/>
+      <c r="C105" s="202"/>
+      <c r="D105" s="438"/>
+      <c r="E105" s="202"/>
+      <c r="H105" s="202"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="C106" s="209"/>
-      <c r="D106" s="445"/>
-      <c r="E106" s="209"/>
-      <c r="H106" s="209"/>
+      <c r="C106" s="202"/>
+      <c r="D106" s="438"/>
+      <c r="E106" s="202"/>
+      <c r="H106" s="202"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="C107" s="209"/>
-      <c r="D107" s="445"/>
-      <c r="E107" s="209"/>
-      <c r="H107" s="209"/>
+      <c r="C107" s="202"/>
+      <c r="D107" s="438"/>
+      <c r="E107" s="202"/>
+      <c r="H107" s="202"/>
     </row>
     <row r="108" spans="1:18">
-      <c r="C108" s="209"/>
-      <c r="D108" s="445"/>
-      <c r="E108" s="209"/>
-      <c r="H108" s="209"/>
+      <c r="C108" s="202"/>
+      <c r="D108" s="438"/>
+      <c r="E108" s="202"/>
+      <c r="H108" s="202"/>
     </row>
     <row r="109" spans="1:18">
-      <c r="C109" s="209"/>
-      <c r="D109" s="445"/>
-      <c r="E109" s="209"/>
-      <c r="H109" s="209"/>
+      <c r="C109" s="202"/>
+      <c r="D109" s="438"/>
+      <c r="E109" s="202"/>
+      <c r="H109" s="202"/>
     </row>
     <row r="110" spans="1:18">
-      <c r="C110" s="209"/>
-      <c r="D110" s="445"/>
-      <c r="E110" s="209"/>
-      <c r="H110" s="209"/>
+      <c r="C110" s="202"/>
+      <c r="D110" s="438"/>
+      <c r="E110" s="202"/>
+      <c r="H110" s="202"/>
     </row>
     <row r="111" spans="1:18">
-      <c r="C111" s="209"/>
-      <c r="D111" s="445"/>
-      <c r="E111" s="209"/>
-      <c r="H111" s="209"/>
+      <c r="C111" s="202"/>
+      <c r="D111" s="438"/>
+      <c r="E111" s="202"/>
+      <c r="H111" s="202"/>
     </row>
     <row r="112" spans="1:18">
-      <c r="C112" s="209"/>
-      <c r="D112" s="445"/>
-      <c r="E112" s="209"/>
-      <c r="H112" s="209"/>
+      <c r="C112" s="202"/>
+      <c r="D112" s="438"/>
+      <c r="E112" s="202"/>
+      <c r="H112" s="202"/>
     </row>
     <row r="113" spans="3:8">
-      <c r="C113" s="209"/>
-      <c r="D113" s="445"/>
-      <c r="E113" s="209"/>
-      <c r="H113" s="209"/>
+      <c r="C113" s="202"/>
+      <c r="D113" s="438"/>
+      <c r="E113" s="202"/>
+      <c r="H113" s="202"/>
     </row>
     <row r="114" spans="3:8">
-      <c r="C114" s="209"/>
-      <c r="D114" s="445"/>
-      <c r="E114" s="209"/>
-      <c r="H114" s="209"/>
+      <c r="C114" s="202"/>
+      <c r="D114" s="438"/>
+      <c r="E114" s="202"/>
+      <c r="H114" s="202"/>
     </row>
     <row r="115" spans="3:8">
-      <c r="C115" s="209"/>
-      <c r="D115" s="445"/>
-      <c r="E115" s="209"/>
-      <c r="H115" s="209"/>
+      <c r="C115" s="202"/>
+      <c r="D115" s="438"/>
+      <c r="E115" s="202"/>
+      <c r="H115" s="202"/>
     </row>
     <row r="116" spans="3:8">
-      <c r="C116" s="209"/>
-      <c r="D116" s="445"/>
-      <c r="E116" s="209"/>
-      <c r="H116" s="209"/>
+      <c r="C116" s="202"/>
+      <c r="D116" s="438"/>
+      <c r="E116" s="202"/>
+      <c r="H116" s="202"/>
     </row>
     <row r="117" spans="3:8">
-      <c r="C117" s="209"/>
-      <c r="D117" s="445"/>
-      <c r="E117" s="209"/>
-      <c r="H117" s="209"/>
+      <c r="C117" s="202"/>
+      <c r="D117" s="438"/>
+      <c r="E117" s="202"/>
+      <c r="H117" s="202"/>
     </row>
     <row r="118" spans="3:8">
-      <c r="C118" s="209"/>
-      <c r="D118" s="445"/>
-      <c r="E118" s="209"/>
-      <c r="H118" s="209"/>
+      <c r="C118" s="202"/>
+      <c r="D118" s="438"/>
+      <c r="E118" s="202"/>
+      <c r="H118" s="202"/>
     </row>
     <row r="119" spans="3:8">
-      <c r="C119" s="209"/>
-      <c r="D119" s="445"/>
-      <c r="E119" s="209"/>
-      <c r="H119" s="209"/>
+      <c r="C119" s="202"/>
+      <c r="D119" s="438"/>
+      <c r="E119" s="202"/>
+      <c r="H119" s="202"/>
     </row>
     <row r="120" spans="3:8">
-      <c r="C120" s="209"/>
-      <c r="D120" s="445"/>
-      <c r="E120" s="209"/>
-      <c r="H120" s="209"/>
+      <c r="C120" s="202"/>
+      <c r="D120" s="438"/>
+      <c r="E120" s="202"/>
+      <c r="H120" s="202"/>
     </row>
     <row r="121" spans="3:8">
-      <c r="C121" s="209"/>
-      <c r="D121" s="445"/>
-      <c r="E121" s="209"/>
-      <c r="H121" s="209"/>
+      <c r="C121" s="202"/>
+      <c r="D121" s="438"/>
+      <c r="E121" s="202"/>
+      <c r="H121" s="202"/>
     </row>
     <row r="122" spans="3:8">
-      <c r="C122" s="209"/>
-      <c r="D122" s="445"/>
-      <c r="E122" s="209"/>
-      <c r="H122" s="209"/>
+      <c r="C122" s="202"/>
+      <c r="D122" s="438"/>
+      <c r="E122" s="202"/>
+      <c r="H122" s="202"/>
     </row>
     <row r="123" spans="3:8">
-      <c r="C123" s="209"/>
-      <c r="D123" s="445"/>
-      <c r="E123" s="209"/>
-      <c r="H123" s="209"/>
+      <c r="C123" s="202"/>
+      <c r="D123" s="438"/>
+      <c r="E123" s="202"/>
+      <c r="H123" s="202"/>
     </row>
     <row r="124" spans="3:8">
-      <c r="C124" s="209"/>
-      <c r="D124" s="445"/>
-      <c r="E124" s="209"/>
-      <c r="H124" s="209"/>
+      <c r="C124" s="202"/>
+      <c r="D124" s="438"/>
+      <c r="E124" s="202"/>
+      <c r="H124" s="202"/>
     </row>
     <row r="125" spans="3:8">
-      <c r="C125" s="209"/>
-      <c r="D125" s="445"/>
-      <c r="E125" s="209"/>
-      <c r="H125" s="209"/>
+      <c r="C125" s="202"/>
+      <c r="D125" s="438"/>
+      <c r="E125" s="202"/>
+      <c r="H125" s="202"/>
     </row>
     <row r="126" spans="3:8">
-      <c r="C126" s="209"/>
-      <c r="D126" s="445"/>
-      <c r="E126" s="209"/>
-      <c r="H126" s="209"/>
+      <c r="C126" s="202"/>
+      <c r="D126" s="438"/>
+      <c r="E126" s="202"/>
+      <c r="H126" s="202"/>
     </row>
     <row r="127" spans="3:8">
-      <c r="C127" s="209"/>
-      <c r="D127" s="445"/>
-      <c r="E127" s="209"/>
-      <c r="H127" s="209"/>
+      <c r="C127" s="202"/>
+      <c r="D127" s="438"/>
+      <c r="E127" s="202"/>
+      <c r="H127" s="202"/>
     </row>
     <row r="128" spans="3:8">
-      <c r="C128" s="209"/>
-      <c r="D128" s="445"/>
-      <c r="E128" s="209"/>
-      <c r="H128" s="209"/>
+      <c r="C128" s="202"/>
+      <c r="D128" s="438"/>
+      <c r="E128" s="202"/>
+      <c r="H128" s="202"/>
     </row>
     <row r="129" spans="3:8">
-      <c r="C129" s="209"/>
-      <c r="D129" s="445"/>
-      <c r="E129" s="209"/>
-      <c r="H129" s="209"/>
+      <c r="C129" s="202"/>
+      <c r="D129" s="438"/>
+      <c r="E129" s="202"/>
+      <c r="H129" s="202"/>
     </row>
   </sheetData>
   <autoFilter ref="A10:R103" xr:uid="{00000000-0009-0000-0000-000002000000}">
@@ -11329,20 +11332,20 @@
     <row r="9" spans="1:18" ht="12.75" thickTop="1">
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:18" s="209" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="184" t="s">
+    <row r="10" spans="1:18" s="474" customFormat="1" ht="27" customHeight="1">
+      <c r="A10" s="468" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="468" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="468" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="184" t="s">
+      <c r="D10" s="468" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="184" t="s">
+      <c r="E10" s="468" t="s">
         <v>137</v>
       </c>
       <c r="F10" s="48" t="s">
@@ -11351,457 +11354,457 @@
       <c r="G10" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="184" t="s">
+      <c r="H10" s="468" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="184" t="s">
+      <c r="I10" s="468" t="s">
         <v>157</v>
       </c>
-      <c r="J10" s="206" t="s">
+      <c r="J10" s="471" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="206" t="s">
+      <c r="K10" s="471" t="s">
         <v>159</v>
       </c>
-      <c r="L10" s="206" t="s">
+      <c r="L10" s="471" t="s">
         <v>160</v>
       </c>
-      <c r="M10" s="207" t="s">
+      <c r="M10" s="472" t="s">
         <v>161</v>
       </c>
-      <c r="N10" s="206" t="s">
+      <c r="N10" s="471" t="s">
         <v>162</v>
       </c>
-      <c r="O10" s="206" t="s">
+      <c r="O10" s="471" t="s">
         <v>163</v>
       </c>
-      <c r="P10" s="206" t="s">
+      <c r="P10" s="471" t="s">
         <v>164</v>
       </c>
-      <c r="Q10" s="206" t="s">
+      <c r="Q10" s="471" t="s">
         <v>165</v>
       </c>
-      <c r="R10" s="206" t="s">
+      <c r="R10" s="471" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="209" customFormat="1" ht="120.75" customHeight="1">
-      <c r="A11" s="446" t="s">
+    <row r="11" spans="1:18" s="202" customFormat="1" ht="80.25" customHeight="1">
+      <c r="A11" s="439" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="406" t="s">
+      <c r="B11" s="399" t="s">
         <v>403</v>
       </c>
-      <c r="C11" s="406" t="s">
+      <c r="C11" s="399" t="s">
         <v>358</v>
       </c>
-      <c r="D11" s="188" t="s">
+      <c r="D11" s="185" t="s">
         <v>404</v>
       </c>
-      <c r="E11" s="447"/>
+      <c r="E11" s="440"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
-      <c r="H11" s="406" t="s">
+      <c r="H11" s="399" t="s">
         <v>370</v>
       </c>
-      <c r="I11" s="406" t="s">
+      <c r="I11" s="399" t="s">
         <v>371</v>
       </c>
-      <c r="J11" s="457" t="s">
+      <c r="J11" s="450" t="s">
         <v>414</v>
       </c>
-      <c r="K11" s="457" t="s">
+      <c r="K11" s="450" t="s">
         <v>372</v>
       </c>
-      <c r="L11" s="458"/>
-      <c r="M11" s="459"/>
-      <c r="N11" s="459" t="s">
+      <c r="L11" s="451"/>
+      <c r="M11" s="452"/>
+      <c r="N11" s="452" t="s">
         <v>171</v>
       </c>
-      <c r="O11" s="460">
+      <c r="O11" s="453">
         <v>43658</v>
       </c>
-      <c r="P11" s="459" t="s">
+      <c r="P11" s="452" t="s">
         <v>172</v>
       </c>
-      <c r="Q11" s="459"/>
-      <c r="R11" s="459"/>
-    </row>
-    <row r="12" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A12" s="448" t="s">
+      <c r="Q11" s="452"/>
+      <c r="R11" s="452"/>
+    </row>
+    <row r="12" spans="1:18" s="202" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A12" s="441" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="449"/>
-      <c r="C12" s="449"/>
-      <c r="D12" s="450" t="s">
+      <c r="B12" s="442"/>
+      <c r="C12" s="442"/>
+      <c r="D12" s="443" t="s">
         <v>399</v>
       </c>
-      <c r="E12" s="451"/>
+      <c r="E12" s="444"/>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
-      <c r="H12" s="461" t="s">
+      <c r="H12" s="454" t="s">
         <v>370</v>
       </c>
-      <c r="I12" s="461" t="s">
+      <c r="I12" s="454" t="s">
         <v>373</v>
       </c>
-      <c r="J12" s="462" t="s">
+      <c r="J12" s="455" t="s">
         <v>374</v>
       </c>
-      <c r="K12" s="462"/>
-      <c r="L12" s="463"/>
-      <c r="M12" s="464"/>
-      <c r="N12" s="464"/>
-      <c r="O12" s="465"/>
-      <c r="P12" s="464"/>
-      <c r="Q12" s="464"/>
-      <c r="R12" s="464"/>
-    </row>
-    <row r="13" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A13" s="448" t="s">
+      <c r="K12" s="455"/>
+      <c r="L12" s="456"/>
+      <c r="M12" s="457"/>
+      <c r="N12" s="457"/>
+      <c r="O12" s="458"/>
+      <c r="P12" s="457"/>
+      <c r="Q12" s="457"/>
+      <c r="R12" s="457"/>
+    </row>
+    <row r="13" spans="1:18" s="202" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A13" s="441" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="449"/>
-      <c r="C13" s="449"/>
-      <c r="D13" s="450" t="s">
+      <c r="B13" s="442"/>
+      <c r="C13" s="442"/>
+      <c r="D13" s="443" t="s">
         <v>359</v>
       </c>
-      <c r="E13" s="451"/>
+      <c r="E13" s="444"/>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
-      <c r="H13" s="461" t="s">
+      <c r="H13" s="454" t="s">
         <v>370</v>
       </c>
-      <c r="I13" s="461" t="s">
+      <c r="I13" s="454" t="s">
         <v>373</v>
       </c>
-      <c r="J13" s="462" t="s">
+      <c r="J13" s="455" t="s">
         <v>375</v>
       </c>
-      <c r="K13" s="462"/>
-      <c r="L13" s="463"/>
-      <c r="M13" s="464"/>
-      <c r="N13" s="464"/>
-      <c r="O13" s="465"/>
-      <c r="P13" s="464"/>
-      <c r="Q13" s="464"/>
-      <c r="R13" s="464"/>
-    </row>
-    <row r="14" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A14" s="448" t="s">
+      <c r="K13" s="455"/>
+      <c r="L13" s="456"/>
+      <c r="M13" s="457"/>
+      <c r="N13" s="457"/>
+      <c r="O13" s="458"/>
+      <c r="P13" s="457"/>
+      <c r="Q13" s="457"/>
+      <c r="R13" s="457"/>
+    </row>
+    <row r="14" spans="1:18" s="202" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A14" s="441" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="449"/>
-      <c r="C14" s="449"/>
-      <c r="D14" s="450" t="s">
+      <c r="B14" s="442"/>
+      <c r="C14" s="442"/>
+      <c r="D14" s="443" t="s">
         <v>360</v>
       </c>
-      <c r="E14" s="451"/>
+      <c r="E14" s="444"/>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
-      <c r="H14" s="461" t="s">
+      <c r="H14" s="454" t="s">
         <v>370</v>
       </c>
-      <c r="I14" s="461" t="s">
+      <c r="I14" s="454" t="s">
         <v>373</v>
       </c>
-      <c r="J14" s="462" t="s">
+      <c r="J14" s="455" t="s">
         <v>376</v>
       </c>
-      <c r="K14" s="462"/>
-      <c r="L14" s="463"/>
-      <c r="M14" s="464"/>
-      <c r="N14" s="464"/>
-      <c r="O14" s="465"/>
-      <c r="P14" s="464"/>
-      <c r="Q14" s="464"/>
-      <c r="R14" s="464"/>
-    </row>
-    <row r="15" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A15" s="448" t="s">
+      <c r="K14" s="455"/>
+      <c r="L14" s="456"/>
+      <c r="M14" s="457"/>
+      <c r="N14" s="457"/>
+      <c r="O14" s="458"/>
+      <c r="P14" s="457"/>
+      <c r="Q14" s="457"/>
+      <c r="R14" s="457"/>
+    </row>
+    <row r="15" spans="1:18" s="202" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A15" s="441" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="449"/>
-      <c r="C15" s="449"/>
-      <c r="D15" s="452" t="s">
+      <c r="B15" s="442"/>
+      <c r="C15" s="442"/>
+      <c r="D15" s="445" t="s">
         <v>405</v>
       </c>
-      <c r="E15" s="453" t="s">
+      <c r="E15" s="446" t="s">
         <v>389</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
-      <c r="H15" s="461" t="s">
+      <c r="H15" s="454" t="s">
         <v>370</v>
       </c>
-      <c r="I15" s="461" t="s">
+      <c r="I15" s="454" t="s">
         <v>373</v>
       </c>
-      <c r="J15" s="462" t="s">
+      <c r="J15" s="455" t="s">
         <v>411</v>
       </c>
-      <c r="K15" s="462"/>
-      <c r="L15" s="463"/>
-      <c r="M15" s="464"/>
-      <c r="N15" s="464"/>
-      <c r="O15" s="465"/>
-      <c r="P15" s="464"/>
-      <c r="Q15" s="464"/>
-      <c r="R15" s="464"/>
-    </row>
-    <row r="16" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A16" s="448" t="s">
+      <c r="K15" s="455"/>
+      <c r="L15" s="456"/>
+      <c r="M15" s="457"/>
+      <c r="N15" s="457"/>
+      <c r="O15" s="458"/>
+      <c r="P15" s="457"/>
+      <c r="Q15" s="457"/>
+      <c r="R15" s="457"/>
+    </row>
+    <row r="16" spans="1:18" s="202" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A16" s="441" t="s">
         <v>361</v>
       </c>
-      <c r="B16" s="449"/>
-      <c r="C16" s="449"/>
-      <c r="D16" s="449"/>
-      <c r="E16" s="404" t="s">
+      <c r="B16" s="442"/>
+      <c r="C16" s="442"/>
+      <c r="D16" s="442"/>
+      <c r="E16" s="397" t="s">
         <v>362</v>
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
-      <c r="H16" s="461" t="s">
+      <c r="H16" s="454" t="s">
         <v>370</v>
       </c>
-      <c r="I16" s="461" t="s">
+      <c r="I16" s="454" t="s">
         <v>373</v>
       </c>
-      <c r="J16" s="462" t="s">
+      <c r="J16" s="455" t="s">
         <v>377</v>
       </c>
-      <c r="K16" s="462"/>
-      <c r="L16" s="463"/>
-      <c r="M16" s="464"/>
-      <c r="N16" s="464"/>
-      <c r="O16" s="465"/>
-      <c r="P16" s="464"/>
-      <c r="Q16" s="464"/>
-      <c r="R16" s="464"/>
-    </row>
-    <row r="17" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A17" s="448" t="s">
+      <c r="K16" s="455"/>
+      <c r="L16" s="456"/>
+      <c r="M16" s="457"/>
+      <c r="N16" s="457"/>
+      <c r="O16" s="458"/>
+      <c r="P16" s="457"/>
+      <c r="Q16" s="457"/>
+      <c r="R16" s="457"/>
+    </row>
+    <row r="17" spans="1:18" s="202" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A17" s="441" t="s">
         <v>363</v>
       </c>
-      <c r="B17" s="449"/>
-      <c r="C17" s="449"/>
-      <c r="D17" s="449"/>
-      <c r="E17" s="453" t="s">
+      <c r="B17" s="442"/>
+      <c r="C17" s="442"/>
+      <c r="D17" s="442"/>
+      <c r="E17" s="446" t="s">
         <v>364</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
-      <c r="H17" s="461" t="s">
+      <c r="H17" s="454" t="s">
         <v>370</v>
       </c>
-      <c r="I17" s="461" t="s">
+      <c r="I17" s="454" t="s">
         <v>373</v>
       </c>
-      <c r="J17" s="462" t="s">
+      <c r="J17" s="455" t="s">
         <v>378</v>
       </c>
-      <c r="K17" s="462"/>
-      <c r="L17" s="463"/>
-      <c r="M17" s="464"/>
-      <c r="N17" s="464"/>
-      <c r="O17" s="465"/>
-      <c r="P17" s="464"/>
-      <c r="Q17" s="464"/>
-      <c r="R17" s="464"/>
-    </row>
-    <row r="18" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A18" s="448" t="s">
+      <c r="K17" s="455"/>
+      <c r="L17" s="456"/>
+      <c r="M17" s="457"/>
+      <c r="N17" s="457"/>
+      <c r="O17" s="458"/>
+      <c r="P17" s="457"/>
+      <c r="Q17" s="457"/>
+      <c r="R17" s="457"/>
+    </row>
+    <row r="18" spans="1:18" s="202" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A18" s="441" t="s">
         <v>365</v>
       </c>
-      <c r="B18" s="449"/>
-      <c r="C18" s="449"/>
-      <c r="D18" s="454"/>
-      <c r="E18" s="453" t="s">
+      <c r="B18" s="442"/>
+      <c r="C18" s="442"/>
+      <c r="D18" s="447"/>
+      <c r="E18" s="446" t="s">
         <v>209</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
-      <c r="H18" s="461" t="s">
+      <c r="H18" s="454" t="s">
         <v>370</v>
       </c>
-      <c r="I18" s="461" t="s">
+      <c r="I18" s="454" t="s">
         <v>373</v>
       </c>
-      <c r="J18" s="462" t="s">
+      <c r="J18" s="455" t="s">
         <v>379</v>
       </c>
-      <c r="K18" s="462"/>
-      <c r="L18" s="463"/>
-      <c r="M18" s="464"/>
-      <c r="N18" s="464"/>
-      <c r="O18" s="465"/>
-      <c r="P18" s="464"/>
-      <c r="Q18" s="464"/>
-      <c r="R18" s="464"/>
-    </row>
-    <row r="19" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A19" s="448" t="s">
+      <c r="K18" s="455"/>
+      <c r="L18" s="456"/>
+      <c r="M18" s="457"/>
+      <c r="N18" s="457"/>
+      <c r="O18" s="458"/>
+      <c r="P18" s="457"/>
+      <c r="Q18" s="457"/>
+      <c r="R18" s="457"/>
+    </row>
+    <row r="19" spans="1:18" s="202" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A19" s="441" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="449"/>
-      <c r="C19" s="449"/>
-      <c r="D19" s="453" t="s">
+      <c r="B19" s="442"/>
+      <c r="C19" s="442"/>
+      <c r="D19" s="446" t="s">
         <v>366</v>
       </c>
-      <c r="E19" s="404" t="s">
+      <c r="E19" s="397" t="s">
         <v>367</v>
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
-      <c r="H19" s="461" t="s">
+      <c r="H19" s="454" t="s">
         <v>370</v>
       </c>
-      <c r="I19" s="461" t="s">
+      <c r="I19" s="454" t="s">
         <v>373</v>
       </c>
-      <c r="J19" s="462" t="s">
+      <c r="J19" s="455" t="s">
         <v>379</v>
       </c>
-      <c r="K19" s="462"/>
-      <c r="L19" s="463"/>
-      <c r="M19" s="464"/>
-      <c r="N19" s="464"/>
-      <c r="O19" s="465"/>
-      <c r="P19" s="464"/>
-      <c r="Q19" s="464"/>
-      <c r="R19" s="464"/>
-    </row>
-    <row r="20" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A20" s="448" t="s">
+      <c r="K19" s="455"/>
+      <c r="L19" s="456"/>
+      <c r="M19" s="457"/>
+      <c r="N19" s="457"/>
+      <c r="O19" s="458"/>
+      <c r="P19" s="457"/>
+      <c r="Q19" s="457"/>
+      <c r="R19" s="457"/>
+    </row>
+    <row r="20" spans="1:18" s="202" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A20" s="441" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="449"/>
-      <c r="C20" s="449"/>
-      <c r="D20" s="193" t="s">
+      <c r="B20" s="442"/>
+      <c r="C20" s="442"/>
+      <c r="D20" s="190" t="s">
         <v>406</v>
       </c>
-      <c r="E20" s="404" t="s">
+      <c r="E20" s="397" t="s">
         <v>407</v>
       </c>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
-      <c r="H20" s="461" t="s">
+      <c r="H20" s="454" t="s">
         <v>370</v>
       </c>
-      <c r="I20" s="461" t="s">
+      <c r="I20" s="454" t="s">
         <v>373</v>
       </c>
-      <c r="J20" s="462" t="s">
+      <c r="J20" s="455" t="s">
         <v>408</v>
       </c>
-      <c r="K20" s="462"/>
-      <c r="L20" s="463"/>
-      <c r="M20" s="464"/>
-      <c r="N20" s="464"/>
-      <c r="O20" s="465"/>
-      <c r="P20" s="464"/>
-      <c r="Q20" s="464"/>
-      <c r="R20" s="464"/>
-    </row>
-    <row r="21" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A21" s="455" t="s">
+      <c r="K20" s="455"/>
+      <c r="L20" s="456"/>
+      <c r="M20" s="457"/>
+      <c r="N20" s="457"/>
+      <c r="O20" s="458"/>
+      <c r="P20" s="457"/>
+      <c r="Q20" s="457"/>
+      <c r="R20" s="457"/>
+    </row>
+    <row r="21" spans="1:18" s="202" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A21" s="448" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="456"/>
-      <c r="C21" s="456"/>
-      <c r="D21" s="538" t="s">
+      <c r="B21" s="449"/>
+      <c r="C21" s="449"/>
+      <c r="D21" s="539" t="s">
         <v>368</v>
       </c>
-      <c r="E21" s="539"/>
+      <c r="E21" s="540"/>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
-      <c r="H21" s="406" t="s">
+      <c r="H21" s="399" t="s">
         <v>370</v>
       </c>
-      <c r="I21" s="406" t="s">
+      <c r="I21" s="399" t="s">
         <v>373</v>
       </c>
-      <c r="J21" s="466" t="s">
+      <c r="J21" s="459" t="s">
         <v>380</v>
       </c>
-      <c r="K21" s="466" t="s">
+      <c r="K21" s="459" t="s">
         <v>381</v>
       </c>
-      <c r="L21" s="467"/>
-      <c r="M21" s="468"/>
-      <c r="N21" s="459" t="s">
+      <c r="L21" s="460"/>
+      <c r="M21" s="461"/>
+      <c r="N21" s="452" t="s">
         <v>171</v>
       </c>
-      <c r="O21" s="460">
+      <c r="O21" s="453">
         <v>43658</v>
       </c>
-      <c r="P21" s="459" t="s">
+      <c r="P21" s="452" t="s">
         <v>172</v>
       </c>
-      <c r="Q21" s="468"/>
-      <c r="R21" s="468"/>
-    </row>
-    <row r="22" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A22" s="448" t="s">
+      <c r="Q21" s="461"/>
+      <c r="R21" s="461"/>
+    </row>
+    <row r="22" spans="1:18" s="202" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A22" s="441" t="s">
         <v>210</v>
       </c>
-      <c r="B22" s="449"/>
-      <c r="C22" s="461" t="s">
+      <c r="B22" s="442"/>
+      <c r="C22" s="454" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="450" t="s">
+      <c r="D22" s="443" t="s">
         <v>409</v>
       </c>
-      <c r="E22" s="451"/>
+      <c r="E22" s="444"/>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
-      <c r="H22" s="461" t="s">
+      <c r="H22" s="454" t="s">
         <v>370</v>
       </c>
-      <c r="I22" s="461" t="s">
+      <c r="I22" s="454" t="s">
         <v>373</v>
       </c>
-      <c r="J22" s="462" t="s">
+      <c r="J22" s="455" t="s">
         <v>410</v>
       </c>
-      <c r="K22" s="462"/>
-      <c r="L22" s="463"/>
-      <c r="M22" s="464"/>
-      <c r="N22" s="464"/>
-      <c r="O22" s="465"/>
-      <c r="P22" s="464"/>
-      <c r="Q22" s="464"/>
-      <c r="R22" s="464"/>
-    </row>
-    <row r="23" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A23" s="448" t="s">
+      <c r="K22" s="455"/>
+      <c r="L22" s="456"/>
+      <c r="M22" s="457"/>
+      <c r="N22" s="457"/>
+      <c r="O22" s="458"/>
+      <c r="P22" s="457"/>
+      <c r="Q22" s="457"/>
+      <c r="R22" s="457"/>
+    </row>
+    <row r="23" spans="1:18" s="202" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A23" s="441" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="454"/>
-      <c r="C23" s="454"/>
-      <c r="D23" s="450" t="s">
+      <c r="B23" s="447"/>
+      <c r="C23" s="447"/>
+      <c r="D23" s="443" t="s">
         <v>369</v>
       </c>
-      <c r="E23" s="451"/>
+      <c r="E23" s="444"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
-      <c r="H23" s="461" t="s">
+      <c r="H23" s="454" t="s">
         <v>370</v>
       </c>
-      <c r="I23" s="461" t="s">
+      <c r="I23" s="454" t="s">
         <v>373</v>
       </c>
-      <c r="J23" s="462" t="s">
+      <c r="J23" s="455" t="s">
         <v>382</v>
       </c>
-      <c r="K23" s="462"/>
-      <c r="L23" s="463"/>
-      <c r="M23" s="464"/>
-      <c r="N23" s="464"/>
-      <c r="O23" s="465"/>
-      <c r="P23" s="464"/>
-      <c r="Q23" s="464"/>
-      <c r="R23" s="464"/>
+      <c r="K23" s="455"/>
+      <c r="L23" s="456"/>
+      <c r="M23" s="457"/>
+      <c r="N23" s="457"/>
+      <c r="O23" s="458"/>
+      <c r="P23" s="457"/>
+      <c r="Q23" s="457"/>
+      <c r="R23" s="457"/>
     </row>
     <row r="24" spans="1:18" s="29" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A24" s="155" t="s">
@@ -11869,127 +11872,127 @@
       <c r="Q25" s="173"/>
       <c r="R25" s="173"/>
     </row>
-    <row r="26" spans="1:18" s="209" customFormat="1">
-      <c r="A26" s="469"/>
-      <c r="B26" s="470"/>
-      <c r="C26" s="470"/>
-      <c r="D26" s="471"/>
-      <c r="E26" s="471"/>
+    <row r="26" spans="1:18" s="202" customFormat="1">
+      <c r="A26" s="462"/>
+      <c r="B26" s="463"/>
+      <c r="C26" s="463"/>
+      <c r="D26" s="464"/>
+      <c r="E26" s="464"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="470"/>
-      <c r="I26" s="470"/>
-      <c r="J26" s="470"/>
-      <c r="K26" s="470"/>
-      <c r="L26" s="470"/>
-      <c r="M26" s="470"/>
-      <c r="N26" s="470"/>
-      <c r="O26" s="470"/>
-      <c r="P26" s="470"/>
-      <c r="Q26" s="470"/>
-      <c r="R26" s="470"/>
-    </row>
-    <row r="27" spans="1:18" s="209" customFormat="1">
-      <c r="A27" s="472"/>
-      <c r="B27" s="472"/>
-      <c r="C27" s="472"/>
-      <c r="D27" s="473"/>
-      <c r="E27" s="473"/>
+      <c r="H26" s="463"/>
+      <c r="I26" s="463"/>
+      <c r="J26" s="463"/>
+      <c r="K26" s="463"/>
+      <c r="L26" s="463"/>
+      <c r="M26" s="463"/>
+      <c r="N26" s="463"/>
+      <c r="O26" s="463"/>
+      <c r="P26" s="463"/>
+      <c r="Q26" s="463"/>
+      <c r="R26" s="463"/>
+    </row>
+    <row r="27" spans="1:18" s="202" customFormat="1">
+      <c r="A27" s="465"/>
+      <c r="B27" s="465"/>
+      <c r="C27" s="465"/>
+      <c r="D27" s="466"/>
+      <c r="E27" s="466"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
-      <c r="H27" s="472"/>
-      <c r="I27" s="472"/>
-      <c r="J27" s="472"/>
-      <c r="K27" s="472"/>
-      <c r="L27" s="472"/>
-      <c r="M27" s="472"/>
-      <c r="N27" s="472"/>
-      <c r="O27" s="472"/>
-      <c r="P27" s="472"/>
-      <c r="Q27" s="472"/>
-      <c r="R27" s="472"/>
-    </row>
-    <row r="28" spans="1:18" s="209" customFormat="1">
-      <c r="D28" s="445"/>
-      <c r="E28" s="445"/>
+      <c r="H27" s="465"/>
+      <c r="I27" s="465"/>
+      <c r="J27" s="465"/>
+      <c r="K27" s="465"/>
+      <c r="L27" s="465"/>
+      <c r="M27" s="465"/>
+      <c r="N27" s="465"/>
+      <c r="O27" s="465"/>
+      <c r="P27" s="465"/>
+      <c r="Q27" s="465"/>
+      <c r="R27" s="465"/>
+    </row>
+    <row r="28" spans="1:18" s="202" customFormat="1">
+      <c r="D28" s="438"/>
+      <c r="E28" s="438"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
     </row>
-    <row r="29" spans="1:18" s="209" customFormat="1">
-      <c r="D29" s="445"/>
-      <c r="E29" s="445"/>
+    <row r="29" spans="1:18" s="202" customFormat="1">
+      <c r="D29" s="438"/>
+      <c r="E29" s="438"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
     </row>
-    <row r="30" spans="1:18" s="209" customFormat="1">
-      <c r="D30" s="445"/>
-      <c r="E30" s="445"/>
+    <row r="30" spans="1:18" s="202" customFormat="1">
+      <c r="D30" s="438"/>
+      <c r="E30" s="438"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="1:18" s="209" customFormat="1">
-      <c r="D31" s="445"/>
-      <c r="E31" s="445"/>
+    <row r="31" spans="1:18" s="202" customFormat="1">
+      <c r="D31" s="438"/>
+      <c r="E31" s="438"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
     </row>
-    <row r="32" spans="1:18" s="209" customFormat="1">
-      <c r="D32" s="445"/>
-      <c r="E32" s="445"/>
+    <row r="32" spans="1:18" s="202" customFormat="1">
+      <c r="D32" s="438"/>
+      <c r="E32" s="438"/>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
     </row>
-    <row r="33" spans="4:7" s="209" customFormat="1">
-      <c r="D33" s="445"/>
-      <c r="E33" s="445"/>
+    <row r="33" spans="4:7" s="202" customFormat="1">
+      <c r="D33" s="438"/>
+      <c r="E33" s="438"/>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
     </row>
-    <row r="34" spans="4:7" s="209" customFormat="1">
-      <c r="D34" s="445"/>
-      <c r="E34" s="445"/>
+    <row r="34" spans="4:7" s="202" customFormat="1">
+      <c r="D34" s="438"/>
+      <c r="E34" s="438"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
     </row>
-    <row r="35" spans="4:7" s="209" customFormat="1">
-      <c r="D35" s="445"/>
-      <c r="E35" s="445"/>
+    <row r="35" spans="4:7" s="202" customFormat="1">
+      <c r="D35" s="438"/>
+      <c r="E35" s="438"/>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
     </row>
-    <row r="36" spans="4:7" s="209" customFormat="1">
-      <c r="D36" s="445"/>
-      <c r="E36" s="445"/>
+    <row r="36" spans="4:7" s="202" customFormat="1">
+      <c r="D36" s="438"/>
+      <c r="E36" s="438"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
     </row>
-    <row r="37" spans="4:7" s="209" customFormat="1">
-      <c r="D37" s="445"/>
-      <c r="E37" s="445"/>
+    <row r="37" spans="4:7" s="202" customFormat="1">
+      <c r="D37" s="438"/>
+      <c r="E37" s="438"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
     </row>
-    <row r="38" spans="4:7" s="209" customFormat="1">
-      <c r="D38" s="445"/>
-      <c r="E38" s="445"/>
+    <row r="38" spans="4:7" s="202" customFormat="1">
+      <c r="D38" s="438"/>
+      <c r="E38" s="438"/>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
     </row>
-    <row r="39" spans="4:7" s="209" customFormat="1">
-      <c r="D39" s="445"/>
-      <c r="E39" s="445"/>
+    <row r="39" spans="4:7" s="202" customFormat="1">
+      <c r="D39" s="438"/>
+      <c r="E39" s="438"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
     </row>
-    <row r="40" spans="4:7" s="209" customFormat="1">
-      <c r="D40" s="445"/>
-      <c r="E40" s="445"/>
+    <row r="40" spans="4:7" s="202" customFormat="1">
+      <c r="D40" s="438"/>
+      <c r="E40" s="438"/>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
     </row>
-    <row r="41" spans="4:7" s="209" customFormat="1">
-      <c r="D41" s="445"/>
-      <c r="E41" s="445"/>
+    <row r="41" spans="4:7" s="202" customFormat="1">
+      <c r="D41" s="438"/>
+      <c r="E41" s="438"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
     </row>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10103_TOP_Menu.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10103_TOP_Menu.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36147D3-555C-49AC-BD35-3F655C290922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8D91AA-839A-4C02-AF5A-B71FF9B2C11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="6045" windowWidth="27795" windowHeight="8610" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" state="hidden" r:id="rId1"/>
@@ -24,17 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.2 Subfunction unit'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -934,9 +924,6 @@
     <t>Because there are only fixed display items and no line breaks.</t>
   </si>
   <si>
-    <t>Screen transition pattern (*1)</t>
-  </si>
-  <si>
     <t>Search results: 0 items</t>
   </si>
   <si>
@@ -1290,6 +1277,10 @@
   </si>
   <si>
     <t>Same as above</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen transition pattern</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5164,9 +5155,294 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="145" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="145" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="149" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="149" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="152" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="152" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="152" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="153" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="154" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="155" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="155" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="155" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="156" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="157" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="158" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="158" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="159" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="159" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="160" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="161" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="156" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="162" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="163" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="164" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="165" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="166" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="167" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="167" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="168" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="169" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="170" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="171" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="171" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="172" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="173" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="174" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="175" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="175" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="176" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="177" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="178" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="179" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="179" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="180" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="181" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="182" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="183" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="183" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="184" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="185" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="186" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="187" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="188" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="24" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5278,296 +5554,11 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="24" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="148" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="145" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="145" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="145" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="146" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="147" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="149" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="149" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="149" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="150" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="151" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="152" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="152" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="152" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="153" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="154" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="155" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="155" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="155" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="156" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="157" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="158" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="158" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="159" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="159" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="160" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="161" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="156" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="162" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="163" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="164" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="165" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="166" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="167" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="167" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="168" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="169" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="170" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="171" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="171" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="172" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="173" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="174" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="175" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="175" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="176" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="177" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="178" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="179" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="179" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="180" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="181" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="182" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="183" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="183" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="184" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="185" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="186" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="187" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="188" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6433,12 +6424,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="413">
+      <c r="I25" s="482">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43657</v>
       </c>
-      <c r="J25" s="413"/>
-      <c r="K25" s="413"/>
+      <c r="J25" s="482"/>
+      <c r="K25" s="482"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -6997,57 +6988,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="515" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="421"/>
-      <c r="C1" s="421"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="429" t="s">
+      <c r="B1" s="516"/>
+      <c r="C1" s="516"/>
+      <c r="D1" s="517"/>
+      <c r="E1" s="524" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="424"/>
-      <c r="G1" s="424"/>
-      <c r="H1" s="424"/>
-      <c r="I1" s="424"/>
-      <c r="J1" s="424"/>
-      <c r="K1" s="424"/>
-      <c r="L1" s="424"/>
-      <c r="M1" s="424"/>
-      <c r="N1" s="425"/>
-      <c r="O1" s="430" t="s">
+      <c r="F1" s="519"/>
+      <c r="G1" s="519"/>
+      <c r="H1" s="519"/>
+      <c r="I1" s="519"/>
+      <c r="J1" s="519"/>
+      <c r="K1" s="519"/>
+      <c r="L1" s="519"/>
+      <c r="M1" s="519"/>
+      <c r="N1" s="520"/>
+      <c r="O1" s="525" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="431"/>
-      <c r="Q1" s="431"/>
-      <c r="R1" s="432"/>
-      <c r="S1" s="439" t="s">
+      <c r="P1" s="526"/>
+      <c r="Q1" s="526"/>
+      <c r="R1" s="527"/>
+      <c r="S1" s="534" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="440"/>
-      <c r="U1" s="440"/>
-      <c r="V1" s="440"/>
-      <c r="W1" s="440"/>
-      <c r="X1" s="440"/>
-      <c r="Y1" s="440"/>
-      <c r="Z1" s="441"/>
-      <c r="AA1" s="420" t="s">
+      <c r="T1" s="535"/>
+      <c r="U1" s="535"/>
+      <c r="V1" s="535"/>
+      <c r="W1" s="535"/>
+      <c r="X1" s="535"/>
+      <c r="Y1" s="535"/>
+      <c r="Z1" s="536"/>
+      <c r="AA1" s="515" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="422"/>
-      <c r="AC1" s="448" t="str">
+      <c r="AB1" s="517"/>
+      <c r="AC1" s="543" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="449"/>
-      <c r="AE1" s="449"/>
-      <c r="AF1" s="450"/>
-      <c r="AG1" s="414">
+      <c r="AD1" s="544"/>
+      <c r="AE1" s="544"/>
+      <c r="AF1" s="545"/>
+      <c r="AG1" s="509">
         <f>IF(D8="","",D8)</f>
         <v>43657</v>
       </c>
-      <c r="AH1" s="415"/>
-      <c r="AI1" s="416"/>
+      <c r="AH1" s="510"/>
+      <c r="AI1" s="511"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -7055,53 +7046,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="420" t="s">
+      <c r="A2" s="515" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="421"/>
-      <c r="C2" s="421"/>
-      <c r="D2" s="422"/>
-      <c r="E2" s="423" t="s">
+      <c r="B2" s="516"/>
+      <c r="C2" s="516"/>
+      <c r="D2" s="517"/>
+      <c r="E2" s="518" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="424"/>
-      <c r="G2" s="424"/>
-      <c r="H2" s="424"/>
-      <c r="I2" s="424"/>
-      <c r="J2" s="424"/>
-      <c r="K2" s="424"/>
-      <c r="L2" s="424"/>
-      <c r="M2" s="424"/>
-      <c r="N2" s="425"/>
-      <c r="O2" s="433"/>
-      <c r="P2" s="434"/>
-      <c r="Q2" s="434"/>
-      <c r="R2" s="435"/>
-      <c r="S2" s="442"/>
-      <c r="T2" s="443"/>
-      <c r="U2" s="443"/>
-      <c r="V2" s="443"/>
-      <c r="W2" s="443"/>
-      <c r="X2" s="443"/>
-      <c r="Y2" s="443"/>
-      <c r="Z2" s="444"/>
-      <c r="AA2" s="420" t="s">
+      <c r="F2" s="519"/>
+      <c r="G2" s="519"/>
+      <c r="H2" s="519"/>
+      <c r="I2" s="519"/>
+      <c r="J2" s="519"/>
+      <c r="K2" s="519"/>
+      <c r="L2" s="519"/>
+      <c r="M2" s="519"/>
+      <c r="N2" s="520"/>
+      <c r="O2" s="528"/>
+      <c r="P2" s="529"/>
+      <c r="Q2" s="529"/>
+      <c r="R2" s="530"/>
+      <c r="S2" s="537"/>
+      <c r="T2" s="538"/>
+      <c r="U2" s="538"/>
+      <c r="V2" s="538"/>
+      <c r="W2" s="538"/>
+      <c r="X2" s="538"/>
+      <c r="Y2" s="538"/>
+      <c r="Z2" s="539"/>
+      <c r="AA2" s="515" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="422"/>
-      <c r="AC2" s="426" t="str">
+      <c r="AB2" s="517"/>
+      <c r="AC2" s="521" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="427"/>
-      <c r="AE2" s="427"/>
-      <c r="AF2" s="428"/>
-      <c r="AG2" s="414" t="str">
+      <c r="AD2" s="522"/>
+      <c r="AE2" s="522"/>
+      <c r="AF2" s="523"/>
+      <c r="AG2" s="509" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="415"/>
-      <c r="AI2" s="416"/>
+      <c r="AH2" s="510"/>
+      <c r="AI2" s="511"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -7109,45 +7100,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="420" t="s">
+      <c r="A3" s="515" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="421"/>
-      <c r="C3" s="421"/>
-      <c r="D3" s="422"/>
-      <c r="E3" s="423" t="s">
+      <c r="B3" s="516"/>
+      <c r="C3" s="516"/>
+      <c r="D3" s="517"/>
+      <c r="E3" s="518" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="424"/>
-      <c r="G3" s="424"/>
-      <c r="H3" s="424"/>
-      <c r="I3" s="424"/>
-      <c r="J3" s="424"/>
-      <c r="K3" s="424"/>
-      <c r="L3" s="424"/>
-      <c r="M3" s="424"/>
-      <c r="N3" s="425"/>
-      <c r="O3" s="436"/>
-      <c r="P3" s="437"/>
-      <c r="Q3" s="437"/>
-      <c r="R3" s="438"/>
-      <c r="S3" s="445"/>
-      <c r="T3" s="446"/>
-      <c r="U3" s="446"/>
-      <c r="V3" s="446"/>
-      <c r="W3" s="446"/>
-      <c r="X3" s="446"/>
-      <c r="Y3" s="446"/>
-      <c r="Z3" s="447"/>
-      <c r="AA3" s="420"/>
-      <c r="AB3" s="422"/>
-      <c r="AC3" s="448"/>
-      <c r="AD3" s="449"/>
-      <c r="AE3" s="449"/>
-      <c r="AF3" s="450"/>
-      <c r="AG3" s="414"/>
-      <c r="AH3" s="415"/>
-      <c r="AI3" s="416"/>
+      <c r="F3" s="519"/>
+      <c r="G3" s="519"/>
+      <c r="H3" s="519"/>
+      <c r="I3" s="519"/>
+      <c r="J3" s="519"/>
+      <c r="K3" s="519"/>
+      <c r="L3" s="519"/>
+      <c r="M3" s="519"/>
+      <c r="N3" s="520"/>
+      <c r="O3" s="531"/>
+      <c r="P3" s="532"/>
+      <c r="Q3" s="532"/>
+      <c r="R3" s="533"/>
+      <c r="S3" s="540"/>
+      <c r="T3" s="541"/>
+      <c r="U3" s="541"/>
+      <c r="V3" s="541"/>
+      <c r="W3" s="541"/>
+      <c r="X3" s="541"/>
+      <c r="Y3" s="541"/>
+      <c r="Z3" s="542"/>
+      <c r="AA3" s="515"/>
+      <c r="AB3" s="517"/>
+      <c r="AC3" s="543"/>
+      <c r="AD3" s="544"/>
+      <c r="AE3" s="544"/>
+      <c r="AF3" s="545"/>
+      <c r="AG3" s="509"/>
+      <c r="AH3" s="510"/>
+      <c r="AI3" s="511"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7184,1190 +7175,1034 @@
       <c r="A7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="417" t="s">
+      <c r="B7" s="512" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="418"/>
-      <c r="D7" s="417" t="s">
+      <c r="C7" s="513"/>
+      <c r="D7" s="512" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="419"/>
-      <c r="F7" s="418"/>
-      <c r="G7" s="417" t="s">
+      <c r="E7" s="514"/>
+      <c r="F7" s="513"/>
+      <c r="G7" s="512" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="419"/>
-      <c r="I7" s="418"/>
-      <c r="J7" s="417" t="s">
+      <c r="H7" s="514"/>
+      <c r="I7" s="513"/>
+      <c r="J7" s="512" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="419"/>
-      <c r="L7" s="419"/>
-      <c r="M7" s="419"/>
-      <c r="N7" s="419"/>
-      <c r="O7" s="419"/>
-      <c r="P7" s="418"/>
-      <c r="Q7" s="417" t="s">
+      <c r="K7" s="514"/>
+      <c r="L7" s="514"/>
+      <c r="M7" s="514"/>
+      <c r="N7" s="514"/>
+      <c r="O7" s="514"/>
+      <c r="P7" s="513"/>
+      <c r="Q7" s="512" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="419"/>
-      <c r="S7" s="419"/>
-      <c r="T7" s="419"/>
-      <c r="U7" s="419"/>
-      <c r="V7" s="419"/>
-      <c r="W7" s="419"/>
-      <c r="X7" s="419"/>
-      <c r="Y7" s="419"/>
-      <c r="Z7" s="419"/>
-      <c r="AA7" s="419"/>
-      <c r="AB7" s="419"/>
-      <c r="AC7" s="419"/>
-      <c r="AD7" s="419"/>
-      <c r="AE7" s="418"/>
-      <c r="AF7" s="417" t="s">
+      <c r="R7" s="514"/>
+      <c r="S7" s="514"/>
+      <c r="T7" s="514"/>
+      <c r="U7" s="514"/>
+      <c r="V7" s="514"/>
+      <c r="W7" s="514"/>
+      <c r="X7" s="514"/>
+      <c r="Y7" s="514"/>
+      <c r="Z7" s="514"/>
+      <c r="AA7" s="514"/>
+      <c r="AB7" s="514"/>
+      <c r="AC7" s="514"/>
+      <c r="AD7" s="514"/>
+      <c r="AE7" s="513"/>
+      <c r="AF7" s="512" t="s">
         <v>37</v>
       </c>
-      <c r="AG7" s="419"/>
-      <c r="AH7" s="419"/>
-      <c r="AI7" s="418"/>
+      <c r="AG7" s="514"/>
+      <c r="AH7" s="514"/>
+      <c r="AI7" s="513"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="463" t="s">
+      <c r="B8" s="496" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="464"/>
-      <c r="D8" s="465">
+      <c r="C8" s="497"/>
+      <c r="D8" s="498">
         <v>43657</v>
       </c>
-      <c r="E8" s="466"/>
-      <c r="F8" s="467"/>
-      <c r="G8" s="468" t="s">
+      <c r="E8" s="499"/>
+      <c r="F8" s="500"/>
+      <c r="G8" s="501" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="469"/>
-      <c r="I8" s="464"/>
-      <c r="J8" s="470" t="s">
+      <c r="H8" s="502"/>
+      <c r="I8" s="497"/>
+      <c r="J8" s="503" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="471"/>
-      <c r="L8" s="471"/>
-      <c r="M8" s="471"/>
-      <c r="N8" s="471"/>
-      <c r="O8" s="471"/>
-      <c r="P8" s="472"/>
-      <c r="Q8" s="473" t="s">
+      <c r="K8" s="504"/>
+      <c r="L8" s="504"/>
+      <c r="M8" s="504"/>
+      <c r="N8" s="504"/>
+      <c r="O8" s="504"/>
+      <c r="P8" s="505"/>
+      <c r="Q8" s="506" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="474"/>
-      <c r="S8" s="474"/>
-      <c r="T8" s="474"/>
-      <c r="U8" s="474"/>
-      <c r="V8" s="474"/>
-      <c r="W8" s="474"/>
-      <c r="X8" s="474"/>
-      <c r="Y8" s="474"/>
-      <c r="Z8" s="474"/>
-      <c r="AA8" s="474"/>
-      <c r="AB8" s="474"/>
-      <c r="AC8" s="474"/>
-      <c r="AD8" s="474"/>
-      <c r="AE8" s="475"/>
-      <c r="AF8" s="470" t="s">
+      <c r="R8" s="507"/>
+      <c r="S8" s="507"/>
+      <c r="T8" s="507"/>
+      <c r="U8" s="507"/>
+      <c r="V8" s="507"/>
+      <c r="W8" s="507"/>
+      <c r="X8" s="507"/>
+      <c r="Y8" s="507"/>
+      <c r="Z8" s="507"/>
+      <c r="AA8" s="507"/>
+      <c r="AB8" s="507"/>
+      <c r="AC8" s="507"/>
+      <c r="AD8" s="507"/>
+      <c r="AE8" s="508"/>
+      <c r="AF8" s="503" t="s">
         <v>42</v>
       </c>
-      <c r="AG8" s="471"/>
-      <c r="AH8" s="471"/>
-      <c r="AI8" s="472"/>
+      <c r="AG8" s="504"/>
+      <c r="AH8" s="504"/>
+      <c r="AI8" s="505"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="451"/>
-      <c r="C9" s="452"/>
-      <c r="D9" s="453"/>
-      <c r="E9" s="454"/>
-      <c r="F9" s="455"/>
-      <c r="G9" s="453"/>
-      <c r="H9" s="456"/>
-      <c r="I9" s="452"/>
-      <c r="J9" s="457"/>
-      <c r="K9" s="458"/>
-      <c r="L9" s="458"/>
-      <c r="M9" s="458"/>
-      <c r="N9" s="458"/>
-      <c r="O9" s="458"/>
-      <c r="P9" s="459"/>
-      <c r="Q9" s="460"/>
-      <c r="R9" s="461"/>
-      <c r="S9" s="461"/>
-      <c r="T9" s="461"/>
-      <c r="U9" s="461"/>
-      <c r="V9" s="461"/>
-      <c r="W9" s="461"/>
-      <c r="X9" s="461"/>
-      <c r="Y9" s="461"/>
-      <c r="Z9" s="461"/>
-      <c r="AA9" s="461"/>
-      <c r="AB9" s="461"/>
-      <c r="AC9" s="461"/>
-      <c r="AD9" s="461"/>
-      <c r="AE9" s="462"/>
-      <c r="AF9" s="457"/>
-      <c r="AG9" s="458"/>
-      <c r="AH9" s="458"/>
-      <c r="AI9" s="459"/>
+      <c r="B9" s="483"/>
+      <c r="C9" s="484"/>
+      <c r="D9" s="485"/>
+      <c r="E9" s="486"/>
+      <c r="F9" s="487"/>
+      <c r="G9" s="485"/>
+      <c r="H9" s="488"/>
+      <c r="I9" s="484"/>
+      <c r="J9" s="489"/>
+      <c r="K9" s="490"/>
+      <c r="L9" s="490"/>
+      <c r="M9" s="490"/>
+      <c r="N9" s="490"/>
+      <c r="O9" s="490"/>
+      <c r="P9" s="491"/>
+      <c r="Q9" s="492"/>
+      <c r="R9" s="493"/>
+      <c r="S9" s="493"/>
+      <c r="T9" s="493"/>
+      <c r="U9" s="493"/>
+      <c r="V9" s="493"/>
+      <c r="W9" s="493"/>
+      <c r="X9" s="493"/>
+      <c r="Y9" s="493"/>
+      <c r="Z9" s="493"/>
+      <c r="AA9" s="493"/>
+      <c r="AB9" s="493"/>
+      <c r="AC9" s="493"/>
+      <c r="AD9" s="493"/>
+      <c r="AE9" s="494"/>
+      <c r="AF9" s="489"/>
+      <c r="AG9" s="490"/>
+      <c r="AH9" s="490"/>
+      <c r="AI9" s="491"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="451"/>
-      <c r="C10" s="452"/>
-      <c r="D10" s="453"/>
-      <c r="E10" s="454"/>
-      <c r="F10" s="455"/>
-      <c r="G10" s="451"/>
-      <c r="H10" s="456"/>
-      <c r="I10" s="452"/>
-      <c r="J10" s="457"/>
-      <c r="K10" s="458"/>
-      <c r="L10" s="458"/>
-      <c r="M10" s="458"/>
-      <c r="N10" s="458"/>
-      <c r="O10" s="458"/>
-      <c r="P10" s="459"/>
-      <c r="Q10" s="460"/>
-      <c r="R10" s="461"/>
-      <c r="S10" s="461"/>
-      <c r="T10" s="461"/>
-      <c r="U10" s="461"/>
-      <c r="V10" s="461"/>
-      <c r="W10" s="461"/>
-      <c r="X10" s="461"/>
-      <c r="Y10" s="461"/>
-      <c r="Z10" s="461"/>
-      <c r="AA10" s="461"/>
-      <c r="AB10" s="461"/>
-      <c r="AC10" s="461"/>
-      <c r="AD10" s="461"/>
-      <c r="AE10" s="462"/>
-      <c r="AF10" s="457"/>
-      <c r="AG10" s="458"/>
-      <c r="AH10" s="458"/>
-      <c r="AI10" s="459"/>
+      <c r="B10" s="483"/>
+      <c r="C10" s="484"/>
+      <c r="D10" s="485"/>
+      <c r="E10" s="486"/>
+      <c r="F10" s="487"/>
+      <c r="G10" s="483"/>
+      <c r="H10" s="488"/>
+      <c r="I10" s="484"/>
+      <c r="J10" s="489"/>
+      <c r="K10" s="490"/>
+      <c r="L10" s="490"/>
+      <c r="M10" s="490"/>
+      <c r="N10" s="490"/>
+      <c r="O10" s="490"/>
+      <c r="P10" s="491"/>
+      <c r="Q10" s="492"/>
+      <c r="R10" s="493"/>
+      <c r="S10" s="493"/>
+      <c r="T10" s="493"/>
+      <c r="U10" s="493"/>
+      <c r="V10" s="493"/>
+      <c r="W10" s="493"/>
+      <c r="X10" s="493"/>
+      <c r="Y10" s="493"/>
+      <c r="Z10" s="493"/>
+      <c r="AA10" s="493"/>
+      <c r="AB10" s="493"/>
+      <c r="AC10" s="493"/>
+      <c r="AD10" s="493"/>
+      <c r="AE10" s="494"/>
+      <c r="AF10" s="489"/>
+      <c r="AG10" s="490"/>
+      <c r="AH10" s="490"/>
+      <c r="AI10" s="491"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="451"/>
-      <c r="C11" s="452"/>
-      <c r="D11" s="453"/>
-      <c r="E11" s="454"/>
-      <c r="F11" s="455"/>
-      <c r="G11" s="451"/>
-      <c r="H11" s="456"/>
-      <c r="I11" s="452"/>
-      <c r="J11" s="457"/>
-      <c r="K11" s="458"/>
-      <c r="L11" s="458"/>
-      <c r="M11" s="458"/>
-      <c r="N11" s="458"/>
-      <c r="O11" s="458"/>
-      <c r="P11" s="459"/>
-      <c r="Q11" s="460"/>
-      <c r="R11" s="461"/>
-      <c r="S11" s="461"/>
-      <c r="T11" s="461"/>
-      <c r="U11" s="461"/>
-      <c r="V11" s="461"/>
-      <c r="W11" s="461"/>
-      <c r="X11" s="461"/>
-      <c r="Y11" s="461"/>
-      <c r="Z11" s="461"/>
-      <c r="AA11" s="461"/>
-      <c r="AB11" s="461"/>
-      <c r="AC11" s="461"/>
-      <c r="AD11" s="461"/>
-      <c r="AE11" s="462"/>
-      <c r="AF11" s="457"/>
-      <c r="AG11" s="458"/>
-      <c r="AH11" s="458"/>
-      <c r="AI11" s="459"/>
+      <c r="B11" s="483"/>
+      <c r="C11" s="484"/>
+      <c r="D11" s="485"/>
+      <c r="E11" s="486"/>
+      <c r="F11" s="487"/>
+      <c r="G11" s="483"/>
+      <c r="H11" s="488"/>
+      <c r="I11" s="484"/>
+      <c r="J11" s="489"/>
+      <c r="K11" s="490"/>
+      <c r="L11" s="490"/>
+      <c r="M11" s="490"/>
+      <c r="N11" s="490"/>
+      <c r="O11" s="490"/>
+      <c r="P11" s="491"/>
+      <c r="Q11" s="492"/>
+      <c r="R11" s="493"/>
+      <c r="S11" s="493"/>
+      <c r="T11" s="493"/>
+      <c r="U11" s="493"/>
+      <c r="V11" s="493"/>
+      <c r="W11" s="493"/>
+      <c r="X11" s="493"/>
+      <c r="Y11" s="493"/>
+      <c r="Z11" s="493"/>
+      <c r="AA11" s="493"/>
+      <c r="AB11" s="493"/>
+      <c r="AC11" s="493"/>
+      <c r="AD11" s="493"/>
+      <c r="AE11" s="494"/>
+      <c r="AF11" s="489"/>
+      <c r="AG11" s="490"/>
+      <c r="AH11" s="490"/>
+      <c r="AI11" s="491"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="451"/>
-      <c r="C12" s="452"/>
-      <c r="D12" s="453"/>
-      <c r="E12" s="454"/>
-      <c r="F12" s="455"/>
-      <c r="G12" s="451"/>
-      <c r="H12" s="456"/>
-      <c r="I12" s="452"/>
-      <c r="J12" s="457"/>
-      <c r="K12" s="458"/>
-      <c r="L12" s="458"/>
-      <c r="M12" s="458"/>
-      <c r="N12" s="458"/>
-      <c r="O12" s="458"/>
-      <c r="P12" s="459"/>
-      <c r="Q12" s="460"/>
-      <c r="R12" s="461"/>
-      <c r="S12" s="461"/>
-      <c r="T12" s="461"/>
-      <c r="U12" s="461"/>
-      <c r="V12" s="461"/>
-      <c r="W12" s="461"/>
-      <c r="X12" s="461"/>
-      <c r="Y12" s="461"/>
-      <c r="Z12" s="461"/>
-      <c r="AA12" s="461"/>
-      <c r="AB12" s="461"/>
-      <c r="AC12" s="461"/>
-      <c r="AD12" s="461"/>
-      <c r="AE12" s="462"/>
-      <c r="AF12" s="457"/>
-      <c r="AG12" s="458"/>
-      <c r="AH12" s="458"/>
-      <c r="AI12" s="459"/>
+      <c r="B12" s="483"/>
+      <c r="C12" s="484"/>
+      <c r="D12" s="485"/>
+      <c r="E12" s="486"/>
+      <c r="F12" s="487"/>
+      <c r="G12" s="483"/>
+      <c r="H12" s="488"/>
+      <c r="I12" s="484"/>
+      <c r="J12" s="489"/>
+      <c r="K12" s="490"/>
+      <c r="L12" s="490"/>
+      <c r="M12" s="490"/>
+      <c r="N12" s="490"/>
+      <c r="O12" s="490"/>
+      <c r="P12" s="491"/>
+      <c r="Q12" s="492"/>
+      <c r="R12" s="493"/>
+      <c r="S12" s="493"/>
+      <c r="T12" s="493"/>
+      <c r="U12" s="493"/>
+      <c r="V12" s="493"/>
+      <c r="W12" s="493"/>
+      <c r="X12" s="493"/>
+      <c r="Y12" s="493"/>
+      <c r="Z12" s="493"/>
+      <c r="AA12" s="493"/>
+      <c r="AB12" s="493"/>
+      <c r="AC12" s="493"/>
+      <c r="AD12" s="493"/>
+      <c r="AE12" s="494"/>
+      <c r="AF12" s="489"/>
+      <c r="AG12" s="490"/>
+      <c r="AH12" s="490"/>
+      <c r="AI12" s="491"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="451"/>
-      <c r="C13" s="452"/>
-      <c r="D13" s="453"/>
-      <c r="E13" s="454"/>
-      <c r="F13" s="455"/>
-      <c r="G13" s="451"/>
-      <c r="H13" s="456"/>
-      <c r="I13" s="452"/>
-      <c r="J13" s="457"/>
-      <c r="K13" s="458"/>
-      <c r="L13" s="458"/>
-      <c r="M13" s="458"/>
-      <c r="N13" s="458"/>
-      <c r="O13" s="458"/>
-      <c r="P13" s="459"/>
-      <c r="Q13" s="460"/>
-      <c r="R13" s="461"/>
-      <c r="S13" s="461"/>
-      <c r="T13" s="461"/>
-      <c r="U13" s="461"/>
-      <c r="V13" s="461"/>
-      <c r="W13" s="461"/>
-      <c r="X13" s="461"/>
-      <c r="Y13" s="461"/>
-      <c r="Z13" s="461"/>
-      <c r="AA13" s="461"/>
-      <c r="AB13" s="461"/>
-      <c r="AC13" s="461"/>
-      <c r="AD13" s="461"/>
-      <c r="AE13" s="462"/>
-      <c r="AF13" s="457"/>
-      <c r="AG13" s="458"/>
-      <c r="AH13" s="458"/>
-      <c r="AI13" s="459"/>
+      <c r="B13" s="483"/>
+      <c r="C13" s="484"/>
+      <c r="D13" s="485"/>
+      <c r="E13" s="486"/>
+      <c r="F13" s="487"/>
+      <c r="G13" s="483"/>
+      <c r="H13" s="488"/>
+      <c r="I13" s="484"/>
+      <c r="J13" s="489"/>
+      <c r="K13" s="490"/>
+      <c r="L13" s="490"/>
+      <c r="M13" s="490"/>
+      <c r="N13" s="490"/>
+      <c r="O13" s="490"/>
+      <c r="P13" s="491"/>
+      <c r="Q13" s="492"/>
+      <c r="R13" s="493"/>
+      <c r="S13" s="493"/>
+      <c r="T13" s="493"/>
+      <c r="U13" s="493"/>
+      <c r="V13" s="493"/>
+      <c r="W13" s="493"/>
+      <c r="X13" s="493"/>
+      <c r="Y13" s="493"/>
+      <c r="Z13" s="493"/>
+      <c r="AA13" s="493"/>
+      <c r="AB13" s="493"/>
+      <c r="AC13" s="493"/>
+      <c r="AD13" s="493"/>
+      <c r="AE13" s="494"/>
+      <c r="AF13" s="489"/>
+      <c r="AG13" s="490"/>
+      <c r="AH13" s="490"/>
+      <c r="AI13" s="491"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="451"/>
-      <c r="C14" s="452"/>
-      <c r="D14" s="453"/>
-      <c r="E14" s="454"/>
-      <c r="F14" s="455"/>
-      <c r="G14" s="451"/>
-      <c r="H14" s="456"/>
-      <c r="I14" s="452"/>
-      <c r="J14" s="457"/>
-      <c r="K14" s="458"/>
-      <c r="L14" s="458"/>
-      <c r="M14" s="458"/>
-      <c r="N14" s="458"/>
-      <c r="O14" s="458"/>
-      <c r="P14" s="459"/>
-      <c r="Q14" s="460"/>
-      <c r="R14" s="461"/>
-      <c r="S14" s="461"/>
-      <c r="T14" s="461"/>
-      <c r="U14" s="461"/>
-      <c r="V14" s="461"/>
-      <c r="W14" s="461"/>
-      <c r="X14" s="461"/>
-      <c r="Y14" s="461"/>
-      <c r="Z14" s="461"/>
-      <c r="AA14" s="461"/>
-      <c r="AB14" s="461"/>
-      <c r="AC14" s="461"/>
-      <c r="AD14" s="461"/>
-      <c r="AE14" s="462"/>
-      <c r="AF14" s="457"/>
-      <c r="AG14" s="458"/>
-      <c r="AH14" s="458"/>
-      <c r="AI14" s="459"/>
+      <c r="B14" s="483"/>
+      <c r="C14" s="484"/>
+      <c r="D14" s="485"/>
+      <c r="E14" s="486"/>
+      <c r="F14" s="487"/>
+      <c r="G14" s="483"/>
+      <c r="H14" s="488"/>
+      <c r="I14" s="484"/>
+      <c r="J14" s="489"/>
+      <c r="K14" s="490"/>
+      <c r="L14" s="490"/>
+      <c r="M14" s="490"/>
+      <c r="N14" s="490"/>
+      <c r="O14" s="490"/>
+      <c r="P14" s="491"/>
+      <c r="Q14" s="492"/>
+      <c r="R14" s="493"/>
+      <c r="S14" s="493"/>
+      <c r="T14" s="493"/>
+      <c r="U14" s="493"/>
+      <c r="V14" s="493"/>
+      <c r="W14" s="493"/>
+      <c r="X14" s="493"/>
+      <c r="Y14" s="493"/>
+      <c r="Z14" s="493"/>
+      <c r="AA14" s="493"/>
+      <c r="AB14" s="493"/>
+      <c r="AC14" s="493"/>
+      <c r="AD14" s="493"/>
+      <c r="AE14" s="494"/>
+      <c r="AF14" s="489"/>
+      <c r="AG14" s="490"/>
+      <c r="AH14" s="490"/>
+      <c r="AI14" s="491"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="451"/>
-      <c r="C15" s="452"/>
-      <c r="D15" s="453"/>
-      <c r="E15" s="454"/>
-      <c r="F15" s="455"/>
-      <c r="G15" s="451"/>
-      <c r="H15" s="456"/>
-      <c r="I15" s="452"/>
-      <c r="J15" s="457"/>
-      <c r="K15" s="458"/>
-      <c r="L15" s="458"/>
-      <c r="M15" s="458"/>
-      <c r="N15" s="458"/>
-      <c r="O15" s="458"/>
-      <c r="P15" s="459"/>
-      <c r="Q15" s="460"/>
-      <c r="R15" s="461"/>
-      <c r="S15" s="461"/>
-      <c r="T15" s="461"/>
-      <c r="U15" s="461"/>
-      <c r="V15" s="461"/>
-      <c r="W15" s="461"/>
-      <c r="X15" s="461"/>
-      <c r="Y15" s="461"/>
-      <c r="Z15" s="461"/>
-      <c r="AA15" s="461"/>
-      <c r="AB15" s="461"/>
-      <c r="AC15" s="461"/>
-      <c r="AD15" s="461"/>
-      <c r="AE15" s="462"/>
-      <c r="AF15" s="457"/>
-      <c r="AG15" s="458"/>
-      <c r="AH15" s="458"/>
-      <c r="AI15" s="459"/>
+      <c r="B15" s="483"/>
+      <c r="C15" s="484"/>
+      <c r="D15" s="485"/>
+      <c r="E15" s="486"/>
+      <c r="F15" s="487"/>
+      <c r="G15" s="483"/>
+      <c r="H15" s="488"/>
+      <c r="I15" s="484"/>
+      <c r="J15" s="489"/>
+      <c r="K15" s="490"/>
+      <c r="L15" s="490"/>
+      <c r="M15" s="490"/>
+      <c r="N15" s="490"/>
+      <c r="O15" s="490"/>
+      <c r="P15" s="491"/>
+      <c r="Q15" s="492"/>
+      <c r="R15" s="493"/>
+      <c r="S15" s="493"/>
+      <c r="T15" s="493"/>
+      <c r="U15" s="493"/>
+      <c r="V15" s="493"/>
+      <c r="W15" s="493"/>
+      <c r="X15" s="493"/>
+      <c r="Y15" s="493"/>
+      <c r="Z15" s="493"/>
+      <c r="AA15" s="493"/>
+      <c r="AB15" s="493"/>
+      <c r="AC15" s="493"/>
+      <c r="AD15" s="493"/>
+      <c r="AE15" s="494"/>
+      <c r="AF15" s="489"/>
+      <c r="AG15" s="490"/>
+      <c r="AH15" s="490"/>
+      <c r="AI15" s="491"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="451"/>
-      <c r="C16" s="452"/>
-      <c r="D16" s="453"/>
-      <c r="E16" s="454"/>
-      <c r="F16" s="455"/>
-      <c r="G16" s="451"/>
-      <c r="H16" s="456"/>
-      <c r="I16" s="452"/>
-      <c r="J16" s="457"/>
-      <c r="K16" s="458"/>
-      <c r="L16" s="458"/>
-      <c r="M16" s="458"/>
-      <c r="N16" s="458"/>
-      <c r="O16" s="458"/>
-      <c r="P16" s="459"/>
-      <c r="Q16" s="460"/>
-      <c r="R16" s="461"/>
-      <c r="S16" s="461"/>
-      <c r="T16" s="461"/>
-      <c r="U16" s="461"/>
-      <c r="V16" s="461"/>
-      <c r="W16" s="461"/>
-      <c r="X16" s="461"/>
-      <c r="Y16" s="461"/>
-      <c r="Z16" s="461"/>
-      <c r="AA16" s="461"/>
-      <c r="AB16" s="461"/>
-      <c r="AC16" s="461"/>
-      <c r="AD16" s="461"/>
-      <c r="AE16" s="462"/>
-      <c r="AF16" s="457"/>
-      <c r="AG16" s="458"/>
-      <c r="AH16" s="458"/>
-      <c r="AI16" s="459"/>
+      <c r="B16" s="483"/>
+      <c r="C16" s="484"/>
+      <c r="D16" s="485"/>
+      <c r="E16" s="486"/>
+      <c r="F16" s="487"/>
+      <c r="G16" s="483"/>
+      <c r="H16" s="488"/>
+      <c r="I16" s="484"/>
+      <c r="J16" s="489"/>
+      <c r="K16" s="490"/>
+      <c r="L16" s="490"/>
+      <c r="M16" s="490"/>
+      <c r="N16" s="490"/>
+      <c r="O16" s="490"/>
+      <c r="P16" s="491"/>
+      <c r="Q16" s="492"/>
+      <c r="R16" s="493"/>
+      <c r="S16" s="493"/>
+      <c r="T16" s="493"/>
+      <c r="U16" s="493"/>
+      <c r="V16" s="493"/>
+      <c r="W16" s="493"/>
+      <c r="X16" s="493"/>
+      <c r="Y16" s="493"/>
+      <c r="Z16" s="493"/>
+      <c r="AA16" s="493"/>
+      <c r="AB16" s="493"/>
+      <c r="AC16" s="493"/>
+      <c r="AD16" s="493"/>
+      <c r="AE16" s="494"/>
+      <c r="AF16" s="489"/>
+      <c r="AG16" s="490"/>
+      <c r="AH16" s="490"/>
+      <c r="AI16" s="491"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="451"/>
-      <c r="C17" s="452"/>
-      <c r="D17" s="453"/>
-      <c r="E17" s="454"/>
-      <c r="F17" s="455"/>
-      <c r="G17" s="451"/>
-      <c r="H17" s="456"/>
-      <c r="I17" s="452"/>
-      <c r="J17" s="457"/>
-      <c r="K17" s="458"/>
-      <c r="L17" s="458"/>
-      <c r="M17" s="458"/>
-      <c r="N17" s="458"/>
-      <c r="O17" s="458"/>
-      <c r="P17" s="459"/>
-      <c r="Q17" s="460"/>
-      <c r="R17" s="461"/>
-      <c r="S17" s="461"/>
-      <c r="T17" s="461"/>
-      <c r="U17" s="461"/>
-      <c r="V17" s="461"/>
-      <c r="W17" s="461"/>
-      <c r="X17" s="461"/>
-      <c r="Y17" s="461"/>
-      <c r="Z17" s="461"/>
-      <c r="AA17" s="461"/>
-      <c r="AB17" s="461"/>
-      <c r="AC17" s="461"/>
-      <c r="AD17" s="461"/>
-      <c r="AE17" s="462"/>
-      <c r="AF17" s="457"/>
-      <c r="AG17" s="458"/>
-      <c r="AH17" s="458"/>
-      <c r="AI17" s="459"/>
+      <c r="B17" s="483"/>
+      <c r="C17" s="484"/>
+      <c r="D17" s="485"/>
+      <c r="E17" s="486"/>
+      <c r="F17" s="487"/>
+      <c r="G17" s="483"/>
+      <c r="H17" s="488"/>
+      <c r="I17" s="484"/>
+      <c r="J17" s="489"/>
+      <c r="K17" s="490"/>
+      <c r="L17" s="490"/>
+      <c r="M17" s="490"/>
+      <c r="N17" s="490"/>
+      <c r="O17" s="490"/>
+      <c r="P17" s="491"/>
+      <c r="Q17" s="492"/>
+      <c r="R17" s="493"/>
+      <c r="S17" s="493"/>
+      <c r="T17" s="493"/>
+      <c r="U17" s="493"/>
+      <c r="V17" s="493"/>
+      <c r="W17" s="493"/>
+      <c r="X17" s="493"/>
+      <c r="Y17" s="493"/>
+      <c r="Z17" s="493"/>
+      <c r="AA17" s="493"/>
+      <c r="AB17" s="493"/>
+      <c r="AC17" s="493"/>
+      <c r="AD17" s="493"/>
+      <c r="AE17" s="494"/>
+      <c r="AF17" s="489"/>
+      <c r="AG17" s="490"/>
+      <c r="AH17" s="490"/>
+      <c r="AI17" s="491"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="451"/>
-      <c r="C18" s="452"/>
-      <c r="D18" s="453"/>
-      <c r="E18" s="454"/>
-      <c r="F18" s="455"/>
-      <c r="G18" s="451"/>
-      <c r="H18" s="456"/>
-      <c r="I18" s="452"/>
-      <c r="J18" s="457"/>
-      <c r="K18" s="458"/>
-      <c r="L18" s="458"/>
-      <c r="M18" s="458"/>
-      <c r="N18" s="458"/>
-      <c r="O18" s="458"/>
-      <c r="P18" s="459"/>
-      <c r="Q18" s="460"/>
-      <c r="R18" s="461"/>
-      <c r="S18" s="461"/>
-      <c r="T18" s="461"/>
-      <c r="U18" s="461"/>
-      <c r="V18" s="461"/>
-      <c r="W18" s="461"/>
-      <c r="X18" s="461"/>
-      <c r="Y18" s="461"/>
-      <c r="Z18" s="461"/>
-      <c r="AA18" s="461"/>
-      <c r="AB18" s="461"/>
-      <c r="AC18" s="461"/>
-      <c r="AD18" s="461"/>
-      <c r="AE18" s="462"/>
-      <c r="AF18" s="457"/>
-      <c r="AG18" s="458"/>
-      <c r="AH18" s="458"/>
-      <c r="AI18" s="459"/>
+      <c r="B18" s="483"/>
+      <c r="C18" s="484"/>
+      <c r="D18" s="485"/>
+      <c r="E18" s="486"/>
+      <c r="F18" s="487"/>
+      <c r="G18" s="483"/>
+      <c r="H18" s="488"/>
+      <c r="I18" s="484"/>
+      <c r="J18" s="489"/>
+      <c r="K18" s="490"/>
+      <c r="L18" s="490"/>
+      <c r="M18" s="490"/>
+      <c r="N18" s="490"/>
+      <c r="O18" s="490"/>
+      <c r="P18" s="491"/>
+      <c r="Q18" s="492"/>
+      <c r="R18" s="493"/>
+      <c r="S18" s="493"/>
+      <c r="T18" s="493"/>
+      <c r="U18" s="493"/>
+      <c r="V18" s="493"/>
+      <c r="W18" s="493"/>
+      <c r="X18" s="493"/>
+      <c r="Y18" s="493"/>
+      <c r="Z18" s="493"/>
+      <c r="AA18" s="493"/>
+      <c r="AB18" s="493"/>
+      <c r="AC18" s="493"/>
+      <c r="AD18" s="493"/>
+      <c r="AE18" s="494"/>
+      <c r="AF18" s="489"/>
+      <c r="AG18" s="490"/>
+      <c r="AH18" s="490"/>
+      <c r="AI18" s="491"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="451"/>
-      <c r="C19" s="452"/>
-      <c r="D19" s="453"/>
-      <c r="E19" s="454"/>
-      <c r="F19" s="455"/>
-      <c r="G19" s="451"/>
-      <c r="H19" s="456"/>
-      <c r="I19" s="452"/>
-      <c r="J19" s="457"/>
-      <c r="K19" s="458"/>
-      <c r="L19" s="458"/>
-      <c r="M19" s="458"/>
-      <c r="N19" s="458"/>
-      <c r="O19" s="458"/>
-      <c r="P19" s="459"/>
-      <c r="Q19" s="460"/>
-      <c r="R19" s="461"/>
-      <c r="S19" s="461"/>
-      <c r="T19" s="461"/>
-      <c r="U19" s="461"/>
-      <c r="V19" s="461"/>
-      <c r="W19" s="461"/>
-      <c r="X19" s="461"/>
-      <c r="Y19" s="461"/>
-      <c r="Z19" s="461"/>
-      <c r="AA19" s="461"/>
-      <c r="AB19" s="461"/>
-      <c r="AC19" s="461"/>
-      <c r="AD19" s="461"/>
-      <c r="AE19" s="462"/>
-      <c r="AF19" s="457"/>
-      <c r="AG19" s="458"/>
-      <c r="AH19" s="458"/>
-      <c r="AI19" s="459"/>
+      <c r="B19" s="483"/>
+      <c r="C19" s="484"/>
+      <c r="D19" s="485"/>
+      <c r="E19" s="486"/>
+      <c r="F19" s="487"/>
+      <c r="G19" s="483"/>
+      <c r="H19" s="488"/>
+      <c r="I19" s="484"/>
+      <c r="J19" s="489"/>
+      <c r="K19" s="490"/>
+      <c r="L19" s="490"/>
+      <c r="M19" s="490"/>
+      <c r="N19" s="490"/>
+      <c r="O19" s="490"/>
+      <c r="P19" s="491"/>
+      <c r="Q19" s="492"/>
+      <c r="R19" s="493"/>
+      <c r="S19" s="493"/>
+      <c r="T19" s="493"/>
+      <c r="U19" s="493"/>
+      <c r="V19" s="493"/>
+      <c r="W19" s="493"/>
+      <c r="X19" s="493"/>
+      <c r="Y19" s="493"/>
+      <c r="Z19" s="493"/>
+      <c r="AA19" s="493"/>
+      <c r="AB19" s="493"/>
+      <c r="AC19" s="493"/>
+      <c r="AD19" s="493"/>
+      <c r="AE19" s="494"/>
+      <c r="AF19" s="489"/>
+      <c r="AG19" s="490"/>
+      <c r="AH19" s="490"/>
+      <c r="AI19" s="491"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="451"/>
-      <c r="C20" s="452"/>
-      <c r="D20" s="453"/>
-      <c r="E20" s="454"/>
-      <c r="F20" s="455"/>
-      <c r="G20" s="451"/>
-      <c r="H20" s="456"/>
-      <c r="I20" s="452"/>
-      <c r="J20" s="457"/>
-      <c r="K20" s="458"/>
-      <c r="L20" s="458"/>
-      <c r="M20" s="458"/>
-      <c r="N20" s="458"/>
-      <c r="O20" s="458"/>
-      <c r="P20" s="459"/>
-      <c r="Q20" s="460"/>
-      <c r="R20" s="461"/>
-      <c r="S20" s="461"/>
-      <c r="T20" s="461"/>
-      <c r="U20" s="461"/>
-      <c r="V20" s="461"/>
-      <c r="W20" s="461"/>
-      <c r="X20" s="461"/>
-      <c r="Y20" s="461"/>
-      <c r="Z20" s="461"/>
-      <c r="AA20" s="461"/>
-      <c r="AB20" s="461"/>
-      <c r="AC20" s="461"/>
-      <c r="AD20" s="461"/>
-      <c r="AE20" s="462"/>
-      <c r="AF20" s="457"/>
-      <c r="AG20" s="458"/>
-      <c r="AH20" s="458"/>
-      <c r="AI20" s="459"/>
+      <c r="B20" s="483"/>
+      <c r="C20" s="484"/>
+      <c r="D20" s="485"/>
+      <c r="E20" s="486"/>
+      <c r="F20" s="487"/>
+      <c r="G20" s="483"/>
+      <c r="H20" s="488"/>
+      <c r="I20" s="484"/>
+      <c r="J20" s="489"/>
+      <c r="K20" s="490"/>
+      <c r="L20" s="490"/>
+      <c r="M20" s="490"/>
+      <c r="N20" s="490"/>
+      <c r="O20" s="490"/>
+      <c r="P20" s="491"/>
+      <c r="Q20" s="492"/>
+      <c r="R20" s="493"/>
+      <c r="S20" s="493"/>
+      <c r="T20" s="493"/>
+      <c r="U20" s="493"/>
+      <c r="V20" s="493"/>
+      <c r="W20" s="493"/>
+      <c r="X20" s="493"/>
+      <c r="Y20" s="493"/>
+      <c r="Z20" s="493"/>
+      <c r="AA20" s="493"/>
+      <c r="AB20" s="493"/>
+      <c r="AC20" s="493"/>
+      <c r="AD20" s="493"/>
+      <c r="AE20" s="494"/>
+      <c r="AF20" s="489"/>
+      <c r="AG20" s="490"/>
+      <c r="AH20" s="490"/>
+      <c r="AI20" s="491"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="451"/>
-      <c r="C21" s="452"/>
-      <c r="D21" s="453"/>
-      <c r="E21" s="454"/>
-      <c r="F21" s="455"/>
-      <c r="G21" s="451"/>
-      <c r="H21" s="456"/>
-      <c r="I21" s="452"/>
-      <c r="J21" s="457"/>
-      <c r="K21" s="458"/>
-      <c r="L21" s="458"/>
-      <c r="M21" s="458"/>
-      <c r="N21" s="458"/>
-      <c r="O21" s="458"/>
-      <c r="P21" s="459"/>
-      <c r="Q21" s="460"/>
-      <c r="R21" s="461"/>
-      <c r="S21" s="461"/>
-      <c r="T21" s="461"/>
-      <c r="U21" s="461"/>
-      <c r="V21" s="461"/>
-      <c r="W21" s="461"/>
-      <c r="X21" s="461"/>
-      <c r="Y21" s="461"/>
-      <c r="Z21" s="461"/>
-      <c r="AA21" s="461"/>
-      <c r="AB21" s="461"/>
-      <c r="AC21" s="461"/>
-      <c r="AD21" s="461"/>
-      <c r="AE21" s="462"/>
-      <c r="AF21" s="457"/>
-      <c r="AG21" s="458"/>
-      <c r="AH21" s="458"/>
-      <c r="AI21" s="459"/>
+      <c r="B21" s="483"/>
+      <c r="C21" s="484"/>
+      <c r="D21" s="485"/>
+      <c r="E21" s="486"/>
+      <c r="F21" s="487"/>
+      <c r="G21" s="483"/>
+      <c r="H21" s="488"/>
+      <c r="I21" s="484"/>
+      <c r="J21" s="489"/>
+      <c r="K21" s="490"/>
+      <c r="L21" s="490"/>
+      <c r="M21" s="490"/>
+      <c r="N21" s="490"/>
+      <c r="O21" s="490"/>
+      <c r="P21" s="491"/>
+      <c r="Q21" s="492"/>
+      <c r="R21" s="493"/>
+      <c r="S21" s="493"/>
+      <c r="T21" s="493"/>
+      <c r="U21" s="493"/>
+      <c r="V21" s="493"/>
+      <c r="W21" s="493"/>
+      <c r="X21" s="493"/>
+      <c r="Y21" s="493"/>
+      <c r="Z21" s="493"/>
+      <c r="AA21" s="493"/>
+      <c r="AB21" s="493"/>
+      <c r="AC21" s="493"/>
+      <c r="AD21" s="493"/>
+      <c r="AE21" s="494"/>
+      <c r="AF21" s="489"/>
+      <c r="AG21" s="490"/>
+      <c r="AH21" s="490"/>
+      <c r="AI21" s="491"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="451"/>
-      <c r="C22" s="452"/>
-      <c r="D22" s="453"/>
-      <c r="E22" s="454"/>
-      <c r="F22" s="455"/>
-      <c r="G22" s="451"/>
-      <c r="H22" s="456"/>
-      <c r="I22" s="452"/>
-      <c r="J22" s="457"/>
-      <c r="K22" s="458"/>
-      <c r="L22" s="458"/>
-      <c r="M22" s="458"/>
-      <c r="N22" s="458"/>
-      <c r="O22" s="458"/>
-      <c r="P22" s="459"/>
-      <c r="Q22" s="460"/>
-      <c r="R22" s="461"/>
-      <c r="S22" s="461"/>
-      <c r="T22" s="461"/>
-      <c r="U22" s="461"/>
-      <c r="V22" s="461"/>
-      <c r="W22" s="461"/>
-      <c r="X22" s="461"/>
-      <c r="Y22" s="461"/>
-      <c r="Z22" s="461"/>
-      <c r="AA22" s="461"/>
-      <c r="AB22" s="461"/>
-      <c r="AC22" s="461"/>
-      <c r="AD22" s="461"/>
-      <c r="AE22" s="462"/>
-      <c r="AF22" s="457"/>
-      <c r="AG22" s="458"/>
-      <c r="AH22" s="458"/>
-      <c r="AI22" s="459"/>
+      <c r="B22" s="483"/>
+      <c r="C22" s="484"/>
+      <c r="D22" s="485"/>
+      <c r="E22" s="486"/>
+      <c r="F22" s="487"/>
+      <c r="G22" s="483"/>
+      <c r="H22" s="488"/>
+      <c r="I22" s="484"/>
+      <c r="J22" s="489"/>
+      <c r="K22" s="490"/>
+      <c r="L22" s="490"/>
+      <c r="M22" s="490"/>
+      <c r="N22" s="490"/>
+      <c r="O22" s="490"/>
+      <c r="P22" s="491"/>
+      <c r="Q22" s="492"/>
+      <c r="R22" s="493"/>
+      <c r="S22" s="493"/>
+      <c r="T22" s="493"/>
+      <c r="U22" s="493"/>
+      <c r="V22" s="493"/>
+      <c r="W22" s="493"/>
+      <c r="X22" s="493"/>
+      <c r="Y22" s="493"/>
+      <c r="Z22" s="493"/>
+      <c r="AA22" s="493"/>
+      <c r="AB22" s="493"/>
+      <c r="AC22" s="493"/>
+      <c r="AD22" s="493"/>
+      <c r="AE22" s="494"/>
+      <c r="AF22" s="489"/>
+      <c r="AG22" s="490"/>
+      <c r="AH22" s="490"/>
+      <c r="AI22" s="491"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="451"/>
-      <c r="C23" s="452"/>
-      <c r="D23" s="453"/>
-      <c r="E23" s="454"/>
-      <c r="F23" s="455"/>
-      <c r="G23" s="451"/>
-      <c r="H23" s="456"/>
-      <c r="I23" s="452"/>
-      <c r="J23" s="457"/>
-      <c r="K23" s="458"/>
-      <c r="L23" s="458"/>
-      <c r="M23" s="458"/>
-      <c r="N23" s="458"/>
-      <c r="O23" s="458"/>
-      <c r="P23" s="459"/>
-      <c r="Q23" s="460"/>
-      <c r="R23" s="461"/>
-      <c r="S23" s="461"/>
-      <c r="T23" s="461"/>
-      <c r="U23" s="461"/>
-      <c r="V23" s="461"/>
-      <c r="W23" s="461"/>
-      <c r="X23" s="461"/>
-      <c r="Y23" s="461"/>
-      <c r="Z23" s="461"/>
-      <c r="AA23" s="461"/>
-      <c r="AB23" s="461"/>
-      <c r="AC23" s="461"/>
-      <c r="AD23" s="461"/>
-      <c r="AE23" s="462"/>
-      <c r="AF23" s="457"/>
-      <c r="AG23" s="458"/>
-      <c r="AH23" s="458"/>
-      <c r="AI23" s="459"/>
+      <c r="B23" s="483"/>
+      <c r="C23" s="484"/>
+      <c r="D23" s="485"/>
+      <c r="E23" s="486"/>
+      <c r="F23" s="487"/>
+      <c r="G23" s="483"/>
+      <c r="H23" s="488"/>
+      <c r="I23" s="484"/>
+      <c r="J23" s="489"/>
+      <c r="K23" s="490"/>
+      <c r="L23" s="490"/>
+      <c r="M23" s="490"/>
+      <c r="N23" s="490"/>
+      <c r="O23" s="490"/>
+      <c r="P23" s="491"/>
+      <c r="Q23" s="492"/>
+      <c r="R23" s="493"/>
+      <c r="S23" s="493"/>
+      <c r="T23" s="493"/>
+      <c r="U23" s="493"/>
+      <c r="V23" s="493"/>
+      <c r="W23" s="493"/>
+      <c r="X23" s="493"/>
+      <c r="Y23" s="493"/>
+      <c r="Z23" s="493"/>
+      <c r="AA23" s="493"/>
+      <c r="AB23" s="493"/>
+      <c r="AC23" s="493"/>
+      <c r="AD23" s="493"/>
+      <c r="AE23" s="494"/>
+      <c r="AF23" s="489"/>
+      <c r="AG23" s="490"/>
+      <c r="AH23" s="490"/>
+      <c r="AI23" s="491"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="451"/>
-      <c r="C24" s="452"/>
-      <c r="D24" s="453"/>
-      <c r="E24" s="454"/>
-      <c r="F24" s="455"/>
-      <c r="G24" s="451"/>
-      <c r="H24" s="456"/>
-      <c r="I24" s="452"/>
-      <c r="J24" s="457"/>
-      <c r="K24" s="458"/>
-      <c r="L24" s="458"/>
-      <c r="M24" s="458"/>
-      <c r="N24" s="458"/>
-      <c r="O24" s="458"/>
-      <c r="P24" s="459"/>
-      <c r="Q24" s="460"/>
-      <c r="R24" s="461"/>
-      <c r="S24" s="461"/>
-      <c r="T24" s="461"/>
-      <c r="U24" s="461"/>
-      <c r="V24" s="461"/>
-      <c r="W24" s="461"/>
-      <c r="X24" s="461"/>
-      <c r="Y24" s="461"/>
-      <c r="Z24" s="461"/>
-      <c r="AA24" s="461"/>
-      <c r="AB24" s="461"/>
-      <c r="AC24" s="461"/>
-      <c r="AD24" s="461"/>
-      <c r="AE24" s="462"/>
-      <c r="AF24" s="457"/>
-      <c r="AG24" s="458"/>
-      <c r="AH24" s="458"/>
-      <c r="AI24" s="459"/>
+      <c r="B24" s="483"/>
+      <c r="C24" s="484"/>
+      <c r="D24" s="485"/>
+      <c r="E24" s="486"/>
+      <c r="F24" s="487"/>
+      <c r="G24" s="483"/>
+      <c r="H24" s="488"/>
+      <c r="I24" s="484"/>
+      <c r="J24" s="489"/>
+      <c r="K24" s="490"/>
+      <c r="L24" s="490"/>
+      <c r="M24" s="490"/>
+      <c r="N24" s="490"/>
+      <c r="O24" s="490"/>
+      <c r="P24" s="491"/>
+      <c r="Q24" s="492"/>
+      <c r="R24" s="493"/>
+      <c r="S24" s="493"/>
+      <c r="T24" s="493"/>
+      <c r="U24" s="493"/>
+      <c r="V24" s="493"/>
+      <c r="W24" s="493"/>
+      <c r="X24" s="493"/>
+      <c r="Y24" s="493"/>
+      <c r="Z24" s="493"/>
+      <c r="AA24" s="493"/>
+      <c r="AB24" s="493"/>
+      <c r="AC24" s="493"/>
+      <c r="AD24" s="493"/>
+      <c r="AE24" s="494"/>
+      <c r="AF24" s="489"/>
+      <c r="AG24" s="490"/>
+      <c r="AH24" s="490"/>
+      <c r="AI24" s="491"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="451"/>
-      <c r="C25" s="452"/>
-      <c r="D25" s="453"/>
-      <c r="E25" s="454"/>
-      <c r="F25" s="455"/>
-      <c r="G25" s="451"/>
-      <c r="H25" s="456"/>
-      <c r="I25" s="452"/>
-      <c r="J25" s="457"/>
-      <c r="K25" s="458"/>
-      <c r="L25" s="458"/>
-      <c r="M25" s="458"/>
-      <c r="N25" s="458"/>
-      <c r="O25" s="458"/>
-      <c r="P25" s="459"/>
-      <c r="Q25" s="460"/>
-      <c r="R25" s="461"/>
-      <c r="S25" s="461"/>
-      <c r="T25" s="461"/>
-      <c r="U25" s="461"/>
-      <c r="V25" s="461"/>
-      <c r="W25" s="461"/>
-      <c r="X25" s="461"/>
-      <c r="Y25" s="461"/>
-      <c r="Z25" s="461"/>
-      <c r="AA25" s="461"/>
-      <c r="AB25" s="461"/>
-      <c r="AC25" s="461"/>
-      <c r="AD25" s="461"/>
-      <c r="AE25" s="462"/>
-      <c r="AF25" s="457"/>
-      <c r="AG25" s="458"/>
-      <c r="AH25" s="458"/>
-      <c r="AI25" s="459"/>
+      <c r="B25" s="483"/>
+      <c r="C25" s="484"/>
+      <c r="D25" s="485"/>
+      <c r="E25" s="486"/>
+      <c r="F25" s="487"/>
+      <c r="G25" s="483"/>
+      <c r="H25" s="488"/>
+      <c r="I25" s="484"/>
+      <c r="J25" s="489"/>
+      <c r="K25" s="490"/>
+      <c r="L25" s="490"/>
+      <c r="M25" s="490"/>
+      <c r="N25" s="490"/>
+      <c r="O25" s="490"/>
+      <c r="P25" s="491"/>
+      <c r="Q25" s="492"/>
+      <c r="R25" s="493"/>
+      <c r="S25" s="493"/>
+      <c r="T25" s="493"/>
+      <c r="U25" s="493"/>
+      <c r="V25" s="493"/>
+      <c r="W25" s="493"/>
+      <c r="X25" s="493"/>
+      <c r="Y25" s="493"/>
+      <c r="Z25" s="493"/>
+      <c r="AA25" s="493"/>
+      <c r="AB25" s="493"/>
+      <c r="AC25" s="493"/>
+      <c r="AD25" s="493"/>
+      <c r="AE25" s="494"/>
+      <c r="AF25" s="489"/>
+      <c r="AG25" s="490"/>
+      <c r="AH25" s="490"/>
+      <c r="AI25" s="491"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="451"/>
-      <c r="C26" s="452"/>
-      <c r="D26" s="453"/>
-      <c r="E26" s="454"/>
-      <c r="F26" s="455"/>
-      <c r="G26" s="451"/>
-      <c r="H26" s="456"/>
-      <c r="I26" s="452"/>
-      <c r="J26" s="457"/>
-      <c r="K26" s="458"/>
-      <c r="L26" s="458"/>
-      <c r="M26" s="458"/>
-      <c r="N26" s="458"/>
-      <c r="O26" s="458"/>
-      <c r="P26" s="459"/>
-      <c r="Q26" s="460"/>
-      <c r="R26" s="461"/>
-      <c r="S26" s="461"/>
-      <c r="T26" s="461"/>
-      <c r="U26" s="461"/>
-      <c r="V26" s="461"/>
-      <c r="W26" s="461"/>
-      <c r="X26" s="461"/>
-      <c r="Y26" s="461"/>
-      <c r="Z26" s="461"/>
-      <c r="AA26" s="461"/>
-      <c r="AB26" s="461"/>
-      <c r="AC26" s="461"/>
-      <c r="AD26" s="461"/>
-      <c r="AE26" s="462"/>
-      <c r="AF26" s="457"/>
-      <c r="AG26" s="458"/>
-      <c r="AH26" s="458"/>
-      <c r="AI26" s="459"/>
+      <c r="B26" s="483"/>
+      <c r="C26" s="484"/>
+      <c r="D26" s="485"/>
+      <c r="E26" s="486"/>
+      <c r="F26" s="487"/>
+      <c r="G26" s="483"/>
+      <c r="H26" s="488"/>
+      <c r="I26" s="484"/>
+      <c r="J26" s="489"/>
+      <c r="K26" s="490"/>
+      <c r="L26" s="490"/>
+      <c r="M26" s="490"/>
+      <c r="N26" s="490"/>
+      <c r="O26" s="490"/>
+      <c r="P26" s="491"/>
+      <c r="Q26" s="492"/>
+      <c r="R26" s="493"/>
+      <c r="S26" s="493"/>
+      <c r="T26" s="493"/>
+      <c r="U26" s="493"/>
+      <c r="V26" s="493"/>
+      <c r="W26" s="493"/>
+      <c r="X26" s="493"/>
+      <c r="Y26" s="493"/>
+      <c r="Z26" s="493"/>
+      <c r="AA26" s="493"/>
+      <c r="AB26" s="493"/>
+      <c r="AC26" s="493"/>
+      <c r="AD26" s="493"/>
+      <c r="AE26" s="494"/>
+      <c r="AF26" s="489"/>
+      <c r="AG26" s="490"/>
+      <c r="AH26" s="490"/>
+      <c r="AI26" s="491"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="451"/>
-      <c r="C27" s="452"/>
-      <c r="D27" s="453"/>
-      <c r="E27" s="454"/>
-      <c r="F27" s="455"/>
-      <c r="G27" s="451"/>
-      <c r="H27" s="456"/>
-      <c r="I27" s="452"/>
-      <c r="J27" s="457"/>
-      <c r="K27" s="458"/>
-      <c r="L27" s="458"/>
-      <c r="M27" s="458"/>
-      <c r="N27" s="458"/>
-      <c r="O27" s="458"/>
-      <c r="P27" s="459"/>
-      <c r="Q27" s="460"/>
-      <c r="R27" s="461"/>
-      <c r="S27" s="461"/>
-      <c r="T27" s="461"/>
-      <c r="U27" s="461"/>
-      <c r="V27" s="461"/>
-      <c r="W27" s="461"/>
-      <c r="X27" s="461"/>
-      <c r="Y27" s="461"/>
-      <c r="Z27" s="461"/>
-      <c r="AA27" s="461"/>
-      <c r="AB27" s="461"/>
-      <c r="AC27" s="461"/>
-      <c r="AD27" s="461"/>
-      <c r="AE27" s="462"/>
-      <c r="AF27" s="457"/>
-      <c r="AG27" s="458"/>
-      <c r="AH27" s="458"/>
-      <c r="AI27" s="459"/>
+      <c r="B27" s="483"/>
+      <c r="C27" s="484"/>
+      <c r="D27" s="485"/>
+      <c r="E27" s="486"/>
+      <c r="F27" s="487"/>
+      <c r="G27" s="483"/>
+      <c r="H27" s="488"/>
+      <c r="I27" s="484"/>
+      <c r="J27" s="489"/>
+      <c r="K27" s="490"/>
+      <c r="L27" s="490"/>
+      <c r="M27" s="490"/>
+      <c r="N27" s="490"/>
+      <c r="O27" s="490"/>
+      <c r="P27" s="491"/>
+      <c r="Q27" s="492"/>
+      <c r="R27" s="493"/>
+      <c r="S27" s="493"/>
+      <c r="T27" s="493"/>
+      <c r="U27" s="493"/>
+      <c r="V27" s="493"/>
+      <c r="W27" s="493"/>
+      <c r="X27" s="493"/>
+      <c r="Y27" s="493"/>
+      <c r="Z27" s="493"/>
+      <c r="AA27" s="493"/>
+      <c r="AB27" s="493"/>
+      <c r="AC27" s="493"/>
+      <c r="AD27" s="493"/>
+      <c r="AE27" s="494"/>
+      <c r="AF27" s="489"/>
+      <c r="AG27" s="490"/>
+      <c r="AH27" s="490"/>
+      <c r="AI27" s="491"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="451"/>
-      <c r="C28" s="452"/>
-      <c r="D28" s="453"/>
-      <c r="E28" s="454"/>
-      <c r="F28" s="455"/>
-      <c r="G28" s="451"/>
-      <c r="H28" s="456"/>
-      <c r="I28" s="452"/>
-      <c r="J28" s="457"/>
-      <c r="K28" s="458"/>
-      <c r="L28" s="458"/>
-      <c r="M28" s="458"/>
-      <c r="N28" s="458"/>
-      <c r="O28" s="458"/>
-      <c r="P28" s="459"/>
-      <c r="Q28" s="460"/>
-      <c r="R28" s="461"/>
-      <c r="S28" s="461"/>
-      <c r="T28" s="461"/>
-      <c r="U28" s="461"/>
-      <c r="V28" s="461"/>
-      <c r="W28" s="461"/>
-      <c r="X28" s="461"/>
-      <c r="Y28" s="461"/>
-      <c r="Z28" s="461"/>
-      <c r="AA28" s="461"/>
-      <c r="AB28" s="461"/>
-      <c r="AC28" s="461"/>
-      <c r="AD28" s="461"/>
-      <c r="AE28" s="462"/>
-      <c r="AF28" s="457"/>
-      <c r="AG28" s="458"/>
-      <c r="AH28" s="458"/>
-      <c r="AI28" s="459"/>
+      <c r="B28" s="483"/>
+      <c r="C28" s="484"/>
+      <c r="D28" s="485"/>
+      <c r="E28" s="486"/>
+      <c r="F28" s="487"/>
+      <c r="G28" s="483"/>
+      <c r="H28" s="488"/>
+      <c r="I28" s="484"/>
+      <c r="J28" s="489"/>
+      <c r="K28" s="490"/>
+      <c r="L28" s="490"/>
+      <c r="M28" s="490"/>
+      <c r="N28" s="490"/>
+      <c r="O28" s="490"/>
+      <c r="P28" s="491"/>
+      <c r="Q28" s="492"/>
+      <c r="R28" s="493"/>
+      <c r="S28" s="493"/>
+      <c r="T28" s="493"/>
+      <c r="U28" s="493"/>
+      <c r="V28" s="493"/>
+      <c r="W28" s="493"/>
+      <c r="X28" s="493"/>
+      <c r="Y28" s="493"/>
+      <c r="Z28" s="493"/>
+      <c r="AA28" s="493"/>
+      <c r="AB28" s="493"/>
+      <c r="AC28" s="493"/>
+      <c r="AD28" s="493"/>
+      <c r="AE28" s="494"/>
+      <c r="AF28" s="489"/>
+      <c r="AG28" s="490"/>
+      <c r="AH28" s="490"/>
+      <c r="AI28" s="491"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="451"/>
-      <c r="C29" s="452"/>
-      <c r="D29" s="453"/>
-      <c r="E29" s="454"/>
-      <c r="F29" s="455"/>
-      <c r="G29" s="451"/>
-      <c r="H29" s="456"/>
-      <c r="I29" s="452"/>
-      <c r="J29" s="457"/>
-      <c r="K29" s="458"/>
-      <c r="L29" s="458"/>
-      <c r="M29" s="458"/>
-      <c r="N29" s="458"/>
-      <c r="O29" s="458"/>
-      <c r="P29" s="459"/>
-      <c r="Q29" s="460"/>
-      <c r="R29" s="461"/>
-      <c r="S29" s="461"/>
-      <c r="T29" s="461"/>
-      <c r="U29" s="461"/>
-      <c r="V29" s="461"/>
-      <c r="W29" s="461"/>
-      <c r="X29" s="461"/>
-      <c r="Y29" s="461"/>
-      <c r="Z29" s="461"/>
-      <c r="AA29" s="461"/>
-      <c r="AB29" s="461"/>
-      <c r="AC29" s="461"/>
-      <c r="AD29" s="461"/>
-      <c r="AE29" s="462"/>
-      <c r="AF29" s="457"/>
-      <c r="AG29" s="458"/>
-      <c r="AH29" s="458"/>
-      <c r="AI29" s="459"/>
+      <c r="B29" s="483"/>
+      <c r="C29" s="484"/>
+      <c r="D29" s="485"/>
+      <c r="E29" s="486"/>
+      <c r="F29" s="487"/>
+      <c r="G29" s="483"/>
+      <c r="H29" s="488"/>
+      <c r="I29" s="484"/>
+      <c r="J29" s="489"/>
+      <c r="K29" s="490"/>
+      <c r="L29" s="490"/>
+      <c r="M29" s="490"/>
+      <c r="N29" s="490"/>
+      <c r="O29" s="490"/>
+      <c r="P29" s="491"/>
+      <c r="Q29" s="492"/>
+      <c r="R29" s="493"/>
+      <c r="S29" s="493"/>
+      <c r="T29" s="493"/>
+      <c r="U29" s="493"/>
+      <c r="V29" s="493"/>
+      <c r="W29" s="493"/>
+      <c r="X29" s="493"/>
+      <c r="Y29" s="493"/>
+      <c r="Z29" s="493"/>
+      <c r="AA29" s="493"/>
+      <c r="AB29" s="493"/>
+      <c r="AC29" s="493"/>
+      <c r="AD29" s="493"/>
+      <c r="AE29" s="494"/>
+      <c r="AF29" s="489"/>
+      <c r="AG29" s="490"/>
+      <c r="AH29" s="490"/>
+      <c r="AI29" s="491"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="451"/>
-      <c r="C30" s="452"/>
-      <c r="D30" s="453"/>
-      <c r="E30" s="454"/>
-      <c r="F30" s="455"/>
-      <c r="G30" s="451"/>
-      <c r="H30" s="456"/>
-      <c r="I30" s="452"/>
-      <c r="J30" s="457"/>
-      <c r="K30" s="458"/>
-      <c r="L30" s="458"/>
-      <c r="M30" s="458"/>
-      <c r="N30" s="458"/>
-      <c r="O30" s="458"/>
-      <c r="P30" s="459"/>
-      <c r="Q30" s="460"/>
-      <c r="R30" s="461"/>
-      <c r="S30" s="461"/>
-      <c r="T30" s="461"/>
-      <c r="U30" s="461"/>
-      <c r="V30" s="461"/>
-      <c r="W30" s="461"/>
-      <c r="X30" s="461"/>
-      <c r="Y30" s="461"/>
-      <c r="Z30" s="461"/>
-      <c r="AA30" s="461"/>
-      <c r="AB30" s="461"/>
-      <c r="AC30" s="461"/>
-      <c r="AD30" s="461"/>
-      <c r="AE30" s="462"/>
-      <c r="AF30" s="457"/>
-      <c r="AG30" s="458"/>
-      <c r="AH30" s="458"/>
-      <c r="AI30" s="459"/>
+      <c r="B30" s="483"/>
+      <c r="C30" s="484"/>
+      <c r="D30" s="485"/>
+      <c r="E30" s="486"/>
+      <c r="F30" s="487"/>
+      <c r="G30" s="483"/>
+      <c r="H30" s="488"/>
+      <c r="I30" s="484"/>
+      <c r="J30" s="489"/>
+      <c r="K30" s="490"/>
+      <c r="L30" s="490"/>
+      <c r="M30" s="490"/>
+      <c r="N30" s="490"/>
+      <c r="O30" s="490"/>
+      <c r="P30" s="491"/>
+      <c r="Q30" s="492"/>
+      <c r="R30" s="493"/>
+      <c r="S30" s="493"/>
+      <c r="T30" s="493"/>
+      <c r="U30" s="493"/>
+      <c r="V30" s="493"/>
+      <c r="W30" s="493"/>
+      <c r="X30" s="493"/>
+      <c r="Y30" s="493"/>
+      <c r="Z30" s="493"/>
+      <c r="AA30" s="493"/>
+      <c r="AB30" s="493"/>
+      <c r="AC30" s="493"/>
+      <c r="AD30" s="493"/>
+      <c r="AE30" s="494"/>
+      <c r="AF30" s="489"/>
+      <c r="AG30" s="490"/>
+      <c r="AH30" s="490"/>
+      <c r="AI30" s="491"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="451"/>
-      <c r="C31" s="452"/>
-      <c r="D31" s="453"/>
-      <c r="E31" s="454"/>
-      <c r="F31" s="455"/>
-      <c r="G31" s="451"/>
-      <c r="H31" s="456"/>
-      <c r="I31" s="452"/>
-      <c r="J31" s="457"/>
-      <c r="K31" s="458"/>
-      <c r="L31" s="458"/>
-      <c r="M31" s="458"/>
-      <c r="N31" s="458"/>
-      <c r="O31" s="458"/>
-      <c r="P31" s="459"/>
-      <c r="Q31" s="460"/>
-      <c r="R31" s="461"/>
-      <c r="S31" s="461"/>
-      <c r="T31" s="461"/>
-      <c r="U31" s="461"/>
-      <c r="V31" s="461"/>
-      <c r="W31" s="461"/>
-      <c r="X31" s="461"/>
-      <c r="Y31" s="461"/>
-      <c r="Z31" s="461"/>
-      <c r="AA31" s="461"/>
-      <c r="AB31" s="461"/>
-      <c r="AC31" s="461"/>
-      <c r="AD31" s="461"/>
-      <c r="AE31" s="462"/>
-      <c r="AF31" s="457"/>
-      <c r="AG31" s="458"/>
-      <c r="AH31" s="458"/>
-      <c r="AI31" s="459"/>
+      <c r="B31" s="483"/>
+      <c r="C31" s="484"/>
+      <c r="D31" s="485"/>
+      <c r="E31" s="486"/>
+      <c r="F31" s="487"/>
+      <c r="G31" s="483"/>
+      <c r="H31" s="488"/>
+      <c r="I31" s="484"/>
+      <c r="J31" s="489"/>
+      <c r="K31" s="490"/>
+      <c r="L31" s="490"/>
+      <c r="M31" s="490"/>
+      <c r="N31" s="490"/>
+      <c r="O31" s="490"/>
+      <c r="P31" s="491"/>
+      <c r="Q31" s="492"/>
+      <c r="R31" s="493"/>
+      <c r="S31" s="493"/>
+      <c r="T31" s="493"/>
+      <c r="U31" s="493"/>
+      <c r="V31" s="493"/>
+      <c r="W31" s="493"/>
+      <c r="X31" s="493"/>
+      <c r="Y31" s="493"/>
+      <c r="Z31" s="493"/>
+      <c r="AA31" s="493"/>
+      <c r="AB31" s="493"/>
+      <c r="AC31" s="493"/>
+      <c r="AD31" s="493"/>
+      <c r="AE31" s="494"/>
+      <c r="AF31" s="489"/>
+      <c r="AG31" s="490"/>
+      <c r="AH31" s="490"/>
+      <c r="AI31" s="491"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="451"/>
-      <c r="C32" s="452"/>
-      <c r="D32" s="453"/>
-      <c r="E32" s="454"/>
-      <c r="F32" s="455"/>
-      <c r="G32" s="451"/>
-      <c r="H32" s="456"/>
-      <c r="I32" s="452"/>
-      <c r="J32" s="457"/>
-      <c r="K32" s="476"/>
-      <c r="L32" s="458"/>
-      <c r="M32" s="458"/>
-      <c r="N32" s="458"/>
-      <c r="O32" s="458"/>
-      <c r="P32" s="459"/>
-      <c r="Q32" s="460"/>
-      <c r="R32" s="461"/>
-      <c r="S32" s="461"/>
-      <c r="T32" s="461"/>
-      <c r="U32" s="461"/>
-      <c r="V32" s="461"/>
-      <c r="W32" s="461"/>
-      <c r="X32" s="461"/>
-      <c r="Y32" s="461"/>
-      <c r="Z32" s="461"/>
-      <c r="AA32" s="461"/>
-      <c r="AB32" s="461"/>
-      <c r="AC32" s="461"/>
-      <c r="AD32" s="461"/>
-      <c r="AE32" s="462"/>
-      <c r="AF32" s="457"/>
-      <c r="AG32" s="458"/>
-      <c r="AH32" s="458"/>
-      <c r="AI32" s="459"/>
+      <c r="B32" s="483"/>
+      <c r="C32" s="484"/>
+      <c r="D32" s="485"/>
+      <c r="E32" s="486"/>
+      <c r="F32" s="487"/>
+      <c r="G32" s="483"/>
+      <c r="H32" s="488"/>
+      <c r="I32" s="484"/>
+      <c r="J32" s="489"/>
+      <c r="K32" s="495"/>
+      <c r="L32" s="490"/>
+      <c r="M32" s="490"/>
+      <c r="N32" s="490"/>
+      <c r="O32" s="490"/>
+      <c r="P32" s="491"/>
+      <c r="Q32" s="492"/>
+      <c r="R32" s="493"/>
+      <c r="S32" s="493"/>
+      <c r="T32" s="493"/>
+      <c r="U32" s="493"/>
+      <c r="V32" s="493"/>
+      <c r="W32" s="493"/>
+      <c r="X32" s="493"/>
+      <c r="Y32" s="493"/>
+      <c r="Z32" s="493"/>
+      <c r="AA32" s="493"/>
+      <c r="AB32" s="493"/>
+      <c r="AC32" s="493"/>
+      <c r="AD32" s="493"/>
+      <c r="AE32" s="494"/>
+      <c r="AF32" s="489"/>
+      <c r="AG32" s="490"/>
+      <c r="AH32" s="490"/>
+      <c r="AI32" s="491"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="451"/>
-      <c r="C33" s="452"/>
-      <c r="D33" s="453"/>
-      <c r="E33" s="454"/>
-      <c r="F33" s="455"/>
-      <c r="G33" s="451"/>
-      <c r="H33" s="456"/>
-      <c r="I33" s="452"/>
-      <c r="J33" s="457"/>
-      <c r="K33" s="458"/>
-      <c r="L33" s="458"/>
-      <c r="M33" s="458"/>
-      <c r="N33" s="458"/>
-      <c r="O33" s="458"/>
-      <c r="P33" s="459"/>
-      <c r="Q33" s="460"/>
-      <c r="R33" s="461"/>
-      <c r="S33" s="461"/>
-      <c r="T33" s="461"/>
-      <c r="U33" s="461"/>
-      <c r="V33" s="461"/>
-      <c r="W33" s="461"/>
-      <c r="X33" s="461"/>
-      <c r="Y33" s="461"/>
-      <c r="Z33" s="461"/>
-      <c r="AA33" s="461"/>
-      <c r="AB33" s="461"/>
-      <c r="AC33" s="461"/>
-      <c r="AD33" s="461"/>
-      <c r="AE33" s="462"/>
-      <c r="AF33" s="457"/>
-      <c r="AG33" s="458"/>
-      <c r="AH33" s="458"/>
-      <c r="AI33" s="459"/>
+      <c r="B33" s="483"/>
+      <c r="C33" s="484"/>
+      <c r="D33" s="485"/>
+      <c r="E33" s="486"/>
+      <c r="F33" s="487"/>
+      <c r="G33" s="483"/>
+      <c r="H33" s="488"/>
+      <c r="I33" s="484"/>
+      <c r="J33" s="489"/>
+      <c r="K33" s="490"/>
+      <c r="L33" s="490"/>
+      <c r="M33" s="490"/>
+      <c r="N33" s="490"/>
+      <c r="O33" s="490"/>
+      <c r="P33" s="491"/>
+      <c r="Q33" s="492"/>
+      <c r="R33" s="493"/>
+      <c r="S33" s="493"/>
+      <c r="T33" s="493"/>
+      <c r="U33" s="493"/>
+      <c r="V33" s="493"/>
+      <c r="W33" s="493"/>
+      <c r="X33" s="493"/>
+      <c r="Y33" s="493"/>
+      <c r="Z33" s="493"/>
+      <c r="AA33" s="493"/>
+      <c r="AB33" s="493"/>
+      <c r="AC33" s="493"/>
+      <c r="AD33" s="493"/>
+      <c r="AE33" s="494"/>
+      <c r="AF33" s="489"/>
+      <c r="AG33" s="490"/>
+      <c r="AH33" s="490"/>
+      <c r="AI33" s="491"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -8391,6 +8226,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8432,7 +8423,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="140" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -8447,7 +8438,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I6" s="140" t="s">
         <v>67</v>
@@ -8461,7 +8452,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="140" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J7" s="140" t="s">
         <v>69</v>
@@ -8508,11 +8499,11 @@
       <c r="E10" s="407" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="536" t="s">
+      <c r="F10" s="470" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" s="471" t="s">
         <v>330</v>
-      </c>
-      <c r="G10" s="537" t="s">
-        <v>331</v>
       </c>
       <c r="H10" s="408" t="s">
         <v>70</v>
@@ -8527,7 +8518,7 @@
         <v>73</v>
       </c>
       <c r="L10" s="412" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M10" s="409" t="s">
         <v>74</v>
@@ -8622,7 +8613,7 @@
         <v>59</v>
       </c>
       <c r="D13" s="156" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E13" s="156" t="s">
         <v>60</v>
@@ -8633,7 +8624,7 @@
         <v>79</v>
       </c>
       <c r="I13" s="180" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J13" s="173" t="s">
         <v>85</v>
@@ -8654,7 +8645,7 @@
       <c r="C14" s="157"/>
       <c r="D14" s="158"/>
       <c r="E14" s="159" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="65"/>
@@ -8683,7 +8674,7 @@
       <c r="C15" s="157"/>
       <c r="D15" s="158"/>
       <c r="E15" s="159" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="65"/>
@@ -8691,7 +8682,7 @@
         <v>79</v>
       </c>
       <c r="I15" s="192" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J15" s="173" t="s">
         <v>85</v>
@@ -8712,7 +8703,7 @@
       <c r="C16" s="157"/>
       <c r="D16" s="158"/>
       <c r="E16" s="159" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="65"/>
@@ -8720,7 +8711,7 @@
         <v>79</v>
       </c>
       <c r="I16" s="192" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J16" s="173" t="s">
         <v>85</v>
@@ -8769,7 +8760,7 @@
       <c r="B18" s="150"/>
       <c r="C18" s="158"/>
       <c r="D18" s="151" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E18" s="162"/>
       <c r="F18" s="59"/>
@@ -8797,22 +8788,22 @@
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="479" t="s">
+      <c r="D19" s="413" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" s="414" t="s">
         <v>332</v>
       </c>
-      <c r="E19" s="480" t="s">
+      <c r="F19" s="415" t="s">
         <v>333</v>
       </c>
-      <c r="F19" s="481" t="s">
+      <c r="G19" s="416" t="s">
         <v>334</v>
       </c>
-      <c r="G19" s="482" t="s">
-        <v>335</v>
-      </c>
-      <c r="H19" s="483" t="s">
+      <c r="H19" s="417" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="484" t="s">
+      <c r="I19" s="418" t="s">
         <v>88</v>
       </c>
       <c r="J19" s="66"/>
@@ -8831,19 +8822,19 @@
       <c r="B20" s="30"/>
       <c r="C20" s="37"/>
       <c r="D20" s="203"/>
-      <c r="E20" s="485" t="s">
+      <c r="E20" s="419" t="s">
+        <v>335</v>
+      </c>
+      <c r="F20" s="420" t="s">
+        <v>333</v>
+      </c>
+      <c r="G20" s="421" t="s">
         <v>336</v>
       </c>
-      <c r="F20" s="486" t="s">
-        <v>334</v>
-      </c>
-      <c r="G20" s="487" t="s">
-        <v>337</v>
-      </c>
-      <c r="H20" s="488" t="s">
+      <c r="H20" s="422" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="489" t="s">
+      <c r="I20" s="423" t="s">
         <v>88</v>
       </c>
       <c r="J20" s="114"/>
@@ -8862,19 +8853,19 @@
       <c r="B21" s="30"/>
       <c r="C21" s="37"/>
       <c r="D21" s="203"/>
-      <c r="E21" s="490" t="s">
-        <v>338</v>
-      </c>
-      <c r="F21" s="491" t="s">
-        <v>334</v>
-      </c>
-      <c r="G21" s="492" t="s">
+      <c r="E21" s="424" t="s">
         <v>337</v>
       </c>
-      <c r="H21" s="493" t="s">
+      <c r="F21" s="425" t="s">
+        <v>333</v>
+      </c>
+      <c r="G21" s="426" t="s">
+        <v>336</v>
+      </c>
+      <c r="H21" s="427" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="494" t="s">
+      <c r="I21" s="428" t="s">
         <v>88</v>
       </c>
       <c r="J21" s="119"/>
@@ -8893,19 +8884,19 @@
       <c r="B22" s="30"/>
       <c r="C22" s="37"/>
       <c r="D22" s="203"/>
-      <c r="E22" s="495" t="s">
-        <v>339</v>
-      </c>
-      <c r="F22" s="496" t="s">
-        <v>334</v>
-      </c>
-      <c r="G22" s="497" t="s">
-        <v>337</v>
-      </c>
-      <c r="H22" s="498" t="s">
+      <c r="E22" s="429" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="430" t="s">
+        <v>333</v>
+      </c>
+      <c r="G22" s="431" t="s">
+        <v>336</v>
+      </c>
+      <c r="H22" s="432" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="499" t="s">
+      <c r="I22" s="433" t="s">
         <v>88</v>
       </c>
       <c r="J22" s="119"/>
@@ -8956,7 +8947,7 @@
       <c r="C24" s="161"/>
       <c r="D24" s="203"/>
       <c r="E24" s="202" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F24" s="67"/>
       <c r="G24" s="68"/>
@@ -9072,7 +9063,7 @@
       <c r="C28" s="158"/>
       <c r="D28" s="158"/>
       <c r="E28" s="204" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F28" s="74"/>
       <c r="G28" s="75"/>
@@ -9101,7 +9092,7 @@
       <c r="C29" s="158"/>
       <c r="D29" s="206"/>
       <c r="E29" s="206" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F29" s="76"/>
       <c r="G29" s="77"/>
@@ -9192,7 +9183,7 @@
       <c r="C32" s="157"/>
       <c r="D32" s="209"/>
       <c r="E32" s="208" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F32" s="76"/>
       <c r="G32" s="77"/>
@@ -9200,7 +9191,7 @@
         <v>176</v>
       </c>
       <c r="I32" s="260" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J32" s="260" t="s">
         <v>178</v>
@@ -9229,7 +9220,7 @@
         <v>176</v>
       </c>
       <c r="I33" s="260" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J33" s="260" t="s">
         <v>178</v>
@@ -9258,7 +9249,7 @@
         <v>176</v>
       </c>
       <c r="I34" s="260" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J34" s="260" t="s">
         <v>178</v>
@@ -9426,7 +9417,7 @@
         <v>123</v>
       </c>
       <c r="E40" s="208" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F40" s="76"/>
       <c r="G40" s="77"/>
@@ -9434,7 +9425,7 @@
         <v>176</v>
       </c>
       <c r="I40" s="260" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J40" s="260" t="s">
         <v>181</v>
@@ -9463,7 +9454,7 @@
         <v>176</v>
       </c>
       <c r="I41" s="260" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J41" s="260" t="s">
         <v>181</v>
@@ -9542,7 +9533,7 @@
       <c r="C44" s="157"/>
       <c r="D44" s="209"/>
       <c r="E44" s="213" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F44" s="76"/>
       <c r="G44" s="77"/>
@@ -9837,7 +9828,7 @@
         <v>148</v>
       </c>
       <c r="D54" s="227" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E54" s="228" t="s">
         <v>149</v>
@@ -9848,7 +9839,7 @@
         <v>186</v>
       </c>
       <c r="I54" s="226" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J54" s="319" t="s">
         <v>187</v>
@@ -9959,7 +9950,7 @@
         <v>186</v>
       </c>
       <c r="I57" s="318" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J57" s="322" t="s">
         <v>187</v>
@@ -10093,7 +10084,7 @@
         <v>186</v>
       </c>
       <c r="I61" s="327" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J61" s="328" t="s">
         <v>195</v>
@@ -10124,7 +10115,7 @@
         <v>186</v>
       </c>
       <c r="I62" s="330" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J62" s="331" t="s">
         <v>196</v>
@@ -10161,7 +10152,7 @@
         <v>186</v>
       </c>
       <c r="I63" s="330" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J63" s="331" t="s">
         <v>198</v>
@@ -10278,19 +10269,19 @@
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
       <c r="D67" s="158"/>
-      <c r="E67" s="499" t="s">
+      <c r="E67" s="433" t="s">
+        <v>339</v>
+      </c>
+      <c r="F67" s="434" t="s">
+        <v>333</v>
+      </c>
+      <c r="G67" s="435" t="s">
         <v>340</v>
       </c>
-      <c r="F67" s="500" t="s">
-        <v>334</v>
-      </c>
-      <c r="G67" s="501" t="s">
-        <v>341</v>
-      </c>
-      <c r="H67" s="502" t="s">
+      <c r="H67" s="436" t="s">
         <v>79</v>
       </c>
-      <c r="I67" s="503" t="s">
+      <c r="I67" s="437" t="s">
         <v>200</v>
       </c>
       <c r="J67" s="98"/>
@@ -10680,7 +10671,7 @@
         <v>232</v>
       </c>
       <c r="K80" s="235" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L80" s="166"/>
       <c r="M80" s="170" t="s">
@@ -10701,21 +10692,21 @@
       </c>
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
-      <c r="D81" s="504" t="s">
+      <c r="D81" s="438" t="s">
+        <v>341</v>
+      </c>
+      <c r="E81" s="439"/>
+      <c r="F81" s="434" t="s">
+        <v>333</v>
+      </c>
+      <c r="G81" s="435" t="s">
         <v>342</v>
       </c>
-      <c r="E81" s="505"/>
-      <c r="F81" s="500" t="s">
-        <v>334</v>
-      </c>
-      <c r="G81" s="501" t="s">
+      <c r="H81" s="436" t="s">
+        <v>79</v>
+      </c>
+      <c r="I81" s="440" t="s">
         <v>343</v>
-      </c>
-      <c r="H81" s="502" t="s">
-        <v>79</v>
-      </c>
-      <c r="I81" s="506" t="s">
-        <v>344</v>
       </c>
       <c r="J81" s="98"/>
       <c r="K81" s="98"/>
@@ -10950,20 +10941,20 @@
       </c>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
-      <c r="D88" s="507" t="s">
+      <c r="D88" s="441" t="s">
+        <v>344</v>
+      </c>
+      <c r="E88" s="442"/>
+      <c r="F88" s="434" t="s">
+        <v>333</v>
+      </c>
+      <c r="G88" s="435" t="s">
+        <v>352</v>
+      </c>
+      <c r="H88" s="443" t="s">
         <v>345</v>
       </c>
-      <c r="E88" s="508"/>
-      <c r="F88" s="500" t="s">
-        <v>334</v>
-      </c>
-      <c r="G88" s="501" t="s">
-        <v>353</v>
-      </c>
-      <c r="H88" s="509" t="s">
-        <v>346</v>
-      </c>
-      <c r="I88" s="509" t="s">
+      <c r="I88" s="443" t="s">
         <v>248</v>
       </c>
       <c r="J88" s="98"/>
@@ -10981,20 +10972,20 @@
       </c>
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
-      <c r="D89" s="510" t="s">
-        <v>347</v>
-      </c>
-      <c r="E89" s="511"/>
-      <c r="F89" s="512" t="s">
-        <v>334</v>
-      </c>
-      <c r="G89" s="513" t="s">
-        <v>337</v>
-      </c>
-      <c r="H89" s="514" t="s">
+      <c r="D89" s="444" t="s">
         <v>346</v>
       </c>
-      <c r="I89" s="514" t="s">
+      <c r="E89" s="445"/>
+      <c r="F89" s="446" t="s">
+        <v>333</v>
+      </c>
+      <c r="G89" s="447" t="s">
+        <v>336</v>
+      </c>
+      <c r="H89" s="448" t="s">
+        <v>345</v>
+      </c>
+      <c r="I89" s="448" t="s">
         <v>248</v>
       </c>
       <c r="J89" s="98"/>
@@ -11012,20 +11003,20 @@
       </c>
       <c r="B90" s="31"/>
       <c r="C90" s="31"/>
-      <c r="D90" s="515" t="s">
-        <v>348</v>
-      </c>
-      <c r="E90" s="516"/>
-      <c r="F90" s="517" t="s">
-        <v>334</v>
-      </c>
-      <c r="G90" s="518" t="s">
-        <v>337</v>
-      </c>
-      <c r="H90" s="519" t="s">
-        <v>346</v>
-      </c>
-      <c r="I90" s="519" t="s">
+      <c r="D90" s="449" t="s">
+        <v>347</v>
+      </c>
+      <c r="E90" s="450"/>
+      <c r="F90" s="451" t="s">
+        <v>333</v>
+      </c>
+      <c r="G90" s="452" t="s">
+        <v>336</v>
+      </c>
+      <c r="H90" s="453" t="s">
+        <v>345</v>
+      </c>
+      <c r="I90" s="453" t="s">
         <v>248</v>
       </c>
       <c r="J90" s="98"/>
@@ -11043,20 +11034,20 @@
       </c>
       <c r="B91" s="31"/>
       <c r="C91" s="31"/>
-      <c r="D91" s="520" t="s">
-        <v>349</v>
-      </c>
-      <c r="E91" s="521"/>
-      <c r="F91" s="522" t="s">
-        <v>334</v>
-      </c>
-      <c r="G91" s="523" t="s">
-        <v>337</v>
-      </c>
-      <c r="H91" s="524" t="s">
-        <v>346</v>
-      </c>
-      <c r="I91" s="524" t="s">
+      <c r="D91" s="454" t="s">
+        <v>348</v>
+      </c>
+      <c r="E91" s="455"/>
+      <c r="F91" s="456" t="s">
+        <v>333</v>
+      </c>
+      <c r="G91" s="457" t="s">
+        <v>336</v>
+      </c>
+      <c r="H91" s="458" t="s">
+        <v>345</v>
+      </c>
+      <c r="I91" s="458" t="s">
         <v>248</v>
       </c>
       <c r="J91" s="98"/>
@@ -11074,20 +11065,20 @@
       </c>
       <c r="B92" s="31"/>
       <c r="C92" s="31"/>
-      <c r="D92" s="525" t="s">
-        <v>350</v>
-      </c>
-      <c r="E92" s="526"/>
-      <c r="F92" s="527" t="s">
-        <v>334</v>
-      </c>
-      <c r="G92" s="528" t="s">
-        <v>337</v>
-      </c>
-      <c r="H92" s="529" t="s">
-        <v>346</v>
-      </c>
-      <c r="I92" s="529" t="s">
+      <c r="D92" s="459" t="s">
+        <v>349</v>
+      </c>
+      <c r="E92" s="460"/>
+      <c r="F92" s="461" t="s">
+        <v>333</v>
+      </c>
+      <c r="G92" s="462" t="s">
+        <v>336</v>
+      </c>
+      <c r="H92" s="463" t="s">
+        <v>345</v>
+      </c>
+      <c r="I92" s="463" t="s">
         <v>248</v>
       </c>
       <c r="J92" s="98"/>
@@ -11250,20 +11241,20 @@
       </c>
       <c r="B98" s="31"/>
       <c r="C98" s="31"/>
-      <c r="D98" s="530" t="s">
+      <c r="D98" s="464" t="s">
+        <v>350</v>
+      </c>
+      <c r="E98" s="465"/>
+      <c r="F98" s="466" t="s">
+        <v>333</v>
+      </c>
+      <c r="G98" s="467" t="s">
         <v>351</v>
       </c>
-      <c r="E98" s="531"/>
-      <c r="F98" s="532" t="s">
-        <v>334</v>
-      </c>
-      <c r="G98" s="533" t="s">
-        <v>352</v>
-      </c>
-      <c r="H98" s="534" t="s">
-        <v>346</v>
-      </c>
-      <c r="I98" s="534" t="s">
+      <c r="H98" s="468" t="s">
+        <v>345</v>
+      </c>
+      <c r="I98" s="468" t="s">
         <v>248</v>
       </c>
       <c r="J98" s="107"/>
@@ -11369,17 +11360,17 @@
       <c r="B102" s="31"/>
       <c r="C102" s="31"/>
       <c r="D102" s="361" t="s">
+        <v>353</v>
+      </c>
+      <c r="E102" s="362"/>
+      <c r="F102" s="466" t="s">
+        <v>333</v>
+      </c>
+      <c r="G102" s="467" t="s">
         <v>354</v>
       </c>
-      <c r="E102" s="362"/>
-      <c r="F102" s="532" t="s">
-        <v>334</v>
-      </c>
-      <c r="G102" s="533" t="s">
-        <v>355</v>
-      </c>
       <c r="H102" s="158" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I102" s="158" t="s">
         <v>248</v>
@@ -11400,19 +11391,19 @@
       <c r="B103" s="39"/>
       <c r="C103" s="39"/>
       <c r="D103" s="364" t="s">
+        <v>355</v>
+      </c>
+      <c r="E103" s="365"/>
+      <c r="F103" s="466" t="s">
+        <v>333</v>
+      </c>
+      <c r="G103" s="467" t="s">
         <v>356</v>
       </c>
-      <c r="E103" s="365"/>
-      <c r="F103" s="532" t="s">
-        <v>334</v>
-      </c>
-      <c r="G103" s="533" t="s">
-        <v>357</v>
-      </c>
-      <c r="H103" s="535" t="s">
-        <v>346</v>
-      </c>
-      <c r="I103" s="535" t="s">
+      <c r="H103" s="469" t="s">
+        <v>345</v>
+      </c>
+      <c r="I103" s="469" t="s">
         <v>88</v>
       </c>
       <c r="J103" s="108"/>
@@ -11642,7 +11633,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="140" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11657,7 +11648,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J6" s="140" t="s">
         <v>67</v>
@@ -11668,10 +11659,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="140" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J7" s="140" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K7" s="140" t="s">
         <v>69</v>
@@ -11715,11 +11706,11 @@
       <c r="E10" s="406" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="536" t="s">
+      <c r="F10" s="470" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" s="471" t="s">
         <v>330</v>
-      </c>
-      <c r="G10" s="537" t="s">
-        <v>331</v>
       </c>
       <c r="H10" s="406" t="s">
         <v>70</v>
@@ -11734,7 +11725,7 @@
         <v>73</v>
       </c>
       <c r="L10" s="409" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M10" s="409" t="s">
         <v>74</v>
@@ -11757,28 +11748,28 @@
         <v>53</v>
       </c>
       <c r="B11" s="340" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="340" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11" s="146" t="s">
         <v>315</v>
-      </c>
-      <c r="C11" s="340" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="146" t="s">
-        <v>316</v>
       </c>
       <c r="E11" s="378"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="340" t="s">
+        <v>281</v>
+      </c>
+      <c r="I11" s="340" t="s">
         <v>282</v>
       </c>
-      <c r="I11" s="340" t="s">
+      <c r="J11" s="388" t="s">
+        <v>325</v>
+      </c>
+      <c r="K11" s="388" t="s">
         <v>283</v>
-      </c>
-      <c r="J11" s="388" t="s">
-        <v>326</v>
-      </c>
-      <c r="K11" s="388" t="s">
-        <v>284</v>
       </c>
       <c r="L11" s="389"/>
       <c r="M11" s="390" t="s">
@@ -11800,19 +11791,19 @@
       <c r="B12" s="380"/>
       <c r="C12" s="380"/>
       <c r="D12" s="381" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E12" s="382"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="392" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I12" s="392" t="s">
+        <v>284</v>
+      </c>
+      <c r="J12" s="393" t="s">
         <v>285</v>
-      </c>
-      <c r="J12" s="393" t="s">
-        <v>286</v>
       </c>
       <c r="K12" s="393"/>
       <c r="L12" s="394"/>
@@ -11829,19 +11820,19 @@
       <c r="B13" s="380"/>
       <c r="C13" s="380"/>
       <c r="D13" s="381" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E13" s="382"/>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="392" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I13" s="392" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J13" s="393" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K13" s="393"/>
       <c r="L13" s="394"/>
@@ -11858,19 +11849,19 @@
       <c r="B14" s="380"/>
       <c r="C14" s="380"/>
       <c r="D14" s="381" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E14" s="382"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="H14" s="392" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I14" s="392" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J14" s="393" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K14" s="393"/>
       <c r="L14" s="394"/>
@@ -11887,21 +11878,21 @@
       <c r="B15" s="380"/>
       <c r="C15" s="380"/>
       <c r="D15" s="383" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E15" s="384" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
       <c r="H15" s="392" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I15" s="392" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J15" s="393" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K15" s="393"/>
       <c r="L15" s="394"/>
@@ -11913,24 +11904,24 @@
     </row>
     <row r="16" spans="1:17" s="163" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="379" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B16" s="380"/>
       <c r="C16" s="380"/>
       <c r="D16" s="380"/>
       <c r="E16" s="338" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="392" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I16" s="392" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J16" s="393" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K16" s="393"/>
       <c r="L16" s="394"/>
@@ -11942,24 +11933,24 @@
     </row>
     <row r="17" spans="1:17" s="163" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="379" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" s="380"/>
       <c r="C17" s="380"/>
       <c r="D17" s="380"/>
       <c r="E17" s="384" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="392" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I17" s="392" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J17" s="393" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K17" s="393"/>
       <c r="L17" s="394"/>
@@ -11971,7 +11962,7 @@
     </row>
     <row r="18" spans="1:17" s="163" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="379" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B18" s="380"/>
       <c r="C18" s="380"/>
@@ -11982,13 +11973,13 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="392" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I18" s="392" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J18" s="393" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K18" s="393"/>
       <c r="L18" s="394"/>
@@ -12005,21 +11996,21 @@
       <c r="B19" s="380"/>
       <c r="C19" s="380"/>
       <c r="D19" s="384" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="338" t="s">
         <v>278</v>
-      </c>
-      <c r="E19" s="338" t="s">
-        <v>279</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="392" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I19" s="392" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J19" s="393" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K19" s="393"/>
       <c r="L19" s="394"/>
@@ -12036,21 +12027,21 @@
       <c r="B20" s="380"/>
       <c r="C20" s="380"/>
       <c r="D20" s="151" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="338" t="s">
         <v>318</v>
-      </c>
-      <c r="E20" s="338" t="s">
-        <v>319</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="392" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I20" s="392" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J20" s="393" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K20" s="393"/>
       <c r="L20" s="394"/>
@@ -12066,23 +12057,23 @@
       </c>
       <c r="B21" s="387"/>
       <c r="C21" s="387"/>
-      <c r="D21" s="477" t="s">
-        <v>280</v>
-      </c>
-      <c r="E21" s="478"/>
+      <c r="D21" s="546" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="547"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="340" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I21" s="340" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J21" s="397" t="s">
+        <v>291</v>
+      </c>
+      <c r="K21" s="397" t="s">
         <v>292</v>
-      </c>
-      <c r="K21" s="397" t="s">
-        <v>293</v>
       </c>
       <c r="L21" s="398"/>
       <c r="M21" s="390" t="s">
@@ -12106,19 +12097,19 @@
         <v>59</v>
       </c>
       <c r="D22" s="381" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E22" s="382"/>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="392" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I22" s="392" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J22" s="393" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K22" s="393"/>
       <c r="L22" s="394"/>
@@ -12135,19 +12126,19 @@
       <c r="B23" s="385"/>
       <c r="C23" s="385"/>
       <c r="D23" s="381" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E23" s="382"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="392" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I23" s="392" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J23" s="393" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K23" s="393"/>
       <c r="L23" s="394"/>
@@ -12161,25 +12152,25 @@
       <c r="A24" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="506" t="s">
+      <c r="B24" s="440" t="s">
+        <v>357</v>
+      </c>
+      <c r="C24" s="472" t="s">
         <v>358</v>
       </c>
-      <c r="C24" s="538" t="s">
+      <c r="D24" s="473"/>
+      <c r="E24" s="474"/>
+      <c r="F24" s="475" t="s">
+        <v>333</v>
+      </c>
+      <c r="G24" s="476" t="s">
         <v>359</v>
       </c>
-      <c r="D24" s="539"/>
-      <c r="E24" s="540"/>
-      <c r="F24" s="541" t="s">
-        <v>334</v>
-      </c>
-      <c r="G24" s="542" t="s">
+      <c r="H24" s="338" t="s">
         <v>360</v>
       </c>
-      <c r="H24" s="338" t="s">
+      <c r="I24" s="338" t="s">
         <v>361</v>
-      </c>
-      <c r="I24" s="338" t="s">
-        <v>362</v>
       </c>
       <c r="J24" s="127"/>
       <c r="K24" s="127"/>
@@ -12194,22 +12185,22 @@
       <c r="A25" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="543"/>
-      <c r="C25" s="544" t="s">
+      <c r="B25" s="477"/>
+      <c r="C25" s="478" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" s="479"/>
+      <c r="E25" s="480"/>
+      <c r="F25" s="475" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" s="475" t="s">
         <v>363</v>
       </c>
-      <c r="D25" s="545"/>
-      <c r="E25" s="546"/>
-      <c r="F25" s="541" t="s">
-        <v>334</v>
-      </c>
-      <c r="G25" s="541" t="s">
-        <v>364</v>
-      </c>
-      <c r="H25" s="547" t="s">
+      <c r="H25" s="481" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="547" t="s">
+      <c r="I25" s="481" t="s">
         <v>16</v>
       </c>
       <c r="J25" s="132"/>
